--- a/参考/资料/1.18版本策划.xlsx
+++ b/参考/资料/1.18版本策划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hqyzsy\Desktop\micro_machinery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hqyzsy\IdeaProjects\micro_machinery\参考\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2365658-5D55-4B8C-A1D3-9100B5DF2648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E39F07D-78C6-4D73-8F46-509FC736D3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增方块" sheetId="1" r:id="rId1"/>
@@ -97,6 +97,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{84D93056-3D2D-4285-A961-B1736D90290C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>hqyzsy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+9个钨钢锭爆炸合成</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -107,7 +133,7 @@
     <author>hqyzsy</author>
   </authors>
   <commentList>
-    <comment ref="AO3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="AL3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -129,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="AL4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -151,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="AL5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -173,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="AL6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -327,7 +353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO12" authorId="0" shapeId="0" xr:uid="{8F0E504F-64A5-4073-8442-CE8D597CACC9}">
+    <comment ref="AL10" authorId="0" shapeId="0" xr:uid="{8F0E504F-64A5-4073-8442-CE8D597CACC9}">
       <text>
         <r>
           <rPr>
@@ -443,6 +469,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="AI18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>hqyzsy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用于制作便携式飞轮电池和放置在大型飞轮蓄电器内</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="K19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
       <text>
         <r>
@@ -465,7 +513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
+    <comment ref="W19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
       <text>
         <r>
           <rPr>
@@ -487,7 +535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR19" authorId="0" shapeId="0" xr:uid="{507608C0-C205-4EFE-B38B-5702599E6D18}">
+    <comment ref="AO19" authorId="0" shapeId="0" xr:uid="{507608C0-C205-4EFE-B38B-5702599E6D18}">
       <text>
         <r>
           <rPr>
@@ -535,7 +583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR20" authorId="0" shapeId="0" xr:uid="{9C68BC2E-4A92-4290-923F-45E16BE06625}">
+    <comment ref="AO20" authorId="0" shapeId="0" xr:uid="{9C68BC2E-4A92-4290-923F-45E16BE06625}">
       <text>
         <r>
           <rPr>
@@ -580,28 +628,6 @@
           </rPr>
           <t xml:space="preserve">
 5钨钢3钛1钴1下界残骸→8硬质合金</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>hqyzsy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-用于制作便携式飞轮电池和放置在大型飞轮蓄电器内</t>
         </r>
       </text>
     </comment>
@@ -667,7 +693,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="813">
   <si>
     <t>矿石</t>
   </si>
@@ -702,9 +728,6 @@
     <t>molten_tin_discarded</t>
   </si>
   <si>
-    <t>通用机械方块</t>
-  </si>
-  <si>
     <t>casing_1</t>
   </si>
   <si>
@@ -990,12 +1013,6 @@
     <t>interface_data</t>
   </si>
   <si>
-    <t>铜导线</t>
-  </si>
-  <si>
-    <t>copper_cable</t>
-  </si>
-  <si>
     <t>下界石墨矿</t>
   </si>
   <si>
@@ -1008,12 +1025,6 @@
     <t>interface_item</t>
   </si>
   <si>
-    <t>镍导线</t>
-  </si>
-  <si>
-    <t>nickel_cable</t>
-  </si>
-  <si>
     <t>下界铝土矿</t>
   </si>
   <si>
@@ -1038,12 +1049,6 @@
     <t>interface_fluid</t>
   </si>
   <si>
-    <t>铝导线</t>
-  </si>
-  <si>
-    <t>aluminum_cable</t>
-  </si>
-  <si>
     <t>下界钒铁矿</t>
   </si>
   <si>
@@ -1062,12 +1067,6 @@
     <t>molten_invar_discarded</t>
   </si>
   <si>
-    <t>钨导线</t>
-  </si>
-  <si>
-    <t>tungsten_cable</t>
-  </si>
-  <si>
     <t>不锈钢块</t>
   </si>
   <si>
@@ -1086,12 +1085,6 @@
     <t>module_dte</t>
   </si>
   <si>
-    <t>钴导线</t>
-  </si>
-  <si>
-    <t>cobalt_cable</t>
-  </si>
-  <si>
     <t>深层钛铁矿</t>
   </si>
   <si>
@@ -1176,12 +1169,6 @@
     <t>molten_copper_discarded</t>
   </si>
   <si>
-    <t>混凝土块</t>
-  </si>
-  <si>
-    <t>slag_concrete</t>
-  </si>
-  <si>
     <t>深层铝土矿</t>
   </si>
   <si>
@@ -1302,9 +1289,6 @@
     <t>线材</t>
   </si>
   <si>
-    <t>螺丝</t>
-  </si>
-  <si>
     <t>圆形铸件</t>
   </si>
   <si>
@@ -1365,9 +1349,6 @@
     <t>锡线</t>
   </si>
   <si>
-    <t>string_tin</t>
-  </si>
-  <si>
     <t>slag</t>
   </si>
   <si>
@@ -1413,12 +1394,6 @@
     <t>plate_silver</t>
   </si>
   <si>
-    <t>银线</t>
-  </si>
-  <si>
-    <t>string_silver</t>
-  </si>
-  <si>
     <t>银圆形铸件</t>
   </si>
   <si>
@@ -1485,12 +1460,6 @@
     <t>plate_nickel</t>
   </si>
   <si>
-    <t>镍线</t>
-  </si>
-  <si>
-    <t>string_nickel</t>
-  </si>
-  <si>
     <t>镍圆形铸件</t>
   </si>
   <si>
@@ -1563,9 +1532,6 @@
     <t>铝线</t>
   </si>
   <si>
-    <t>string_aluminum</t>
-  </si>
-  <si>
     <t>铝圆形铸件</t>
   </si>
   <si>
@@ -1827,12 +1793,6 @@
     <t>ingot_cobalt</t>
   </si>
   <si>
-    <t>钴线</t>
-  </si>
-  <si>
-    <t>string_cobalt</t>
-  </si>
-  <si>
     <t>金苹果酱面包</t>
   </si>
   <si>
@@ -1863,12 +1823,6 @@
     <t>stick_titanium</t>
   </si>
   <si>
-    <t>钛螺丝</t>
-  </si>
-  <si>
-    <t>screw_titanium</t>
-  </si>
-  <si>
     <t>钛圆形铸件</t>
   </si>
   <si>
@@ -1908,12 +1862,6 @@
     <t>ingot_tungsten</t>
   </si>
   <si>
-    <t>钨线</t>
-  </si>
-  <si>
-    <t>string_tungsten</t>
-  </si>
-  <si>
     <t>钢涡轮</t>
   </si>
   <si>
@@ -1974,12 +1922,6 @@
     <t>stick_bronze</t>
   </si>
   <si>
-    <t>青铜螺丝</t>
-  </si>
-  <si>
-    <t>screw_bronze</t>
-  </si>
-  <si>
     <t>青铜圆形铸件</t>
   </si>
   <si>
@@ -1998,9 +1940,6 @@
     <t>gear_blank_bronze</t>
   </si>
   <si>
-    <t>低压感应马达</t>
-  </si>
-  <si>
     <t>motor_1</t>
   </si>
   <si>
@@ -2040,12 +1979,6 @@
     <t>stick_invar</t>
   </si>
   <si>
-    <t>殷钢螺丝</t>
-  </si>
-  <si>
-    <t>screw_invar</t>
-  </si>
-  <si>
     <t>殷钢圆形铸件</t>
   </si>
   <si>
@@ -2070,9 +2003,6 @@
     <t>gear_blank_invar</t>
   </si>
   <si>
-    <t>中压感应马达</t>
-  </si>
-  <si>
     <t>motor_2</t>
   </si>
   <si>
@@ -2112,12 +2042,6 @@
     <t>stick_ss</t>
   </si>
   <si>
-    <t>不锈钢螺丝</t>
-  </si>
-  <si>
-    <t>screw_ss</t>
-  </si>
-  <si>
     <t>不锈钢圆形铸件</t>
   </si>
   <si>
@@ -2142,9 +2066,6 @@
     <t>gear_blank_ss</t>
   </si>
   <si>
-    <t>高压感应马达</t>
-  </si>
-  <si>
     <t>motor_3</t>
   </si>
   <si>
@@ -2190,12 +2111,6 @@
     <t>circle_casting_hss</t>
   </si>
   <si>
-    <t>脉冲马达</t>
-  </si>
-  <si>
-    <t>motor_4</t>
-  </si>
-  <si>
     <t>钨钢涡轮</t>
   </si>
   <si>
@@ -2205,9 +2120,6 @@
     <t>青铜剑</t>
   </si>
   <si>
-    <t>bronze_sword</t>
-  </si>
-  <si>
     <t>钨钢粉</t>
   </si>
   <si>
@@ -2250,12 +2162,6 @@
     <t>gear_blank_tungsten_steel</t>
   </si>
   <si>
-    <t>伺服马达</t>
-  </si>
-  <si>
-    <t>motor_5</t>
-  </si>
-  <si>
     <t>记忆合金剑</t>
   </si>
   <si>
@@ -2340,18 +2246,6 @@
     <t>dust_silicon</t>
   </si>
   <si>
-    <t>硅锭</t>
-  </si>
-  <si>
-    <t>ingot_silicon</t>
-  </si>
-  <si>
-    <t>硅板</t>
-  </si>
-  <si>
-    <t>plate_silicon</t>
-  </si>
-  <si>
     <t>飞轮</t>
   </si>
   <si>
@@ -2379,9 +2273,6 @@
     <t>plate_pe</t>
   </si>
   <si>
-    <t>钢制飞轮</t>
-  </si>
-  <si>
     <t>flying_wheel_1</t>
   </si>
   <si>
@@ -2427,12 +2318,6 @@
     <t>铜线</t>
   </si>
   <si>
-    <t>string_copper</t>
-  </si>
-  <si>
-    <t>超材料飞轮</t>
-  </si>
-  <si>
     <t>flying_wheel_3</t>
   </si>
   <si>
@@ -2463,15 +2348,6 @@
     <t>铁线</t>
   </si>
   <si>
-    <t>string_iron</t>
-  </si>
-  <si>
-    <t>铁螺丝</t>
-  </si>
-  <si>
-    <t>screw_iron</t>
-  </si>
-  <si>
     <t>铁圆形铸件</t>
   </si>
   <si>
@@ -2509,9 +2385,6 @@
   </si>
   <si>
     <t>金线</t>
-  </si>
-  <si>
-    <t>string_gold</t>
   </si>
   <si>
     <t>金圆形铸件</t>
@@ -2972,10 +2845,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>碳素飞轮</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>4000mb</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -3088,12 +2957,6 @@
   <si>
     <t>0-10</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>储能容量根据内部的飞轮数量和等级决定;每片钢飞轮64k，高速钢飞轮128k，超材料飞轮512k；
-能量输出功率上限根据容量上限决定：功率=容量*0.001；
-4个能源接口，1个数据接口</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>开</t>
@@ -3509,6 +3372,136 @@
   </si>
   <si>
     <t>蒸汽涡轮发电机</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>cable_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cable_2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cable_3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cable_4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础机械方块</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础导线</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶导线</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级导线</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>尖端导线</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础马达</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶马达</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级马达</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础飞轮</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶飞轮</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级飞轮</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bronze_sword</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wire_tin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wire_silver</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wire_aluminum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wire_copper</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wire_iron</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wire_gold</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wire_steel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wire_titanium</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>钛线</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢线</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>钨板</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>plate_tungsten</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stick_silver</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>银杆</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>银线</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>储能容量根据内部的飞轮数量和等级决定;每片基础飞轮64k，进阶飞轮128k，高级飞轮512k；
+能量输出功率上限根据容量上限决定：功率=容量*0.001；
+4个能源接口，1个数据接口</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -3741,7 +3734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3766,24 +3759,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3849,7 +3824,10 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3866,6 +3844,34 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4145,635 +4151,624 @@
   <dimension ref="B1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.58203125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="10.4140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="2.58203125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.4140625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="20.25" style="16" customWidth="1"/>
-    <col min="7" max="7" width="2.58203125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="16" customWidth="1"/>
-    <col min="9" max="9" width="28.08203125" style="16" customWidth="1"/>
-    <col min="10" max="10" width="2.58203125" style="16" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="16" customWidth="1"/>
-    <col min="12" max="12" width="23.1640625" style="16" customWidth="1"/>
-    <col min="13" max="13" width="2.58203125" style="16" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="16" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" style="16" customWidth="1"/>
-    <col min="16" max="16" width="2.58203125" style="16" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" style="16"/>
-    <col min="18" max="18" width="17.25" style="16" customWidth="1"/>
-    <col min="19" max="16384" width="8.6640625" style="16"/>
+    <col min="1" max="1" width="4.58203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="2.58203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="10.4140625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="10" customWidth="1"/>
+    <col min="7" max="7" width="2.58203125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.75" style="10" customWidth="1"/>
+    <col min="9" max="9" width="28.08203125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="2.58203125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="23.1640625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="2.58203125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" style="10" customWidth="1"/>
+    <col min="16" max="16" width="2.58203125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" style="10"/>
+    <col min="18" max="18" width="17.25" style="10" customWidth="1"/>
+    <col min="19" max="16384" width="8.6640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" s="15" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="2:15" s="9" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="31" t="s">
+        <v>785</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="N2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="O2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="17" t="s">
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="E3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="H3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="K3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="L3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="N3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="O3" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="E4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="I4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="K4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="L4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="N4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="O4" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="E5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="H5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="I5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="K5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="L5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="N5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="O5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="17" t="s">
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="E6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="F6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="H6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="I6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="L6" s="11"/>
+      <c r="N6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="N6" s="23" t="s">
+      <c r="O6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="17" t="s">
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
+      <c r="C7" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="K7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="L7" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="17" t="s">
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="E8" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="F8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="H8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="I8" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="K8" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="L8" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="N8" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="O8" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="O8" s="17" t="s">
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="E9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="F9" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="H9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="I9" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="K9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="L9" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="N9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="O9" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="O9" s="17" t="s">
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="10" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="E10" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="F10" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="H10" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="I10" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="K10" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="L10" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="N10" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="O10" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="O10" s="17" t="s">
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
+      <c r="C11" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="E11" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="F11" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="H11" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="I11" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="K11" s="16"/>
+      <c r="L11" s="11"/>
+      <c r="N11" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="17"/>
-      <c r="N11" s="23" t="s">
+      <c r="O11" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="O11" s="17" t="s">
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="E12" s="10" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E12" s="16" t="s">
+      <c r="F12" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="H12" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="I12" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="K12" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="K12" s="23" t="s">
+      <c r="L12" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="L12" s="17" t="s">
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="16" t="s">
+      <c r="C13" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="E13" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="H13" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="I13" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="K13" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="K13" s="23" t="s">
+      <c r="L13" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="N13" s="31" t="s">
+        <v>786</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="C14" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="O13" s="17" t="s">
+      <c r="K14" s="17" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="16" t="s">
+      <c r="L14" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="N14" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="K14" s="23" t="s">
+      <c r="C15" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="E15" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="N14" s="16" t="s">
+      <c r="F15" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="O14" s="17" t="s">
+      <c r="H15" s="10" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="16" t="s">
+      <c r="I15" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="K15" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="L15" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="N15" s="31" t="s">
+        <v>788</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="C16" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="E16" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="K15" s="23" t="s">
+      <c r="F16" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="H16" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="N15" s="16" t="s">
+      <c r="I16" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="O15" s="17" t="s">
+      <c r="N16" s="31" t="s">
+        <v>789</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="E17" s="10" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="23" t="s">
+      <c r="F17" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="H17" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="I17" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="K17" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="L17" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="O17" s="11"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="N16" s="16" t="s">
+      <c r="C18" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="O16" s="17" t="s">
+      <c r="E18" s="10" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E17" s="16" t="s">
+      <c r="F18" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="H18" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="I18" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="K18" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="K17" s="23" t="s">
+      <c r="L18" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="L17" s="17" t="s">
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="N17" s="16" t="s">
+      <c r="C19" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="O17" s="17" t="s">
+      <c r="E19" s="10" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="16" t="s">
+      <c r="F19" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="17" t="s">
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="C20" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="E20" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="F20" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="H20" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="K18" s="23" t="s">
+      <c r="I20" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="K20" s="13" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="16" t="s">
+      <c r="L20" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C19" s="17" t="s">
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="C21" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="K21" s="13" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="16" t="s">
+      <c r="L21" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C20" s="17" t="s">
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="C22" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="H22" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="I22" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="K22" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="C23" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="L20" s="17" t="s">
+      <c r="H23" s="10" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="16" t="s">
+      <c r="I23" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="L21" s="17" t="s">
+      <c r="K23" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H24" s="10" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="16" t="s">
+      <c r="I24" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="L22" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="L23" s="17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="H24" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="L24" s="17" t="s">
-        <v>180</v>
-      </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="K26" s="22"/>
-      <c r="L26" s="17"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -4792,326 +4787,326 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="17"/>
+    <col min="2" max="2" width="12.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="11"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="11">
+        <v>505</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1235</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1356</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1726</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="11">
+        <v>933</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1517</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="11">
+        <v>2130</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="11">
+        <v>2163</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1768</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1941</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="11">
+        <v>3683</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1170</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1723</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="17">
-        <v>505</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="C17" s="11">
+        <v>1570</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="17">
-        <v>1235</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+      <c r="C18" s="11">
+        <v>1893</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C19" s="11">
+        <v>1700</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D20" s="23"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="11">
         <v>1356</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="17">
-        <v>1726</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
+      <c r="D21" s="23" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="17">
-        <v>933</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
+      <c r="C22" s="11">
+        <v>1800</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C7" s="17">
-        <v>1517</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D8" s="29"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
+      <c r="C23" s="11">
+        <v>1337</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C9" s="17">
-        <v>2130</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
+      <c r="C25" s="11">
+        <v>293</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C10" s="17">
-        <v>2163</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="19" t="s">
+      <c r="C26" s="11">
+        <v>293</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="17">
-        <v>1768</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="19" t="s">
+      <c r="C27" s="11">
+        <v>293</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C12" s="17">
-        <v>1941</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="17">
-        <v>3683</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D14" s="29"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C15" s="17">
-        <v>1170</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C16" s="17">
-        <v>1723</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="17">
-        <v>1570</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C18" s="17">
-        <v>1893</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C19" s="17">
-        <v>1700</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D20" s="29"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="C21" s="17">
-        <v>1356</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="C22" s="17">
-        <v>1800</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="C23" s="17">
-        <v>1337</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C25" s="17">
+      <c r="C28" s="11">
         <v>293</v>
       </c>
-      <c r="D25" s="29" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="C26" s="17">
-        <v>293</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="C27" s="17">
-        <v>293</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="C28" s="17">
-        <v>293</v>
-      </c>
       <c r="D28" t="s">
-        <v>826</v>
+        <v>773</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="26" t="s">
-        <v>734</v>
-      </c>
-      <c r="C30" s="17">
+      <c r="B30" s="20" t="s">
+        <v>683</v>
+      </c>
+      <c r="C30" s="11">
         <v>270</v>
       </c>
-      <c r="D30" s="29" t="s">
-        <v>827</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>793</v>
-      </c>
-      <c r="F30" s="38"/>
+      <c r="D30" s="23" t="s">
+        <v>774</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>740</v>
+      </c>
+      <c r="F30" s="33"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="26" t="s">
-        <v>735</v>
-      </c>
-      <c r="C31" s="17">
+      <c r="B31" s="20" t="s">
+        <v>684</v>
+      </c>
+      <c r="C31" s="11">
         <v>400</v>
       </c>
-      <c r="D31" s="29" t="s">
-        <v>828</v>
-      </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
+      <c r="D31" s="23" t="s">
+        <v>775</v>
+      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="26" t="s">
-        <v>736</v>
-      </c>
-      <c r="C32" s="17">
+      <c r="B32" s="20" t="s">
+        <v>685</v>
+      </c>
+      <c r="C32" s="11">
         <v>550</v>
       </c>
-      <c r="D32" s="29" t="s">
-        <v>830</v>
-      </c>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
+      <c r="D32" s="23" t="s">
+        <v>777</v>
+      </c>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="26" t="s">
-        <v>737</v>
-      </c>
-      <c r="C33" s="17">
+      <c r="B33" s="20" t="s">
+        <v>686</v>
+      </c>
+      <c r="C33" s="11">
         <v>610</v>
       </c>
-      <c r="D33" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
+      <c r="D33" s="23" t="s">
+        <v>776</v>
+      </c>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5124,1405 +5119,1348 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:AS29"/>
+  <dimension ref="B1:AP28"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AO13" sqref="AO13"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AP2" sqref="AP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.58203125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="2.58203125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="16" customWidth="1"/>
-    <col min="6" max="6" width="26.08203125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="2.58203125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="19.25" style="17" customWidth="1"/>
-    <col min="10" max="10" width="2.58203125" style="16" customWidth="1"/>
-    <col min="11" max="11" width="10.4140625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="20.25" style="17" customWidth="1"/>
-    <col min="13" max="13" width="2.58203125" style="16" customWidth="1"/>
-    <col min="14" max="14" width="10.4140625" style="16" customWidth="1"/>
-    <col min="15" max="15" width="20.25" style="16" customWidth="1"/>
-    <col min="16" max="16" width="2.58203125" style="16" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" style="16"/>
-    <col min="18" max="18" width="20.25" style="16" customWidth="1"/>
-    <col min="19" max="19" width="2.58203125" style="16" customWidth="1"/>
-    <col min="20" max="20" width="6" style="16" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="16" customWidth="1"/>
-    <col min="22" max="22" width="2.58203125" style="16" customWidth="1"/>
-    <col min="23" max="23" width="10.4140625" style="16" customWidth="1"/>
-    <col min="24" max="24" width="14.33203125" style="16" customWidth="1"/>
-    <col min="25" max="25" width="2.58203125" style="16" customWidth="1"/>
-    <col min="26" max="26" width="14.33203125" style="16" customWidth="1"/>
-    <col min="27" max="27" width="29.08203125" style="17" customWidth="1"/>
-    <col min="28" max="28" width="2.58203125" style="16" customWidth="1"/>
-    <col min="29" max="29" width="8.5" style="16" customWidth="1"/>
-    <col min="30" max="30" width="10.4140625" style="16" customWidth="1"/>
-    <col min="31" max="31" width="2.58203125" style="16" customWidth="1"/>
-    <col min="32" max="32" width="8.5" style="16" customWidth="1"/>
-    <col min="33" max="33" width="19.25" style="16" customWidth="1"/>
-    <col min="34" max="34" width="2.58203125" style="16" customWidth="1"/>
-    <col min="35" max="35" width="12.33203125" style="16" customWidth="1"/>
-    <col min="36" max="36" width="25.1640625" style="17" customWidth="1"/>
-    <col min="37" max="37" width="2.58203125" style="16" customWidth="1"/>
-    <col min="38" max="38" width="12.33203125" style="16" customWidth="1"/>
-    <col min="39" max="39" width="21.1640625" style="17" customWidth="1"/>
-    <col min="40" max="40" width="2.58203125" style="16" customWidth="1"/>
-    <col min="41" max="41" width="12.33203125" style="16" customWidth="1"/>
-    <col min="42" max="42" width="23.1640625" style="17" customWidth="1"/>
-    <col min="43" max="43" width="2.58203125" style="16" customWidth="1"/>
-    <col min="44" max="44" width="14.33203125" style="16" customWidth="1"/>
-    <col min="45" max="45" width="20.25" style="17" customWidth="1"/>
-    <col min="46" max="46" width="2.58203125" style="16" customWidth="1"/>
-    <col min="47" max="16384" width="8.6640625" style="16"/>
+    <col min="1" max="1" width="4.58203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="2.58203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="10" customWidth="1"/>
+    <col min="6" max="6" width="26.08203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="2.58203125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="19.25" style="11" customWidth="1"/>
+    <col min="10" max="10" width="2.58203125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="10.4140625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="20.25" style="11" customWidth="1"/>
+    <col min="13" max="13" width="2.58203125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="10.4140625" style="10" customWidth="1"/>
+    <col min="15" max="15" width="20.25" style="11" customWidth="1"/>
+    <col min="16" max="16" width="2.58203125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" style="10"/>
+    <col min="18" max="18" width="20.25" style="10" customWidth="1"/>
+    <col min="19" max="19" width="2.58203125" style="10" customWidth="1"/>
+    <col min="20" max="20" width="6" style="10" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="11" customWidth="1"/>
+    <col min="22" max="22" width="2.58203125" style="10" customWidth="1"/>
+    <col min="23" max="23" width="14.33203125" style="10" customWidth="1"/>
+    <col min="24" max="24" width="29.08203125" style="11" customWidth="1"/>
+    <col min="25" max="25" width="2.58203125" style="10" customWidth="1"/>
+    <col min="26" max="26" width="8.5" style="10" customWidth="1"/>
+    <col min="27" max="27" width="10.4140625" style="10" customWidth="1"/>
+    <col min="28" max="28" width="2.58203125" style="10" customWidth="1"/>
+    <col min="29" max="29" width="8.5" style="10" customWidth="1"/>
+    <col min="30" max="30" width="19.25" style="10" customWidth="1"/>
+    <col min="31" max="31" width="2.58203125" style="10" customWidth="1"/>
+    <col min="32" max="32" width="12.33203125" style="10" customWidth="1"/>
+    <col min="33" max="33" width="25.1640625" style="11" customWidth="1"/>
+    <col min="34" max="34" width="2.58203125" style="10" customWidth="1"/>
+    <col min="35" max="35" width="12.33203125" style="10" customWidth="1"/>
+    <col min="36" max="36" width="21.1640625" style="11" customWidth="1"/>
+    <col min="37" max="37" width="2.58203125" style="10" customWidth="1"/>
+    <col min="38" max="38" width="12.33203125" style="10" customWidth="1"/>
+    <col min="39" max="39" width="23.1640625" style="11" customWidth="1"/>
+    <col min="40" max="40" width="2.58203125" style="10" customWidth="1"/>
+    <col min="41" max="41" width="14.33203125" style="10" customWidth="1"/>
+    <col min="42" max="42" width="20.25" style="11" customWidth="1"/>
+    <col min="43" max="43" width="2.58203125" style="10" customWidth="1"/>
+    <col min="44" max="16384" width="8.6640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" s="15" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="2:42" s="9" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="B1" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="K1" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="L1" s="12"/>
+      <c r="N1" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="O1" s="11"/>
+      <c r="Q1" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="U1" s="11"/>
+      <c r="W1" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="X1" s="12"/>
+      <c r="Z1" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG1" s="12"/>
+      <c r="AI1" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ1" s="12"/>
+      <c r="AL1" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AM1" s="12"/>
+      <c r="AO1" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="AP1" s="12"/>
+    </row>
+    <row r="2" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="C2" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="K1" s="15" t="s">
+      <c r="E2" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="N1" s="15" t="s">
+      <c r="F2" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="H2" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="I2" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="K2" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="L2" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="AA1" s="18"/>
-      <c r="AC1" s="15" t="s">
+      <c r="N2" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="O2" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="AI1" s="15" t="s">
+      <c r="Q2" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="AJ1" s="18"/>
-      <c r="AL1" s="15" t="s">
+      <c r="R2" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="AM1" s="18"/>
-      <c r="AO1" s="15" t="s">
+      <c r="T2" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="AP1" s="18"/>
-      <c r="AR1" s="15" t="s">
+      <c r="U2" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="AS1" s="18"/>
-    </row>
-    <row r="2" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="AL2" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="AM2" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="AO2" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="AP2" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="H2" s="16" t="s">
+    </row>
+    <row r="3" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="C3" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="E3" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="F3" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="H3" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="I3" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="K3" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="L3" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="N3" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="O3" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="AL2" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="AM2" s="17" t="s">
+      <c r="Q3" s="31" t="s">
+        <v>810</v>
+      </c>
+      <c r="R3" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="T3" s="31" t="s">
+        <v>811</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="W3" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="AO2" s="19" t="s">
+      <c r="X3" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="AP2" s="17" t="s">
+      <c r="AC3" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="AR2" s="19" t="s">
+      <c r="AD3" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="AS2" s="17" t="s">
+      <c r="AF3" s="13" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="3" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
+      <c r="AG3" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="AI3" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="AJ3" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="AL3" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="AM3" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="AO3" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="AP3" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="L3" s="17" t="s">
+    </row>
+    <row r="4" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="C4" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="E4" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="F4" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="H4" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="Z3" s="16" t="s">
+      <c r="I4" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="AA3" s="17" t="s">
+      <c r="K4" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="AF3" s="19" t="s">
+      <c r="L4" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="AG3" s="17" t="s">
+      <c r="N4" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="AI3" s="19" t="s">
+      <c r="O4" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="AJ3" s="17" t="s">
+      <c r="W4" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="AL3" s="16" t="s">
+      <c r="X4" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="AM3" s="17" t="s">
+      <c r="AC4" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="AO3" s="19" t="s">
+      <c r="AD4" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="AP3" s="17" t="s">
+      <c r="AF4" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="AR3" s="16" t="s">
+      <c r="AG4" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="AS3" s="17" t="s">
+      <c r="AI4" s="10" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="4" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+      <c r="AJ4" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="AL4" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="AM4" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="AO4" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="AP4" s="11" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="5" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="C5" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="E5" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="F5" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="H5" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="I5" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="K5" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="U4" s="17" t="s">
+      <c r="L5" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="Z4" s="16" t="s">
+      <c r="N5" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="AA4" s="17" t="s">
+      <c r="O5" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="AF4" s="19" t="s">
+      <c r="Q5" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="AG4" s="17" t="s">
+      <c r="R5" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="AI4" s="19" t="s">
+      <c r="T5" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="AJ4" s="17" t="s">
+      <c r="U5" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="W5" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="AL4" s="16" t="s">
+      <c r="X5" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="AM4" s="17" t="s">
+      <c r="AC5" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="AO4" s="19" t="s">
+      <c r="AD5" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="AP4" s="17" t="s">
+      <c r="AF5" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="AR4" s="16" t="s">
+      <c r="AG5" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="AS4" s="17" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="5" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="B5" s="16" t="s">
+      <c r="AI5" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="AJ5" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="AL5" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="AM5" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="AO5" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="AP5" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="K5" s="16" t="s">
+    </row>
+    <row r="6" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="C6" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="E6" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="F6" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="H6" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="R5" s="17" t="s">
+      <c r="I6" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="T5" s="16" t="s">
+      <c r="K6" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="U5" s="17" t="s">
+      <c r="L6" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="Z5" s="16" t="s">
+      <c r="AI6" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="AA5" s="17" t="s">
+      <c r="AJ6" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="AF5" s="19" t="s">
+      <c r="AL6" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="AG5" s="17" t="s">
+      <c r="AM6" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="AI5" s="19" t="s">
+    </row>
+    <row r="7" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="C7" s="11"/>
+      <c r="AI7" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="AJ5" s="17" t="s">
+      <c r="AJ7" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="AL5" s="16" t="s">
+      <c r="AL7" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="AM5" s="17" t="s">
+      <c r="AM7" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="AO5" s="22" t="s">
+      <c r="AO7" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="AP5" s="17" t="s">
+    </row>
+    <row r="8" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="AR5" s="16" t="s">
+      <c r="C8" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="AS5" s="17" t="s">
+      <c r="E8" s="10" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="6" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+      <c r="F8" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="H8" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="I8" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="K8" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="L8" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="N8" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="O8" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="Q8" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="AL6" s="16" t="s">
+      <c r="R8" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="AM6" s="17" t="s">
+      <c r="T8" s="31" t="s">
+        <v>806</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>803</v>
+      </c>
+      <c r="W8" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="AO6" s="22" t="s">
+      <c r="X8" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="AP6" s="17" t="s">
+      <c r="Z8" s="10" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="7" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="C7" s="17"/>
-      <c r="AL7" s="16" t="s">
+      <c r="AA8" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="AM7" s="17" t="s">
+      <c r="AC8" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="AO7" s="19" t="s">
+      <c r="AD8" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="AP7" s="17" t="s">
+      <c r="AF8" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="AR7" s="21" t="s">
+      <c r="AG8" s="11" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="8" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
+      <c r="AI8" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="AJ8" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="AL8" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="AM8" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="AO8" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="AP8" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="K8" s="16" t="s">
+    </row>
+    <row r="9" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="C9" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="E9" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="O8" s="17" t="s">
+      <c r="F9" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="Q8" s="16" t="s">
+      <c r="H9" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="R8" s="17" t="s">
+      <c r="I9" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="K9" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="Z8" s="16" t="s">
+      <c r="L9" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="AA8" s="17" t="s">
+      <c r="N9" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="AC8" s="16" t="s">
+      <c r="O9" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="AD8" s="17" t="s">
+      <c r="AI9" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="AF8" s="19" t="s">
+      <c r="AJ9" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="AG8" s="17" t="s">
+      <c r="AO9" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="AI8" s="19" t="s">
+      <c r="AP9" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AJ8" s="17" t="s">
+    </row>
+    <row r="10" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="B10" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="AL8" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="AM8" s="17" t="s">
+      <c r="E10" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="AO8" s="19" t="s">
+      <c r="F10" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="AP8" s="17" t="s">
+      <c r="H10" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="AR8" s="16" t="s">
+      <c r="I10" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="AS8" s="17" t="s">
+      <c r="L10" s="11" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="9" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+      <c r="AI10" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="AJ10" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="AL10" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="AO10" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="AP10" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="H9" s="16" t="s">
+    </row>
+    <row r="11" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>809</v>
-      </c>
-      <c r="K9" s="16" t="s">
+      <c r="C11" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="E11" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="F11" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="O9" s="17" t="s">
+      <c r="H11" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="AL9" s="16" t="s">
+      <c r="I11" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="AM9" s="17" t="s">
+      <c r="K11" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="AR9" s="16" t="s">
+      <c r="L11" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="AS9" s="17" t="s">
+      <c r="AD11" s="11"/>
+      <c r="AL11" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="AM11" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="AO11" s="10" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="10" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+      <c r="AP11" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="C10" s="17" t="s">
+    </row>
+    <row r="12" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="H12" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="I12" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="K12" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="L12" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="K10" s="16" t="s">
+      <c r="N12" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="O12" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="AL10" s="16" t="s">
+      <c r="Q12" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="AM10" s="17" t="s">
+      <c r="R12" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="AR10" s="16" t="s">
+      <c r="T12" s="31" t="s">
+        <v>805</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="W12" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="AS10" s="17" t="s">
+      <c r="X12" s="11" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="11" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
+      <c r="AC12" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="AD12" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="AF12" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="AG12" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="I11" s="17" t="s">
+      <c r="AI12" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="AJ12" s="14"/>
+      <c r="AL12" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="AM12" s="11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="13" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="E13" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="F13" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="H13" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="T11" s="16" t="s">
+      <c r="I13" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="U11" s="17" t="s">
+      <c r="K13" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="AG11" s="17"/>
-      <c r="AR11" s="16" t="s">
+      <c r="L13" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="AS11" s="17" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="12" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="H12" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="I12" s="17" t="s">
+      <c r="N13" s="21" t="s">
+        <v>807</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>808</v>
+      </c>
+      <c r="T13" s="21"/>
+      <c r="AI13" s="31" t="s">
+        <v>790</v>
+      </c>
+      <c r="AJ13" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="AL13" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="AM13" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="AO13" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="K12" s="16" t="s">
+    </row>
+    <row r="14" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="E14" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="F14" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="N12" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="O12" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q12" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="R12" s="17" t="s">
+      <c r="AI14" s="31" t="s">
+        <v>791</v>
+      </c>
+      <c r="AJ14" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="AL14" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="AM14" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="AO14" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="W12" s="16" t="s">
+      <c r="AP14" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="X12" s="17" t="s">
+    </row>
+    <row r="15" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="E15" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="Z12" s="16" t="s">
+      <c r="F15" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="AA12" s="17" t="s">
+      <c r="H15" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="AF12" s="19" t="s">
+      <c r="I15" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="AG12" s="17" t="s">
+      <c r="K15" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="AI12" s="19" t="s">
+      <c r="L15" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="AJ12" s="17" t="s">
+      <c r="N15" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="AO12" s="21" t="s">
+      <c r="O15" s="11" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="13" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="E13" s="16" t="s">
+      <c r="Q15" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="R15" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="W15" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="X15" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="K13" s="27" t="s">
+      <c r="AC15" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="AD15" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="T13" s="27" t="s">
+      <c r="AF15" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="U13" s="17" t="s">
+      <c r="AG15" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="AO13" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="AP13" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="AR13" s="21" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="14" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="E14" s="16" t="s">
+      <c r="AI15" s="31" t="s">
+        <v>792</v>
+      </c>
+      <c r="AJ15" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="AL15" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="AM15" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="AO15" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="AP15" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="AL14" s="20" t="s">
+    </row>
+    <row r="16" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="H16" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="AM14" s="20"/>
-      <c r="AO14" s="16" t="s">
+      <c r="I16" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="AP14" s="17" t="s">
+      <c r="K16" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="AR14" s="16" t="s">
+      <c r="L16" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="AS14" s="17" t="s">
+      <c r="N16" s="10" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="15" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="E15" s="16" t="s">
+      <c r="O16" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="Q16" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="R16" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="W16" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="X16" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="Z16" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="N15" s="16" t="s">
+      <c r="AA16" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="O15" s="17" t="s">
+      <c r="AC16" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="Q15" s="16" t="s">
+      <c r="AD16" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="R15" s="17" t="s">
+      <c r="AF16" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="W15" s="16" t="s">
+      <c r="AG16" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="X15" s="17" t="s">
-        <v>436</v>
-      </c>
-      <c r="Z15" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="AA15" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="AF15" s="19" t="s">
+      <c r="AL16" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="AM16" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="AO16" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="AG15" s="17" t="s">
+      <c r="AP16" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="AI15" s="19" t="s">
+    </row>
+    <row r="17" spans="5:42" x14ac:dyDescent="0.3">
+      <c r="H17" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="AJ15" s="17" t="s">
+      <c r="I17" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="AL15" s="16" t="s">
+      <c r="K17" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="AM15" s="17" t="s">
+      <c r="L17" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="AO15" s="16" t="s">
+      <c r="N17" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="AP15" s="17" t="s">
+      <c r="O17" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="AR15" s="16" t="s">
+      <c r="Q17" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="AS15" s="17" t="s">
+      <c r="R17" s="11" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="16" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="H16" s="16" t="s">
+      <c r="W17" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="X17" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="Z17" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="AA17" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="N16" s="16" t="s">
+      <c r="AC17" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="O16" s="17" t="s">
+      <c r="AD17" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="Q16" s="16" t="s">
+      <c r="AF17" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="R16" s="17" t="s">
+      <c r="AG17" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="W16" s="16" t="s">
-        <v>457</v>
-      </c>
-      <c r="X16" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="Z16" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="AA16" s="17" t="s">
+      <c r="AI17" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="AO17" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="AC16" s="16" t="s">
+      <c r="AP17" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="AD16" s="17" t="s">
+    </row>
+    <row r="18" spans="5:42" x14ac:dyDescent="0.3">
+      <c r="H18" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="AF16" s="19" t="s">
+      <c r="I18" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="AG16" s="17" t="s">
+      <c r="K18" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="AI16" s="19" t="s">
+      <c r="L18" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="AJ16" s="17" t="s">
+      <c r="N18" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="AL16" s="16" t="s">
+      <c r="O18" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="AM16" s="17" t="s">
+      <c r="Q18" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="AO16" s="16" t="s">
+      <c r="R18" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="AP16" s="17" t="s">
+      <c r="W18" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="AR16" s="16" t="s">
+      <c r="X18" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="AS16" s="17" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="17" spans="5:45" x14ac:dyDescent="0.3">
-      <c r="H17" s="16" t="s">
-        <v>473</v>
-      </c>
-      <c r="I17" s="17" t="s">
+      <c r="AA18" s="11"/>
+      <c r="AI18" s="32" t="s">
+        <v>793</v>
+      </c>
+      <c r="AJ18" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="AL18" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="AM18" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="AO18" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="AP18" s="11" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="19" spans="5:42" x14ac:dyDescent="0.3">
+      <c r="E19" s="34" t="s">
+        <v>691</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="H19" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="L17" s="17" t="s">
+      <c r="I19" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="N17" s="16" t="s">
+      <c r="K19" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="O17" s="17" t="s">
+      <c r="L19" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="Q17" s="16" t="s">
+      <c r="N19" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="R17" s="17" t="s">
+      <c r="O19" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="W17" s="16" t="s">
+      <c r="Q19" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="X17" s="17" t="s">
+      <c r="R19" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="Z17" s="16" t="s">
+      <c r="W19" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="AA17" s="17" t="s">
+      <c r="X19" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="AC17" s="16" t="s">
+      <c r="AA19" s="11"/>
+      <c r="AC19" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="AD17" s="17" t="s">
+      <c r="AD19" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="AF17" s="19" t="s">
+      <c r="AF19" s="22" t="s">
         <v>487</v>
       </c>
-      <c r="AG17" s="17" t="s">
+      <c r="AG19" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="AI17" s="19" t="s">
+      <c r="AI19" s="20" t="s">
+        <v>794</v>
+      </c>
+      <c r="AJ19" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="AL19" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="AM19" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="AO19" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="AJ17" s="17" t="s">
+      <c r="AP19" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="AL17" s="16" t="s">
+    </row>
+    <row r="20" spans="5:42" x14ac:dyDescent="0.3">
+      <c r="H20" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="AM17" s="17" t="s">
+      <c r="I20" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="AO17" s="16" t="s">
+      <c r="K20" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="AP17" s="17" t="s">
+      <c r="L20" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="AR17" s="16" t="s">
+      <c r="N20" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="AS17" s="17" t="s">
+      <c r="O20" s="11" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="18" spans="5:45" x14ac:dyDescent="0.3">
-      <c r="H18" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>498</v>
-      </c>
-      <c r="K18" s="16" t="s">
+      <c r="AI20" s="20" t="s">
+        <v>795</v>
+      </c>
+      <c r="AJ20" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="AL20" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="AM20" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="AO20" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="AP20" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="N18" s="16" t="s">
+    </row>
+    <row r="21" spans="5:42" x14ac:dyDescent="0.3">
+      <c r="H21" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="O18" s="17" t="s">
+      <c r="I21" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="Q18" s="16" t="s">
+      <c r="K21" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="R18" s="17" t="s">
+      <c r="L21" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="Z18" s="16" t="s">
+      <c r="N21" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="AA18" s="17" t="s">
+      <c r="O21" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="AD18" s="17"/>
-      <c r="AL18" s="16" t="s">
-        <v>507</v>
-      </c>
-      <c r="AM18" s="17" t="s">
-        <v>508</v>
-      </c>
-      <c r="AO18" s="27" t="s">
+      <c r="AL21" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="AM21" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="AO21" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="AP18" s="17" t="s">
+      <c r="AP21" s="11" t="s">
         <v>510</v>
       </c>
-      <c r="AR18" s="16" t="s">
-        <v>511</v>
-      </c>
-      <c r="AS18" s="17" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="19" spans="5:45" x14ac:dyDescent="0.3">
-      <c r="E19" s="39" t="s">
-        <v>742</v>
-      </c>
-      <c r="F19" s="39"/>
-      <c r="H19" s="16" t="s">
+    </row>
+    <row r="22" spans="5:42" x14ac:dyDescent="0.3">
+      <c r="AL22" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="AM22" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="AO22" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="AP22" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="K19" s="27" t="s">
+    </row>
+    <row r="23" spans="5:42" x14ac:dyDescent="0.3">
+      <c r="H23" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="I23" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="N19" s="27" t="s">
-        <v>517</v>
-      </c>
-      <c r="O19" s="17" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q19" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="R19" s="17" t="s">
+      <c r="AL23" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="AM23" s="11" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="24" spans="5:42" x14ac:dyDescent="0.3">
+      <c r="H24" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="Z19" s="27" t="s">
+      <c r="I24" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="AA19" s="17" t="s">
+      <c r="K24" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="AD19" s="17"/>
-      <c r="AF19" s="28" t="s">
+      <c r="L24" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="AG19" s="17" t="s">
+      <c r="N24" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="AI19" s="28" t="s">
+      <c r="O24" s="11" t="s">
         <v>525</v>
       </c>
-      <c r="AJ19" s="17" t="s">
-        <v>526</v>
-      </c>
-      <c r="AL19" s="16" t="s">
-        <v>527</v>
-      </c>
-      <c r="AM19" s="17" t="s">
-        <v>528</v>
-      </c>
-      <c r="AR19" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="AS19" s="17" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="20" spans="5:45" x14ac:dyDescent="0.3">
-      <c r="H20" s="16" t="s">
-        <v>531</v>
-      </c>
-      <c r="I20" s="17" t="s">
+    </row>
+    <row r="26" spans="5:42" x14ac:dyDescent="0.3">
+      <c r="H26" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="I26" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="L20" s="17" t="s">
+      <c r="K26" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="N20" s="16" t="s">
+      <c r="L26" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="O20" s="17" t="s">
+      <c r="N26" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="AO20" s="16" t="s">
+      <c r="O26" s="11" t="s">
         <v>537</v>
       </c>
-      <c r="AP20" s="17" t="s">
+      <c r="Q26" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="AR20" s="27" t="s">
+      <c r="R26" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="AS20" s="17" t="s">
+      <c r="T26" s="10" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="21" spans="5:45" x14ac:dyDescent="0.3">
-      <c r="H21" s="16" t="s">
-        <v>541</v>
-      </c>
-      <c r="I21" s="17" t="s">
+      <c r="U26" s="11" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="27" spans="5:42" x14ac:dyDescent="0.3">
+      <c r="H27" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="K21" s="27" t="s">
+      <c r="I27" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="L21" s="17" t="s">
+      <c r="K27" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="N21" s="27" t="s">
+      <c r="L27" s="11" t="s">
         <v>545</v>
       </c>
-      <c r="O21" s="17" t="s">
+      <c r="N27" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="AO21" s="16" t="s">
+      <c r="O27" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="AP21" s="17" t="s">
+      <c r="Q27" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="AR21" s="16" t="s">
+      <c r="R27" s="11" t="s">
         <v>549</v>
       </c>
-      <c r="AS21" s="17" t="s">
+      <c r="T27" s="10" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="22" spans="5:45" x14ac:dyDescent="0.3">
-      <c r="O22" s="17"/>
-      <c r="AO22" s="16" t="s">
+      <c r="U27" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="W27" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="AP22" s="17" t="s">
+      <c r="X27" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="AR22" s="16" t="s">
+      <c r="AA27" s="11"/>
+      <c r="AC27" s="13" t="s">
         <v>553</v>
       </c>
-      <c r="AS22" s="17" t="s">
+      <c r="AD27" s="11" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="23" spans="5:45" x14ac:dyDescent="0.3">
-      <c r="H23" s="16" t="s">
+      <c r="AF27" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="I23" s="17" t="s">
+      <c r="AG27" s="11" t="s">
         <v>556</v>
       </c>
-      <c r="K23" s="16" t="s">
+    </row>
+    <row r="28" spans="5:42" x14ac:dyDescent="0.3">
+      <c r="H28" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="L23" s="17" t="s">
+      <c r="I28" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="N23" s="16" t="s">
+      <c r="N28" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="O23" s="17" t="s">
+      <c r="O28" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="AL23" s="21" t="s">
+      <c r="Q28" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="AO23" s="16" t="s">
+      <c r="R28" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="AP23" s="17" t="s">
+      <c r="T28" s="10" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="24" spans="5:45" x14ac:dyDescent="0.3">
-      <c r="H24" s="16" t="s">
+      <c r="U28" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="W28" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="I24" s="17" t="s">
+      <c r="X28" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="AC28" s="13" t="s">
         <v>566</v>
       </c>
-      <c r="L24" s="17" t="s">
+      <c r="AD28" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="N24" s="16" t="s">
+      <c r="AF28" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="O24" s="17" t="s">
+      <c r="AG28" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="AL24" s="37" t="s">
-        <v>570</v>
-      </c>
-      <c r="AM24" s="17" t="s">
-        <v>571</v>
-      </c>
-      <c r="AO24" s="16" t="s">
-        <v>572</v>
-      </c>
-      <c r="AP24" s="17" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="25" spans="5:45" x14ac:dyDescent="0.3">
-      <c r="AL25" s="26" t="s">
-        <v>743</v>
-      </c>
-      <c r="AM25" s="17" t="s">
-        <v>574</v>
-      </c>
-      <c r="AO25" s="27" t="s">
-        <v>575</v>
-      </c>
-      <c r="AP25" s="17" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="26" spans="5:45" x14ac:dyDescent="0.3">
-      <c r="H26" s="16" t="s">
-        <v>577</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>578</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>579</v>
-      </c>
-      <c r="L26" s="17" t="s">
-        <v>580</v>
-      </c>
-      <c r="N26" s="16" t="s">
-        <v>581</v>
-      </c>
-      <c r="O26" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="Q26" s="16" t="s">
-        <v>583</v>
-      </c>
-      <c r="R26" s="17" t="s">
-        <v>584</v>
-      </c>
-      <c r="T26" s="16" t="s">
-        <v>585</v>
-      </c>
-      <c r="U26" s="17" t="s">
-        <v>586</v>
-      </c>
-      <c r="AL26" s="22" t="s">
-        <v>587</v>
-      </c>
-      <c r="AM26" s="17" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="27" spans="5:45" x14ac:dyDescent="0.3">
-      <c r="H27" s="16" t="s">
-        <v>589</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="K27" s="16" t="s">
-        <v>591</v>
-      </c>
-      <c r="L27" s="17" t="s">
-        <v>592</v>
-      </c>
-      <c r="N27" s="16" t="s">
-        <v>593</v>
-      </c>
-      <c r="O27" s="17" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q27" s="16" t="s">
-        <v>595</v>
-      </c>
-      <c r="R27" s="17" t="s">
-        <v>596</v>
-      </c>
-      <c r="T27" s="16" t="s">
-        <v>597</v>
-      </c>
-      <c r="U27" s="17" t="s">
-        <v>598</v>
-      </c>
-      <c r="W27" s="16" t="s">
-        <v>599</v>
-      </c>
-      <c r="X27" s="17" t="s">
-        <v>600</v>
-      </c>
-      <c r="Z27" s="16" t="s">
-        <v>601</v>
-      </c>
-      <c r="AA27" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="AD27" s="17"/>
-      <c r="AF27" s="19" t="s">
-        <v>603</v>
-      </c>
-      <c r="AG27" s="17" t="s">
-        <v>604</v>
-      </c>
-      <c r="AI27" s="19" t="s">
-        <v>605</v>
-      </c>
-      <c r="AJ27" s="17" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="28" spans="5:45" x14ac:dyDescent="0.3">
-      <c r="H28" s="16" t="s">
-        <v>607</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="N28" s="16" t="s">
-        <v>609</v>
-      </c>
-      <c r="O28" s="17" t="s">
-        <v>610</v>
-      </c>
-      <c r="Q28" s="16" t="s">
-        <v>611</v>
-      </c>
-      <c r="R28" s="17" t="s">
-        <v>612</v>
-      </c>
-      <c r="T28" s="16" t="s">
-        <v>613</v>
-      </c>
-      <c r="U28" s="17" t="s">
-        <v>614</v>
-      </c>
-      <c r="Z28" s="16" t="s">
-        <v>615</v>
-      </c>
-      <c r="AA28" s="17" t="s">
-        <v>616</v>
-      </c>
-      <c r="AF28" s="19" t="s">
-        <v>617</v>
-      </c>
-      <c r="AG28" s="17" t="s">
-        <v>618</v>
-      </c>
-      <c r="AI28" s="19" t="s">
-        <v>619</v>
-      </c>
-      <c r="AJ28" s="17" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="29" spans="5:45" x14ac:dyDescent="0.3">
-      <c r="O29" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6538,346 +6476,346 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="6"/>
-    <col min="2" max="2" width="9.75" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="9" customWidth="1"/>
-    <col min="4" max="4" width="6" style="6" customWidth="1"/>
-    <col min="5" max="5" width="45.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="19.83203125" customWidth="1"/>
-    <col min="8" max="9" width="6" style="6" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.6640625" style="6"/>
+    <col min="1" max="1" width="8.6640625" style="42"/>
+    <col min="2" max="2" width="9.75" style="42" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="41" customWidth="1"/>
+    <col min="4" max="4" width="6" style="42" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" style="42" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="42" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" style="46" customWidth="1"/>
+    <col min="8" max="9" width="6" style="42" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" style="42" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="1" customFormat="1" ht="35" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:11" s="38" customFormat="1" ht="35" x14ac:dyDescent="0.3">
+      <c r="B1" s="38" t="s">
+        <v>570</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="38" t="s">
+        <v>571</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>574</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>575</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>576</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" ht="28" x14ac:dyDescent="0.3">
+      <c r="B2" s="40" t="s">
+        <v>578</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>579</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>580</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>581</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>582</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>583</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>584</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="28" x14ac:dyDescent="0.3">
+      <c r="B3" s="40" t="s">
+        <v>586</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>580</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>581</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>582</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>583</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>584</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="28" x14ac:dyDescent="0.3">
+      <c r="B4" s="40" t="s">
+        <v>588</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>589</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>580</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>581</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>582</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>583</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>584</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="42" x14ac:dyDescent="0.3">
+      <c r="B6" s="40" t="s">
+        <v>590</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>591</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>592</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>593</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>594</v>
+      </c>
+      <c r="H6" s="42">
+        <v>16</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>584</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="42" t="s">
+        <v>595</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>596</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>580</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>597</v>
+      </c>
+      <c r="H7" s="42">
+        <v>16</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>585</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="42" t="s">
+        <v>598</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>599</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>580</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>600</v>
+      </c>
+      <c r="H8" s="42">
+        <v>128</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>585</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>585</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="42" t="s">
+        <v>602</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>603</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>580</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>604</v>
+      </c>
+      <c r="H9" s="42">
+        <v>64</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>585</v>
+      </c>
+      <c r="J9" s="42" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="42" t="s">
+        <v>605</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>606</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>580</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>607</v>
+      </c>
+      <c r="H10" s="42">
+        <v>512</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>585</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>583</v>
+      </c>
+      <c r="K10" s="47" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="84" x14ac:dyDescent="0.3">
+      <c r="B11" s="42" t="s">
+        <v>608</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>609</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>592</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>610</v>
+      </c>
+      <c r="H11" s="42">
+        <v>64</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>584</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>583</v>
+      </c>
+      <c r="K11" s="42" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="42" x14ac:dyDescent="0.3">
+      <c r="B13" s="42" t="s">
+        <v>611</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>612</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>592</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>613</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>614</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>615</v>
+      </c>
+      <c r="H13" s="42">
+        <v>64</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>584</v>
+      </c>
+      <c r="J13" s="42" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="28" x14ac:dyDescent="0.3">
+      <c r="B14" s="42" t="s">
+        <v>616</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>617</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>618</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>619</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>620</v>
+      </c>
+      <c r="G14" s="42" t="s">
         <v>621</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="1" t="s">
+      <c r="H14" s="42">
+        <v>128</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>585</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>585</v>
+      </c>
+      <c r="K14" s="42" t="s">
         <v>622</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="2" spans="2:11" ht="28" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
-        <v>629</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="28" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
-        <v>637</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="28" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
-        <v>639</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
-        <v>641</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>642</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>644</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="H6" s="6">
-        <v>16</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>647</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="H7" s="6">
-        <v>16</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="H8" s="6">
-        <v>128</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="H9" s="6">
-        <v>64</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="H10" s="6">
-        <v>512</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="K10" s="30" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="84" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>660</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="H11" s="6">
-        <v>64</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>663</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>666</v>
-      </c>
-      <c r="H12" s="6">
-        <v>64</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="28" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>668</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>669</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="H13" s="6">
-        <v>128</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>673</v>
-      </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="30"/>
-      <c r="I15" s="30"/>
+      <c r="B15" s="47"/>
+      <c r="I15" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -6890,9 +6828,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -6912,470 +6850,470 @@
   <sheetData>
     <row r="1" spans="2:12" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>621</v>
+        <v>570</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="1" t="s">
-        <v>622</v>
+        <v>571</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>623</v>
+        <v>572</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>624</v>
+        <v>573</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>625</v>
+        <v>574</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>626</v>
+        <v>575</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>627</v>
+        <v>576</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>628</v>
+        <v>577</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="56" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>674</v>
+        <v>623</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>675</v>
+        <v>624</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>740</v>
+        <v>625</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>689</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>677</v>
+        <v>626</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>678</v>
+        <v>627</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>733</v>
+        <v>583</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>682</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>636</v>
+        <v>585</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>679</v>
+        <v>628</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>680</v>
+        <v>629</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>681</v>
+        <v>630</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>676</v>
+        <v>625</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>682</v>
+        <v>631</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>634</v>
+        <v>583</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>636</v>
+        <v>585</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>634</v>
+        <v>583</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>683</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>684</v>
+        <v>633</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>685</v>
+        <v>634</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>745</v>
+        <v>635</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>693</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>634</v>
+        <v>583</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>687</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>688</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="56" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>689</v>
+        <v>638</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>798</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>768</v>
+        <v>639</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>745</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>812</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>636</v>
+        <v>585</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>634</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="56" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>691</v>
+        <v>640</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>692</v>
+        <v>641</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>729</v>
+        <v>642</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>678</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>694</v>
+        <v>643</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>695</v>
+        <v>644</v>
       </c>
       <c r="H7" s="2">
         <v>512</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>636</v>
+        <v>585</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>636</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="70" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>696</v>
+        <v>645</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>697</v>
+        <v>646</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>730</v>
+        <v>642</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>679</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>698</v>
+        <v>647</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>699</v>
+        <v>648</v>
       </c>
       <c r="H8" s="2">
         <v>256</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>636</v>
+        <v>585</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>744</v>
+        <v>583</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>700</v>
+        <v>649</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>701</v>
+        <v>650</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>725</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>748</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>747</v>
+        <v>651</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>696</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>695</v>
       </c>
       <c r="H9" s="2">
         <v>512</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>636</v>
+        <v>585</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>744</v>
+        <v>583</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>703</v>
+        <v>652</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>704</v>
+        <v>653</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>693</v>
+        <v>642</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>705</v>
+        <v>654</v>
       </c>
       <c r="H10" s="2">
         <v>256</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>636</v>
+        <v>585</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>726</v>
+        <v>583</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="140" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>706</v>
+        <v>655</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>707</v>
+        <v>656</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>727</v>
+        <v>642</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>676</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>747</v>
+        <v>657</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>695</v>
       </c>
       <c r="H11" s="2">
         <v>512</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>636</v>
+        <v>585</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="L11" s="24" t="s">
-        <v>744</v>
+        <v>585</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="98" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>709</v>
+        <v>658</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>710</v>
+        <v>659</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>746</v>
+        <v>651</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>694</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>711</v>
+        <v>660</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>712</v>
+        <v>661</v>
       </c>
       <c r="H12" s="2">
         <v>512</v>
       </c>
-      <c r="I12" s="24" t="s">
-        <v>731</v>
+      <c r="I12" s="18" t="s">
+        <v>680</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>636</v>
+        <v>585</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="70" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>713</v>
+        <v>662</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>714</v>
+        <v>663</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>732</v>
+        <v>642</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>681</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>715</v>
+        <v>664</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>716</v>
+        <v>665</v>
       </c>
       <c r="H13" s="2">
         <v>128</v>
       </c>
-      <c r="I13" s="24" t="s">
-        <v>731</v>
+      <c r="I13" s="18" t="s">
+        <v>680</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="L13" s="24" t="s">
-        <v>744</v>
+        <v>583</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="29" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>717</v>
+        <v>666</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>800</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>728</v>
+        <v>667</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>747</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>677</v>
       </c>
       <c r="H14" s="2">
         <v>512</v>
       </c>
-      <c r="I14" s="24" t="s">
-        <v>731</v>
+      <c r="I14" s="18" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>719</v>
+        <v>668</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>739</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>741</v>
+        <v>669</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>688</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>690</v>
       </c>
       <c r="H15" s="2">
         <v>512</v>
       </c>
-      <c r="I15" s="24" t="s">
-        <v>731</v>
+      <c r="I15" s="18" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="29" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>721</v>
+        <v>670</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>722</v>
+        <v>671</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>686</v>
+        <v>635</v>
       </c>
       <c r="H16" s="2">
         <v>2048</v>
       </c>
-      <c r="I16" s="24" t="s">
-        <v>731</v>
+      <c r="I16" s="18" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="140" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>723</v>
+        <v>672</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>795</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>738</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>731</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>750</v>
+        <v>748</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>742</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>687</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="126" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>724</v>
+        <v>673</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>831</v>
+        <v>778</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="24" t="s">
-        <v>796</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>738</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>731</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>751</v>
+      <c r="E19" s="18" t="s">
+        <v>743</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>687</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="196" x14ac:dyDescent="0.3">
-      <c r="B20" s="24" t="s">
-        <v>833</v>
+      <c r="B20" s="18" t="s">
+        <v>780</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>832</v>
+        <v>779</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="24" t="s">
-        <v>797</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>794</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>731</v>
-      </c>
-      <c r="L20" s="24" t="s">
-        <v>752</v>
+      <c r="E20" s="18" t="s">
+        <v>744</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>741</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
@@ -7399,119 +7337,119 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="32"/>
-    <col min="2" max="2" width="14.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="32"/>
-    <col min="4" max="4" width="15.5" style="32" customWidth="1"/>
-    <col min="5" max="5" width="22.75" style="32" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="32"/>
+    <col min="1" max="1" width="9" style="26"/>
+    <col min="2" max="2" width="14.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="26"/>
+    <col min="4" max="4" width="15.5" style="26" customWidth="1"/>
+    <col min="5" max="5" width="22.75" style="26" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="31" t="s">
-        <v>753</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>765</v>
+      <c r="B1" s="25" t="s">
+        <v>701</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
-        <v>754</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>766</v>
-      </c>
-      <c r="D2" s="32">
+      <c r="B2" s="25" t="s">
+        <v>702</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>714</v>
+      </c>
+      <c r="D2" s="26">
         <v>0.03</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="31" t="s">
-        <v>755</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>763</v>
-      </c>
-      <c r="D3" s="32">
+      <c r="B3" s="25" t="s">
+        <v>703</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="D3" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="31" t="s">
-        <v>764</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>763</v>
-      </c>
-      <c r="D4" s="32">
+      <c r="B4" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="D4" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="31" t="s">
-        <v>756</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>762</v>
-      </c>
-      <c r="D5" s="32">
+      <c r="B5" s="25" t="s">
+        <v>704</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>710</v>
+      </c>
+      <c r="D5" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="31" t="s">
-        <v>757</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>763</v>
-      </c>
-      <c r="D6" s="32">
+      <c r="B6" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="D6" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="31" t="s">
-        <v>758</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>767</v>
-      </c>
-      <c r="D7" s="32">
+      <c r="B7" s="25" t="s">
+        <v>706</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>715</v>
+      </c>
+      <c r="D7" s="26">
         <v>1</v>
       </c>
-      <c r="E7" s="31" t="s">
-        <v>772</v>
+      <c r="E7" s="25" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="31" t="s">
-        <v>759</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>763</v>
-      </c>
-      <c r="D8" s="32">
+      <c r="B8" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="D8" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="31" t="s">
-        <v>760</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>769</v>
+      <c r="B9" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="31" t="s">
-        <v>761</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>771</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>770</v>
+      <c r="B10" s="25" t="s">
+        <v>709</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>718</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>717</v>
       </c>
     </row>
   </sheetData>
@@ -7530,97 +7468,97 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="35"/>
-    <col min="2" max="2" width="8.6640625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" style="35" customWidth="1"/>
-    <col min="4" max="5" width="23.9140625" style="35" customWidth="1"/>
-    <col min="6" max="6" width="21.08203125" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="35"/>
+    <col min="1" max="1" width="9" style="29"/>
+    <col min="2" max="2" width="8.6640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" style="29" customWidth="1"/>
+    <col min="4" max="5" width="23.9140625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="21.08203125" style="29" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="56" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
-        <v>782</v>
+      <c r="A2" s="35" t="s">
+        <v>729</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>773</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>783</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>784</v>
+      <c r="C2" s="24" t="s">
+        <v>720</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>730</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>731</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>788</v>
+        <v>735</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>774</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>785</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>786</v>
+      <c r="C3" s="24" t="s">
+        <v>721</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>732</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="56" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>775</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>787</v>
-      </c>
-      <c r="F4" s="34"/>
+      <c r="C4" s="24" t="s">
+        <v>722</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>734</v>
+      </c>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>776</v>
-      </c>
-      <c r="E5" s="24"/>
+      <c r="C5" s="24" t="s">
+        <v>723</v>
+      </c>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="70" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>777</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>778</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>779</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>780</v>
+      <c r="C6" s="30" t="s">
+        <v>724</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>725</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>726</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>781</v>
+      <c r="C7" s="24" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7630,22 +7568,22 @@
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="98" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
-        <v>791</v>
+      <c r="A10" s="37" t="s">
+        <v>738</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="24" t="s">
-        <v>792</v>
+      <c r="C10" s="18" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="70" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>789</v>
+        <v>737</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>736</v>
       </c>
     </row>
   </sheetData>

--- a/参考/资料/1.18版本策划.xlsx
+++ b/参考/资料/1.18版本策划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hqyzsy\IdeaProjects\micro_machinery\参考\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E39F07D-78C6-4D73-8F46-509FC736D3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E10047C-35BA-49EA-B4E4-CC3EF203B760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -693,7 +693,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="817">
   <si>
     <t>矿石</t>
   </si>
@@ -1139,12 +1139,6 @@
     <t>molten_sma_discarded</t>
   </si>
   <si>
-    <t>粘土砖块</t>
-  </si>
-  <si>
-    <t>clay_brick_block</t>
-  </si>
-  <si>
     <t>深层钨矿</t>
   </si>
   <si>
@@ -1193,12 +1187,6 @@
     <t>molten_gold_discarded</t>
   </si>
   <si>
-    <t>石墨坩埚</t>
-  </si>
-  <si>
-    <t>graphite_crucible</t>
-  </si>
-  <si>
     <t>熔融锡</t>
   </si>
   <si>
@@ -1487,9 +1475,6 @@
     <t>芯片</t>
   </si>
   <si>
-    <t>i7_8700k</t>
-  </si>
-  <si>
     <t>便携式飞轮电池</t>
   </si>
   <si>
@@ -1556,9 +1541,6 @@
     <t>slag_titanium</t>
   </si>
   <si>
-    <t>基础零部件</t>
-  </si>
-  <si>
     <t>component_basic</t>
   </si>
   <si>
@@ -1686,9 +1668,6 @@
   </si>
   <si>
     <t>等离子发生器</t>
-  </si>
-  <si>
-    <t>plasma_generator</t>
   </si>
   <si>
     <t>苹果糖</t>
@@ -2463,18 +2442,6 @@
   </si>
   <si>
     <t>有</t>
-  </si>
-  <si>
-    <t>青铜砧</t>
-  </si>
-  <si>
-    <t>anvil_bronze</t>
-  </si>
-  <si>
-    <t>铸铁砧</t>
-  </si>
-  <si>
-    <t>anvil_pigiron</t>
   </si>
   <si>
     <t>车床</t>
@@ -2883,15 +2850,6 @@
   <si>
     <t>2000mb</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>水槽2000mb
-蒸汽槽16000mb</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸汽槽16000mb*2</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>蒸汽输入：24000mb
@@ -3504,12 +3462,92 @@
 4个能源接口，1个数据接口</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
+  <si>
+    <t>高速钢齿轮</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gear_hss</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速钢齿轮坯</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gear_blank_hss</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃料槽：2000mb
+水槽2000mb
+蒸汽槽16000mb</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃料槽：2000mb
+蒸汽槽16000mb*2</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果同时有固体燃料和液体燃料，优先使用液体燃料</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤炭：0.3
+木炭：0.25
+碳粉：0.35
+乙烯：0.46
+氢气：1.4
+柴油：0.46
+汽油：0.43
+原油：0.45
+重油：0.4
+生物柴油：0.16</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级砧配方包含低级砧</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>micro_chip</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础零部件</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>plasma</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜砧</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢砧</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>anvil_steel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>anvil_copper</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>本体、夹盘、工件、刀具</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3707,6 +3745,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3734,7 +3779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3830,6 +3875,24 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3845,32 +3908,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4151,7 +4189,7 @@
   <dimension ref="B1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="L19" sqref="K19:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4214,7 +4252,7 @@
         <v>10</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>11</v>
@@ -4533,10 +4571,10 @@
         <v>105</v>
       </c>
       <c r="N13" s="31" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
@@ -4553,10 +4591,10 @@
         <v>109</v>
       </c>
       <c r="N14" s="31" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
@@ -4585,10 +4623,10 @@
         <v>117</v>
       </c>
       <c r="N15" s="31" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
@@ -4611,10 +4649,10 @@
         <v>123</v>
       </c>
       <c r="N16" s="31" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
@@ -4698,72 +4736,62 @@
         <v>147</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="I22" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>163</v>
-      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="11"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="I23" s="11" t="s">
         <v>159</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="H24" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
@@ -4794,68 +4822,68 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C2" s="11">
         <v>505</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C3" s="11">
         <v>1235</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C4" s="11">
         <v>1356</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C5" s="11">
         <v>1726</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C6" s="11">
         <v>933</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C7" s="11">
         <v>1517</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -4863,57 +4891,57 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C9" s="11">
         <v>2130</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C10" s="11">
         <v>2163</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C11" s="11">
         <v>1768</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C12" s="11">
         <v>1941</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C13" s="11">
         <v>3683</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -4921,57 +4949,57 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C15" s="11">
         <v>1170</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C16" s="11">
         <v>1723</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C17" s="11">
         <v>1570</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C18" s="11">
         <v>1893</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C19" s="11">
         <v>1700</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
@@ -4979,134 +5007,134 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C21" s="11">
         <v>1356</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C22" s="11">
         <v>1800</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C23" s="11">
         <v>1337</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C25" s="11">
         <v>293</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C26" s="11">
         <v>293</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C27" s="11">
         <v>293</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C28" s="11">
         <v>293</v>
       </c>
       <c r="D28" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="20" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="C30" s="11">
         <v>270</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>774</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>740</v>
-      </c>
-      <c r="F30" s="33"/>
+        <v>761</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>727</v>
+      </c>
+      <c r="F30" s="39"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="20" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="C31" s="11">
         <v>400</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>775</v>
-      </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
+        <v>762</v>
+      </c>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="20" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="C32" s="11">
         <v>550</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>777</v>
-      </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
+        <v>764</v>
+      </c>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="20" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="C33" s="11">
         <v>610</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>776</v>
-      </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
+        <v>763</v>
+      </c>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5121,8 +5149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AP28"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AP2" sqref="AP2"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AM18" sqref="AM18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5155,8 +5183,8 @@
     <col min="26" max="26" width="8.5" style="10" customWidth="1"/>
     <col min="27" max="27" width="10.4140625" style="10" customWidth="1"/>
     <col min="28" max="28" width="2.58203125" style="10" customWidth="1"/>
-    <col min="29" max="29" width="8.5" style="10" customWidth="1"/>
-    <col min="30" max="30" width="19.25" style="10" customWidth="1"/>
+    <col min="29" max="29" width="10.4140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.25" style="11" customWidth="1"/>
     <col min="31" max="31" width="2.58203125" style="10" customWidth="1"/>
     <col min="32" max="32" width="12.33203125" style="10" customWidth="1"/>
     <col min="33" max="33" width="25.1640625" style="11" customWidth="1"/>
@@ -5175,1291 +5203,1303 @@
   <sheetData>
     <row r="1" spans="2:42" s="9" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
       <c r="B1" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I1" s="12"/>
       <c r="K1" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L1" s="12"/>
       <c r="N1" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="O1" s="11"/>
       <c r="Q1" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="U1" s="11"/>
       <c r="W1" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X1" s="12"/>
       <c r="Z1" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AC1" s="9" t="s">
-        <v>200</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="AD1" s="11"/>
       <c r="AF1" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AG1" s="12"/>
       <c r="AI1" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AJ1" s="12"/>
       <c r="AL1" s="9" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AM1" s="12"/>
       <c r="AO1" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AP1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="AL2" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="AM2" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="AO2" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="U2" s="11" t="s">
-        <v>797</v>
-      </c>
-      <c r="AI2" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ2" s="11" t="s">
+      <c r="AP2" s="11" t="s">
         <v>218</v>
-      </c>
-      <c r="AL2" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="AM2" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="AO2" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="AP2" s="11" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="3" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="Q3" s="31" t="s">
+        <v>797</v>
+      </c>
+      <c r="R3" s="31" t="s">
+        <v>796</v>
+      </c>
+      <c r="T3" s="31" t="s">
+        <v>798</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="W3" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="X3" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="AC3" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="AD3" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="Q3" s="31" t="s">
-        <v>810</v>
-      </c>
-      <c r="R3" s="31" t="s">
-        <v>809</v>
-      </c>
-      <c r="T3" s="31" t="s">
-        <v>811</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>798</v>
-      </c>
-      <c r="W3" s="10" t="s">
+      <c r="AF3" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="AG3" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="AC3" s="13" t="s">
+      <c r="AI3" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="AD3" s="11" t="s">
+      <c r="AJ3" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="AF3" s="13" t="s">
+      <c r="AL3" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="AG3" s="11" t="s">
+      <c r="AM3" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="AI3" s="10" t="s">
+      <c r="AO3" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="AJ3" s="11" t="s">
+      <c r="AP3" s="11" t="s">
         <v>240</v>
-      </c>
-      <c r="AL3" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="AM3" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="AO3" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="AP3" s="11" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="4" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="O4" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="W4" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="X4" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="AC4" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="AD4" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="AF4" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="AG4" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="AC4" s="13" t="s">
+      <c r="AI4" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="AD4" s="11" t="s">
+      <c r="AJ4" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="AF4" s="13" t="s">
+      <c r="AL4" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="AG4" s="11" t="s">
+      <c r="AM4" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="AO4" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="AI4" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="AJ4" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="AL4" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="AM4" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="AO4" s="10" t="s">
-        <v>265</v>
-      </c>
       <c r="AP4" s="11" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
     </row>
     <row r="5" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="K5" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="L5" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="N5" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="O5" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="Q5" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="R5" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="T5" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="U5" s="11" t="s">
+        <v>786</v>
+      </c>
+      <c r="W5" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="X5" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="AC5" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="AD5" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="AF5" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="U5" s="11" t="s">
-        <v>799</v>
-      </c>
-      <c r="W5" s="10" t="s">
+      <c r="AG5" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="X5" s="11" t="s">
+      <c r="AI5" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="AC5" s="13" t="s">
+      <c r="AJ5" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="AD5" s="11" t="s">
+      <c r="AL5" s="20" t="s">
+        <v>810</v>
+      </c>
+      <c r="AM5" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="AF5" s="13" t="s">
+      <c r="AO5" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="AG5" s="11" t="s">
+      <c r="AP5" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="AI5" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="AJ5" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="AL5" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="AM5" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="AO5" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="AP5" s="11" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="6" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="AI6" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="AJ6" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="AL6" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="AM6" s="11" t="s">
         <v>296</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="AI6" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AJ6" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="AL6" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AM6" s="11" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="7" spans="2:42" x14ac:dyDescent="0.3">
       <c r="C7" s="11"/>
       <c r="AI7" s="10" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AJ7" s="11" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AL7" s="13" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AM7" s="11" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AO7" s="15" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="L8" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="N8" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="O8" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="Q8" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="R8" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="T8" s="31" t="s">
+        <v>793</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="W8" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="X8" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="Z8" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="AA8" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="AC8" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="AD8" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="T8" s="31" t="s">
-        <v>806</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>803</v>
-      </c>
-      <c r="W8" s="10" t="s">
+      <c r="AF8" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="X8" s="11" t="s">
+      <c r="AG8" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="Z8" s="10" t="s">
+      <c r="AI8" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="AA8" s="11" t="s">
+      <c r="AJ8" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="AC8" s="13" t="s">
+      <c r="AL8" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="AD8" s="11" t="s">
+      <c r="AM8" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="AO8" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="AF8" s="13" t="s">
+      <c r="AP8" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="AG8" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="AI8" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="AJ8" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="AL8" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="AM8" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="AO8" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="AP8" s="11" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="9" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="N9" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="O9" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="AI9" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="AJ9" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="AO9" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="K9" s="10" t="s">
+      <c r="AP9" s="11" t="s">
         <v>339</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="AI9" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="AJ9" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="AO9" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="AP9" s="11" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="10" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI10" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="AJ10" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="AL10" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="AO10" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="AP10" s="11" t="s">
         <v>350</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>760</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="AI10" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="AJ10" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="AL10" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="AO10" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="AP10" s="11" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="11" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="L11" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="AL11" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="AM11" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="AO11" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="AP11" s="11" t="s">
         <v>360</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="AD11" s="11"/>
-      <c r="AL11" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="AM11" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="AO11" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="AP11" s="11" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="12" spans="2:42" x14ac:dyDescent="0.3">
       <c r="H12" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="R12" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="T12" s="31" t="s">
+        <v>792</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>791</v>
+      </c>
+      <c r="W12" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="X12" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="AC12" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="AD12" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="AF12" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="Q12" s="10" t="s">
+      <c r="AG12" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="R12" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="T12" s="31" t="s">
-        <v>805</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>804</v>
-      </c>
-      <c r="W12" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="X12" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="AC12" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="AD12" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="AF12" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="AG12" s="11" t="s">
-        <v>381</v>
-      </c>
       <c r="AI12" s="14" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="AJ12" s="14"/>
       <c r="AL12" s="10" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="AM12" s="11" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="2:42" x14ac:dyDescent="0.3">
       <c r="E13" s="10" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
       <c r="T13" s="21"/>
       <c r="AI13" s="31" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="AJ13" s="11" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="AL13" s="10" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="AM13" s="11" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="AO13" s="15" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="2:42" x14ac:dyDescent="0.3">
       <c r="E14" s="10" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="AI14" s="31" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="AJ14" s="11" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="AL14" s="10" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="AM14" s="11" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="AO14" s="10" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AP14" s="11" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="2:42" x14ac:dyDescent="0.3">
       <c r="E15" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="O15" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="Q15" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="R15" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="W15" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="X15" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="AC15" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="AD15" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="O15" s="11" t="s">
+      <c r="AF15" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="AG15" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="R15" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="W15" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="AC15" s="13" t="s">
+      <c r="AI15" s="31" t="s">
+        <v>779</v>
+      </c>
+      <c r="AJ15" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="AL15" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="AM15" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="AO15" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="AD15" s="11" t="s">
+      <c r="AP15" s="11" t="s">
         <v>412</v>
-      </c>
-      <c r="AF15" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="AG15" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="AI15" s="31" t="s">
-        <v>792</v>
-      </c>
-      <c r="AJ15" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="AL15" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="AM15" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="AO15" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="AP15" s="11" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="16" spans="2:42" x14ac:dyDescent="0.3">
       <c r="H16" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="R16" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="W16" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="X16" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="Z16" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="AA16" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="AC16" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="Q16" s="10" t="s">
+      <c r="AD16" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="AF16" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="W16" s="10" t="s">
+      <c r="AG16" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="X16" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="Z16" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="AA16" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="AC16" s="13" t="s">
+      <c r="AL16" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="AM16" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="AO16" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="AD16" s="11" t="s">
+      <c r="AP16" s="11" t="s">
         <v>433</v>
-      </c>
-      <c r="AF16" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="AG16" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="AL16" s="21" t="s">
-        <v>472</v>
-      </c>
-      <c r="AM16" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="AO16" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="AP16" s="11" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="17" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H17" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="R17" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="W17" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="X17" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="Z17" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="AA17" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="O17" s="11" t="s">
+      <c r="AC17" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="Q17" s="10" t="s">
+      <c r="AD17" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="R17" s="11" t="s">
+      <c r="AF17" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="W17" s="10" t="s">
+      <c r="AG17" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="X17" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="Z17" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA17" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="AC17" s="13" t="s">
+      <c r="AI17" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="AO17" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="AD17" s="11" t="s">
+      <c r="AP17" s="11" t="s">
         <v>454</v>
-      </c>
-      <c r="AF17" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="AG17" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="AI17" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="AO17" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="AP17" s="11" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="18" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H18" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="R18" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="W18" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="X18" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="L18" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="O18" s="11" t="s">
+      <c r="AA18" s="11"/>
+      <c r="AC18" s="31" t="s">
+        <v>800</v>
+      </c>
+      <c r="AD18" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="AF18" s="31" t="s">
+        <v>802</v>
+      </c>
+      <c r="AG18" s="11" t="s">
+        <v>803</v>
+      </c>
+      <c r="AI18" s="32" t="s">
+        <v>780</v>
+      </c>
+      <c r="AJ18" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="AL18" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="AM18" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="AO18" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="Q18" s="10" t="s">
+      <c r="AP18" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="19" spans="5:42" x14ac:dyDescent="0.3">
+      <c r="E19" s="40" t="s">
+        <v>680</v>
+      </c>
+      <c r="F19" s="40"/>
+      <c r="H19" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="I19" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="W18" s="10" t="s">
+      <c r="K19" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="X18" s="11" t="s">
+      <c r="L19" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="AA18" s="11"/>
-      <c r="AI18" s="32" t="s">
-        <v>793</v>
-      </c>
-      <c r="AJ18" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="AL18" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="AM18" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="AO18" s="10" t="s">
+      <c r="N19" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q19" s="21" t="s">
         <v>474</v>
       </c>
-      <c r="AP18" s="11" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="19" spans="5:42" x14ac:dyDescent="0.3">
-      <c r="E19" s="34" t="s">
-        <v>691</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="H19" s="10" t="s">
+      <c r="R19" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="W19" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="X19" s="11" t="s">
         <v>477</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="N19" s="21" t="s">
-        <v>479</v>
-      </c>
-      <c r="O19" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q19" s="21" t="s">
-        <v>481</v>
-      </c>
-      <c r="R19" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="W19" s="21" t="s">
-        <v>483</v>
-      </c>
-      <c r="X19" s="11" t="s">
-        <v>484</v>
       </c>
       <c r="AA19" s="11"/>
       <c r="AC19" s="22" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AD19" s="11" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="AF19" s="22" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="AG19" s="11" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="AI19" s="20" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="AJ19" s="11" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="AL19" s="10" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="AM19" s="11" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="AO19" s="10" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AP19" s="11" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H20" s="10" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="I20" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="AI20" s="20" t="s">
+        <v>782</v>
+      </c>
+      <c r="AJ20" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="AL20" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="AM20" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="AO20" s="21" t="s">
         <v>492</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="AP20" s="11" t="s">
         <v>493</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="N20" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="O20" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="AI20" s="20" t="s">
-        <v>795</v>
-      </c>
-      <c r="AJ20" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="AL20" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="AM20" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="AO20" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="AP20" s="11" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="21" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H21" s="10" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="I21" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="AL21" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="AM21" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="AO21" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="K21" s="21" t="s">
+      <c r="AP21" s="11" t="s">
         <v>503</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="N21" s="21" t="s">
-        <v>505</v>
-      </c>
-      <c r="O21" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="AL21" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="AM21" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="AO21" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="AP21" s="11" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="22" spans="5:42" x14ac:dyDescent="0.3">
       <c r="AL22" s="10" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="AM22" s="11" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="AO22" s="10" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="AP22" s="11" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="23" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H23" s="10" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="AL23" s="21" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="AM23" s="11" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="24" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H24" s="10" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="26" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H26" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="R26" s="11" t="s">
         <v>532</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="T26" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="K26" s="10" t="s">
-        <v>534</v>
-      </c>
-      <c r="L26" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="N26" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="O26" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="Q26" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="R26" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="T26" s="10" t="s">
-        <v>540</v>
-      </c>
       <c r="U26" s="11" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
     </row>
     <row r="27" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H27" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="O27" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="R27" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="T27" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="U27" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="W27" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="L27" s="11" t="s">
+      <c r="X27" s="11" t="s">
         <v>545</v>
-      </c>
-      <c r="N27" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="O27" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="Q27" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="R27" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="T27" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="U27" s="11" t="s">
-        <v>801</v>
-      </c>
-      <c r="W27" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="X27" s="11" t="s">
-        <v>552</v>
       </c>
       <c r="AA27" s="11"/>
       <c r="AC27" s="13" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="AD27" s="11" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="AF27" s="13" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="AG27" s="11" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="28" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H28" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="O28" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="T28" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="U28" s="11" t="s">
+        <v>789</v>
+      </c>
+      <c r="W28" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="X28" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="N28" s="10" t="s">
+      <c r="AC28" s="13" t="s">
         <v>559</v>
       </c>
-      <c r="O28" s="11" t="s">
+      <c r="AD28" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="Q28" s="10" t="s">
+      <c r="AF28" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="R28" s="11" t="s">
+      <c r="AG28" s="11" t="s">
         <v>562</v>
-      </c>
-      <c r="T28" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="U28" s="11" t="s">
-        <v>802</v>
-      </c>
-      <c r="W28" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="X28" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="AC28" s="13" t="s">
-        <v>566</v>
-      </c>
-      <c r="AD28" s="11" t="s">
-        <v>567</v>
-      </c>
-      <c r="AF28" s="13" t="s">
-        <v>568</v>
-      </c>
-      <c r="AG28" s="11" t="s">
-        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -6474,348 +6514,356 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:K15"/>
+  <dimension ref="B1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="42"/>
-    <col min="2" max="2" width="9.75" style="42" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="41" customWidth="1"/>
-    <col min="4" max="4" width="6" style="42" customWidth="1"/>
-    <col min="5" max="5" width="45.6640625" style="42" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="42" customWidth="1"/>
-    <col min="7" max="7" width="19.83203125" style="46" customWidth="1"/>
-    <col min="8" max="9" width="6" style="42" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" style="42" customWidth="1"/>
-    <col min="11" max="16384" width="8.6640625" style="42"/>
+    <col min="1" max="1" width="8.6640625" style="6"/>
+    <col min="2" max="2" width="9.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="35" customWidth="1"/>
+    <col min="4" max="4" width="6" style="6" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" customWidth="1"/>
+    <col min="8" max="9" width="6" style="6" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="6"/>
+    <col min="12" max="12" width="13.08203125" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="8.6640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="38" customFormat="1" ht="35" x14ac:dyDescent="0.3">
-      <c r="B1" s="38" t="s">
+    <row r="1" spans="2:12" s="1" customFormat="1" ht="35" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="38" t="s">
+    </row>
+    <row r="2" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="B2" s="34" t="s">
         <v>571</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="C2" s="35" t="s">
         <v>572</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="D2" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="G1" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="H1" s="38" t="s">
+      <c r="E2" s="36" t="s">
         <v>574</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="G2" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="H2" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="I2" s="6" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="2" spans="2:11" ht="28" x14ac:dyDescent="0.3">
-      <c r="B2" s="40" t="s">
+      <c r="J2" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="C2" s="41" t="s">
+    </row>
+    <row r="3" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="B3" s="44" t="s">
+        <v>812</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>815</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>574</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="B4" s="44" t="s">
+        <v>813</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>814</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>574</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="B6" s="34" t="s">
         <v>579</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="C6" s="37" t="s">
         <v>580</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="D6" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="E6" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="F6" s="24" t="s">
+        <v>816</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="H6" s="6">
+        <v>16</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="C7" s="35" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" ht="28" x14ac:dyDescent="0.3">
-      <c r="B3" s="40" t="s">
+      <c r="D7" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="H7" s="6">
+        <v>16</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="D3" s="42" t="s">
-        <v>580</v>
-      </c>
-      <c r="E3" s="43" t="s">
+      <c r="C8" s="35" t="s">
+        <v>588</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="H8" s="6">
+        <v>128</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>592</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="H9" s="6">
+        <v>64</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>595</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="H10" s="6">
+        <v>512</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="84" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>598</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="G3" s="42" t="s">
-        <v>582</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>583</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>584</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="28" x14ac:dyDescent="0.3">
-      <c r="B4" s="40" t="s">
-        <v>588</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>589</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>580</v>
-      </c>
-      <c r="E4" s="43" t="s">
+      <c r="E11" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="H11" s="6">
+        <v>64</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>601</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="G4" s="42" t="s">
-        <v>582</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>583</v>
-      </c>
-      <c r="I4" s="42" t="s">
-        <v>584</v>
-      </c>
-      <c r="J4" s="42" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="B6" s="40" t="s">
-        <v>590</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>591</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>592</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>593</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>594</v>
-      </c>
-      <c r="H6" s="42">
-        <v>16</v>
-      </c>
-      <c r="I6" s="42" t="s">
-        <v>584</v>
-      </c>
-      <c r="J6" s="42" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="42" t="s">
-        <v>595</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>596</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>580</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>597</v>
-      </c>
-      <c r="H7" s="42">
-        <v>16</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>585</v>
-      </c>
-      <c r="J7" s="42" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="42" t="s">
-        <v>598</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>599</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>580</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>600</v>
-      </c>
-      <c r="H8" s="42">
+      <c r="E13" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="H13" s="6">
+        <v>64</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>606</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="H14" s="6">
         <v>128</v>
       </c>
-      <c r="I8" s="42" t="s">
-        <v>585</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>585</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="42" t="s">
-        <v>602</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>603</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>580</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>604</v>
-      </c>
-      <c r="H9" s="42">
-        <v>64</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>585</v>
-      </c>
-      <c r="J9" s="42" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="42" t="s">
-        <v>605</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>606</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>580</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>607</v>
-      </c>
-      <c r="H10" s="42">
-        <v>512</v>
-      </c>
-      <c r="I10" s="42" t="s">
-        <v>585</v>
-      </c>
-      <c r="J10" s="42" t="s">
-        <v>583</v>
-      </c>
-      <c r="K10" s="47" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="84" x14ac:dyDescent="0.3">
-      <c r="B11" s="42" t="s">
-        <v>608</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>609</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>592</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>610</v>
-      </c>
-      <c r="H11" s="42">
-        <v>64</v>
-      </c>
-      <c r="I11" s="42" t="s">
-        <v>584</v>
-      </c>
-      <c r="J11" s="42" t="s">
-        <v>583</v>
-      </c>
-      <c r="K11" s="42" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="B13" s="42" t="s">
+      <c r="I14" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="C13" s="41" t="s">
-        <v>612</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>592</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>613</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>614</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>615</v>
-      </c>
-      <c r="H13" s="42">
-        <v>64</v>
-      </c>
-      <c r="I13" s="42" t="s">
-        <v>584</v>
-      </c>
-      <c r="J13" s="42" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="28" x14ac:dyDescent="0.3">
-      <c r="B14" s="42" t="s">
-        <v>616</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>617</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>618</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>619</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>620</v>
-      </c>
-      <c r="G14" s="42" t="s">
-        <v>621</v>
-      </c>
-      <c r="H14" s="42">
-        <v>128</v>
-      </c>
-      <c r="I14" s="42" t="s">
-        <v>585</v>
-      </c>
-      <c r="J14" s="42" t="s">
-        <v>585</v>
-      </c>
-      <c r="K14" s="42" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="47"/>
-      <c r="I15" s="47"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="24"/>
+      <c r="I15" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -6826,11 +6874,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:L22"/>
+  <dimension ref="B1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -6845,478 +6893,489 @@
     <col min="8" max="10" width="6.33203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="17.33203125" style="2" customWidth="1"/>
     <col min="12" max="12" width="11.6640625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.6640625" style="2"/>
+    <col min="13" max="13" width="14.4140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.75" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="1" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="56" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="56" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="56" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="H7" s="2">
         <v>512</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="70" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="H8" s="2">
         <v>256</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="H9" s="2">
         <v>512</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="H10" s="2">
         <v>256</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="140" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="H11" s="2">
         <v>512</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="98" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="H12" s="2">
         <v>512</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="70" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="H13" s="2">
         <v>128</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="29" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>734</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>666</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>747</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>677</v>
       </c>
       <c r="H14" s="2">
         <v>512</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="H15" s="2">
         <v>512</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="29" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="H16" s="2">
         <v>2048</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="140" x14ac:dyDescent="0.3">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="140" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="126" x14ac:dyDescent="0.3">
+        <v>804</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="126" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="18" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="196" x14ac:dyDescent="0.3">
+        <v>805</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="196" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="18" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8"/>
       <c r="D22" s="5"/>
     </row>
@@ -7347,18 +7406,18 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="25" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="D2" s="26">
         <v>0.03</v>
@@ -7366,10 +7425,10 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="D3" s="26">
         <v>1</v>
@@ -7377,10 +7436,10 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="25" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="D4" s="26">
         <v>1</v>
@@ -7388,10 +7447,10 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="D5" s="26">
         <v>5</v>
@@ -7399,10 +7458,10 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="D6" s="26">
         <v>1</v>
@@ -7410,24 +7469,24 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="D7" s="26">
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="D8" s="26">
         <v>1</v>
@@ -7435,21 +7494,21 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
     </row>
   </sheetData>
@@ -7477,88 +7536,88 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="56" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
-        <v>729</v>
+      <c r="A2" s="41" t="s">
+        <v>716</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="56" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="6">
         <v>3</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="70" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7568,22 +7627,22 @@
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="98" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
-        <v>738</v>
+      <c r="A10" s="43" t="s">
+        <v>725</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="18" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="70" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
     </row>
   </sheetData>

--- a/参考/资料/1.18版本策划.xlsx
+++ b/参考/资料/1.18版本策划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hqyzsy\IdeaProjects\micro_machinery\参考\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E10047C-35BA-49EA-B4E4-CC3EF203B760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BABD99A-E317-43DD-B499-41408EB4C2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增方块" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,73 @@
     <author>hqyzsy</author>
   </authors>
   <commentList>
-    <comment ref="K13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{949AAFC7-3339-4E96-B716-8E8B867D2A48}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>hqyzsy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+直接烧是铁锭</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{CBF114F0-580C-4ED5-B573-39C556550D20}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>hqyzsy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+直接烧是铁锭</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{933876ED-549D-407A-9DF8-E81FC7824D3B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>hqyzsy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+直接烧是铁锭</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="N17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="N18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -579,7 +645,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-3钛3镍1钴4烈焰粉→6记忆合金</t>
+3钛3镍1钴4末影珍珠→6记忆合金</t>
         </r>
       </text>
     </comment>
@@ -693,7 +759,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="836">
   <si>
     <t>矿石</t>
   </si>
@@ -1133,12 +1199,6 @@
     <t>block_sma</t>
   </si>
   <si>
-    <t>废铬铁块</t>
-  </si>
-  <si>
-    <t>molten_sma_discarded</t>
-  </si>
-  <si>
     <t>深层钨矿</t>
   </si>
   <si>
@@ -2180,9 +2240,6 @@
     <t>硬质合金粉</t>
   </si>
   <si>
-    <t>dust_carbide</t>
-  </si>
-  <si>
     <t>硬质合金锭</t>
   </si>
   <si>
@@ -2190,9 +2247,6 @@
   </si>
   <si>
     <t>硬质合金板</t>
-  </si>
-  <si>
-    <t>plate_carbide</t>
   </si>
   <si>
     <t>钛叶片</t>
@@ -2465,9 +2519,6 @@
     <t>cutter</t>
   </si>
   <si>
-    <t>切割物品</t>
-  </si>
-  <si>
     <t>电解机</t>
   </si>
   <si>
@@ -2484,9 +2535,6 @@
   </si>
   <si>
     <t>centrifuge</t>
-  </si>
-  <si>
-    <t>离心合金粉</t>
   </si>
   <si>
     <t>金属雾化器</t>
@@ -3437,14 +3485,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>钨板</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>plate_tungsten</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>stick_silver</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3540,6 +3580,114 @@
   </si>
   <si>
     <t>本体、夹盘、工件、刀具</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗锡块</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗矿块</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗银块</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗镍块</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗铝块</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗锰块</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗铬铁块</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗钒铁块</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗钛铁块</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗钨块</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw_tin_block</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw_silver_block</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw_nickel_block</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw_aluminum_block</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw_manganese_block</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw_chromite_block</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw_nolanite_block</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw_ilmenite_block</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw_tunstite_block</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>切割物品,左进右出，工作时切割锯旋转复原</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>本体、切割锯</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>离心合金粉，离心器旋转</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>本体、离心器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>废记忆合金块</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>molten_sma_discarded</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dust_carbide</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>plate_carbide</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3893,6 +4041,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3907,9 +4058,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4186,36 +4334,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O26"/>
+  <dimension ref="B1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="K19:L19"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.58203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="2.58203125" style="10" customWidth="1"/>
     <col min="2" max="2" width="10.4140625" style="10" customWidth="1"/>
     <col min="3" max="3" width="22.1640625" style="10" customWidth="1"/>
     <col min="4" max="4" width="2.58203125" style="10" customWidth="1"/>
     <col min="5" max="5" width="10.4140625" style="10" customWidth="1"/>
     <col min="6" max="6" width="20.25" style="10" customWidth="1"/>
     <col min="7" max="7" width="2.58203125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="10" customWidth="1"/>
-    <col min="9" max="9" width="28.08203125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.25" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.58203125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="10" customWidth="1"/>
-    <col min="12" max="12" width="23.1640625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.08203125" style="10" customWidth="1"/>
     <col min="13" max="13" width="2.58203125" style="10" customWidth="1"/>
     <col min="14" max="14" width="12.33203125" style="10" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="23.1640625" style="10" customWidth="1"/>
     <col min="16" max="16" width="2.58203125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" style="10"/>
-    <col min="18" max="18" width="17.25" style="10" customWidth="1"/>
-    <col min="19" max="16384" width="8.6640625" style="10"/>
+    <col min="17" max="17" width="12.33203125" style="10" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" style="10" customWidth="1"/>
+    <col min="19" max="19" width="2.58203125" style="10" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="10"/>
+    <col min="21" max="21" width="17.25" style="10" customWidth="1"/>
+    <col min="22" max="16384" width="8.6640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" s="9" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" s="9" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4223,16 +4374,19 @@
         <v>1</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
@@ -4245,26 +4399,33 @@
       <c r="F2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="31" t="s">
-        <v>772</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="N2" s="31" t="s">
+        <v>766</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="Q2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
@@ -4277,26 +4438,33 @@
       <c r="F3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="31" t="s">
+        <v>811</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="Q3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="R3" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>23</v>
       </c>
@@ -4309,26 +4477,33 @@
       <c r="F4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="31" t="s">
+        <v>812</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="O4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="Q4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="R4" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>32</v>
       </c>
@@ -4341,26 +4516,33 @@
       <c r="F5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="G5" s="11"/>
+      <c r="H5" s="31" t="s">
+        <v>813</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="O5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="Q5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="R5" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>42</v>
       </c>
@@ -4373,35 +4555,43 @@
       <c r="F6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="G6" s="11"/>
+      <c r="H6" s="31" t="s">
+        <v>814</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>823</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="N6" s="17" t="s">
+      <c r="O6" s="11"/>
+      <c r="Q6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="R6" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="I7" s="11"/>
+      <c r="N7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="O7" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>54</v>
       </c>
@@ -4414,26 +4604,33 @@
       <c r="F8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="31" t="s">
+        <v>815</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="L8" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="N8" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="O8" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="Q8" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="R8" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>64</v>
       </c>
@@ -4446,26 +4643,33 @@
       <c r="F9" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="G9" s="11"/>
+      <c r="H9" s="31" t="s">
+        <v>816</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>825</v>
+      </c>
+      <c r="K9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="L9" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="N9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="O9" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="Q9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="R9" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
         <v>74</v>
       </c>
@@ -4478,26 +4682,33 @@
       <c r="F10" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="G10" s="11"/>
+      <c r="H10" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="L10" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="N10" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="O10" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="Q10" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="R10" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>84</v>
       </c>
@@ -4510,42 +4721,51 @@
       <c r="F11" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="31" t="s">
+        <v>818</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="K11" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="L11" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="11"/>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="16"/>
+      <c r="O11" s="11"/>
+      <c r="Q11" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="R11" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="E12" s="10" t="s">
         <v>92</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="G12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="K12" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="L12" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="N12" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="O12" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>98</v>
       </c>
@@ -4558,46 +4778,48 @@
       <c r="F13" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="G13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="K13" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="L13" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="N13" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="O13" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="N13" s="31" t="s">
-        <v>773</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="Q13" s="31" t="s">
+        <v>767</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>106</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="N14" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="O14" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="N14" s="31" t="s">
-        <v>774</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="Q14" s="31" t="s">
+        <v>768</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>110</v>
       </c>
@@ -4610,26 +4832,28 @@
       <c r="F15" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="G15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="K15" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="L15" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="N15" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="O15" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="N15" s="31" t="s">
-        <v>775</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="Q15" s="31" t="s">
+        <v>769</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>118</v>
       </c>
@@ -4642,41 +4866,45 @@
       <c r="F16" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="G16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="K16" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="L16" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="N16" s="31" t="s">
-        <v>776</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="Q16" s="31" t="s">
+        <v>770</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="E17" s="10" t="s">
         <v>124</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="G17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="K17" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="L17" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="N17" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="O17" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="O17" s="11"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R17" s="11"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>130</v>
       </c>
@@ -4689,20 +4917,22 @@
       <c r="F18" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="G18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="K18" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="L18" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="N18" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="O18" s="11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>138</v>
       </c>
@@ -4715,8 +4945,16 @@
       <c r="F19" s="11" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="K19" s="31" t="s">
+        <v>832</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>142</v>
       </c>
@@ -4729,74 +4967,70 @@
       <c r="F20" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="G20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="N20" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K21" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="K21" s="13" t="s">
+      <c r="E22" s="31"/>
+      <c r="K22" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="N22" s="13"/>
+      <c r="O22" s="11"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B23" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L23" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="K22" s="13"/>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="H24" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="K26" s="16"/>
-      <c r="L26" s="11"/>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="N26" s="16"/>
+      <c r="O26" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -4810,7 +5044,7 @@
   <dimension ref="B2:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4822,68 +5056,68 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C2" s="11">
         <v>505</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C3" s="11">
         <v>1235</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C4" s="11">
         <v>1356</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C5" s="11">
         <v>1726</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C6" s="11">
         <v>933</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C7" s="11">
         <v>1517</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -4891,57 +5125,57 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C9" s="11">
         <v>2130</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C10" s="11">
         <v>2163</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C11" s="11">
         <v>1768</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C12" s="11">
         <v>1941</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C13" s="11">
         <v>3683</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -4949,57 +5183,57 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C15" s="11">
         <v>1170</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C16" s="11">
         <v>1723</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C17" s="11">
         <v>1570</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C18" s="11">
         <v>1893</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C19" s="11">
         <v>1700</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
@@ -5007,134 +5241,134 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C21" s="11">
         <v>1356</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C22" s="11">
         <v>1800</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C23" s="11">
         <v>1337</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C25" s="11">
         <v>293</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C26" s="11">
         <v>293</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C27" s="11">
         <v>293</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C28" s="11">
         <v>293</v>
       </c>
       <c r="D28" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="20" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="C30" s="11">
         <v>270</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>761</v>
-      </c>
-      <c r="E30" s="39" t="s">
-        <v>727</v>
-      </c>
-      <c r="F30" s="39"/>
+        <v>755</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>721</v>
+      </c>
+      <c r="F30" s="40"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="20" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C31" s="11">
         <v>400</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>762</v>
-      </c>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
+        <v>756</v>
+      </c>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="20" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C32" s="11">
         <v>550</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>764</v>
-      </c>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
+        <v>758</v>
+      </c>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="20" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="C33" s="11">
         <v>610</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>763</v>
-      </c>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
+        <v>757</v>
+      </c>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5149,13 +5383,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AP28"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AM18" sqref="AM18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.58203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="2.58203125" style="10" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="10" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" style="10" customWidth="1"/>
     <col min="4" max="4" width="2.58203125" style="10" customWidth="1"/>
@@ -5172,7 +5406,7 @@
     <col min="15" max="15" width="20.25" style="11" customWidth="1"/>
     <col min="16" max="16" width="2.58203125" style="10" customWidth="1"/>
     <col min="17" max="17" width="8.6640625" style="10"/>
-    <col min="18" max="18" width="20.25" style="10" customWidth="1"/>
+    <col min="18" max="18" width="20.25" style="11" customWidth="1"/>
     <col min="19" max="19" width="2.58203125" style="10" customWidth="1"/>
     <col min="20" max="20" width="6" style="10" customWidth="1"/>
     <col min="21" max="21" width="15.33203125" style="11" customWidth="1"/>
@@ -5203,1303 +5437,1299 @@
   <sheetData>
     <row r="1" spans="2:42" s="9" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
       <c r="B1" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>189</v>
       </c>
       <c r="I1" s="12"/>
       <c r="K1" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L1" s="12"/>
       <c r="N1" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O1" s="11"/>
       <c r="Q1" s="9" t="s">
-        <v>192</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="R1" s="11"/>
       <c r="T1" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="U1" s="11"/>
       <c r="W1" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="X1" s="12"/>
       <c r="Z1" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AC1" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AD1" s="11"/>
       <c r="AF1" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AG1" s="12"/>
       <c r="AI1" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AJ1" s="12"/>
       <c r="AL1" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AM1" s="12"/>
       <c r="AO1" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AP1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="AL2" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="U2" s="11" t="s">
-        <v>784</v>
-      </c>
-      <c r="AI2" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ2" s="11" t="s">
+      <c r="AM2" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="AL2" s="13" t="s">
+      <c r="AO2" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="AM2" s="11" t="s">
+      <c r="AP2" s="11" t="s">
         <v>216</v>
-      </c>
-      <c r="AO2" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="AP2" s="11" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="3" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="Q3" s="31" t="s">
+        <v>789</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="T3" s="31" t="s">
+        <v>790</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>779</v>
+      </c>
+      <c r="W3" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="X3" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="Q3" s="31" t="s">
-        <v>797</v>
-      </c>
-      <c r="R3" s="31" t="s">
-        <v>796</v>
-      </c>
-      <c r="T3" s="31" t="s">
-        <v>798</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>785</v>
-      </c>
-      <c r="W3" s="10" t="s">
+      <c r="AC3" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="AD3" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="AC3" s="13" t="s">
+      <c r="AF3" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="AD3" s="11" t="s">
+      <c r="AG3" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="AF3" s="13" t="s">
+      <c r="AI3" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="AG3" s="11" t="s">
+      <c r="AJ3" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="AI3" s="10" t="s">
+      <c r="AL3" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="AJ3" s="11" t="s">
+      <c r="AM3" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="AL3" s="13" t="s">
+      <c r="AO3" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="AM3" s="11" t="s">
+      <c r="AP3" s="11" t="s">
         <v>238</v>
-      </c>
-      <c r="AO3" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="AP3" s="11" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="4" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="O4" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="W4" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="X4" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="AC4" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="AD4" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="AC4" s="13" t="s">
+      <c r="AF4" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="AD4" s="11" t="s">
+      <c r="AG4" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="AF4" s="13" t="s">
+      <c r="AI4" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="AG4" s="11" t="s">
+      <c r="AJ4" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="AI4" s="10" t="s">
+      <c r="AL4" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="AJ4" s="11" t="s">
+      <c r="AM4" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="AO4" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="AL4" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="AM4" s="11" t="s">
-        <v>809</v>
-      </c>
-      <c r="AO4" s="10" t="s">
-        <v>260</v>
-      </c>
       <c r="AP4" s="11" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="5" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="K5" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="O5" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="Q5" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="R5" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="T5" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="U5" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="W5" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="X5" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="U5" s="11" t="s">
-        <v>786</v>
-      </c>
-      <c r="W5" s="10" t="s">
+      <c r="AC5" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="X5" s="11" t="s">
+      <c r="AD5" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="AC5" s="13" t="s">
+      <c r="AF5" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="AD5" s="11" t="s">
+      <c r="AG5" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="AF5" s="13" t="s">
+      <c r="AI5" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="AG5" s="11" t="s">
+      <c r="AJ5" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="AI5" s="10" t="s">
+      <c r="AL5" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="AM5" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="AJ5" s="11" t="s">
+      <c r="AO5" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="AL5" s="20" t="s">
-        <v>810</v>
-      </c>
-      <c r="AM5" s="11" t="s">
+      <c r="AP5" s="11" t="s">
         <v>282</v>
-      </c>
-      <c r="AO5" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="AP5" s="11" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="6" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="I6" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="K6" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="AI6" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="AJ6" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="AI6" s="10" t="s">
+      <c r="AL6" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="AJ6" s="11" t="s">
+      <c r="AM6" s="11" t="s">
         <v>294</v>
-      </c>
-      <c r="AL6" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="AM6" s="11" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="7" spans="2:42" x14ac:dyDescent="0.3">
       <c r="C7" s="11"/>
       <c r="AI7" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="AJ7" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="AL7" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="AJ7" s="11" t="s">
+      <c r="AM7" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="AL7" s="13" t="s">
+      <c r="AO7" s="15" t="s">
         <v>299</v>
-      </c>
-      <c r="AM7" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO7" s="15" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="8" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="H8" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="K8" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="L8" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="N8" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="O8" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="Q8" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="R8" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="T8" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="W8" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="X8" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="T8" s="31" t="s">
-        <v>793</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>790</v>
-      </c>
-      <c r="W8" s="10" t="s">
+      <c r="Z8" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="X8" s="11" t="s">
+      <c r="AA8" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="Z8" s="10" t="s">
+      <c r="AC8" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="AA8" s="11" t="s">
+      <c r="AD8" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="AC8" s="13" t="s">
+      <c r="AF8" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="AD8" s="11" t="s">
+      <c r="AG8" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="AF8" s="13" t="s">
+      <c r="AI8" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="AG8" s="11" t="s">
+      <c r="AJ8" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="AI8" s="10" t="s">
+      <c r="AL8" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="AJ8" s="11" t="s">
+      <c r="AM8" s="11" t="s">
+        <v>803</v>
+      </c>
+      <c r="AO8" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="AL8" s="13" t="s">
+      <c r="AP8" s="11" t="s">
         <v>324</v>
-      </c>
-      <c r="AM8" s="11" t="s">
-        <v>811</v>
-      </c>
-      <c r="AO8" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="AP8" s="11" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="9" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="I9" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="K9" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="L9" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>743</v>
-      </c>
-      <c r="K9" s="10" t="s">
+      <c r="N9" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="O9" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="AI9" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="AJ9" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="AI9" s="10" t="s">
+      <c r="AO9" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="AJ9" s="11" t="s">
+      <c r="AP9" s="11" t="s">
         <v>337</v>
-      </c>
-      <c r="AO9" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="AP9" s="11" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="10" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="H10" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="I10" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="L10" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>747</v>
-      </c>
-      <c r="K10" s="10" t="s">
+      <c r="AI10" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="AJ10" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AI10" s="10" t="s">
+      <c r="AL10" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="AO10" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="AJ10" s="11" t="s">
+      <c r="AP10" s="11" t="s">
         <v>348</v>
-      </c>
-      <c r="AL10" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="AO10" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="AP10" s="11" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="11" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="H11" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="I11" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="K11" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="L11" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="AL11" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="AM11" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="AO11" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="AP11" s="11" t="s">
         <v>358</v>
-      </c>
-      <c r="AL11" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="AM11" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="AO11" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="AP11" s="11" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="12" spans="2:42" x14ac:dyDescent="0.3">
       <c r="H12" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="K12" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="L12" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="N12" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="O12" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="Q12" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="R12" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="Q12" s="10" t="s">
+      <c r="T12" s="31" t="s">
+        <v>786</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="W12" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="X12" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="T12" s="31" t="s">
-        <v>792</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>791</v>
-      </c>
-      <c r="W12" s="10" t="s">
+      <c r="AC12" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="X12" s="11" t="s">
+      <c r="AD12" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="AC12" s="13" t="s">
+      <c r="AF12" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="AD12" s="11" t="s">
+      <c r="AG12" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="AF12" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="AG12" s="11" t="s">
-        <v>374</v>
-      </c>
       <c r="AI12" s="14" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AJ12" s="14"/>
       <c r="AL12" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AM12" s="11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="2:42" x14ac:dyDescent="0.3">
       <c r="E13" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="I13" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="K13" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="L13" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="K13" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="N13" s="21" t="s">
-        <v>794</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>795</v>
-      </c>
+      <c r="N13" s="21"/>
       <c r="T13" s="21"/>
       <c r="AI13" s="31" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="AJ13" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="AL13" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="AM13" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="AL13" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="AM13" s="11" t="s">
-        <v>410</v>
-      </c>
       <c r="AO13" s="15" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="2:42" x14ac:dyDescent="0.3">
       <c r="E14" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AI14" s="31" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="AJ14" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="AL14" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="AM14" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="AL14" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="AM14" s="11" t="s">
-        <v>431</v>
-      </c>
       <c r="AO14" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AP14" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="2:42" x14ac:dyDescent="0.3">
       <c r="E15" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="I15" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="K15" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="L15" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="N15" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="O15" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="Q15" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="O15" s="11" t="s">
+      <c r="R15" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="W15" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="X15" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="W15" s="10" t="s">
+      <c r="AC15" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="X15" s="11" t="s">
+      <c r="AD15" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="AC15" s="13" t="s">
+      <c r="AF15" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="AD15" s="11" t="s">
+      <c r="AG15" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="AF15" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="AG15" s="11" t="s">
-        <v>407</v>
-      </c>
       <c r="AI15" s="31" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="AJ15" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="AL15" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="AM15" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="AL15" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="AM15" s="11" t="s">
-        <v>452</v>
-      </c>
       <c r="AO15" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AP15" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16" spans="2:42" x14ac:dyDescent="0.3">
       <c r="H16" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="K16" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="L16" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="N16" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="O16" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="Q16" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="R16" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="Q16" s="10" t="s">
+      <c r="W16" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="X16" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="W16" s="10" t="s">
+      <c r="Z16" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="X16" s="11" t="s">
+      <c r="AA16" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="Z16" s="10" t="s">
+      <c r="AC16" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="AA16" s="11" t="s">
+      <c r="AD16" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="AC16" s="13" t="s">
+      <c r="AF16" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="AD16" s="11" t="s">
+      <c r="AG16" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="AF16" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="AG16" s="11" t="s">
-        <v>428</v>
-      </c>
       <c r="AL16" s="21" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AM16" s="11" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AO16" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AP16" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H17" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="K17" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="L17" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="N17" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="O17" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="Q17" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="O17" s="11" t="s">
+      <c r="R17" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="Q17" s="10" t="s">
+      <c r="W17" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="R17" s="11" t="s">
+      <c r="X17" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="W17" s="10" t="s">
+      <c r="Z17" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="X17" s="11" t="s">
+      <c r="AA17" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="Z17" s="10" t="s">
+      <c r="AC17" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="AA17" s="11" t="s">
+      <c r="AD17" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="AC17" s="13" t="s">
+      <c r="AF17" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="AD17" s="11" t="s">
+      <c r="AG17" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="AF17" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="AG17" s="11" t="s">
-        <v>449</v>
-      </c>
       <c r="AI17" s="15" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="AO17" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AP17" s="11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H18" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="K18" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="L18" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="N18" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="O18" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="N18" s="10" t="s">
+      <c r="Q18" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="O18" s="11" t="s">
+      <c r="R18" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="Q18" s="10" t="s">
+      <c r="W18" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="X18" s="11" t="s">
         <v>462</v>
-      </c>
-      <c r="W18" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="X18" s="11" t="s">
-        <v>464</v>
       </c>
       <c r="AA18" s="11"/>
       <c r="AC18" s="31" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="AD18" s="11" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="AF18" s="31" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="AG18" s="11" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="AI18" s="32" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="AJ18" s="11" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AL18" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AM18" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AO18" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="AP18" s="11" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="19" spans="5:42" x14ac:dyDescent="0.3">
+      <c r="E19" s="41" t="s">
+        <v>674</v>
+      </c>
+      <c r="F19" s="41"/>
+      <c r="H19" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="I19" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="AP18" s="11" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="19" spans="5:42" x14ac:dyDescent="0.3">
-      <c r="E19" s="40" t="s">
-        <v>680</v>
-      </c>
-      <c r="F19" s="40"/>
-      <c r="H19" s="10" t="s">
+      <c r="K19" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="L19" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="N19" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="O19" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="N19" s="21" t="s">
+      <c r="Q19" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="O19" s="11" t="s">
+      <c r="R19" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="Q19" s="21" t="s">
+      <c r="W19" s="21" t="s">
         <v>474</v>
       </c>
-      <c r="R19" s="11" t="s">
+      <c r="X19" s="11" t="s">
         <v>475</v>
-      </c>
-      <c r="W19" s="21" t="s">
-        <v>476</v>
-      </c>
-      <c r="X19" s="11" t="s">
-        <v>477</v>
       </c>
       <c r="AA19" s="11"/>
       <c r="AC19" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD19" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="AF19" s="22" t="s">
         <v>478</v>
       </c>
-      <c r="AD19" s="11" t="s">
+      <c r="AG19" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="AF19" s="22" t="s">
+      <c r="AI19" s="20" t="s">
+        <v>775</v>
+      </c>
+      <c r="AJ19" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="AL19" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="AM19" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="AO19" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="AG19" s="11" t="s">
+      <c r="AP19" s="11" t="s">
         <v>481</v>
-      </c>
-      <c r="AI19" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AJ19" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="AL19" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="AM19" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="AO19" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="AP19" s="11" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="20" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H20" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="K20" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="L20" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="N20" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="O20" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="N20" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="O20" s="11" t="s">
-        <v>489</v>
-      </c>
       <c r="AI20" s="20" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="AJ20" s="11" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="AL20" s="10" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="AM20" s="11" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="AO20" s="21" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AP20" s="11" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H21" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>834</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="L21" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="N21" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="K21" s="21" t="s">
-        <v>496</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="N21" s="21" t="s">
+      <c r="O21" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="AL21" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="AM21" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="AO21" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="O21" s="11" t="s">
+      <c r="AP21" s="11" t="s">
         <v>499</v>
-      </c>
-      <c r="AL21" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="AM21" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="AO21" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="AP21" s="11" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="22" spans="5:42" x14ac:dyDescent="0.3">
       <c r="AL22" s="10" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AM22" s="11" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="AO22" s="10" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="AP22" s="11" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="23" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H23" s="10" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="AL23" s="21" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="AM23" s="11" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H24" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="N24" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="O24" s="11" t="s">
         <v>514</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="N24" s="10" t="s">
-        <v>517</v>
-      </c>
-      <c r="O24" s="11" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="26" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H26" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="N26" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="O26" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="Q26" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="R26" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="N26" s="10" t="s">
+      <c r="T26" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="O26" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="Q26" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="R26" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="T26" s="10" t="s">
-        <v>533</v>
-      </c>
       <c r="U26" s="11" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="27" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H27" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="N27" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="O27" s="11" t="s">
         <v>536</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="Q27" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="L27" s="11" t="s">
+      <c r="R27" s="11" t="s">
         <v>538</v>
       </c>
-      <c r="N27" s="10" t="s">
+      <c r="T27" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="O27" s="11" t="s">
+      <c r="U27" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="W27" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="Q27" s="10" t="s">
+      <c r="X27" s="11" t="s">
         <v>541</v>
-      </c>
-      <c r="R27" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="T27" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="U27" s="11" t="s">
-        <v>788</v>
-      </c>
-      <c r="W27" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="X27" s="11" t="s">
-        <v>545</v>
       </c>
       <c r="AA27" s="11"/>
       <c r="AC27" s="13" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="AD27" s="11" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="AF27" s="13" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="AG27" s="11" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="28" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H28" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="O28" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q28" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="R28" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="N28" s="10" t="s">
+      <c r="T28" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="O28" s="11" t="s">
+      <c r="U28" s="11" t="s">
+        <v>783</v>
+      </c>
+      <c r="W28" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="Q28" s="10" t="s">
+      <c r="X28" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="R28" s="11" t="s">
+      <c r="AC28" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="T28" s="10" t="s">
+      <c r="AD28" s="11" t="s">
         <v>556</v>
       </c>
-      <c r="U28" s="11" t="s">
-        <v>789</v>
-      </c>
-      <c r="W28" s="10" t="s">
+      <c r="AF28" s="13" t="s">
         <v>557</v>
       </c>
-      <c r="X28" s="11" t="s">
+      <c r="AG28" s="11" t="s">
         <v>558</v>
-      </c>
-      <c r="AC28" s="13" t="s">
-        <v>559</v>
-      </c>
-      <c r="AD28" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="AF28" s="13" t="s">
-        <v>561</v>
-      </c>
-      <c r="AG28" s="11" t="s">
-        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -6516,8 +6746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -6538,327 +6768,336 @@
   <sheetData>
     <row r="1" spans="2:12" s="1" customFormat="1" ht="35" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B2" s="34" t="s">
+        <v>567</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>570</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="H2" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="J2" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>578</v>
-      </c>
     </row>
     <row r="3" spans="2:12" ht="28" x14ac:dyDescent="0.3">
-      <c r="B3" s="44" t="s">
-        <v>812</v>
+      <c r="B3" s="39" t="s">
+        <v>804</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>570</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="J3" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>578</v>
-      </c>
     </row>
     <row r="4" spans="2:12" ht="28" x14ac:dyDescent="0.3">
-      <c r="B4" s="44" t="s">
-        <v>813</v>
+      <c r="B4" s="39" t="s">
+        <v>805</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>570</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="J4" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>578</v>
-      </c>
       <c r="L4" s="24" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B6" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>576</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>578</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>808</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="C6" s="37" t="s">
-        <v>580</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>582</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>816</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>583</v>
-      </c>
       <c r="H6" s="6">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>586</v>
+        <v>569</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>828</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>829</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>579</v>
       </c>
       <c r="H7" s="6">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="H8" s="6">
         <v>128</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>593</v>
+        <v>569</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>831</v>
       </c>
       <c r="H9" s="6">
         <v>64</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="H10" s="6">
         <v>512</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="84" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="H11" s="6">
         <v>64</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="H13" s="6">
         <v>64</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="H14" s="6">
         <v>128</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
@@ -6877,7 +7116,7 @@
   <dimension ref="B1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -6900,479 +7139,479 @@
   <sheetData>
     <row r="1" spans="2:12" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="56" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>620</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="56" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="56" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="H7" s="2">
         <v>512</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="70" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>668</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>637</v>
       </c>
       <c r="H8" s="2">
         <v>256</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="H9" s="2">
         <v>512</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="H10" s="2">
         <v>256</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="140" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="H11" s="2">
         <v>512</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="98" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="H12" s="2">
         <v>512</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="70" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="H13" s="2">
         <v>128</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="29" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="H14" s="2">
         <v>512</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="H15" s="2">
         <v>512</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="29" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="H16" s="2">
         <v>2048</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="140" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="M18" s="18" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="126" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="18" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="196" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="18" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
@@ -7406,18 +7645,18 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="25" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="D2" s="26">
         <v>0.03</v>
@@ -7425,10 +7664,10 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="D3" s="26">
         <v>1</v>
@@ -7436,10 +7675,10 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="25" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="D4" s="26">
         <v>1</v>
@@ -7447,10 +7686,10 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
+        <v>685</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>691</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>697</v>
       </c>
       <c r="D5" s="26">
         <v>5</v>
@@ -7458,10 +7697,10 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
+        <v>686</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>692</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>698</v>
       </c>
       <c r="D6" s="26">
         <v>1</v>
@@ -7469,24 +7708,24 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="D7" s="26">
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="D8" s="26">
         <v>1</v>
@@ -7494,21 +7733,21 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -7536,88 +7775,88 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="56" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
-        <v>716</v>
+      <c r="A2" s="42" t="s">
+        <v>710</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A3" s="42"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="56" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="6">
         <v>3</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="70" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7627,22 +7866,22 @@
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="98" x14ac:dyDescent="0.3">
-      <c r="A10" s="43" t="s">
-        <v>725</v>
+      <c r="A10" s="44" t="s">
+        <v>719</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="18" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="70" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
   </sheetData>

--- a/参考/资料/1.18版本策划.xlsx
+++ b/参考/资料/1.18版本策划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hqyzsy\IdeaProjects\micro_machinery\参考\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BABD99A-E317-43DD-B499-41408EB4C2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB60662-054F-4895-97F8-6FA6C282F502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增方块" sheetId="1" r:id="rId1"/>
@@ -759,7 +759,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="836">
   <si>
     <t>矿石</t>
   </si>
@@ -2579,16 +2579,10 @@
     <t>1*2*1</t>
   </si>
   <si>
-    <t>燃烧木炭、煤炭、碳粉（400tick）并持续消耗水（5mb/tick），水容量4000mb</t>
-  </si>
-  <si>
     <t>本体和旋转叶片</t>
   </si>
   <si>
     <t>工作时发光，叶片旋转，顶部冒烟</t>
-  </si>
-  <si>
-    <t>4000mb</t>
   </si>
   <si>
     <t>窑炉</t>
@@ -3659,35 +3653,43 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>切割物品,左进右出，工作时切割锯旋转复原</t>
+    <t>离心合金粉，离心器旋转</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>本体、离心器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>废记忆合金块</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>molten_sma_discarded</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dust_carbide</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>plate_carbide</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧木炭、煤炭、碳粉（400tick）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*2*1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>切割物品,左进右出，工作时切割锯旋转</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>本体、切割锯</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>离心合金粉，离心器旋转</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>本体、离心器</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>废记忆合金块</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>molten_sma_discarded</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>dust_carbide</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>plate_carbide</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4336,8 +4338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4374,7 +4376,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>2</v>
@@ -4401,10 +4403,10 @@
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="31" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>9</v>
@@ -4413,7 +4415,7 @@
         <v>10</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>11</v>
@@ -4440,10 +4442,10 @@
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="31" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>18</v>
@@ -4479,10 +4481,10 @@
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="31" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>27</v>
@@ -4518,10 +4520,10 @@
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="31" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>36</v>
@@ -4557,10 +4559,10 @@
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="31" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>46</v>
@@ -4606,10 +4608,10 @@
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="31" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>58</v>
@@ -4645,10 +4647,10 @@
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="31" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>68</v>
@@ -4684,10 +4686,10 @@
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="31" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>78</v>
@@ -4723,10 +4725,10 @@
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="31" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>88</v>
@@ -4793,10 +4795,10 @@
         <v>105</v>
       </c>
       <c r="Q13" s="31" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
@@ -4813,10 +4815,10 @@
         <v>109</v>
       </c>
       <c r="Q14" s="31" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
@@ -4847,10 +4849,10 @@
         <v>117</v>
       </c>
       <c r="Q15" s="31" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
@@ -4875,10 +4877,10 @@
         <v>123</v>
       </c>
       <c r="Q16" s="31" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
@@ -4948,10 +4950,10 @@
       <c r="G19" s="11"/>
       <c r="I19" s="11"/>
       <c r="K19" s="31" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
@@ -5062,7 +5064,7 @@
         <v>505</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -5073,7 +5075,7 @@
         <v>1235</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
@@ -5084,7 +5086,7 @@
         <v>1356</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -5095,7 +5097,7 @@
         <v>1726</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -5106,7 +5108,7 @@
         <v>933</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -5117,7 +5119,7 @@
         <v>1517</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -5131,7 +5133,7 @@
         <v>2130</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -5142,7 +5144,7 @@
         <v>2163</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -5153,7 +5155,7 @@
         <v>1768</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -5164,7 +5166,7 @@
         <v>1941</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -5175,7 +5177,7 @@
         <v>3683</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -5189,7 +5191,7 @@
         <v>1170</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
@@ -5200,7 +5202,7 @@
         <v>1723</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -5211,7 +5213,7 @@
         <v>1570</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -5222,7 +5224,7 @@
         <v>1893</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
@@ -5233,7 +5235,7 @@
         <v>1700</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
@@ -5247,7 +5249,7 @@
         <v>1356</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
@@ -5258,7 +5260,7 @@
         <v>1800</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
@@ -5269,7 +5271,7 @@
         <v>1337</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
@@ -5280,7 +5282,7 @@
         <v>293</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
@@ -5291,7 +5293,7 @@
         <v>293</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
@@ -5302,7 +5304,7 @@
         <v>293</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
@@ -5313,59 +5315,59 @@
         <v>293</v>
       </c>
       <c r="D28" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="20" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C30" s="11">
         <v>270</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F30" s="40"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="20" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C31" s="11">
         <v>400</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E31" s="40"/>
       <c r="F31" s="40"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="20" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C32" s="11">
         <v>550</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E32" s="40"/>
       <c r="F32" s="40"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="20" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C33" s="11">
         <v>610</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E33" s="40"/>
       <c r="F33" s="40"/>
@@ -5383,8 +5385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AP28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="T26" activeCellId="4" sqref="T2:U3 T5:U5 T8:U8 T12:U12 T26:U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5531,7 +5533,7 @@
         <v>211</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="AI2" s="10" t="s">
         <v>196</v>
@@ -5584,16 +5586,16 @@
         <v>226</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="R3" s="11" t="s">
+        <v>786</v>
+      </c>
+      <c r="T3" s="31" t="s">
         <v>788</v>
       </c>
-      <c r="T3" s="31" t="s">
-        <v>790</v>
-      </c>
       <c r="U3" s="11" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="W3" s="10" t="s">
         <v>227</v>
@@ -5691,13 +5693,13 @@
         <v>257</v>
       </c>
       <c r="AM4" s="11" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="AO4" s="10" t="s">
         <v>258</v>
       </c>
       <c r="AP4" s="11" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="5" spans="2:42" x14ac:dyDescent="0.3">
@@ -5741,7 +5743,7 @@
         <v>271</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="W5" s="10" t="s">
         <v>272</v>
@@ -5768,7 +5770,7 @@
         <v>279</v>
       </c>
       <c r="AL5" s="20" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="AM5" s="11" t="s">
         <v>280</v>
@@ -5874,10 +5876,10 @@
         <v>311</v>
       </c>
       <c r="T8" s="31" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="W8" s="10" t="s">
         <v>312</v>
@@ -5913,7 +5915,7 @@
         <v>322</v>
       </c>
       <c r="AM8" s="11" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AO8" s="10" t="s">
         <v>323</v>
@@ -5939,7 +5941,7 @@
         <v>329</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>330</v>
@@ -5983,7 +5985,7 @@
         <v>342</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>343</v>
@@ -6071,10 +6073,10 @@
         <v>366</v>
       </c>
       <c r="T12" s="31" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="W12" s="10" t="s">
         <v>367</v>
@@ -6127,7 +6129,7 @@
       <c r="N13" s="21"/>
       <c r="T13" s="21"/>
       <c r="AI13" s="31" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="AJ13" s="11" t="s">
         <v>406</v>
@@ -6150,7 +6152,7 @@
         <v>384</v>
       </c>
       <c r="AI14" s="31" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="AJ14" s="11" t="s">
         <v>427</v>
@@ -6218,7 +6220,7 @@
         <v>405</v>
       </c>
       <c r="AI15" s="31" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="AJ15" s="11" t="s">
         <v>448</v>
@@ -6390,19 +6392,19 @@
       </c>
       <c r="AA18" s="11"/>
       <c r="AC18" s="31" t="s">
+        <v>790</v>
+      </c>
+      <c r="AD18" s="11" t="s">
+        <v>791</v>
+      </c>
+      <c r="AF18" s="31" t="s">
         <v>792</v>
       </c>
-      <c r="AD18" s="11" t="s">
+      <c r="AG18" s="11" t="s">
         <v>793</v>
       </c>
-      <c r="AF18" s="31" t="s">
-        <v>794</v>
-      </c>
-      <c r="AG18" s="11" t="s">
-        <v>795</v>
-      </c>
       <c r="AI18" s="32" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="AJ18" s="11" t="s">
         <v>515</v>
@@ -6417,12 +6419,12 @@
         <v>465</v>
       </c>
       <c r="AP18" s="11" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="19" spans="5:42" x14ac:dyDescent="0.3">
       <c r="E19" s="41" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F19" s="41"/>
       <c r="H19" s="10" t="s">
@@ -6469,7 +6471,7 @@
         <v>479</v>
       </c>
       <c r="AI19" s="20" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="AJ19" s="11" t="s">
         <v>518</v>
@@ -6507,7 +6509,7 @@
         <v>487</v>
       </c>
       <c r="AI20" s="20" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="AJ20" s="11" t="s">
         <v>530</v>
@@ -6530,7 +6532,7 @@
         <v>492</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="K21" s="21" t="s">
         <v>493</v>
@@ -6542,7 +6544,7 @@
         <v>495</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="AL21" s="10" t="s">
         <v>507</v>
@@ -6634,7 +6636,7 @@
         <v>529</v>
       </c>
       <c r="U26" s="11" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="27" spans="5:42" x14ac:dyDescent="0.3">
@@ -6666,7 +6668,7 @@
         <v>539</v>
       </c>
       <c r="U27" s="11" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="W27" s="10" t="s">
         <v>540</v>
@@ -6711,7 +6713,7 @@
         <v>552</v>
       </c>
       <c r="U28" s="11" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="W28" s="10" t="s">
         <v>553</v>
@@ -6747,7 +6749,7 @@
   <dimension ref="B1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -6824,10 +6826,10 @@
     </row>
     <row r="3" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B3" s="39" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>569</v>
@@ -6850,10 +6852,10 @@
     </row>
     <row r="4" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B4" s="39" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>569</v>
@@ -6874,7 +6876,7 @@
         <v>574</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="42" x14ac:dyDescent="0.3">
@@ -6891,7 +6893,7 @@
         <v>578</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>579</v>
@@ -6917,10 +6919,10 @@
         <v>569</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>579</v>
@@ -6942,8 +6944,8 @@
       <c r="C8" s="35" t="s">
         <v>583</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>569</v>
+      <c r="D8" s="24" t="s">
+        <v>833</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>584</v>
@@ -6972,10 +6974,10 @@
         <v>569</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="H9" s="6">
         <v>64</v>
@@ -7010,7 +7012,7 @@
         <v>572</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="84" x14ac:dyDescent="0.3">
@@ -7078,14 +7080,14 @@
       <c r="D14" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="24" t="s">
+        <v>832</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>603</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>604</v>
       </c>
       <c r="H14" s="6">
         <v>128</v>
@@ -7095,9 +7097,6 @@
       </c>
       <c r="J14" s="6" t="s">
         <v>574</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
@@ -7169,48 +7168,48 @@
     </row>
     <row r="2" spans="2:12" ht="56" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="18" t="s">
+        <v>670</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>672</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>610</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>572</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>574</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>612</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>614</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>572</v>
@@ -7222,21 +7221,21 @@
         <v>572</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>618</v>
-      </c>
       <c r="E4" s="19" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>572</v>
@@ -7248,24 +7247,24 @@
         <v>572</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="56" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>574</v>
@@ -7276,22 +7275,22 @@
     </row>
     <row r="7" spans="2:12" ht="56" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="19" t="s">
+        <v>659</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>661</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>627</v>
       </c>
       <c r="H7" s="2">
         <v>512</v>
@@ -7305,22 +7304,22 @@
     </row>
     <row r="8" spans="2:12" ht="70" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>660</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>629</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>662</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>631</v>
       </c>
       <c r="H8" s="2">
         <v>256</v>
@@ -7332,27 +7331,27 @@
         <v>572</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>634</v>
-      </c>
       <c r="E9" s="19" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H9" s="2">
         <v>512</v>
@@ -7364,21 +7363,21 @@
         <v>572</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>637</v>
       </c>
       <c r="H10" s="2">
         <v>256</v>
@@ -7390,27 +7389,27 @@
         <v>572</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="140" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>657</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>659</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>640</v>
-      </c>
       <c r="G11" s="18" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H11" s="2">
         <v>512</v>
@@ -7422,33 +7421,33 @@
         <v>574</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="98" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>675</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>677</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>644</v>
       </c>
       <c r="H12" s="2">
         <v>512</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>574</v>
@@ -7456,162 +7455,162 @@
     </row>
     <row r="13" spans="2:12" ht="70" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>662</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="G13" s="7" t="s">
         <v>646</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>664</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>648</v>
       </c>
       <c r="H13" s="2">
         <v>128</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>572</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="29" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H14" s="2">
         <v>512</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D15" s="18" t="s">
+        <v>669</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>671</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>673</v>
       </c>
       <c r="H15" s="2">
         <v>512</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="29" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H16" s="2">
         <v>2048</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="140" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="L18" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="M18" s="18" t="s">
         <v>796</v>
       </c>
-      <c r="M18" s="18" t="s">
-        <v>798</v>
-      </c>
       <c r="N18" s="18" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="126" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="18" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="196" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="18" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
@@ -7645,18 +7644,18 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="25" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D2" s="26">
         <v>0.03</v>
@@ -7664,10 +7663,10 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D3" s="26">
         <v>1</v>
@@ -7675,10 +7674,10 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="25" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D4" s="26">
         <v>1</v>
@@ -7686,10 +7685,10 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D5" s="26">
         <v>5</v>
@@ -7697,10 +7696,10 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D6" s="26">
         <v>1</v>
@@ -7708,24 +7707,24 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D7" s="26">
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D8" s="26">
         <v>1</v>
@@ -7733,21 +7732,21 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -7776,22 +7775,22 @@
   <sheetData>
     <row r="2" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28" x14ac:dyDescent="0.3">
@@ -7800,13 +7799,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="56" x14ac:dyDescent="0.3">
@@ -7815,10 +7814,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F4" s="28"/>
     </row>
@@ -7828,7 +7827,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E5" s="18"/>
     </row>
@@ -7838,16 +7837,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="30" t="s">
+        <v>703</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>704</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>705</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="F6" s="24" t="s">
         <v>706</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>707</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -7856,7 +7855,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7867,21 +7866,21 @@
     </row>
     <row r="10" spans="1:6" ht="98" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="18" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
   </sheetData>

--- a/参考/资料/1.18版本策划.xlsx
+++ b/参考/资料/1.18版本策划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hqyzsy\IdeaProjects\micro_machinery\参考\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB60662-054F-4895-97F8-6FA6C282F502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915D2B47-33FF-4708-8B65-8E28BAFE60C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增方块" sheetId="1" r:id="rId1"/>
@@ -857,12 +857,6 @@
     <t>高级传送带</t>
   </si>
   <si>
-    <t>软锰矿</t>
-  </si>
-  <si>
-    <t>ore_pyrolusite</t>
-  </si>
-  <si>
     <t>铝块</t>
   </si>
   <si>
@@ -1058,9 +1052,6 @@
     <t>下界软锰矿</t>
   </si>
   <si>
-    <t>ore_pyrolusite_nether</t>
-  </si>
-  <si>
     <t>钨块</t>
   </si>
   <si>
@@ -1367,9 +1358,6 @@
     <t>锡精矿</t>
   </si>
   <si>
-    <t>ore_tin_concentrate</t>
-  </si>
-  <si>
     <t>锡粉</t>
   </si>
   <si>
@@ -1421,9 +1409,6 @@
     <t>银精矿</t>
   </si>
   <si>
-    <t>ore_silver_concentrate</t>
-  </si>
-  <si>
     <t>银粉</t>
   </si>
   <si>
@@ -1547,9 +1532,6 @@
     <t>铝精矿</t>
   </si>
   <si>
-    <t>ore_bauxite_concentrate</t>
-  </si>
-  <si>
     <t>铝粉</t>
   </si>
   <si>
@@ -1619,15 +1601,9 @@
     <t>锰精矿</t>
   </si>
   <si>
-    <t>ore_pyrolusite_concentrate</t>
-  </si>
-  <si>
     <t>锰粉</t>
   </si>
   <si>
-    <t>dust_manganese</t>
-  </si>
-  <si>
     <t>锰锭</t>
   </si>
   <si>
@@ -1649,9 +1625,6 @@
     <t>提炼钒渣</t>
   </si>
   <si>
-    <t>refined_slag_vanadium</t>
-  </si>
-  <si>
     <t>激光发生器</t>
   </si>
   <si>
@@ -1670,9 +1643,6 @@
     <t>铬铁精矿</t>
   </si>
   <si>
-    <t>ore_chromite_concentrate</t>
-  </si>
-  <si>
     <t>钢粉</t>
   </si>
   <si>
@@ -1745,9 +1715,6 @@
     <t>钒铁精矿</t>
   </si>
   <si>
-    <t>ore_nolanite_concentrate</t>
-  </si>
-  <si>
     <t>铬粉</t>
   </si>
   <si>
@@ -1784,9 +1751,6 @@
     <t>钛铁精矿</t>
   </si>
   <si>
-    <t>ore_ilmenite_concentrate</t>
-  </si>
-  <si>
     <t>钒粉</t>
   </si>
   <si>
@@ -1799,9 +1763,6 @@
     <t>提炼铬渣</t>
   </si>
   <si>
-    <t>refined_slag_chromium</t>
-  </si>
-  <si>
     <t>苹果酱面包</t>
   </si>
   <si>
@@ -1817,15 +1778,9 @@
     <t>钨精矿</t>
   </si>
   <si>
-    <t>ore_tunstite_concentrate</t>
-  </si>
-  <si>
     <t>钴粉</t>
   </si>
   <si>
-    <t>dust_cobalt</t>
-  </si>
-  <si>
     <t>钴锭</t>
   </si>
   <si>
@@ -1886,9 +1841,6 @@
     <t>铜精矿</t>
   </si>
   <si>
-    <t>ore_copper_concentrate</t>
-  </si>
-  <si>
     <t>钨粉</t>
   </si>
   <si>
@@ -1913,9 +1865,6 @@
     <t>铁精矿</t>
   </si>
   <si>
-    <t>ore_iron_concentrate</t>
-  </si>
-  <si>
     <t>马达</t>
   </si>
   <si>
@@ -1934,9 +1883,6 @@
     <t>金精矿</t>
   </si>
   <si>
-    <t>ore_gold_concentrate</t>
-  </si>
-  <si>
     <t>青铜粉</t>
   </si>
   <si>
@@ -2208,9 +2154,6 @@
   </si>
   <si>
     <t>记忆合金粉</t>
-  </si>
-  <si>
-    <t>dust_sma</t>
   </si>
   <si>
     <t>记忆合金锭</t>
@@ -3690,6 +3633,82 @@
   </si>
   <si>
     <t>本体、切割锯</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dust_manganese</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dust_cobalt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dust_sma</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>refined_slag_chromium</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>refined_slag_vanadium</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_gold_concentrate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_iron_concentrate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_copper_concentrate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_ilmenite_concentrate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_nolanite_concentrate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_chromite_concentrate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_manganese_concentrate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>菱锰矿</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_manganese</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_manganese_nether</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_bauxite_concentrate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_silver_concentrate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_tin_concentrate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_tunstite_concentrate</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3929,7 +3948,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4060,6 +4079,15 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4338,8 +4366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4376,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>2</v>
@@ -4403,10 +4431,10 @@
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="31" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>9</v>
@@ -4415,7 +4443,7 @@
         <v>10</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>11</v>
@@ -4442,10 +4470,10 @@
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="31" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>818</v>
+        <v>799</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>18</v>
@@ -4481,10 +4509,10 @@
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="31" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>27</v>
@@ -4506,528 +4534,528 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="31" t="s">
+        <v>829</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="31" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
       <c r="K5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="O5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="Q5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="R5" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="Q5" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>45</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="31" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>821</v>
+        <v>802</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O6" s="11"/>
       <c r="Q6" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I7" s="11"/>
       <c r="N7" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="31" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
       <c r="K8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="O8" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="Q8" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="R8" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="31" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>823</v>
+        <v>804</v>
       </c>
       <c r="K9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="O9" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="Q9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="R9" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>77</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="31" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>824</v>
+        <v>805</v>
       </c>
       <c r="K10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="O10" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="Q10" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="R10" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>87</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="31" t="s">
-        <v>816</v>
+        <v>797</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N11" s="16"/>
       <c r="O11" s="11"/>
       <c r="Q11" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="E12" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G12" s="11"/>
       <c r="I12" s="11"/>
       <c r="K12" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="N12" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="O12" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="N12" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>101</v>
       </c>
       <c r="G13" s="11"/>
       <c r="I13" s="11"/>
       <c r="K13" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="O13" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="L13" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="N13" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>105</v>
-      </c>
       <c r="Q13" s="31" t="s">
-        <v>765</v>
+        <v>746</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="O14" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="N14" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="Q14" s="31" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>761</v>
+        <v>742</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="G15" s="11"/>
       <c r="I15" s="11"/>
       <c r="K15" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="O15" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="L15" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="N15" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>117</v>
-      </c>
       <c r="Q15" s="31" t="s">
-        <v>767</v>
+        <v>748</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>762</v>
+        <v>743</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>121</v>
       </c>
       <c r="G16" s="11"/>
       <c r="I16" s="11"/>
       <c r="K16" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q16" s="31" t="s">
-        <v>768</v>
+        <v>749</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="E17" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G17" s="11"/>
       <c r="I17" s="11"/>
       <c r="K17" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="O17" s="11" t="s">
         <v>126</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="N17" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>129</v>
       </c>
       <c r="R17" s="11"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>133</v>
       </c>
       <c r="G18" s="11"/>
       <c r="I18" s="11"/>
       <c r="K18" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="O18" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="N18" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>141</v>
       </c>
       <c r="G19" s="11"/>
       <c r="I19" s="11"/>
       <c r="K19" s="31" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>829</v>
+        <v>810</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>142</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>145</v>
       </c>
       <c r="G20" s="11"/>
       <c r="I20" s="11"/>
       <c r="L20" s="11"/>
       <c r="N20" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E22" s="31"/>
       <c r="K22" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N22" s="13"/>
       <c r="O22" s="11"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
@@ -5058,68 +5086,68 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C2" s="11">
         <v>505</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C3" s="11">
         <v>1235</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>729</v>
+        <v>710</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C4" s="11">
         <v>1356</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>730</v>
+        <v>711</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C5" s="11">
         <v>1726</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>731</v>
+        <v>712</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C6" s="11">
         <v>933</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>732</v>
+        <v>713</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C7" s="11">
         <v>1517</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>733</v>
+        <v>714</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -5127,57 +5155,57 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C9" s="11">
         <v>2130</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>736</v>
+        <v>717</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C10" s="11">
         <v>2163</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>740</v>
+        <v>721</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C11" s="11">
         <v>1768</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C12" s="11">
         <v>1941</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>737</v>
+        <v>718</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C13" s="11">
         <v>3683</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>738</v>
+        <v>719</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -5185,57 +5213,57 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C15" s="11">
         <v>1170</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>741</v>
+        <v>722</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C16" s="11">
         <v>1723</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>742</v>
+        <v>723</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C17" s="11">
         <v>1570</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>743</v>
+        <v>724</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C18" s="11">
         <v>1893</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>744</v>
+        <v>725</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C19" s="11">
         <v>1700</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>745</v>
+        <v>726</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
@@ -5243,131 +5271,131 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C21" s="11">
         <v>1356</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>746</v>
+        <v>727</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C22" s="11">
         <v>1800</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>747</v>
+        <v>728</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C23" s="11">
         <v>1337</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>748</v>
+        <v>729</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C25" s="11">
         <v>293</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>749</v>
+        <v>730</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C26" s="11">
         <v>293</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>750</v>
+        <v>731</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C27" s="11">
         <v>293</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>751</v>
+        <v>732</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C28" s="11">
         <v>293</v>
       </c>
       <c r="D28" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="20" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
       <c r="C30" s="11">
         <v>270</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>753</v>
+        <v>734</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>719</v>
+        <v>700</v>
       </c>
       <c r="F30" s="40"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="20" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="C31" s="11">
         <v>400</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
       <c r="E31" s="40"/>
       <c r="F31" s="40"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="20" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="C32" s="11">
         <v>550</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>756</v>
+        <v>737</v>
       </c>
       <c r="E32" s="40"/>
       <c r="F32" s="40"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="20" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="C33" s="11">
         <v>610</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>755</v>
+        <v>736</v>
       </c>
       <c r="E33" s="40"/>
       <c r="F33" s="40"/>
@@ -5385,8 +5413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AP28"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="T26" activeCellId="4" sqref="T2:U3 T5:U5 T8:U8 T12:U12 T26:U28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5398,7 +5426,7 @@
     <col min="5" max="5" width="8.5" style="10" customWidth="1"/>
     <col min="6" max="6" width="26.08203125" style="10" customWidth="1"/>
     <col min="7" max="7" width="2.58203125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="45" customWidth="1"/>
     <col min="9" max="9" width="19.25" style="11" customWidth="1"/>
     <col min="10" max="10" width="2.58203125" style="10" customWidth="1"/>
     <col min="11" max="11" width="10.4140625" style="10" customWidth="1"/>
@@ -5439,1299 +5467,1305 @@
   <sheetData>
     <row r="1" spans="2:42" s="9" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
       <c r="B1" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>184</v>
       </c>
       <c r="I1" s="12"/>
       <c r="K1" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L1" s="12"/>
       <c r="N1" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O1" s="11"/>
       <c r="Q1" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="R1" s="11"/>
       <c r="T1" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="U1" s="11"/>
       <c r="W1" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="X1" s="12"/>
       <c r="Z1" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AC1" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AD1" s="11"/>
       <c r="AF1" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AG1" s="12"/>
       <c r="AI1" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AJ1" s="12"/>
       <c r="AL1" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AM1" s="12"/>
       <c r="AO1" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AP1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>834</v>
+      </c>
+      <c r="H2" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="I2" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="AL2" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="AM2" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="AO2" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="U2" s="11" t="s">
-        <v>776</v>
-      </c>
-      <c r="AI2" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="AJ2" s="11" t="s">
+      <c r="AP2" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="AL2" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM2" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="AO2" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="AP2" s="11" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="3" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="L3" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="O3" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="Q3" s="31" t="s">
+        <v>768</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="T3" s="31" t="s">
+        <v>769</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="W3" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="X3" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="AC3" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="AD3" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="AF3" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="Q3" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>786</v>
-      </c>
-      <c r="T3" s="31" t="s">
-        <v>788</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>777</v>
-      </c>
-      <c r="W3" s="10" t="s">
+      <c r="AG3" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="AI3" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="AC3" s="13" t="s">
+      <c r="AJ3" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="AD3" s="11" t="s">
+      <c r="AL3" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="AF3" s="13" t="s">
+      <c r="AM3" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="AG3" s="11" t="s">
+      <c r="AO3" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="AI3" s="10" t="s">
+      <c r="AP3" s="11" t="s">
         <v>233</v>
-      </c>
-      <c r="AJ3" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="AL3" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="AM3" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="AO3" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="AP3" s="11" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="4" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="I4" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="L4" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="N4" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="O4" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="W4" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="X4" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="AC4" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="AD4" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="AF4" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="AG4" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="AI4" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="AC4" s="13" t="s">
+      <c r="AJ4" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="AD4" s="11" t="s">
+      <c r="AL4" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="AF4" s="13" t="s">
+      <c r="AM4" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="AO4" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="AG4" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="AI4" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="AJ4" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="AL4" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="AM4" s="11" t="s">
-        <v>799</v>
-      </c>
-      <c r="AO4" s="10" t="s">
-        <v>258</v>
-      </c>
       <c r="AP4" s="11" t="s">
-        <v>725</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="O5" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="Q5" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="R5" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="T5" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="U5" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="W5" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="X5" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="AC5" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="AD5" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="AF5" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="AG5" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="U5" s="11" t="s">
-        <v>778</v>
-      </c>
-      <c r="W5" s="10" t="s">
+      <c r="AI5" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="X5" s="11" t="s">
+      <c r="AJ5" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="AC5" s="13" t="s">
+      <c r="AL5" s="20" t="s">
+        <v>781</v>
+      </c>
+      <c r="AM5" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="AD5" s="11" t="s">
+      <c r="AO5" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="AF5" s="13" t="s">
+      <c r="AP5" s="11" t="s">
         <v>276</v>
-      </c>
-      <c r="AG5" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="AI5" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="AJ5" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AL5" s="20" t="s">
-        <v>800</v>
-      </c>
-      <c r="AM5" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="AO5" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="AP5" s="11" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="6" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>817</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="AI6" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="AJ6" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="AL6" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="AM6" s="11" t="s">
         <v>286</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="AI6" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="AJ6" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="AL6" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="AM6" s="11" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="7" spans="2:42" x14ac:dyDescent="0.3">
       <c r="C7" s="11"/>
+      <c r="I7" s="46"/>
       <c r="AI7" s="10" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AJ7" s="11" t="s">
-        <v>296</v>
+        <v>821</v>
       </c>
       <c r="AL7" s="13" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="AM7" s="11" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="AO7" s="15" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q8" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="R8" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="T8" s="31" t="s">
+        <v>766</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="W8" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="X8" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="Z8" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="AA8" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="AC8" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="AD8" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="AF8" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="AG8" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="AI8" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="AJ8" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="T8" s="31" t="s">
-        <v>785</v>
-      </c>
-      <c r="U8" s="11" t="s">
+      <c r="AL8" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="AM8" s="11" t="s">
         <v>782</v>
       </c>
-      <c r="W8" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="X8" s="11" t="s">
+      <c r="AO8" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="Z8" s="10" t="s">
+      <c r="AP8" s="11" t="s">
         <v>314</v>
-      </c>
-      <c r="AA8" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="AC8" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="AD8" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="AF8" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="AG8" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="AI8" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="AJ8" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="AL8" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="AM8" s="11" t="s">
-        <v>801</v>
-      </c>
-      <c r="AO8" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="AP8" s="11" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="9" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>716</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="AI9" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="AJ9" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="AO9" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="AP9" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>735</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="AI9" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="AJ9" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="AO9" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="AP9" s="11" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="10" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>739</v>
+        <v>825</v>
+      </c>
+      <c r="H10" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>720</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="AI10" s="10" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="AJ10" s="11" t="s">
-        <v>346</v>
+        <v>820</v>
       </c>
       <c r="AL10" s="15" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="AO10" s="10" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="AP10" s="11" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>818</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="AL11" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="AM11" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="AO11" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="AP11" s="11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="H12" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="O12" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="Q12" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="R12" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="T12" s="31" t="s">
+        <v>765</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="W12" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="X12" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="AC12" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="AD12" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="AF12" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="AL11" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="AM11" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="AO11" s="10" t="s">
+      <c r="AG12" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="AP11" s="11" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="12" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="H12" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q12" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="T12" s="31" t="s">
-        <v>784</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>783</v>
-      </c>
-      <c r="W12" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="X12" s="11" t="s">
+      <c r="AI12" s="14" t="s">
         <v>368</v>
-      </c>
-      <c r="AC12" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="AD12" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="AF12" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="AG12" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="AI12" s="14" t="s">
-        <v>385</v>
       </c>
       <c r="AJ12" s="14"/>
       <c r="AL12" s="10" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="AM12" s="11" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="2:42" x14ac:dyDescent="0.3">
       <c r="E13" s="10" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>377</v>
+        <v>824</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>360</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>361</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="N13" s="21"/>
       <c r="T13" s="21"/>
       <c r="AI13" s="31" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
       <c r="AJ13" s="11" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="AL13" s="10" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="AM13" s="11" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="AO13" s="15" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="2:42" x14ac:dyDescent="0.3">
       <c r="E14" s="10" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>384</v>
-      </c>
+        <v>823</v>
+      </c>
+      <c r="I14" s="46"/>
       <c r="AI14" s="31" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
       <c r="AJ14" s="11" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="AL14" s="10" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="AM14" s="11" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="AO14" s="10" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="AP14" s="11" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="2:42" x14ac:dyDescent="0.3">
       <c r="E15" s="10" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="F15" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="W15" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="AC15" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="AD15" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="AF15" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AG15" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="AI15" s="31" t="s">
+        <v>752</v>
+      </c>
+      <c r="AJ15" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="AL15" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="AM15" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="AO15" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="AP15" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="I15" s="11" t="s">
+    </row>
+    <row r="16" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="H16" s="45" t="s">
         <v>393</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="I16" s="46" t="s">
         <v>394</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="K16" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="L16" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="O15" s="11" t="s">
+      <c r="N16" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="O16" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="Q16" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="W15" s="10" t="s">
+      <c r="R16" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="X15" s="11" t="s">
+      <c r="W16" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="AC15" s="13" t="s">
+      <c r="X16" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="AD15" s="11" t="s">
+      <c r="Z16" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="AF15" s="13" t="s">
+      <c r="AA16" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="AG15" s="11" t="s">
+      <c r="AC16" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="AI15" s="31" t="s">
-        <v>771</v>
-      </c>
-      <c r="AJ15" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="AL15" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="AM15" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="AO15" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="AP15" s="11" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="16" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="H16" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="I16" s="11" t="s">
+      <c r="AD16" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="AF16" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="AG16" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="AL16" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="AM16" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="AO16" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="AP16" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="L16" s="11" t="s">
+    </row>
+    <row r="17" spans="5:42" x14ac:dyDescent="0.3">
+      <c r="H17" s="45" t="s">
         <v>414</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="I17" s="46" t="s">
         <v>415</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="K17" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="Q16" s="10" t="s">
+      <c r="L17" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="N17" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="W16" s="10" t="s">
+      <c r="O17" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="X16" s="11" t="s">
+      <c r="Q17" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="Z16" s="10" t="s">
+      <c r="R17" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="AA16" s="11" t="s">
+      <c r="W17" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="AC16" s="13" t="s">
+      <c r="X17" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="AD16" s="11" t="s">
+      <c r="Z17" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="AF16" s="13" t="s">
+      <c r="AA17" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="AG16" s="11" t="s">
+      <c r="AC17" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="AL16" s="21" t="s">
-        <v>463</v>
-      </c>
-      <c r="AM16" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="AO16" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="AP16" s="11" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="17" spans="5:42" x14ac:dyDescent="0.3">
-      <c r="H17" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="I17" s="11" t="s">
+      <c r="AD17" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="AF17" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="AG17" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="AI17" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="AO17" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="AP17" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="L17" s="11" t="s">
+    </row>
+    <row r="18" spans="5:42" x14ac:dyDescent="0.3">
+      <c r="H18" s="45" t="s">
         <v>435</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="I18" s="46" t="s">
         <v>436</v>
       </c>
-      <c r="O17" s="11" t="s">
+      <c r="K18" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="Q17" s="10" t="s">
+      <c r="L18" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="R17" s="11" t="s">
+      <c r="N18" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="W17" s="10" t="s">
+      <c r="O18" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="X17" s="11" t="s">
+      <c r="Q18" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="Z17" s="10" t="s">
+      <c r="R18" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="AA17" s="11" t="s">
+      <c r="W18" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="AC17" s="13" t="s">
+      <c r="X18" s="11" t="s">
         <v>444</v>
-      </c>
-      <c r="AD17" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="AF17" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="AG17" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="AI17" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="AO17" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="AP17" s="11" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="18" spans="5:42" x14ac:dyDescent="0.3">
-      <c r="H18" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="R18" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="W18" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="X18" s="11" t="s">
-        <v>462</v>
       </c>
       <c r="AA18" s="11"/>
       <c r="AC18" s="31" t="s">
-        <v>790</v>
+        <v>771</v>
       </c>
       <c r="AD18" s="11" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
       <c r="AF18" s="31" t="s">
-        <v>792</v>
+        <v>773</v>
       </c>
       <c r="AG18" s="11" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
       <c r="AI18" s="32" t="s">
-        <v>772</v>
+        <v>753</v>
       </c>
       <c r="AJ18" s="11" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="AL18" s="10" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="AM18" s="11" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="AO18" s="10" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="AP18" s="11" t="s">
-        <v>775</v>
+        <v>756</v>
       </c>
     </row>
     <row r="19" spans="5:42" x14ac:dyDescent="0.3">
       <c r="E19" s="41" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="F19" s="41"/>
-      <c r="H19" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>467</v>
+      <c r="H19" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="I19" s="46" t="s">
+        <v>449</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="Q19" s="21" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="W19" s="21" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="X19" s="11" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="AA19" s="11"/>
       <c r="AC19" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="AD19" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="AF19" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="AG19" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="AI19" s="20" t="s">
+        <v>754</v>
+      </c>
+      <c r="AJ19" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="AL19" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="AM19" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="AO19" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="AP19" s="11" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="20" spans="5:42" x14ac:dyDescent="0.3">
+      <c r="H20" s="45" t="s">
+        <v>464</v>
+      </c>
+      <c r="I20" s="46" t="s">
+        <v>819</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="AI20" s="20" t="s">
+        <v>755</v>
+      </c>
+      <c r="AJ20" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="AL20" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="AM20" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="AO20" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="AP20" s="11" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="21" spans="5:42" x14ac:dyDescent="0.3">
+      <c r="H21" s="45" t="s">
+        <v>473</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>811</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="N21" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="AD19" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="AF19" s="22" t="s">
-        <v>478</v>
-      </c>
-      <c r="AG19" s="11" t="s">
+      <c r="O21" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="AL21" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="AM21" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="AO21" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="AI19" s="20" t="s">
-        <v>773</v>
-      </c>
-      <c r="AJ19" s="11" t="s">
+      <c r="AP21" s="11" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="22" spans="5:42" x14ac:dyDescent="0.3">
+      <c r="I22" s="46"/>
+      <c r="AL22" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="AM22" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="AO22" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="AP22" s="11" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="23" spans="5:42" x14ac:dyDescent="0.3">
+      <c r="H23" s="45" t="s">
+        <v>485</v>
+      </c>
+      <c r="I23" s="46" t="s">
+        <v>486</v>
+      </c>
+      <c r="AL23" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="AM23" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="24" spans="5:42" x14ac:dyDescent="0.3">
+      <c r="H24" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="I24" s="46" t="s">
+        <v>491</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="25" spans="5:42" x14ac:dyDescent="0.3">
+      <c r="I25" s="46"/>
+    </row>
+    <row r="26" spans="5:42" x14ac:dyDescent="0.3">
+      <c r="H26" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="I26" s="46" t="s">
+        <v>503</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="T26" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="U26" s="11" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="27" spans="5:42" x14ac:dyDescent="0.3">
+      <c r="H27" s="45" t="s">
+        <v>512</v>
+      </c>
+      <c r="I27" s="46" t="s">
+        <v>513</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="O27" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q27" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="AL19" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="AM19" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="AO19" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="AP19" s="11" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="20" spans="5:42" x14ac:dyDescent="0.3">
-      <c r="H20" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="N20" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="O20" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="AI20" s="20" t="s">
-        <v>774</v>
-      </c>
-      <c r="AJ20" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="AL20" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="AM20" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="AO20" s="21" t="s">
-        <v>490</v>
-      </c>
-      <c r="AP20" s="11" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="21" spans="5:42" x14ac:dyDescent="0.3">
-      <c r="H21" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="K21" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="N21" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="O21" s="11" t="s">
-        <v>831</v>
-      </c>
-      <c r="AL21" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="AM21" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="AO21" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="AP21" s="11" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="22" spans="5:42" x14ac:dyDescent="0.3">
-      <c r="AL22" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="AM22" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="AO22" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="AP22" s="11" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="23" spans="5:42" x14ac:dyDescent="0.3">
-      <c r="H23" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="AL23" s="21" t="s">
+      <c r="R27" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="AM23" s="11" t="s">
+      <c r="T27" s="10" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="24" spans="5:42" x14ac:dyDescent="0.3">
-      <c r="H24" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="N24" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="O24" s="11" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="26" spans="5:42" x14ac:dyDescent="0.3">
-      <c r="H26" s="10" t="s">
+      <c r="U27" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="W27" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="X27" s="11" t="s">
         <v>522</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="L26" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="N26" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="O26" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q26" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="R26" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="T26" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="U26" s="11" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="27" spans="5:42" x14ac:dyDescent="0.3">
-      <c r="H27" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="L27" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="N27" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="O27" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q27" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="R27" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="T27" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="U27" s="11" t="s">
-        <v>780</v>
-      </c>
-      <c r="W27" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="X27" s="11" t="s">
-        <v>541</v>
       </c>
       <c r="AA27" s="11"/>
       <c r="AC27" s="13" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="AD27" s="11" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="AF27" s="13" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="AG27" s="11" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
     </row>
     <row r="28" spans="5:42" x14ac:dyDescent="0.3">
-      <c r="H28" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>547</v>
+      <c r="H28" s="45" t="s">
+        <v>527</v>
+      </c>
+      <c r="I28" s="46" t="s">
+        <v>528</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="U28" s="11" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="X28" s="11" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="AC28" s="13" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="AD28" s="11" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="AF28" s="13" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="AG28" s="11" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -6770,333 +6804,333 @@
   <sheetData>
     <row r="1" spans="2:12" s="1" customFormat="1" ht="35" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="1" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B2" s="34" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B3" s="39" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B4" s="39" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>798</v>
+        <v>779</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B6" s="34" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="H6" s="6">
         <v>64</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>834</v>
+        <v>815</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>835</v>
+        <v>816</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="H7" s="6">
         <v>64</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>833</v>
+        <v>814</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="H8" s="6">
         <v>128</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>586</v>
+        <v>567</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="H9" s="6">
         <v>64</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="H10" s="6">
         <v>512</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>678</v>
+        <v>659</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="84" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="H11" s="6">
         <v>64</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>596</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="H13" s="6">
         <v>64</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>600</v>
+        <v>581</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>832</v>
+        <v>813</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>603</v>
+        <v>584</v>
       </c>
       <c r="H14" s="6">
         <v>128</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
@@ -7138,479 +7172,479 @@
   <sheetData>
     <row r="1" spans="2:12" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="1" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="56" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>604</v>
+        <v>585</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>605</v>
+        <v>586</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>606</v>
+        <v>587</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>670</v>
+        <v>651</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>608</v>
+        <v>589</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>609</v>
+        <v>590</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>610</v>
+        <v>591</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>606</v>
+        <v>587</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>612</v>
+        <v>593</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>613</v>
+        <v>594</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>614</v>
+        <v>595</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>674</v>
+        <v>655</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="56" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>619</v>
+        <v>600</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>620</v>
+        <v>601</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>724</v>
+        <v>705</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>789</v>
+        <v>770</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="56" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>621</v>
+        <v>602</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>622</v>
+        <v>603</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>623</v>
+        <v>604</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>624</v>
+        <v>605</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="H7" s="2">
         <v>512</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="70" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>626</v>
+        <v>607</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>627</v>
+        <v>608</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>623</v>
+        <v>604</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>628</v>
+        <v>609</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>629</v>
+        <v>610</v>
       </c>
       <c r="H8" s="2">
         <v>256</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>631</v>
+        <v>612</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>632</v>
+        <v>613</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>677</v>
+        <v>658</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>676</v>
+        <v>657</v>
       </c>
       <c r="H9" s="2">
         <v>512</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>634</v>
+        <v>615</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>623</v>
+        <v>604</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>635</v>
+        <v>616</v>
       </c>
       <c r="H10" s="2">
         <v>256</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="140" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>636</v>
+        <v>617</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>623</v>
+        <v>604</v>
       </c>
       <c r="E11" s="19" t="s">
+        <v>638</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>657</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>676</v>
       </c>
       <c r="H11" s="2">
         <v>512</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="98" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>639</v>
+        <v>620</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>640</v>
+        <v>621</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>632</v>
+        <v>613</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>675</v>
+        <v>656</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>641</v>
+        <v>622</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="H12" s="2">
         <v>512</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="70" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>643</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>662</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>645</v>
+        <v>626</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="H13" s="2">
         <v>128</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="29" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>648</v>
+        <v>629</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>726</v>
+        <v>707</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="H14" s="2">
         <v>512</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>650</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>669</v>
-      </c>
       <c r="E15" s="19" t="s">
-        <v>671</v>
+        <v>652</v>
       </c>
       <c r="H15" s="2">
         <v>512</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="29" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>651</v>
+        <v>632</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>652</v>
+        <v>633</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="H16" s="2">
         <v>2048</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="140" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>653</v>
+        <v>634</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>727</v>
+        <v>708</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>721</v>
+        <v>702</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
       <c r="M18" s="18" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="126" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>757</v>
+        <v>738</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="18" t="s">
-        <v>722</v>
+        <v>703</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>795</v>
+        <v>776</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="196" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
-        <v>759</v>
+        <v>740</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>758</v>
+        <v>739</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="18" t="s">
-        <v>723</v>
+        <v>704</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>720</v>
+        <v>701</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>679</v>
+        <v>660</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
@@ -7644,18 +7678,18 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="25" t="s">
-        <v>680</v>
+        <v>661</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>692</v>
+        <v>673</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
-        <v>681</v>
+        <v>662</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>693</v>
+        <v>674</v>
       </c>
       <c r="D2" s="26">
         <v>0.03</v>
@@ -7663,10 +7697,10 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
-        <v>682</v>
+        <v>663</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>690</v>
+        <v>671</v>
       </c>
       <c r="D3" s="26">
         <v>1</v>
@@ -7674,10 +7708,10 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="25" t="s">
-        <v>691</v>
+        <v>672</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>690</v>
+        <v>671</v>
       </c>
       <c r="D4" s="26">
         <v>1</v>
@@ -7685,10 +7719,10 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>689</v>
+        <v>670</v>
       </c>
       <c r="D5" s="26">
         <v>5</v>
@@ -7696,10 +7730,10 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>690</v>
+        <v>671</v>
       </c>
       <c r="D6" s="26">
         <v>1</v>
@@ -7707,24 +7741,24 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
-        <v>685</v>
+        <v>666</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
       <c r="D7" s="26">
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>698</v>
+        <v>679</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
-        <v>686</v>
+        <v>667</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>690</v>
+        <v>671</v>
       </c>
       <c r="D8" s="26">
         <v>1</v>
@@ -7732,21 +7766,21 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
-        <v>688</v>
+        <v>669</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>697</v>
+        <v>678</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>696</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -7775,22 +7809,22 @@
   <sheetData>
     <row r="2" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
-        <v>708</v>
+        <v>689</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>699</v>
+        <v>680</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>709</v>
+        <v>690</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>710</v>
+        <v>691</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>714</v>
+        <v>695</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28" x14ac:dyDescent="0.3">
@@ -7799,13 +7833,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>700</v>
+        <v>681</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>711</v>
+        <v>692</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="56" x14ac:dyDescent="0.3">
@@ -7814,10 +7848,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>701</v>
+        <v>682</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>713</v>
+        <v>694</v>
       </c>
       <c r="F4" s="28"/>
     </row>
@@ -7827,7 +7861,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>702</v>
+        <v>683</v>
       </c>
       <c r="E5" s="18"/>
     </row>
@@ -7837,16 +7871,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>703</v>
+        <v>684</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>704</v>
+        <v>685</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>705</v>
+        <v>686</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>706</v>
+        <v>687</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -7855,7 +7889,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>707</v>
+        <v>688</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7866,21 +7900,21 @@
     </row>
     <row r="10" spans="1:6" ht="98" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
-        <v>717</v>
+        <v>698</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="18" t="s">
-        <v>718</v>
+        <v>699</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>716</v>
+        <v>697</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>715</v>
+        <v>696</v>
       </c>
     </row>
   </sheetData>

--- a/参考/资料/1.18版本策划.xlsx
+++ b/参考/资料/1.18版本策划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hqyzsy\IdeaProjects\micro_machinery\参考\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915D2B47-33FF-4708-8B65-8E28BAFE60C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB535ECB-8929-4151-938C-FE94FC60358B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增方块" sheetId="1" r:id="rId1"/>
@@ -759,7 +759,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="837">
   <si>
     <t>矿石</t>
   </si>
@@ -3711,12 +3711,16 @@
     <t>ore_tunstite_concentrate</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>如果我想不到这个材质，就让流体接触面变成沙子吧</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3921,6 +3925,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3948,7 +3961,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4080,13 +4093,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4366,8 +4373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4409,6 +4416,9 @@
       <c r="K1" s="9" t="s">
         <v>2</v>
       </c>
+      <c r="L1" s="45" t="s">
+        <v>836</v>
+      </c>
       <c r="N1" s="9" t="s">
         <v>3</v>
       </c>
@@ -5413,8 +5423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AP28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AO22" sqref="AO22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5426,7 +5436,7 @@
     <col min="5" max="5" width="8.5" style="10" customWidth="1"/>
     <col min="6" max="6" width="26.08203125" style="10" customWidth="1"/>
     <col min="7" max="7" width="2.58203125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="10" customWidth="1"/>
     <col min="9" max="9" width="19.25" style="11" customWidth="1"/>
     <col min="10" max="10" width="2.58203125" style="10" customWidth="1"/>
     <col min="11" max="11" width="10.4140625" style="10" customWidth="1"/>
@@ -5472,7 +5482,7 @@
       <c r="E1" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="9" t="s">
         <v>184</v>
       </c>
       <c r="I1" s="12"/>
@@ -5533,10 +5543,10 @@
       <c r="F2" s="11" t="s">
         <v>834</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="11" t="s">
         <v>200</v>
       </c>
       <c r="K2" s="10" t="s">
@@ -5595,10 +5605,10 @@
       <c r="F3" s="11" t="s">
         <v>833</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="11" t="s">
         <v>217</v>
       </c>
       <c r="K3" s="10" t="s">
@@ -5675,10 +5685,10 @@
       <c r="F4" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="11" t="s">
         <v>239</v>
       </c>
       <c r="K4" s="10" t="s">
@@ -5743,10 +5753,10 @@
       <c r="F5" s="11" t="s">
         <v>832</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="11" t="s">
         <v>258</v>
       </c>
       <c r="K5" s="10" t="s">
@@ -5823,10 +5833,10 @@
       <c r="F6" s="11" t="s">
         <v>828</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="11" t="s">
         <v>817</v>
       </c>
       <c r="K6" s="10" t="s">
@@ -5850,7 +5860,6 @@
     </row>
     <row r="7" spans="2:42" x14ac:dyDescent="0.3">
       <c r="C7" s="11"/>
-      <c r="I7" s="46"/>
       <c r="AI7" s="10" t="s">
         <v>287</v>
       </c>
@@ -5880,10 +5889,10 @@
       <c r="F8" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="11" t="s">
         <v>295</v>
       </c>
       <c r="K8" s="10" t="s">
@@ -5966,10 +5975,10 @@
       <c r="F9" s="11" t="s">
         <v>826</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="11" t="s">
         <v>716</v>
       </c>
       <c r="K9" s="10" t="s">
@@ -6010,10 +6019,10 @@
       <c r="F10" s="11" t="s">
         <v>825</v>
       </c>
-      <c r="H10" s="45" t="s">
+      <c r="H10" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="11" t="s">
         <v>720</v>
       </c>
       <c r="K10" s="10" t="s">
@@ -6051,10 +6060,10 @@
       <c r="F11" s="11" t="s">
         <v>835</v>
       </c>
-      <c r="H11" s="45" t="s">
+      <c r="H11" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="I11" s="46" t="s">
+      <c r="I11" s="11" t="s">
         <v>818</v>
       </c>
       <c r="K11" s="10" t="s">
@@ -6077,10 +6086,10 @@
       </c>
     </row>
     <row r="12" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="H12" s="45" t="s">
+      <c r="H12" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="11" t="s">
         <v>345</v>
       </c>
       <c r="K12" s="10" t="s">
@@ -6143,10 +6152,10 @@
       <c r="F13" s="11" t="s">
         <v>824</v>
       </c>
-      <c r="H13" s="45" t="s">
+      <c r="H13" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="I13" s="46" t="s">
+      <c r="I13" s="11" t="s">
         <v>361</v>
       </c>
       <c r="K13" s="21" t="s">
@@ -6180,7 +6189,6 @@
       <c r="F14" s="11" t="s">
         <v>823</v>
       </c>
-      <c r="I14" s="46"/>
       <c r="AI14" s="31" t="s">
         <v>751</v>
       </c>
@@ -6207,10 +6215,10 @@
       <c r="F15" s="11" t="s">
         <v>822</v>
       </c>
-      <c r="H15" s="45" t="s">
+      <c r="H15" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="I15" s="46" t="s">
+      <c r="I15" s="11" t="s">
         <v>375</v>
       </c>
       <c r="K15" s="10" t="s">
@@ -6269,10 +6277,10 @@
       </c>
     </row>
     <row r="16" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="H16" s="45" t="s">
+      <c r="H16" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="I16" s="46" t="s">
+      <c r="I16" s="11" t="s">
         <v>394</v>
       </c>
       <c r="K16" s="10" t="s">
@@ -6331,10 +6339,10 @@
       </c>
     </row>
     <row r="17" spans="5:42" x14ac:dyDescent="0.3">
-      <c r="H17" s="45" t="s">
+      <c r="H17" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="I17" s="46" t="s">
+      <c r="I17" s="11" t="s">
         <v>415</v>
       </c>
       <c r="K17" s="10" t="s">
@@ -6390,10 +6398,10 @@
       </c>
     </row>
     <row r="18" spans="5:42" x14ac:dyDescent="0.3">
-      <c r="H18" s="45" t="s">
+      <c r="H18" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="I18" s="46" t="s">
+      <c r="I18" s="11" t="s">
         <v>436</v>
       </c>
       <c r="K18" s="10" t="s">
@@ -6457,10 +6465,10 @@
         <v>653</v>
       </c>
       <c r="F19" s="41"/>
-      <c r="H19" s="45" t="s">
+      <c r="H19" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="I19" s="46" t="s">
+      <c r="I19" s="11" t="s">
         <v>449</v>
       </c>
       <c r="K19" s="21" t="s">
@@ -6520,10 +6528,10 @@
       </c>
     </row>
     <row r="20" spans="5:42" x14ac:dyDescent="0.3">
-      <c r="H20" s="45" t="s">
+      <c r="H20" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="I20" s="46" t="s">
+      <c r="I20" s="11" t="s">
         <v>819</v>
       </c>
       <c r="K20" s="10" t="s">
@@ -6558,10 +6566,10 @@
       </c>
     </row>
     <row r="21" spans="5:42" x14ac:dyDescent="0.3">
-      <c r="H21" s="45" t="s">
+      <c r="H21" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="I21" s="46" t="s">
+      <c r="I21" s="11" t="s">
         <v>811</v>
       </c>
       <c r="K21" s="21" t="s">
@@ -6590,7 +6598,6 @@
       </c>
     </row>
     <row r="22" spans="5:42" x14ac:dyDescent="0.3">
-      <c r="I22" s="46"/>
       <c r="AL22" s="10" t="s">
         <v>497</v>
       </c>
@@ -6605,10 +6612,10 @@
       </c>
     </row>
     <row r="23" spans="5:42" x14ac:dyDescent="0.3">
-      <c r="H23" s="45" t="s">
+      <c r="H23" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="I23" s="46" t="s">
+      <c r="I23" s="11" t="s">
         <v>486</v>
       </c>
       <c r="AL23" s="21" t="s">
@@ -6619,10 +6626,10 @@
       </c>
     </row>
     <row r="24" spans="5:42" x14ac:dyDescent="0.3">
-      <c r="H24" s="45" t="s">
+      <c r="H24" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="I24" s="46" t="s">
+      <c r="I24" s="11" t="s">
         <v>491</v>
       </c>
       <c r="K24" s="10" t="s">
@@ -6638,14 +6645,11 @@
         <v>495</v>
       </c>
     </row>
-    <row r="25" spans="5:42" x14ac:dyDescent="0.3">
-      <c r="I25" s="46"/>
-    </row>
     <row r="26" spans="5:42" x14ac:dyDescent="0.3">
-      <c r="H26" s="45" t="s">
+      <c r="H26" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="I26" s="46" t="s">
+      <c r="I26" s="11" t="s">
         <v>503</v>
       </c>
       <c r="K26" s="10" t="s">
@@ -6674,10 +6678,10 @@
       </c>
     </row>
     <row r="27" spans="5:42" x14ac:dyDescent="0.3">
-      <c r="H27" s="45" t="s">
+      <c r="H27" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="I27" s="46" t="s">
+      <c r="I27" s="11" t="s">
         <v>513</v>
       </c>
       <c r="K27" s="10" t="s">
@@ -6725,10 +6729,10 @@
       </c>
     </row>
     <row r="28" spans="5:42" x14ac:dyDescent="0.3">
-      <c r="H28" s="45" t="s">
+      <c r="H28" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="I28" s="46" t="s">
+      <c r="I28" s="11" t="s">
         <v>528</v>
       </c>
       <c r="N28" s="10" t="s">

--- a/参考/资料/1.18版本策划.xlsx
+++ b/参考/资料/1.18版本策划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hqyzsy\IdeaProjects\micro_machinery\参考\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB535ECB-8929-4151-938C-FE94FC60358B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3D5B39-6BF2-45D9-8F18-D29F5008FBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -794,9 +794,6 @@
     <t>molten_tin_discarded</t>
   </si>
   <si>
-    <t>casing_1</t>
-  </si>
-  <si>
     <t>基础传送带</t>
   </si>
   <si>
@@ -914,9 +911,6 @@
     <t>钢质脚手架</t>
   </si>
   <si>
-    <t>steel_scaffolding</t>
-  </si>
-  <si>
     <t>铝土矿</t>
   </si>
   <si>
@@ -1046,9 +1040,6 @@
     <t>能量接口</t>
   </si>
   <si>
-    <t>interface_energy</t>
-  </si>
-  <si>
     <t>下界软锰矿</t>
   </si>
   <si>
@@ -1079,9 +1070,6 @@
     <t>物品接口</t>
   </si>
   <si>
-    <t>interface_item</t>
-  </si>
-  <si>
     <t>下界铝土矿</t>
   </si>
   <si>
@@ -1103,9 +1091,6 @@
     <t>流体接口</t>
   </si>
   <si>
-    <t>interface_fluid</t>
-  </si>
-  <si>
     <t>下界钒铁矿</t>
   </si>
   <si>
@@ -1937,9 +1922,6 @@
     <t>青铜锤</t>
   </si>
   <si>
-    <t>bronze_hammer</t>
-  </si>
-  <si>
     <t>殷钢粉</t>
   </si>
   <si>
@@ -2150,9 +2132,6 @@
     <t>记忆合金剑</t>
   </si>
   <si>
-    <t>sma_sword</t>
-  </si>
-  <si>
     <t>记忆合金粉</t>
   </si>
   <si>
@@ -2175,9 +2154,6 @@
   </si>
   <si>
     <t>硬质合金剑</t>
-  </si>
-  <si>
-    <t>carbide_sword</t>
   </si>
   <si>
     <t>硬质合金粉</t>
@@ -3713,6 +3689,38 @@
   </si>
   <si>
     <t>如果我想不到这个材质，就让流体接触面变成沙子吧</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>carbide_sword</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sma_sword</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>copper_hammer</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>steel_scaffolding</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>casing_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>interface_energy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>interface_item</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>interface_fluid</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4078,6 +4086,9 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4092,9 +4103,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4374,7 +4382,7 @@
   <dimension ref="B1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="R6" sqref="Q6:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4411,13 +4419,13 @@
         <v>1</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="45" t="s">
-        <v>836</v>
+      <c r="L1" s="40" t="s">
+        <v>828</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>3</v>
@@ -4441,10 +4449,10 @@
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="31" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>9</v>
@@ -4453,619 +4461,619 @@
         <v>10</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="O2" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="Q2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="R2" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="31" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="K3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="Q3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="R3" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="31" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="K4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="N4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="O4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="Q4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="17" t="s">
-        <v>31</v>
-      </c>
       <c r="R4" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="31" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="31" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="K5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="N5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="O5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="Q5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="R5" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>43</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="31" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="K6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>45</v>
       </c>
       <c r="O6" s="11"/>
       <c r="Q6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="I7" s="11"/>
       <c r="N7" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>51</v>
+        <v>832</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="31" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="K8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="O8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="Q8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="R8" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="31" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="K9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="O9" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="Q9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="R9" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="31" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="K10" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="O10" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="Q10" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="R10" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>85</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="31" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N11" s="16"/>
       <c r="O11" s="11"/>
       <c r="Q11" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="E12" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G12" s="11"/>
       <c r="I12" s="11"/>
       <c r="K12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L12" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="N12" s="17" t="s">
-        <v>94</v>
-      </c>
       <c r="O12" s="11" t="s">
-        <v>95</v>
+        <v>834</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G13" s="11"/>
       <c r="I13" s="11"/>
       <c r="K13" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="L13" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="N13" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>102</v>
-      </c>
       <c r="Q13" s="31" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>106</v>
+        <v>835</v>
       </c>
       <c r="Q14" s="31" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G15" s="11"/>
       <c r="I15" s="11"/>
       <c r="K15" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>114</v>
+        <v>836</v>
       </c>
       <c r="Q15" s="31" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G16" s="11"/>
       <c r="I16" s="11"/>
       <c r="K16" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="31" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="E17" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G17" s="11"/>
       <c r="I17" s="11"/>
       <c r="K17" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R17" s="11"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G18" s="11"/>
       <c r="I18" s="11"/>
       <c r="K18" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G19" s="11"/>
       <c r="I19" s="11"/>
       <c r="K19" s="31" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G20" s="11"/>
       <c r="I20" s="11"/>
       <c r="L20" s="11"/>
       <c r="N20" s="13" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C21" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="K21" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="K21" s="10" t="s">
-        <v>149</v>
-      </c>
       <c r="L21" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="N21" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="N21" s="13" t="s">
-        <v>155</v>
-      </c>
       <c r="O21" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E22" s="31"/>
       <c r="K22" s="10" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="N22" s="13"/>
       <c r="O22" s="11"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="K23" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="K23" s="10" t="s">
-        <v>157</v>
-      </c>
       <c r="L23" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
@@ -5096,68 +5104,68 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C2" s="11">
         <v>505</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C3" s="11">
         <v>1235</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C4" s="11">
         <v>1356</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C5" s="11">
         <v>1726</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="11">
         <v>933</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C7" s="11">
         <v>1517</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -5165,57 +5173,57 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C9" s="11">
         <v>2130</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C10" s="11">
         <v>2163</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C11" s="11">
         <v>1768</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C12" s="11">
         <v>1941</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C13" s="11">
         <v>3683</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -5223,57 +5231,57 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C15" s="11">
         <v>1170</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C16" s="11">
         <v>1723</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C17" s="11">
         <v>1570</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C18" s="11">
         <v>1893</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C19" s="11">
         <v>1700</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
@@ -5281,134 +5289,134 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C21" s="11">
         <v>1356</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C22" s="11">
         <v>1800</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C23" s="11">
         <v>1337</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C25" s="11">
         <v>293</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C26" s="11">
         <v>293</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C27" s="11">
         <v>293</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C28" s="11">
         <v>293</v>
       </c>
       <c r="D28" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="20" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="C30" s="11">
         <v>270</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>734</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>700</v>
-      </c>
-      <c r="F30" s="40"/>
+        <v>726</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="F30" s="41"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="20" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="C31" s="11">
         <v>400</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>735</v>
-      </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
+        <v>727</v>
+      </c>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="20" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="C32" s="11">
         <v>550</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>737</v>
-      </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
+        <v>729</v>
+      </c>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="20" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="C33" s="11">
         <v>610</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>736</v>
-      </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
+        <v>728</v>
+      </c>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5424,7 +5432,7 @@
   <dimension ref="B1:AP28"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AO22" sqref="AO22"/>
+      <selection activeCell="AO21" sqref="AO21:AP22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5477,1299 +5485,1299 @@
   <sheetData>
     <row r="1" spans="2:42" s="9" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
       <c r="B1" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I1" s="12"/>
       <c r="K1" s="9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L1" s="12"/>
       <c r="N1" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O1" s="11"/>
       <c r="Q1" s="9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="R1" s="11"/>
       <c r="T1" s="9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="U1" s="11"/>
       <c r="W1" s="9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="X1" s="12"/>
       <c r="Z1" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AC1" s="9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AD1" s="11"/>
       <c r="AF1" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AG1" s="12"/>
       <c r="AI1" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AJ1" s="12"/>
       <c r="AL1" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AM1" s="12"/>
       <c r="AO1" s="9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AP1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>834</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="O2" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="Q2" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="R2" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="T2" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="U2" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="AL2" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="AM2" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="AO2" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="AP2" s="11" t="s">
         <v>207</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>757</v>
-      </c>
-      <c r="AI2" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="AJ2" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AL2" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="AM2" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="AO2" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="AP2" s="11" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="3" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>825</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>833</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="O3" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="Q3" s="31" t="s">
+        <v>760</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="T3" s="31" t="s">
+        <v>761</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="W3" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="X3" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="AC3" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="AD3" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="AF3" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="Q3" s="31" t="s">
-        <v>768</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>767</v>
-      </c>
-      <c r="T3" s="31" t="s">
-        <v>769</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>758</v>
-      </c>
-      <c r="W3" s="10" t="s">
+      <c r="AG3" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="AI3" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="AC3" s="13" t="s">
+      <c r="AJ3" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="AD3" s="11" t="s">
+      <c r="AL3" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="AF3" s="13" t="s">
+      <c r="AM3" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="AG3" s="11" t="s">
+      <c r="AO3" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="AI3" s="10" t="s">
+      <c r="AP3" s="11" t="s">
         <v>228</v>
-      </c>
-      <c r="AJ3" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="AL3" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="AM3" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="AO3" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="AP3" s="11" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="4" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="L4" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="N4" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="O4" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="W4" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="X4" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="AC4" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="AD4" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="AF4" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="AG4" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="AI4" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="AC4" s="13" t="s">
+      <c r="AJ4" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="AD4" s="11" t="s">
+      <c r="AL4" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="AF4" s="13" t="s">
+      <c r="AM4" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="AO4" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="AG4" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="AI4" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="AJ4" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="AL4" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="AM4" s="11" t="s">
-        <v>780</v>
-      </c>
-      <c r="AO4" s="10" t="s">
-        <v>253</v>
-      </c>
       <c r="AP4" s="11" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
     </row>
     <row r="5" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="H5" s="10" t="s">
+      <c r="O5" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="Q5" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="R5" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="T5" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="U5" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="W5" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="X5" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="AC5" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="AD5" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="AF5" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="U5" s="11" t="s">
-        <v>759</v>
-      </c>
-      <c r="W5" s="10" t="s">
+      <c r="AG5" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="X5" s="11" t="s">
+      <c r="AI5" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="AC5" s="13" t="s">
+      <c r="AJ5" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="AD5" s="11" t="s">
+      <c r="AL5" s="20" t="s">
+        <v>773</v>
+      </c>
+      <c r="AM5" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="AF5" s="13" t="s">
+      <c r="AO5" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="AG5" s="11" t="s">
+      <c r="AP5" s="11" t="s">
         <v>271</v>
-      </c>
-      <c r="AI5" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="AJ5" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="AL5" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AM5" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="AO5" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="AP5" s="11" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="6" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="L6" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="AI6" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="AJ6" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>828</v>
-      </c>
-      <c r="H6" s="10" t="s">
+      <c r="AL6" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>817</v>
-      </c>
-      <c r="K6" s="10" t="s">
+      <c r="AM6" s="11" t="s">
         <v>281</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="AI6" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="AJ6" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="AL6" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="AM6" s="11" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="7" spans="2:42" x14ac:dyDescent="0.3">
       <c r="C7" s="11"/>
       <c r="AI7" s="10" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AJ7" s="11" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="AL7" s="13" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AM7" s="11" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AO7" s="15" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="L8" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="N8" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>827</v>
-      </c>
-      <c r="H8" s="10" t="s">
+      <c r="O8" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="Q8" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="R8" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="T8" s="31" t="s">
+        <v>758</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="W8" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="X8" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="Z8" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="AA8" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="AC8" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="T8" s="31" t="s">
-        <v>766</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>763</v>
-      </c>
-      <c r="W8" s="10" t="s">
+      <c r="AD8" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="X8" s="11" t="s">
+      <c r="AF8" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="Z8" s="10" t="s">
+      <c r="AG8" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="AA8" s="11" t="s">
+      <c r="AI8" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="AC8" s="13" t="s">
+      <c r="AJ8" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="AD8" s="11" t="s">
+      <c r="AL8" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="AF8" s="13" t="s">
+      <c r="AM8" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="AO8" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="AG8" s="11" t="s">
+      <c r="AP8" s="11" t="s">
         <v>309</v>
-      </c>
-      <c r="AI8" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="AJ8" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="AL8" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AM8" s="11" t="s">
-        <v>782</v>
-      </c>
-      <c r="AO8" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="AP8" s="11" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="9" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="L9" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="N9" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="O9" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>826</v>
-      </c>
-      <c r="H9" s="10" t="s">
+      <c r="AI9" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>716</v>
-      </c>
-      <c r="K9" s="10" t="s">
+      <c r="AJ9" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="AO9" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="AP9" s="11" t="s">
         <v>321</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="AI9" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="AJ9" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="AO9" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="AP9" s="11" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="10" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>817</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="L10" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="AI10" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="AJ10" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="AL10" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="AO10" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>825</v>
-      </c>
-      <c r="H10" s="10" t="s">
+      <c r="AP10" s="11" t="s">
         <v>330</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>720</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="AI10" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="AJ10" s="11" t="s">
-        <v>820</v>
-      </c>
-      <c r="AL10" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="AO10" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="AP10" s="11" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="11" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="L11" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="AL11" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="AM11" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="AO11" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="AP11" s="11" t="s">
         <v>338</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>835</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>818</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="AL11" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="AM11" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="AO11" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="AP11" s="11" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="12" spans="2:42" x14ac:dyDescent="0.3">
       <c r="H12" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="O12" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="Q12" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="R12" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="T12" s="31" t="s">
+        <v>757</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="W12" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="X12" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="AC12" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="Q12" s="10" t="s">
+      <c r="AD12" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="AF12" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="T12" s="31" t="s">
-        <v>765</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>764</v>
-      </c>
-      <c r="W12" s="10" t="s">
+      <c r="AG12" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="X12" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="AC12" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="AD12" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="AF12" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="AG12" s="11" t="s">
-        <v>357</v>
-      </c>
       <c r="AI12" s="14" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="AJ12" s="14"/>
       <c r="AL12" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="AM12" s="11" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="2:42" x14ac:dyDescent="0.3">
       <c r="E13" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="N13" s="21"/>
       <c r="T13" s="21"/>
       <c r="AI13" s="31" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="AJ13" s="11" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AL13" s="10" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AM13" s="11" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AO13" s="15" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="2:42" x14ac:dyDescent="0.3">
       <c r="E14" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="AI14" s="31" t="s">
+        <v>743</v>
+      </c>
+      <c r="AJ14" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="AL14" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="AM14" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="AO14" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="AP14" s="11" t="s">
         <v>367</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>823</v>
-      </c>
-      <c r="AI14" s="31" t="s">
-        <v>751</v>
-      </c>
-      <c r="AJ14" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="AL14" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="AM14" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="AO14" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="AP14" s="11" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="15" spans="2:42" x14ac:dyDescent="0.3">
       <c r="E15" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="N15" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>822</v>
-      </c>
-      <c r="H15" s="10" t="s">
+      <c r="O15" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="Q15" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="R15" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="W15" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="X15" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="O15" s="11" t="s">
+      <c r="AC15" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="AD15" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="AF15" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="W15" s="10" t="s">
+      <c r="AG15" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="X15" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="AC15" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="AD15" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="AF15" s="13" t="s">
+      <c r="AI15" s="31" t="s">
+        <v>744</v>
+      </c>
+      <c r="AJ15" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="AL15" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="AM15" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="AO15" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="AG15" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="AI15" s="31" t="s">
-        <v>752</v>
-      </c>
-      <c r="AJ15" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="AL15" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="AM15" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="AO15" s="10" t="s">
-        <v>391</v>
-      </c>
       <c r="AP15" s="11" t="s">
-        <v>392</v>
+        <v>831</v>
       </c>
     </row>
     <row r="16" spans="2:42" x14ac:dyDescent="0.3">
       <c r="H16" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q16" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="R16" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="W16" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="X16" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="Z16" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="AA16" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="Q16" s="10" t="s">
+      <c r="AC16" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="AD16" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="W16" s="10" t="s">
+      <c r="AF16" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="X16" s="11" t="s">
+      <c r="AG16" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="Z16" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="AA16" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="AC16" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="AD16" s="11" t="s">
+      <c r="AL16" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="AM16" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="AO16" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="AF16" s="13" t="s">
+      <c r="AP16" s="11" t="s">
         <v>407</v>
-      </c>
-      <c r="AG16" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="AL16" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="AM16" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="AO16" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="AP16" s="11" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="17" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H17" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q17" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="R17" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="W17" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="X17" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="Z17" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="O17" s="11" t="s">
+      <c r="AA17" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="Q17" s="10" t="s">
+      <c r="AC17" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="R17" s="11" t="s">
+      <c r="AD17" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="W17" s="10" t="s">
+      <c r="AF17" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="X17" s="11" t="s">
+      <c r="AG17" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="Z17" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="AA17" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="AC17" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="AD17" s="11" t="s">
+      <c r="AI17" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="AO17" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="AF17" s="13" t="s">
+      <c r="AP17" s="11" t="s">
         <v>428</v>
-      </c>
-      <c r="AG17" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="AI17" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="AO17" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="AP17" s="11" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="18" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H18" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q18" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="R18" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="W18" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="X18" s="11" t="s">
         <v>438</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="R18" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="W18" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="X18" s="11" t="s">
-        <v>444</v>
       </c>
       <c r="AA18" s="11"/>
       <c r="AC18" s="31" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="AD18" s="11" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="AF18" s="31" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="AG18" s="11" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="AI18" s="32" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="AJ18" s="11" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="AL18" s="10" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="AM18" s="11" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="AO18" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="AP18" s="11" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="19" spans="5:42" x14ac:dyDescent="0.3">
+      <c r="E19" s="42" t="s">
+        <v>645</v>
+      </c>
+      <c r="F19" s="42"/>
+      <c r="H19" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="O19" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="AP18" s="11" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="19" spans="5:42" x14ac:dyDescent="0.3">
-      <c r="E19" s="41" t="s">
-        <v>653</v>
-      </c>
-      <c r="F19" s="41"/>
-      <c r="H19" s="10" t="s">
+      <c r="Q19" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="R19" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="W19" s="21" t="s">
         <v>450</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="X19" s="11" t="s">
         <v>451</v>
-      </c>
-      <c r="N19" s="21" t="s">
-        <v>452</v>
-      </c>
-      <c r="O19" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q19" s="21" t="s">
-        <v>454</v>
-      </c>
-      <c r="R19" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="W19" s="21" t="s">
-        <v>456</v>
-      </c>
-      <c r="X19" s="11" t="s">
-        <v>457</v>
       </c>
       <c r="AA19" s="11"/>
       <c r="AC19" s="22" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="AD19" s="11" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="AF19" s="22" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="AG19" s="11" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="AI19" s="20" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="AJ19" s="11" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="AL19" s="10" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="AM19" s="11" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="AO19" s="10" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="AP19" s="11" t="s">
-        <v>463</v>
+        <v>830</v>
       </c>
     </row>
     <row r="20" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H20" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="AI20" s="20" t="s">
+        <v>747</v>
+      </c>
+      <c r="AJ20" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="AL20" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="AM20" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="AO20" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="I20" s="11" t="s">
-        <v>819</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="N20" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="O20" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI20" s="20" t="s">
-        <v>755</v>
-      </c>
-      <c r="AJ20" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="AL20" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="AM20" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="AO20" s="21" t="s">
-        <v>471</v>
-      </c>
       <c r="AP20" s="11" t="s">
-        <v>472</v>
+        <v>829</v>
       </c>
     </row>
     <row r="21" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H21" s="10" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="AL21" s="10" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="AM21" s="11" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="AO21" s="10" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="AP21" s="11" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="5:42" x14ac:dyDescent="0.3">
       <c r="AL22" s="10" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="AM22" s="11" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="AO22" s="10" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="AP22" s="11" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H23" s="10" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="AL23" s="21" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="AM23" s="11" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H24" s="10" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="26" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H26" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="T26" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="I26" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="L26" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="N26" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="O26" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q26" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="R26" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="T26" s="10" t="s">
-        <v>510</v>
-      </c>
       <c r="U26" s="11" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
     </row>
     <row r="27" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H27" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="O27" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="T27" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="U27" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="W27" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="X27" s="11" t="s">
         <v>514</v>
-      </c>
-      <c r="L27" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="N27" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="O27" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="Q27" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="R27" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="T27" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="U27" s="11" t="s">
-        <v>761</v>
-      </c>
-      <c r="W27" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="X27" s="11" t="s">
-        <v>522</v>
       </c>
       <c r="AA27" s="11"/>
       <c r="AC27" s="13" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="AD27" s="11" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="AF27" s="13" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="AG27" s="11" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="28" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H28" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="O28" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="T28" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="U28" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="W28" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="X28" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="AC28" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="N28" s="10" t="s">
+      <c r="AD28" s="11" t="s">
         <v>529</v>
       </c>
-      <c r="O28" s="11" t="s">
+      <c r="AF28" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="Q28" s="10" t="s">
+      <c r="AG28" s="11" t="s">
         <v>531</v>
-      </c>
-      <c r="R28" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="T28" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="U28" s="11" t="s">
-        <v>762</v>
-      </c>
-      <c r="W28" s="10" t="s">
-        <v>534</v>
-      </c>
-      <c r="X28" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="AC28" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="AD28" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="AF28" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="AG28" s="11" t="s">
-        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -6808,333 +6816,333 @@
   <sheetData>
     <row r="1" spans="2:12" s="1" customFormat="1" ht="35" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="1" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B2" s="34" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B3" s="39" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B4" s="39" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B6" s="34" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="H6" s="6">
         <v>64</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="H7" s="6">
         <v>64</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="H8" s="6">
         <v>128</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="H9" s="6">
         <v>64</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="H10" s="6">
         <v>512</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="84" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H11" s="6">
         <v>64</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="H13" s="6">
         <v>64</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="H14" s="6">
         <v>128</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
@@ -7176,479 +7184,479 @@
   <sheetData>
     <row r="1" spans="2:12" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="1" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="56" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="56" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="56" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="H7" s="2">
         <v>512</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="70" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="H8" s="2">
         <v>256</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="H9" s="2">
         <v>512</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="H10" s="2">
         <v>256</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="140" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="H11" s="2">
         <v>512</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="98" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="H12" s="2">
         <v>512</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="70" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="H13" s="2">
         <v>128</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="29" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="H14" s="2">
         <v>512</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="H15" s="2">
         <v>512</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="29" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="H16" s="2">
         <v>2048</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="140" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>694</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>641</v>
+      </c>
+      <c r="I18" s="18" t="s">
         <v>634</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>702</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>649</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>642</v>
-      </c>
       <c r="L18" s="18" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="M18" s="18" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="126" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="18" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="196" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="18" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
@@ -7682,18 +7690,18 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="25" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="D2" s="26">
         <v>0.03</v>
@@ -7701,10 +7709,10 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
+        <v>655</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>663</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>671</v>
       </c>
       <c r="D3" s="26">
         <v>1</v>
@@ -7712,10 +7720,10 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="25" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="D4" s="26">
         <v>1</v>
@@ -7723,10 +7731,10 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="D5" s="26">
         <v>5</v>
@@ -7734,10 +7742,10 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="D6" s="26">
         <v>1</v>
@@ -7745,24 +7753,24 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="D7" s="26">
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="D8" s="26">
         <v>1</v>
@@ -7770,21 +7778,21 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
+        <v>660</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>668</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
+        <v>661</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>670</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>669</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>678</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -7812,88 +7820,88 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="56" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
-        <v>689</v>
+      <c r="A2" s="43" t="s">
+        <v>681</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A3" s="43"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="56" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="6">
         <v>3</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="70" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7903,22 +7911,22 @@
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="98" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
-        <v>698</v>
+      <c r="A10" s="45" t="s">
+        <v>690</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="18" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="70" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>

--- a/参考/资料/1.18版本策划.xlsx
+++ b/参考/资料/1.18版本策划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hqyzsy\IdeaProjects\micro_machinery\参考\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3D5B39-6BF2-45D9-8F18-D29F5008FBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FE0044-B32B-4A47-A41E-6DC8E4BBBC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -759,7 +759,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="839">
   <si>
     <t>矿石</t>
   </si>
@@ -803,9 +803,6 @@
     <t>钛铁矿</t>
   </si>
   <si>
-    <t>ore_ilmenite</t>
-  </si>
-  <si>
     <t>银块</t>
   </si>
   <si>
@@ -830,9 +827,6 @@
     <t>银矿</t>
   </si>
   <si>
-    <t>ore_silver</t>
-  </si>
-  <si>
     <t>镍块</t>
   </si>
   <si>
@@ -905,18 +899,12 @@
     <t>铬铁矿</t>
   </si>
   <si>
-    <t>ore_chromite</t>
-  </si>
-  <si>
     <t>钢质脚手架</t>
   </si>
   <si>
     <t>铝土矿</t>
   </si>
   <si>
-    <t>ore_bauxite</t>
-  </si>
-  <si>
     <t>钢块</t>
   </si>
   <si>
@@ -974,9 +962,6 @@
     <t>钒铁矿</t>
   </si>
   <si>
-    <t>ore_nolanite</t>
-  </si>
-  <si>
     <t>钒块</t>
   </si>
   <si>
@@ -1004,9 +989,6 @@
     <t>钨矿</t>
   </si>
   <si>
-    <t>ore_tunstite</t>
-  </si>
-  <si>
     <t>钴块</t>
   </si>
   <si>
@@ -1040,9 +1022,6 @@
     <t>能量接口</t>
   </si>
   <si>
-    <t>下界软锰矿</t>
-  </si>
-  <si>
     <t>钨块</t>
   </si>
   <si>
@@ -1073,9 +1052,6 @@
     <t>下界铝土矿</t>
   </si>
   <si>
-    <t>ore_bauxite_nether</t>
-  </si>
-  <si>
     <t>青铜块</t>
   </si>
   <si>
@@ -1094,9 +1070,6 @@
     <t>下界钒铁矿</t>
   </si>
   <si>
-    <t>ore_nolanite_nether</t>
-  </si>
-  <si>
     <t>殷钢块</t>
   </si>
   <si>
@@ -1130,9 +1103,6 @@
     <t>深层钛铁矿</t>
   </si>
   <si>
-    <t>ore_ilmenite_deepslate</t>
-  </si>
-  <si>
     <t>高速钢块</t>
   </si>
   <si>
@@ -1154,9 +1124,6 @@
     <t>深层铬铁矿</t>
   </si>
   <si>
-    <t>ore_chromite_deepslate</t>
-  </si>
-  <si>
     <t>钨钢块</t>
   </si>
   <si>
@@ -1166,9 +1133,6 @@
     <t>深层钒铁矿</t>
   </si>
   <si>
-    <t>ore_nolanite_deepslate</t>
-  </si>
-  <si>
     <t>记忆合金块</t>
   </si>
   <si>
@@ -1178,21 +1142,12 @@
     <t>深层钨矿</t>
   </si>
   <si>
-    <t>ore_tunstite_deepslate</t>
-  </si>
-  <si>
     <t>耐火砖块</t>
   </si>
   <si>
-    <t>fire_brick_block</t>
-  </si>
-  <si>
     <t>深层银矿</t>
   </si>
   <si>
-    <t>ore_silver_deepslate</t>
-  </si>
-  <si>
     <t>废铜块</t>
   </si>
   <si>
@@ -1202,9 +1157,6 @@
     <t>深层铝土矿</t>
   </si>
   <si>
-    <t>ore_bauxite_deepslate</t>
-  </si>
-  <si>
     <t>废铁块</t>
   </si>
   <si>
@@ -1337,9 +1289,6 @@
     <t>粗锡</t>
   </si>
   <si>
-    <t>raw_tin</t>
-  </si>
-  <si>
     <t>锡精矿</t>
   </si>
   <si>
@@ -1382,15 +1331,9 @@
     <t>石墨耐火砖</t>
   </si>
   <si>
-    <t>fire_brick</t>
-  </si>
-  <si>
     <t>粗银</t>
   </si>
   <si>
-    <t>raw_silver</t>
-  </si>
-  <si>
     <t>银精矿</t>
   </si>
   <si>
@@ -1451,9 +1394,6 @@
     <t>粗镍</t>
   </si>
   <si>
-    <t>raw_nickel</t>
-  </si>
-  <si>
     <t>镍精矿</t>
   </si>
   <si>
@@ -1511,9 +1451,6 @@
     <t>粗铝</t>
   </si>
   <si>
-    <t>raw_aluminum</t>
-  </si>
-  <si>
     <t>铝精矿</t>
   </si>
   <si>
@@ -1580,9 +1517,6 @@
     <t>粗锰</t>
   </si>
   <si>
-    <t>raw_manganese</t>
-  </si>
-  <si>
     <t>锰精矿</t>
   </si>
   <si>
@@ -1622,9 +1556,6 @@
     <t>粗铬铁</t>
   </si>
   <si>
-    <t>raw_chromite</t>
-  </si>
-  <si>
     <t>铬铁精矿</t>
   </si>
   <si>
@@ -1694,9 +1625,6 @@
     <t>粗钒铁</t>
   </si>
   <si>
-    <t>raw_nolanite</t>
-  </si>
-  <si>
     <t>钒铁精矿</t>
   </si>
   <si>
@@ -1730,9 +1658,6 @@
     <t>粗钛铁</t>
   </si>
   <si>
-    <t>raw_ilmenite</t>
-  </si>
-  <si>
     <t>钛铁精矿</t>
   </si>
   <si>
@@ -1755,9 +1680,6 @@
   </si>
   <si>
     <t>粗钨</t>
-  </si>
-  <si>
-    <t>raw_tunstite</t>
   </si>
   <si>
     <t>钨精矿</t>
@@ -3721,6 +3643,118 @@
   </si>
   <si>
     <t>interface_fluid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire_brick_block</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>conveyer_belt_2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>conveyer_belt_3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire_brick</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw_aluminum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw_chromite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw_ilmenite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw_manganese</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw_nickel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw_nolanite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw_silver</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw_tin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw_tunstite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_ilmenite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_ilmenite_deepslate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_nolanite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_nolanite_deepslate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_nolanite_nether</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>下界菱锰矿</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_chromite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_chromite_deepslate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_silver</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_silver_deepslate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_tunstite_deepslate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_tunstite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_bauxite_nether</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_bauxite_deepslate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_bauxite</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3969,7 +4003,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4103,6 +4137,15 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4382,7 +4425,7 @@
   <dimension ref="B1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="Q6:R6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4419,13 +4462,13 @@
         <v>1</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>781</v>
+        <v>755</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="L1" s="40" t="s">
-        <v>828</v>
+        <v>802</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>3</v>
@@ -4435,7 +4478,7 @@
       </c>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -4449,10 +4492,10 @@
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="31" t="s">
-        <v>780</v>
+        <v>754</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>790</v>
+        <v>764</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>9</v>
@@ -4461,10 +4504,10 @@
         <v>10</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>737</v>
+        <v>711</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>833</v>
+        <v>807</v>
       </c>
       <c r="Q2" s="17" t="s">
         <v>11</v>
@@ -4474,606 +4517,608 @@
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="31" t="s">
-        <v>782</v>
+        <v>756</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>791</v>
+        <v>765</v>
       </c>
       <c r="K3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="Q3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="R3" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="31" t="s">
-        <v>783</v>
+        <v>757</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>792</v>
+        <v>766</v>
       </c>
       <c r="K4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="O4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="Q4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="R4" s="11" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="47" t="s">
+        <v>795</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="17" t="s">
+      <c r="F5" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="31" t="s">
-        <v>821</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>822</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="31" t="s">
-        <v>784</v>
+        <v>758</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>793</v>
+        <v>767</v>
       </c>
       <c r="K5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="O5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="Q5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="R5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="17" t="s">
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="C6" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="31" t="s">
-        <v>785</v>
+        <v>759</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>794</v>
+        <v>768</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O6" s="11"/>
       <c r="Q6" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="R6" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="C7" s="11" t="s">
-        <v>48</v>
+        <v>830</v>
       </c>
       <c r="I7" s="11"/>
       <c r="N7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>838</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="31" t="s">
-        <v>786</v>
+        <v>760</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>795</v>
+        <v>769</v>
       </c>
       <c r="K8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="R8" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="N8" s="10" t="s">
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="31" t="s">
-        <v>787</v>
+        <v>761</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>796</v>
+        <v>770</v>
       </c>
       <c r="K9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="R9" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="10" t="s">
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="C10" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="F10" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="31" t="s">
-        <v>788</v>
+        <v>762</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>797</v>
+        <v>771</v>
       </c>
       <c r="K10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="R10" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="L10" s="11" t="s">
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="C11" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>83</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="31" t="s">
-        <v>789</v>
+        <v>763</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>798</v>
+        <v>772</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="N11" s="16"/>
       <c r="O11" s="11"/>
       <c r="Q11" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="46"/>
       <c r="E12" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G12" s="11"/>
       <c r="I12" s="11"/>
       <c r="K12" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>834</v>
+        <v>808</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
-        <v>93</v>
+      <c r="B13" s="47" t="s">
+        <v>829</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>823</v>
+        <v>797</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G13" s="11"/>
       <c r="I13" s="11"/>
       <c r="K13" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q13" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q14" s="31" t="s">
+        <v>713</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="C15" s="11" t="s">
+        <v>836</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="N13" s="17" t="s">
+      <c r="F15" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q13" s="31" t="s">
-        <v>738</v>
-      </c>
-      <c r="R13" s="11" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="N14" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>835</v>
-      </c>
-      <c r="Q14" s="31" t="s">
-        <v>739</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="G15" s="11"/>
       <c r="I15" s="11"/>
       <c r="K15" s="10" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>836</v>
+        <v>810</v>
       </c>
       <c r="Q15" s="31" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>735</v>
+        <v>709</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
-        <v>110</v>
+      <c r="B16" s="48" t="s">
+        <v>102</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>111</v>
+        <v>828</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G16" s="11"/>
       <c r="I16" s="11"/>
       <c r="K16" s="10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="31" t="s">
-        <v>741</v>
+        <v>715</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>736</v>
+        <v>710</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="46"/>
       <c r="E17" s="10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G17" s="11"/>
       <c r="I17" s="11"/>
       <c r="K17" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="R17" s="11"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
-        <v>122</v>
+      <c r="B18" s="46" t="s">
+        <v>113</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>123</v>
+        <v>825</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G18" s="11"/>
       <c r="I18" s="11"/>
       <c r="K18" s="10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
-        <v>130</v>
+      <c r="B19" s="46" t="s">
+        <v>120</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>131</v>
+        <v>831</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G19" s="11"/>
       <c r="I19" s="11"/>
       <c r="K19" s="31" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>802</v>
+        <v>776</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
-        <v>134</v>
+      <c r="B20" s="46" t="s">
+        <v>123</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>135</v>
+        <v>827</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G20" s="11"/>
       <c r="I20" s="11"/>
       <c r="L20" s="11"/>
       <c r="N20" s="13" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>141</v>
+        <v>811</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="10" t="s">
-        <v>138</v>
+      <c r="B21" s="46" t="s">
+        <v>126</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>139</v>
+        <v>834</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="10" t="s">
-        <v>142</v>
+      <c r="B22" s="46" t="s">
+        <v>128</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>143</v>
+        <v>833</v>
       </c>
       <c r="E22" s="31"/>
       <c r="K22" s="10" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="N22" s="13"/>
       <c r="O22" s="11"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="10" t="s">
-        <v>146</v>
+      <c r="B23" s="46" t="s">
+        <v>131</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>147</v>
+        <v>837</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
@@ -5104,68 +5149,68 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C2" s="11">
         <v>505</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>701</v>
+        <v>675</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C3" s="11">
         <v>1235</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>702</v>
+        <v>676</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C4" s="11">
         <v>1356</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>703</v>
+        <v>677</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C5" s="11">
         <v>1726</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>704</v>
+        <v>678</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C6" s="11">
         <v>933</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>705</v>
+        <v>679</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C7" s="11">
         <v>1517</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>706</v>
+        <v>680</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -5173,57 +5218,57 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C9" s="11">
         <v>2130</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>709</v>
+        <v>683</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C10" s="11">
         <v>2163</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>713</v>
+        <v>687</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C11" s="11">
         <v>1768</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>707</v>
+        <v>681</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C12" s="11">
         <v>1941</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>710</v>
+        <v>684</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C13" s="11">
         <v>3683</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>711</v>
+        <v>685</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -5231,57 +5276,57 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C15" s="11">
         <v>1170</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>714</v>
+        <v>688</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C16" s="11">
         <v>1723</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>715</v>
+        <v>689</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C17" s="11">
         <v>1570</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>716</v>
+        <v>690</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C18" s="11">
         <v>1893</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>717</v>
+        <v>691</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C19" s="11">
         <v>1700</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>718</v>
+        <v>692</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
@@ -5289,131 +5334,131 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="C21" s="11">
         <v>1356</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>719</v>
+        <v>693</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="C22" s="11">
         <v>1800</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>720</v>
+        <v>694</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C23" s="11">
         <v>1337</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>721</v>
+        <v>695</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="C25" s="11">
         <v>293</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>722</v>
+        <v>696</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C26" s="11">
         <v>293</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>723</v>
+        <v>697</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="C27" s="11">
         <v>293</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>724</v>
+        <v>698</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C28" s="11">
         <v>293</v>
       </c>
       <c r="D28" t="s">
-        <v>725</v>
+        <v>699</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="20" t="s">
-        <v>637</v>
+        <v>611</v>
       </c>
       <c r="C30" s="11">
         <v>270</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>726</v>
+        <v>700</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>692</v>
+        <v>666</v>
       </c>
       <c r="F30" s="41"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="20" t="s">
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="C31" s="11">
         <v>400</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>727</v>
+        <v>701</v>
       </c>
       <c r="E31" s="41"/>
       <c r="F31" s="41"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="20" t="s">
-        <v>639</v>
+        <v>613</v>
       </c>
       <c r="C32" s="11">
         <v>550</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>729</v>
+        <v>703</v>
       </c>
       <c r="E32" s="41"/>
       <c r="F32" s="41"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="20" t="s">
-        <v>640</v>
+        <v>614</v>
       </c>
       <c r="C33" s="11">
         <v>610</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>728</v>
+        <v>702</v>
       </c>
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
@@ -5431,8 +5476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AP28"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AO21" sqref="AO21:AP22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5485,1299 +5530,1299 @@
   <sheetData>
     <row r="1" spans="2:42" s="9" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
       <c r="B1" s="9" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="I1" s="12"/>
       <c r="K1" s="9" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="L1" s="12"/>
       <c r="N1" s="9" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="O1" s="11"/>
       <c r="Q1" s="9" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="R1" s="11"/>
       <c r="T1" s="9" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="U1" s="11"/>
       <c r="W1" s="9" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="X1" s="12"/>
       <c r="Z1" s="9" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="AC1" s="9" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="AD1" s="11"/>
       <c r="AF1" s="9" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AG1" s="12"/>
       <c r="AI1" s="9" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="AJ1" s="12"/>
       <c r="AL1" s="9" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="AM1" s="12"/>
       <c r="AO1" s="9" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="AP1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>192</v>
+        <v>822</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>826</v>
+        <v>800</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>749</v>
+        <v>723</v>
       </c>
       <c r="AI2" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL2" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM2" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="AJ2" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="AL2" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="AM2" s="11" t="s">
-        <v>205</v>
-      </c>
       <c r="AO2" s="13" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="AP2" s="11" t="s">
-        <v>207</v>
+        <v>814</v>
       </c>
     </row>
     <row r="3" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q3" s="31" t="s">
+        <v>734</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="T3" s="31" t="s">
+        <v>735</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC3" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF3" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG3" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI3" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ3" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL3" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM3" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO3" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="AP3" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>825</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q3" s="31" t="s">
-        <v>760</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>759</v>
-      </c>
-      <c r="T3" s="31" t="s">
-        <v>761</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>750</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC3" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD3" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="AF3" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="AG3" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI3" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="AJ3" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="AL3" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="AM3" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="AO3" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="AP3" s="11" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="4" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>230</v>
+        <v>819</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AC4" s="13" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="AD4" s="11" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="AF4" s="13" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="AG4" s="11" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="AI4" s="10" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="AJ4" s="11" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="AL4" s="13" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="AM4" s="11" t="s">
-        <v>772</v>
+        <v>746</v>
       </c>
       <c r="AO4" s="10" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="AP4" s="11" t="s">
-        <v>698</v>
+        <v>672</v>
       </c>
     </row>
     <row r="5" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC5" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD5" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF5" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG5" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI5" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ5" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL5" s="20" t="s">
+        <v>747</v>
+      </c>
+      <c r="AM5" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="AO5" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="AP5" s="11" t="s">
         <v>250</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>824</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>751</v>
-      </c>
-      <c r="W5" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="X5" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="AC5" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD5" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF5" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="AG5" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="AI5" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="AJ5" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="AL5" s="20" t="s">
-        <v>773</v>
-      </c>
-      <c r="AM5" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="AO5" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="AP5" s="11" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="6" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>273</v>
+        <v>818</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>809</v>
+        <v>783</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="AI6" s="10" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="AJ6" s="11" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="AL6" s="16" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="AM6" s="11" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="2:42" x14ac:dyDescent="0.3">
       <c r="C7" s="11"/>
       <c r="AI7" s="10" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="AJ7" s="11" t="s">
-        <v>813</v>
+        <v>787</v>
       </c>
       <c r="AL7" s="13" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="AM7" s="11" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="AO7" s="15" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>793</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="T8" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="X8" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z8" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA8" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC8" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD8" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AF8" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="AG8" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="AI8" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="AJ8" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="AL8" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="AM8" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="AO8" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="AP8" s="11" t="s">
         <v>286</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>819</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="T8" s="31" t="s">
-        <v>758</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>755</v>
-      </c>
-      <c r="W8" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="X8" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="Z8" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AA8" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="AC8" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="AD8" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="AF8" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="AG8" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="AI8" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="AJ8" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="AL8" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="AM8" s="11" t="s">
-        <v>774</v>
-      </c>
-      <c r="AO8" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="AP8" s="11" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="9" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>311</v>
+        <v>820</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>818</v>
+        <v>792</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>708</v>
+        <v>682</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="AI9" s="10" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="AJ9" s="11" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="AO9" s="10" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="AP9" s="11" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>323</v>
+        <v>817</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>817</v>
+        <v>791</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="L10" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="AI10" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="AJ10" s="11" t="s">
+        <v>786</v>
+      </c>
+      <c r="AL10" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="AI10" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="AJ10" s="11" t="s">
-        <v>812</v>
-      </c>
-      <c r="AL10" s="15" t="s">
-        <v>353</v>
-      </c>
       <c r="AO10" s="10" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="AP10" s="11" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>332</v>
+        <v>823</v>
       </c>
       <c r="E11" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="AL11" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>827</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="AM11" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="AL11" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="AM11" s="11" t="s">
-        <v>360</v>
-      </c>
       <c r="AO11" s="10" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="AP11" s="11" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="2:42" x14ac:dyDescent="0.3">
       <c r="H12" s="10" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="T12" s="31" t="s">
-        <v>757</v>
+        <v>731</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>756</v>
+        <v>730</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="X12" s="11" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="AC12" s="13" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="AD12" s="11" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="AF12" s="13" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="AG12" s="11" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="AI12" s="14" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="AJ12" s="14"/>
       <c r="AL12" s="10" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="AM12" s="11" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="2:42" x14ac:dyDescent="0.3">
       <c r="E13" s="10" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>816</v>
+        <v>790</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="N13" s="21"/>
       <c r="T13" s="21"/>
       <c r="AI13" s="31" t="s">
-        <v>742</v>
+        <v>716</v>
       </c>
       <c r="AJ13" s="11" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="AL13" s="10" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="AM13" s="11" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="AO13" s="15" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="2:42" x14ac:dyDescent="0.3">
       <c r="E14" s="10" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>815</v>
+        <v>789</v>
       </c>
       <c r="AI14" s="31" t="s">
-        <v>743</v>
+        <v>717</v>
       </c>
       <c r="AJ14" s="11" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="AL14" s="10" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="AM14" s="11" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="AO14" s="10" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="AP14" s="11" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="2:42" x14ac:dyDescent="0.3">
       <c r="E15" s="10" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>814</v>
+        <v>788</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="X15" s="11" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="AC15" s="13" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="AD15" s="11" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="AF15" s="13" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="AG15" s="11" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="AI15" s="31" t="s">
-        <v>744</v>
+        <v>718</v>
       </c>
       <c r="AJ15" s="11" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="AL15" s="10" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="AM15" s="11" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="AO15" s="10" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="AP15" s="11" t="s">
-        <v>831</v>
+        <v>805</v>
       </c>
     </row>
     <row r="16" spans="2:42" x14ac:dyDescent="0.3">
       <c r="H16" s="10" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="W16" s="10" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="X16" s="11" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="AA16" s="11" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
       <c r="AC16" s="13" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="AD16" s="11" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="AF16" s="13" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="AG16" s="11" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="AL16" s="21" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
       <c r="AM16" s="11" t="s">
-        <v>440</v>
+        <v>414</v>
       </c>
       <c r="AO16" s="10" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="AP16" s="11" t="s">
-        <v>407</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H17" s="10" t="s">
-        <v>408</v>
+        <v>382</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>409</v>
+        <v>383</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>414</v>
+        <v>388</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="X17" s="11" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="AA17" s="11" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
       <c r="AC17" s="13" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="AD17" s="11" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="AF17" s="13" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="AG17" s="11" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="AI17" s="15" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="AO17" s="10" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="AP17" s="11" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H18" s="10" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="X18" s="11" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
       <c r="AA18" s="11"/>
       <c r="AC18" s="31" t="s">
-        <v>763</v>
+        <v>737</v>
       </c>
       <c r="AD18" s="11" t="s">
-        <v>764</v>
+        <v>738</v>
       </c>
       <c r="AF18" s="31" t="s">
-        <v>765</v>
+        <v>739</v>
       </c>
       <c r="AG18" s="11" t="s">
-        <v>766</v>
+        <v>740</v>
       </c>
       <c r="AI18" s="32" t="s">
-        <v>745</v>
+        <v>719</v>
       </c>
       <c r="AJ18" s="11" t="s">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="AL18" s="10" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
       <c r="AM18" s="11" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="AO18" s="10" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
       <c r="AP18" s="11" t="s">
-        <v>748</v>
+        <v>722</v>
       </c>
     </row>
     <row r="19" spans="5:42" x14ac:dyDescent="0.3">
       <c r="E19" s="42" t="s">
-        <v>645</v>
+        <v>619</v>
       </c>
       <c r="F19" s="42"/>
       <c r="H19" s="10" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
       <c r="Q19" s="21" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
       <c r="W19" s="21" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="X19" s="11" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="AA19" s="11"/>
       <c r="AC19" s="22" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="AD19" s="11" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="AF19" s="22" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="AG19" s="11" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="AI19" s="20" t="s">
-        <v>746</v>
+        <v>720</v>
       </c>
       <c r="AJ19" s="11" t="s">
-        <v>491</v>
+        <v>465</v>
       </c>
       <c r="AL19" s="10" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="AM19" s="11" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="AO19" s="10" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
       <c r="AP19" s="11" t="s">
-        <v>830</v>
+        <v>804</v>
       </c>
     </row>
     <row r="20" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H20" s="10" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>811</v>
+        <v>785</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>458</v>
+        <v>432</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
       <c r="AI20" s="20" t="s">
-        <v>747</v>
+        <v>721</v>
       </c>
       <c r="AJ20" s="11" t="s">
-        <v>503</v>
+        <v>477</v>
       </c>
       <c r="AL20" s="10" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="AM20" s="11" t="s">
-        <v>474</v>
+        <v>448</v>
       </c>
       <c r="AO20" s="21" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
       <c r="AP20" s="11" t="s">
-        <v>829</v>
+        <v>803</v>
       </c>
     </row>
     <row r="21" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H21" s="10" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>803</v>
+        <v>777</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>466</v>
+        <v>440</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>467</v>
+        <v>441</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>804</v>
+        <v>778</v>
       </c>
       <c r="AL21" s="10" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="AM21" s="11" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="AO21" s="10" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="AP21" s="11" t="s">
-        <v>472</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="5:42" x14ac:dyDescent="0.3">
       <c r="AL22" s="10" t="s">
-        <v>489</v>
+        <v>463</v>
       </c>
       <c r="AM22" s="11" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="AO22" s="10" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="AP22" s="11" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H23" s="10" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="AL23" s="21" t="s">
-        <v>492</v>
+        <v>466</v>
       </c>
       <c r="AM23" s="11" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H24" s="10" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>484</v>
+        <v>458</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>485</v>
+        <v>459</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>487</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H26" s="10" t="s">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>496</v>
+        <v>470</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="O26" s="11" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>500</v>
+        <v>474</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
       <c r="U26" s="11" t="s">
-        <v>752</v>
+        <v>726</v>
       </c>
     </row>
     <row r="27" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H27" s="10" t="s">
-        <v>504</v>
+        <v>478</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>505</v>
+        <v>479</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>508</v>
+        <v>482</v>
       </c>
       <c r="O27" s="11" t="s">
-        <v>509</v>
+        <v>483</v>
       </c>
       <c r="Q27" s="10" t="s">
-        <v>510</v>
+        <v>484</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>511</v>
+        <v>485</v>
       </c>
       <c r="T27" s="10" t="s">
-        <v>512</v>
+        <v>486</v>
       </c>
       <c r="U27" s="11" t="s">
-        <v>753</v>
+        <v>727</v>
       </c>
       <c r="W27" s="10" t="s">
-        <v>513</v>
+        <v>487</v>
       </c>
       <c r="X27" s="11" t="s">
-        <v>514</v>
+        <v>488</v>
       </c>
       <c r="AA27" s="11"/>
       <c r="AC27" s="13" t="s">
-        <v>515</v>
+        <v>489</v>
       </c>
       <c r="AD27" s="11" t="s">
-        <v>516</v>
+        <v>490</v>
       </c>
       <c r="AF27" s="13" t="s">
-        <v>517</v>
+        <v>491</v>
       </c>
       <c r="AG27" s="11" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
     </row>
     <row r="28" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H28" s="10" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>521</v>
+        <v>495</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>522</v>
+        <v>496</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>523</v>
+        <v>497</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>524</v>
+        <v>498</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>525</v>
+        <v>499</v>
       </c>
       <c r="U28" s="11" t="s">
-        <v>754</v>
+        <v>728</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>526</v>
+        <v>500</v>
       </c>
       <c r="X28" s="11" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
       <c r="AC28" s="13" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="AD28" s="11" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="AF28" s="13" t="s">
-        <v>530</v>
+        <v>504</v>
       </c>
       <c r="AG28" s="11" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -6816,333 +6861,333 @@
   <sheetData>
     <row r="1" spans="2:12" s="1" customFormat="1" ht="35" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="1" t="s">
-        <v>533</v>
+        <v>507</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>534</v>
+        <v>508</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>535</v>
+        <v>509</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>536</v>
+        <v>510</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>537</v>
+        <v>511</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>539</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B2" s="34" t="s">
-        <v>540</v>
+        <v>514</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>541</v>
+        <v>515</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>542</v>
+        <v>516</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>543</v>
+        <v>517</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>544</v>
+        <v>518</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B3" s="39" t="s">
-        <v>775</v>
+        <v>749</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>778</v>
+        <v>752</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>542</v>
+        <v>516</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>543</v>
+        <v>517</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>544</v>
+        <v>518</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B4" s="39" t="s">
-        <v>776</v>
+        <v>750</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>777</v>
+        <v>751</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>542</v>
+        <v>516</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>543</v>
+        <v>517</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>544</v>
+        <v>518</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>771</v>
+        <v>745</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B6" s="34" t="s">
-        <v>548</v>
+        <v>522</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>549</v>
+        <v>523</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>551</v>
+        <v>525</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>779</v>
+        <v>753</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>552</v>
+        <v>526</v>
       </c>
       <c r="H6" s="6">
         <v>64</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>553</v>
+        <v>527</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>554</v>
+        <v>528</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>542</v>
+        <v>516</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>807</v>
+        <v>781</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>808</v>
+        <v>782</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>552</v>
+        <v>526</v>
       </c>
       <c r="H7" s="6">
         <v>64</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>555</v>
+        <v>529</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>806</v>
+        <v>780</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>557</v>
+        <v>531</v>
       </c>
       <c r="H8" s="6">
         <v>128</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>558</v>
+        <v>532</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>559</v>
+        <v>533</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>560</v>
+        <v>534</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>542</v>
+        <v>516</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>799</v>
+        <v>773</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>800</v>
+        <v>774</v>
       </c>
       <c r="H9" s="6">
         <v>64</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>561</v>
+        <v>535</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>562</v>
+        <v>536</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>542</v>
+        <v>516</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>563</v>
+        <v>537</v>
       </c>
       <c r="H10" s="6">
         <v>512</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>651</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="84" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>564</v>
+        <v>538</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>565</v>
+        <v>539</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="H11" s="6">
         <v>64</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>558</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>567</v>
+        <v>541</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>568</v>
+        <v>542</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>571</v>
+        <v>545</v>
       </c>
       <c r="H13" s="6">
         <v>64</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>573</v>
+        <v>547</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>805</v>
+        <v>779</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>575</v>
+        <v>549</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>576</v>
+        <v>550</v>
       </c>
       <c r="H14" s="6">
         <v>128</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
@@ -7184,479 +7229,479 @@
   <sheetData>
     <row r="1" spans="2:12" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="1" t="s">
-        <v>533</v>
+        <v>507</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>534</v>
+        <v>508</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>535</v>
+        <v>509</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>536</v>
+        <v>510</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>537</v>
+        <v>511</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>539</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="56" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>577</v>
+        <v>551</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>578</v>
+        <v>552</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>579</v>
+        <v>553</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>643</v>
+        <v>617</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>580</v>
+        <v>554</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>581</v>
+        <v>555</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>636</v>
+        <v>610</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>582</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>583</v>
+        <v>557</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>584</v>
+        <v>558</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>579</v>
+        <v>553</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>585</v>
+        <v>559</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>587</v>
+        <v>561</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>588</v>
+        <v>562</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>589</v>
+        <v>563</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>647</v>
+        <v>621</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>590</v>
+        <v>564</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>591</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="56" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>592</v>
+        <v>566</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>593</v>
+        <v>567</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>697</v>
+        <v>671</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>762</v>
+        <v>736</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="56" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>594</v>
+        <v>568</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>595</v>
+        <v>569</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>596</v>
+        <v>570</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>632</v>
+        <v>606</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>597</v>
+        <v>571</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>598</v>
+        <v>572</v>
       </c>
       <c r="H7" s="2">
         <v>512</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="70" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>599</v>
+        <v>573</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>600</v>
+        <v>574</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>596</v>
+        <v>570</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>633</v>
+        <v>607</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>601</v>
+        <v>575</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>602</v>
+        <v>576</v>
       </c>
       <c r="H8" s="2">
         <v>256</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>646</v>
+        <v>620</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>603</v>
+        <v>577</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>604</v>
+        <v>578</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>628</v>
+        <v>602</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>650</v>
+        <v>624</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>649</v>
+        <v>623</v>
       </c>
       <c r="H9" s="2">
         <v>512</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>646</v>
+        <v>620</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>606</v>
+        <v>580</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>596</v>
+        <v>570</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>608</v>
+        <v>582</v>
       </c>
       <c r="H10" s="2">
         <v>256</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>629</v>
+        <v>603</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="140" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>609</v>
+        <v>583</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>610</v>
+        <v>584</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>596</v>
+        <v>570</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>630</v>
+        <v>604</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>611</v>
+        <v>585</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>649</v>
+        <v>623</v>
       </c>
       <c r="H11" s="2">
         <v>512</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>646</v>
+        <v>620</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="98" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>612</v>
+        <v>586</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>613</v>
+        <v>587</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>648</v>
+        <v>622</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>614</v>
+        <v>588</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>615</v>
+        <v>589</v>
       </c>
       <c r="H12" s="2">
         <v>512</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="70" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>616</v>
+        <v>590</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>617</v>
+        <v>591</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>596</v>
+        <v>570</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>635</v>
+        <v>609</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>618</v>
+        <v>592</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>619</v>
+        <v>593</v>
       </c>
       <c r="H13" s="2">
         <v>128</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>646</v>
+        <v>620</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="29" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>620</v>
+        <v>594</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>621</v>
+        <v>595</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>699</v>
+        <v>673</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>631</v>
+        <v>605</v>
       </c>
       <c r="H14" s="2">
         <v>512</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>622</v>
+        <v>596</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>623</v>
+        <v>597</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>642</v>
+        <v>616</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>644</v>
+        <v>618</v>
       </c>
       <c r="H15" s="2">
         <v>512</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="29" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>624</v>
+        <v>598</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>625</v>
+        <v>599</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>589</v>
+        <v>563</v>
       </c>
       <c r="H16" s="2">
         <v>2048</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="140" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>626</v>
+        <v>600</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>700</v>
+        <v>674</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>694</v>
+        <v>668</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>641</v>
+        <v>615</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>767</v>
+        <v>741</v>
       </c>
       <c r="M18" s="18" t="s">
-        <v>769</v>
+        <v>743</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>770</v>
+        <v>744</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="126" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>627</v>
+        <v>601</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>730</v>
+        <v>704</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="18" t="s">
-        <v>695</v>
+        <v>669</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>641</v>
+        <v>615</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>768</v>
+        <v>742</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>769</v>
+        <v>743</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="196" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
-        <v>732</v>
+        <v>706</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>731</v>
+        <v>705</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="18" t="s">
-        <v>696</v>
+        <v>670</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>693</v>
+        <v>667</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>652</v>
+        <v>626</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
@@ -7690,18 +7735,18 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="25" t="s">
-        <v>653</v>
+        <v>627</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>665</v>
+        <v>639</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
-        <v>654</v>
+        <v>628</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>666</v>
+        <v>640</v>
       </c>
       <c r="D2" s="26">
         <v>0.03</v>
@@ -7709,10 +7754,10 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
-        <v>655</v>
+        <v>629</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>663</v>
+        <v>637</v>
       </c>
       <c r="D3" s="26">
         <v>1</v>
@@ -7720,10 +7765,10 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="25" t="s">
-        <v>664</v>
+        <v>638</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>663</v>
+        <v>637</v>
       </c>
       <c r="D4" s="26">
         <v>1</v>
@@ -7731,10 +7776,10 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
-        <v>656</v>
+        <v>630</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>662</v>
+        <v>636</v>
       </c>
       <c r="D5" s="26">
         <v>5</v>
@@ -7742,10 +7787,10 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
-        <v>657</v>
+        <v>631</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>663</v>
+        <v>637</v>
       </c>
       <c r="D6" s="26">
         <v>1</v>
@@ -7753,24 +7798,24 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
-        <v>658</v>
+        <v>632</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>667</v>
+        <v>641</v>
       </c>
       <c r="D7" s="26">
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>671</v>
+        <v>645</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
-        <v>659</v>
+        <v>633</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>663</v>
+        <v>637</v>
       </c>
       <c r="D8" s="26">
         <v>1</v>
@@ -7778,21 +7823,21 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
-        <v>660</v>
+        <v>634</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>668</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
-        <v>661</v>
+        <v>635</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>670</v>
+        <v>644</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>669</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -7821,22 +7866,22 @@
   <sheetData>
     <row r="2" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
-        <v>681</v>
+        <v>655</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>672</v>
+        <v>646</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>682</v>
+        <v>656</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>683</v>
+        <v>657</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28" x14ac:dyDescent="0.3">
@@ -7845,13 +7890,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>673</v>
+        <v>647</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>684</v>
+        <v>658</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>685</v>
+        <v>659</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="56" x14ac:dyDescent="0.3">
@@ -7860,10 +7905,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>674</v>
+        <v>648</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>686</v>
+        <v>660</v>
       </c>
       <c r="F4" s="28"/>
     </row>
@@ -7873,7 +7918,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>675</v>
+        <v>649</v>
       </c>
       <c r="E5" s="18"/>
     </row>
@@ -7883,16 +7928,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>676</v>
+        <v>650</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>677</v>
+        <v>651</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>678</v>
+        <v>652</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>679</v>
+        <v>653</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -7901,7 +7946,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>680</v>
+        <v>654</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7912,21 +7957,21 @@
     </row>
     <row r="10" spans="1:6" ht="98" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="18" t="s">
-        <v>691</v>
+        <v>665</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A11" s="45"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>

--- a/参考/资料/1.18版本策划.xlsx
+++ b/参考/资料/1.18版本策划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hqyzsy\IdeaProjects\micro_machinery\参考\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FE0044-B32B-4A47-A41E-6DC8E4BBBC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE24F444-BC09-46FE-AD28-46443EE3F8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2393,9 +2393,6 @@
     <t>pump</t>
   </si>
   <si>
-    <t>可以抽取正前下方的液体，若泵的检测方块为水源方块，每tick抽取25mb不消耗流体方块；若检测方块为流动水，则每tick抽取20mb，不消耗流体方块；若检测方块为岩浆源，消耗流体方块，抽空cd为2秒；若检测到其他种类流体源，会立即抽空该流体方块，产出1000mb对应流体，抽空cd为2秒；水泵自带2000mb容量</t>
-  </si>
-  <si>
     <t>仓鼠轮发电机</t>
   </si>
   <si>
@@ -3755,6 +3752,10 @@
   </si>
   <si>
     <t>ore_bauxite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以抽取正前下方的液体，若泵的检测方块为水源方块，每tick抽取25mb不消耗流体方块；若检测方块为流动水，则每tick抽取20mb，不消耗流体方块；若检测方块为岩浆源，消耗流体方块，抽空cd为2秒；若检测到其他种类流体源，会立即抽空该流体方块，产出1000mb对应流体，抽空cd为2秒；水泵自带2000mb容量</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4003,7 +4004,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4137,15 +4138,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4425,7 +4417,7 @@
   <dimension ref="B1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4462,13 +4454,13 @@
         <v>1</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="L1" s="40" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>3</v>
@@ -4478,7 +4470,7 @@
       </c>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -4492,10 +4484,10 @@
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="31" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>9</v>
@@ -4504,10 +4496,10 @@
         <v>10</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Q2" s="17" t="s">
         <v>11</v>
@@ -4517,11 +4509,11 @@
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>14</v>
@@ -4531,10 +4523,10 @@
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="31" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>16</v>
@@ -4552,15 +4544,15 @@
         <v>20</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>22</v>
@@ -4570,10 +4562,10 @@
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="31" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>24</v>
@@ -4591,15 +4583,15 @@
         <v>28</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="31" t="s">
+        <v>794</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>795</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>796</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>29</v>
@@ -4609,10 +4601,10 @@
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="31" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>31</v>
@@ -4634,7 +4626,7 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -4648,10 +4640,10 @@
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="31" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>41</v>
@@ -4668,26 +4660,26 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I7" s="11"/>
       <c r="N7" s="10" t="s">
         <v>46</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>48</v>
@@ -4697,10 +4689,10 @@
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="31" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>50</v>
@@ -4722,7 +4714,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -4736,10 +4728,10 @@
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="31" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>60</v>
@@ -4761,11 +4753,11 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>67</v>
@@ -4775,10 +4767,10 @@
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="31" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>69</v>
@@ -4800,11 +4792,11 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="10" t="s">
         <v>75</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>76</v>
@@ -4814,10 +4806,10 @@
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="31" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>78</v>
@@ -4835,7 +4827,6 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="46"/>
       <c r="E12" s="10" t="s">
         <v>82</v>
       </c>
@@ -4854,15 +4845,15 @@
         <v>86</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="47" t="s">
-        <v>829</v>
+      <c r="B13" s="31" t="s">
+        <v>828</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>87</v>
@@ -4885,14 +4876,14 @@
         <v>92</v>
       </c>
       <c r="Q13" s="31" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -4902,21 +4893,21 @@
         <v>95</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="Q14" s="31" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="10" t="s">
         <v>96</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>97</v>
@@ -4936,21 +4927,21 @@
         <v>101</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="Q15" s="31" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="17" t="s">
         <v>102</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>103</v>
@@ -4967,14 +4958,13 @@
         <v>106</v>
       </c>
       <c r="Q16" s="31" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="46"/>
       <c r="E17" s="10" t="s">
         <v>107</v>
       </c>
@@ -4998,11 +4988,11 @@
       <c r="R17" s="11"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="10" t="s">
         <v>113</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>114</v>
@@ -5026,11 +5016,11 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="10" t="s">
         <v>120</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>121</v>
@@ -5041,18 +5031,18 @@
       <c r="G19" s="11"/>
       <c r="I19" s="11"/>
       <c r="K19" s="31" t="s">
+        <v>774</v>
+      </c>
+      <c r="L19" s="11" t="s">
         <v>775</v>
       </c>
-      <c r="L19" s="11" t="s">
-        <v>776</v>
-      </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="10" t="s">
         <v>123</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>124</v>
@@ -5067,15 +5057,15 @@
         <v>127</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="10" t="s">
         <v>126</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>129</v>
@@ -5091,11 +5081,11 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="10" t="s">
         <v>128</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E22" s="31"/>
       <c r="K22" s="10" t="s">
@@ -5108,11 +5098,11 @@
       <c r="O22" s="11"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="10" t="s">
         <v>131</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>136</v>
@@ -5155,7 +5145,7 @@
         <v>505</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -5166,7 +5156,7 @@
         <v>1235</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
@@ -5177,7 +5167,7 @@
         <v>1356</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -5188,7 +5178,7 @@
         <v>1726</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -5199,7 +5189,7 @@
         <v>933</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -5210,7 +5200,7 @@
         <v>1517</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -5224,7 +5214,7 @@
         <v>2130</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -5235,7 +5225,7 @@
         <v>2163</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -5246,7 +5236,7 @@
         <v>1768</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -5257,7 +5247,7 @@
         <v>1941</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -5268,7 +5258,7 @@
         <v>3683</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -5282,7 +5272,7 @@
         <v>1170</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
@@ -5293,7 +5283,7 @@
         <v>1723</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -5304,7 +5294,7 @@
         <v>1570</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -5315,7 +5305,7 @@
         <v>1893</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
@@ -5326,7 +5316,7 @@
         <v>1700</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
@@ -5340,7 +5330,7 @@
         <v>1356</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
@@ -5351,7 +5341,7 @@
         <v>1800</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
@@ -5362,7 +5352,7 @@
         <v>1337</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
@@ -5373,7 +5363,7 @@
         <v>293</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
@@ -5384,7 +5374,7 @@
         <v>293</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
@@ -5395,7 +5385,7 @@
         <v>293</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
@@ -5406,59 +5396,59 @@
         <v>293</v>
       </c>
       <c r="D28" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="20" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C30" s="11">
         <v>270</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F30" s="41"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="20" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C31" s="11">
         <v>400</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E31" s="41"/>
       <c r="F31" s="41"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="20" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C32" s="11">
         <v>550</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E32" s="41"/>
       <c r="F32" s="41"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="20" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C33" s="11">
         <v>610</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
@@ -5588,13 +5578,13 @@
         <v>175</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>176</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>177</v>
@@ -5624,7 +5614,7 @@
         <v>185</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AI2" s="10" t="s">
         <v>172</v>
@@ -5642,7 +5632,7 @@
         <v>189</v>
       </c>
       <c r="AP2" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="3" spans="2:42" x14ac:dyDescent="0.3">
@@ -5650,13 +5640,13 @@
         <v>190</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>191</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>192</v>
@@ -5677,16 +5667,16 @@
         <v>197</v>
       </c>
       <c r="Q3" s="31" t="s">
+        <v>733</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="T3" s="31" t="s">
         <v>734</v>
       </c>
-      <c r="R3" s="11" t="s">
-        <v>733</v>
-      </c>
-      <c r="T3" s="31" t="s">
-        <v>735</v>
-      </c>
       <c r="U3" s="11" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W3" s="10" t="s">
         <v>198</v>
@@ -5730,7 +5720,7 @@
         <v>210</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>211</v>
@@ -5784,13 +5774,13 @@
         <v>227</v>
       </c>
       <c r="AM4" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AO4" s="10" t="s">
         <v>228</v>
       </c>
       <c r="AP4" s="11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="5" spans="2:42" x14ac:dyDescent="0.3">
@@ -5798,13 +5788,13 @@
         <v>229</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>230</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>231</v>
@@ -5834,7 +5824,7 @@
         <v>239</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W5" s="10" t="s">
         <v>240</v>
@@ -5861,7 +5851,7 @@
         <v>247</v>
       </c>
       <c r="AL5" s="20" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AM5" s="11" t="s">
         <v>248</v>
@@ -5878,19 +5868,19 @@
         <v>251</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>252</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>253</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>254</v>
@@ -5917,7 +5907,7 @@
         <v>260</v>
       </c>
       <c r="AJ7" s="11" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AL7" s="13" t="s">
         <v>261</v>
@@ -5934,13 +5924,13 @@
         <v>264</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>265</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>266</v>
@@ -5967,10 +5957,10 @@
         <v>273</v>
       </c>
       <c r="T8" s="31" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="W8" s="10" t="s">
         <v>274</v>
@@ -6006,7 +5996,7 @@
         <v>284</v>
       </c>
       <c r="AM8" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AO8" s="10" t="s">
         <v>285</v>
@@ -6020,19 +6010,19 @@
         <v>287</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>288</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>289</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>290</v>
@@ -6064,19 +6054,19 @@
         <v>298</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>299</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>300</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>301</v>
@@ -6088,7 +6078,7 @@
         <v>303</v>
       </c>
       <c r="AJ10" s="11" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AL10" s="15" t="s">
         <v>327</v>
@@ -6105,19 +6095,19 @@
         <v>306</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>307</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>308</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>309</v>
@@ -6164,10 +6154,10 @@
         <v>320</v>
       </c>
       <c r="T12" s="31" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="W12" s="10" t="s">
         <v>321</v>
@@ -6203,7 +6193,7 @@
         <v>328</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>329</v>
@@ -6220,7 +6210,7 @@
       <c r="N13" s="21"/>
       <c r="T13" s="21"/>
       <c r="AI13" s="31" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AJ13" s="11" t="s">
         <v>357</v>
@@ -6240,10 +6230,10 @@
         <v>336</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AI14" s="31" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AJ14" s="11" t="s">
         <v>377</v>
@@ -6266,7 +6256,7 @@
         <v>342</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>343</v>
@@ -6311,7 +6301,7 @@
         <v>356</v>
       </c>
       <c r="AI15" s="31" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AJ15" s="11" t="s">
         <v>398</v>
@@ -6326,7 +6316,7 @@
         <v>360</v>
       </c>
       <c r="AP15" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="16" spans="2:42" x14ac:dyDescent="0.3">
@@ -6483,19 +6473,19 @@
       </c>
       <c r="AA18" s="11"/>
       <c r="AC18" s="31" t="s">
+        <v>736</v>
+      </c>
+      <c r="AD18" s="11" t="s">
         <v>737</v>
       </c>
-      <c r="AD18" s="11" t="s">
+      <c r="AF18" s="31" t="s">
         <v>738</v>
       </c>
-      <c r="AF18" s="31" t="s">
+      <c r="AG18" s="11" t="s">
         <v>739</v>
       </c>
-      <c r="AG18" s="11" t="s">
-        <v>740</v>
-      </c>
       <c r="AI18" s="32" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AJ18" s="11" t="s">
         <v>462</v>
@@ -6510,12 +6500,12 @@
         <v>415</v>
       </c>
       <c r="AP18" s="11" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="19" spans="5:42" x14ac:dyDescent="0.3">
       <c r="E19" s="42" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F19" s="42"/>
       <c r="H19" s="10" t="s">
@@ -6562,7 +6552,7 @@
         <v>429</v>
       </c>
       <c r="AI19" s="20" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AJ19" s="11" t="s">
         <v>465</v>
@@ -6577,7 +6567,7 @@
         <v>430</v>
       </c>
       <c r="AP19" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="20" spans="5:42" x14ac:dyDescent="0.3">
@@ -6585,7 +6575,7 @@
         <v>431</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>432</v>
@@ -6600,7 +6590,7 @@
         <v>435</v>
       </c>
       <c r="AI20" s="20" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AJ20" s="11" t="s">
         <v>477</v>
@@ -6615,7 +6605,7 @@
         <v>438</v>
       </c>
       <c r="AP20" s="11" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="21" spans="5:42" x14ac:dyDescent="0.3">
@@ -6623,7 +6613,7 @@
         <v>439</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K21" s="21" t="s">
         <v>440</v>
@@ -6635,7 +6625,7 @@
         <v>442</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AL21" s="10" t="s">
         <v>454</v>
@@ -6727,7 +6717,7 @@
         <v>476</v>
       </c>
       <c r="U26" s="11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="27" spans="5:42" x14ac:dyDescent="0.3">
@@ -6759,7 +6749,7 @@
         <v>486</v>
       </c>
       <c r="U27" s="11" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="W27" s="10" t="s">
         <v>487</v>
@@ -6804,7 +6794,7 @@
         <v>499</v>
       </c>
       <c r="U28" s="11" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="W28" s="10" t="s">
         <v>500</v>
@@ -6840,7 +6830,7 @@
   <dimension ref="B1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -6917,10 +6907,10 @@
     </row>
     <row r="3" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B3" s="39" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>516</v>
@@ -6943,10 +6933,10 @@
     </row>
     <row r="4" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B4" s="39" t="s">
+        <v>749</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>750</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>751</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>516</v>
@@ -6967,7 +6957,7 @@
         <v>521</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="42" x14ac:dyDescent="0.3">
@@ -6984,7 +6974,7 @@
         <v>525</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>526</v>
@@ -7010,10 +7000,10 @@
         <v>516</v>
       </c>
       <c r="E7" s="24" t="s">
+        <v>780</v>
+      </c>
+      <c r="F7" s="24" t="s">
         <v>781</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>782</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>526</v>
@@ -7036,7 +7026,7 @@
         <v>530</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>531</v>
@@ -7065,10 +7055,10 @@
         <v>516</v>
       </c>
       <c r="E9" s="24" t="s">
+        <v>772</v>
+      </c>
+      <c r="F9" s="24" t="s">
         <v>773</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>774</v>
       </c>
       <c r="H9" s="6">
         <v>64</v>
@@ -7103,7 +7093,7 @@
         <v>519</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="84" x14ac:dyDescent="0.3">
@@ -7116,8 +7106,8 @@
       <c r="D11" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>540</v>
+      <c r="E11" s="24" t="s">
+        <v>838</v>
       </c>
       <c r="H11" s="6">
         <v>64</v>
@@ -7134,22 +7124,22 @@
     </row>
     <row r="13" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="C13" s="35" t="s">
         <v>541</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>542</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>524</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>544</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>545</v>
       </c>
       <c r="H13" s="6">
         <v>64</v>
@@ -7163,22 +7153,22 @@
     </row>
     <row r="14" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="C14" s="35" t="s">
         <v>546</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="D14" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="24" t="s">
+        <v>778</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>779</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>549</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>550</v>
       </c>
       <c r="H14" s="6">
         <v>128</v>
@@ -7206,8 +7196,8 @@
   <dimension ref="B1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -7259,48 +7249,48 @@
     </row>
     <row r="2" spans="2:12" ht="56" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="18" t="s">
+        <v>616</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>617</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>555</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>519</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>521</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>558</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>559</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>519</v>
@@ -7312,21 +7302,21 @@
         <v>519</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>563</v>
-      </c>
       <c r="E4" s="19" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>519</v>
@@ -7338,24 +7328,24 @@
         <v>519</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="56" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>567</v>
-      </c>
       <c r="D5" s="18" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>521</v>
@@ -7366,22 +7356,22 @@
     </row>
     <row r="7" spans="2:12" ht="56" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>606</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="H7" s="2">
         <v>512</v>
@@ -7395,22 +7385,22 @@
     </row>
     <row r="8" spans="2:12" ht="70" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>606</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>607</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>576</v>
       </c>
       <c r="H8" s="2">
         <v>256</v>
@@ -7422,27 +7412,27 @@
         <v>519</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>579</v>
-      </c>
       <c r="E9" s="19" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H9" s="2">
         <v>512</v>
@@ -7454,21 +7444,21 @@
         <v>519</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>582</v>
       </c>
       <c r="H10" s="2">
         <v>256</v>
@@ -7480,27 +7470,27 @@
         <v>519</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="140" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>604</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>585</v>
-      </c>
       <c r="G11" s="18" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H11" s="2">
         <v>512</v>
@@ -7512,33 +7502,33 @@
         <v>521</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="98" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>621</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>622</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>588</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>589</v>
       </c>
       <c r="H12" s="2">
         <v>512</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>521</v>
@@ -7546,162 +7536,162 @@
     </row>
     <row r="13" spans="2:12" ht="70" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>608</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>609</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>593</v>
       </c>
       <c r="H13" s="2">
         <v>128</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>519</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="29" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>595</v>
-      </c>
       <c r="D14" s="18" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H14" s="2">
         <v>512</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>597</v>
-      </c>
       <c r="D15" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H15" s="2">
         <v>512</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="29" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>599</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H16" s="2">
         <v>2048</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="140" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="M18" s="18" t="s">
+        <v>742</v>
+      </c>
+      <c r="N18" s="18" t="s">
         <v>743</v>
-      </c>
-      <c r="N18" s="18" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="126" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="18" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L19" s="18" t="s">
+        <v>741</v>
+      </c>
+      <c r="M19" s="18" t="s">
         <v>742</v>
-      </c>
-      <c r="M19" s="18" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="196" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="18" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
@@ -7735,18 +7725,18 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="25" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D2" s="26">
         <v>0.03</v>
@@ -7754,10 +7744,10 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D3" s="26">
         <v>1</v>
@@ -7765,10 +7755,10 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="25" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D4" s="26">
         <v>1</v>
@@ -7776,10 +7766,10 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D5" s="26">
         <v>5</v>
@@ -7787,10 +7777,10 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D6" s="26">
         <v>1</v>
@@ -7798,24 +7788,24 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D7" s="26">
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D8" s="26">
         <v>1</v>
@@ -7823,21 +7813,21 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -7866,22 +7856,22 @@
   <sheetData>
     <row r="2" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D2" s="24" t="s">
+        <v>655</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>656</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>657</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28" x14ac:dyDescent="0.3">
@@ -7890,13 +7880,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D3" s="18" t="s">
+        <v>657</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>658</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="56" x14ac:dyDescent="0.3">
@@ -7905,10 +7895,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F4" s="28"/>
     </row>
@@ -7918,7 +7908,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E5" s="18"/>
     </row>
@@ -7928,16 +7918,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="30" t="s">
+        <v>649</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>650</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="E6" s="24" t="s">
         <v>651</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="F6" s="24" t="s">
         <v>652</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -7946,7 +7936,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7957,21 +7947,21 @@
     </row>
     <row r="10" spans="1:6" ht="98" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="18" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A11" s="45"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>

--- a/参考/资料/1.18版本策划.xlsx
+++ b/参考/资料/1.18版本策划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hqyzsy\IdeaProjects\micro_machinery\参考\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE24F444-BC09-46FE-AD28-46443EE3F8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCAD5C2-570D-4118-A90E-21D0699BDF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增方块" sheetId="1" r:id="rId1"/>
@@ -2633,11 +2633,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>浇筑开启后，钢包倾斜，流体块渲染；随后流体块结束渲染，钢包回归位置；
-1个流体输入口，1个物品输出口，2个能量接口，1数据接口</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>有</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -3182,9 +3177,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>hydrogen</t>
-  </si>
-  <si>
     <t>steam</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3756,6 +3748,16 @@
   </si>
   <si>
     <t>可以抽取正前下方的液体，若泵的检测方块为水源方块，每tick抽取25mb不消耗流体方块；若检测方块为流动水，则每tick抽取20mb，不消耗流体方块；若检测方块为岩浆源，消耗流体方块，抽空cd为2秒；若检测到其他种类流体源，会立即抽空该流体方块，产出1000mb对应流体，抽空cd为2秒；水泵自带2000mb容量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>浇筑开启后，钢包倾斜，流体块渲染；随后流体块结束渲染，钢包回归位置；
+玩家可以shift+右键，控制浇注机输出块、锭、杆、圆形铸件；
+1个流体输入口，1个物品输出口，2个能量接口，1数据接口</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>hydrogen</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4416,7 +4418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
@@ -4454,13 +4456,13 @@
         <v>1</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="L1" s="40" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>3</v>
@@ -4484,10 +4486,10 @@
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="31" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>9</v>
@@ -4496,10 +4498,10 @@
         <v>10</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="Q2" s="17" t="s">
         <v>11</v>
@@ -4513,7 +4515,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>14</v>
@@ -4523,10 +4525,10 @@
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="31" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>16</v>
@@ -4544,7 +4546,7 @@
         <v>20</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
@@ -4552,7 +4554,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>22</v>
@@ -4562,10 +4564,10 @@
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="31" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>24</v>
@@ -4583,15 +4585,15 @@
         <v>28</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="31" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>29</v>
@@ -4601,10 +4603,10 @@
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="31" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>31</v>
@@ -4640,10 +4642,10 @@
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="31" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>41</v>
@@ -4664,14 +4666,14 @@
         <v>45</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I7" s="11"/>
       <c r="N7" s="10" t="s">
         <v>46</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
@@ -4679,7 +4681,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>48</v>
@@ -4689,10 +4691,10 @@
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="31" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>50</v>
@@ -4728,10 +4730,10 @@
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="31" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>60</v>
@@ -4757,7 +4759,7 @@
         <v>66</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>67</v>
@@ -4767,10 +4769,10 @@
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="31" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>69</v>
@@ -4796,7 +4798,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>76</v>
@@ -4806,10 +4808,10 @@
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="31" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>78</v>
@@ -4845,15 +4847,15 @@
         <v>86</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="31" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>87</v>
@@ -4876,10 +4878,10 @@
         <v>92</v>
       </c>
       <c r="Q13" s="31" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
@@ -4893,13 +4895,13 @@
         <v>95</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="Q14" s="31" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
@@ -4907,7 +4909,7 @@
         <v>96</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>97</v>
@@ -4927,13 +4929,13 @@
         <v>101</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="Q15" s="31" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
@@ -4941,7 +4943,7 @@
         <v>102</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>103</v>
@@ -4958,10 +4960,10 @@
         <v>106</v>
       </c>
       <c r="Q16" s="31" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
@@ -4992,7 +4994,7 @@
         <v>113</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>114</v>
@@ -5020,7 +5022,7 @@
         <v>120</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>121</v>
@@ -5031,10 +5033,10 @@
       <c r="G19" s="11"/>
       <c r="I19" s="11"/>
       <c r="K19" s="31" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
@@ -5042,7 +5044,7 @@
         <v>123</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>124</v>
@@ -5057,7 +5059,7 @@
         <v>127</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
@@ -5065,7 +5067,7 @@
         <v>126</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>129</v>
@@ -5085,7 +5087,7 @@
         <v>128</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E22" s="31"/>
       <c r="K22" s="10" t="s">
@@ -5102,7 +5104,7 @@
         <v>131</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>136</v>
@@ -5126,8 +5128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5145,7 +5147,7 @@
         <v>505</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -5156,7 +5158,7 @@
         <v>1235</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
@@ -5167,7 +5169,7 @@
         <v>1356</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -5178,7 +5180,7 @@
         <v>1726</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -5189,7 +5191,7 @@
         <v>933</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -5200,7 +5202,7 @@
         <v>1517</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -5214,7 +5216,7 @@
         <v>2130</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -5225,7 +5227,7 @@
         <v>2163</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -5236,7 +5238,7 @@
         <v>1768</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -5247,7 +5249,7 @@
         <v>1941</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -5258,7 +5260,7 @@
         <v>3683</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -5272,7 +5274,7 @@
         <v>1170</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
@@ -5283,7 +5285,7 @@
         <v>1723</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -5294,7 +5296,7 @@
         <v>1570</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -5305,7 +5307,7 @@
         <v>1893</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
@@ -5316,7 +5318,7 @@
         <v>1700</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
@@ -5330,7 +5332,7 @@
         <v>1356</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
@@ -5341,7 +5343,7 @@
         <v>1800</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
@@ -5352,7 +5354,7 @@
         <v>1337</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
@@ -5363,7 +5365,7 @@
         <v>293</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
@@ -5374,7 +5376,7 @@
         <v>293</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
@@ -5385,7 +5387,7 @@
         <v>293</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
@@ -5395,60 +5397,60 @@
       <c r="C28" s="11">
         <v>293</v>
       </c>
-      <c r="D28" t="s">
-        <v>698</v>
+      <c r="D28" s="23" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="20" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C30" s="11">
         <v>270</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F30" s="41"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="20" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C31" s="11">
         <v>400</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E31" s="41"/>
       <c r="F31" s="41"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="20" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C32" s="11">
         <v>550</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E32" s="41"/>
       <c r="F32" s="41"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="20" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C33" s="11">
         <v>610</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
@@ -5578,13 +5580,13 @@
         <v>175</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>176</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>177</v>
@@ -5614,7 +5616,7 @@
         <v>185</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AI2" s="10" t="s">
         <v>172</v>
@@ -5632,7 +5634,7 @@
         <v>189</v>
       </c>
       <c r="AP2" s="11" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="3" spans="2:42" x14ac:dyDescent="0.3">
@@ -5640,13 +5642,13 @@
         <v>190</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>191</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>192</v>
@@ -5667,16 +5669,16 @@
         <v>197</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="R3" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="T3" s="31" t="s">
         <v>732</v>
       </c>
-      <c r="T3" s="31" t="s">
-        <v>734</v>
-      </c>
       <c r="U3" s="11" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="W3" s="10" t="s">
         <v>198</v>
@@ -5720,7 +5722,7 @@
         <v>210</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>211</v>
@@ -5774,13 +5776,13 @@
         <v>227</v>
       </c>
       <c r="AM4" s="11" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="AO4" s="10" t="s">
         <v>228</v>
       </c>
       <c r="AP4" s="11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="5" spans="2:42" x14ac:dyDescent="0.3">
@@ -5788,13 +5790,13 @@
         <v>229</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>230</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>231</v>
@@ -5824,7 +5826,7 @@
         <v>239</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="W5" s="10" t="s">
         <v>240</v>
@@ -5851,7 +5853,7 @@
         <v>247</v>
       </c>
       <c r="AL5" s="20" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="AM5" s="11" t="s">
         <v>248</v>
@@ -5868,19 +5870,19 @@
         <v>251</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>252</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>253</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>254</v>
@@ -5907,7 +5909,7 @@
         <v>260</v>
       </c>
       <c r="AJ7" s="11" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="AL7" s="13" t="s">
         <v>261</v>
@@ -5924,13 +5926,13 @@
         <v>264</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>265</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>266</v>
@@ -5957,10 +5959,10 @@
         <v>273</v>
       </c>
       <c r="T8" s="31" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="W8" s="10" t="s">
         <v>274</v>
@@ -5996,7 +5998,7 @@
         <v>284</v>
       </c>
       <c r="AM8" s="11" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="AO8" s="10" t="s">
         <v>285</v>
@@ -6010,19 +6012,19 @@
         <v>287</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>288</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>289</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>290</v>
@@ -6054,19 +6056,19 @@
         <v>298</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>299</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>300</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>301</v>
@@ -6078,7 +6080,7 @@
         <v>303</v>
       </c>
       <c r="AJ10" s="11" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="AL10" s="15" t="s">
         <v>327</v>
@@ -6095,19 +6097,19 @@
         <v>306</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>307</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>308</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>309</v>
@@ -6154,10 +6156,10 @@
         <v>320</v>
       </c>
       <c r="T12" s="31" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="W12" s="10" t="s">
         <v>321</v>
@@ -6193,7 +6195,7 @@
         <v>328</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>329</v>
@@ -6210,7 +6212,7 @@
       <c r="N13" s="21"/>
       <c r="T13" s="21"/>
       <c r="AI13" s="31" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AJ13" s="11" t="s">
         <v>357</v>
@@ -6230,10 +6232,10 @@
         <v>336</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="AI14" s="31" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="AJ14" s="11" t="s">
         <v>377</v>
@@ -6256,7 +6258,7 @@
         <v>342</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>343</v>
@@ -6301,7 +6303,7 @@
         <v>356</v>
       </c>
       <c r="AI15" s="31" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="AJ15" s="11" t="s">
         <v>398</v>
@@ -6316,7 +6318,7 @@
         <v>360</v>
       </c>
       <c r="AP15" s="11" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="16" spans="2:42" x14ac:dyDescent="0.3">
@@ -6473,19 +6475,19 @@
       </c>
       <c r="AA18" s="11"/>
       <c r="AC18" s="31" t="s">
+        <v>734</v>
+      </c>
+      <c r="AD18" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="AF18" s="31" t="s">
         <v>736</v>
       </c>
-      <c r="AD18" s="11" t="s">
+      <c r="AG18" s="11" t="s">
         <v>737</v>
       </c>
-      <c r="AF18" s="31" t="s">
-        <v>738</v>
-      </c>
-      <c r="AG18" s="11" t="s">
-        <v>739</v>
-      </c>
       <c r="AI18" s="32" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AJ18" s="11" t="s">
         <v>462</v>
@@ -6500,12 +6502,12 @@
         <v>415</v>
       </c>
       <c r="AP18" s="11" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="19" spans="5:42" x14ac:dyDescent="0.3">
       <c r="E19" s="42" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F19" s="42"/>
       <c r="H19" s="10" t="s">
@@ -6552,7 +6554,7 @@
         <v>429</v>
       </c>
       <c r="AI19" s="20" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AJ19" s="11" t="s">
         <v>465</v>
@@ -6567,7 +6569,7 @@
         <v>430</v>
       </c>
       <c r="AP19" s="11" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="20" spans="5:42" x14ac:dyDescent="0.3">
@@ -6575,7 +6577,7 @@
         <v>431</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>432</v>
@@ -6590,7 +6592,7 @@
         <v>435</v>
       </c>
       <c r="AI20" s="20" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AJ20" s="11" t="s">
         <v>477</v>
@@ -6605,7 +6607,7 @@
         <v>438</v>
       </c>
       <c r="AP20" s="11" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="21" spans="5:42" x14ac:dyDescent="0.3">
@@ -6613,7 +6615,7 @@
         <v>439</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="K21" s="21" t="s">
         <v>440</v>
@@ -6625,7 +6627,7 @@
         <v>442</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="AL21" s="10" t="s">
         <v>454</v>
@@ -6717,7 +6719,7 @@
         <v>476</v>
       </c>
       <c r="U26" s="11" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="27" spans="5:42" x14ac:dyDescent="0.3">
@@ -6749,7 +6751,7 @@
         <v>486</v>
       </c>
       <c r="U27" s="11" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="W27" s="10" t="s">
         <v>487</v>
@@ -6794,7 +6796,7 @@
         <v>499</v>
       </c>
       <c r="U28" s="11" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="W28" s="10" t="s">
         <v>500</v>
@@ -6830,7 +6832,7 @@
   <dimension ref="B1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -6907,10 +6909,10 @@
     </row>
     <row r="3" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B3" s="39" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>516</v>
@@ -6933,10 +6935,10 @@
     </row>
     <row r="4" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B4" s="39" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>516</v>
@@ -6957,7 +6959,7 @@
         <v>521</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="42" x14ac:dyDescent="0.3">
@@ -6974,7 +6976,7 @@
         <v>525</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>526</v>
@@ -7000,10 +7002,10 @@
         <v>516</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>526</v>
@@ -7026,7 +7028,7 @@
         <v>530</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>531</v>
@@ -7055,10 +7057,10 @@
         <v>516</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="H9" s="6">
         <v>64</v>
@@ -7093,7 +7095,7 @@
         <v>519</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="84" x14ac:dyDescent="0.3">
@@ -7107,7 +7109,7 @@
         <v>524</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="H11" s="6">
         <v>64</v>
@@ -7162,7 +7164,7 @@
         <v>547</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>548</v>
@@ -7196,8 +7198,8 @@
   <dimension ref="B1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -7258,7 +7260,7 @@
         <v>552</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>553</v>
@@ -7270,7 +7272,7 @@
         <v>519</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>521</v>
@@ -7316,7 +7318,7 @@
         <v>562</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>519</v>
@@ -7342,10 +7344,10 @@
         <v>566</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>521</v>
@@ -7394,7 +7396,7 @@
         <v>569</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>606</v>
+        <v>837</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>574</v>
@@ -7412,7 +7414,7 @@
         <v>519</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="42" x14ac:dyDescent="0.3">
@@ -7429,10 +7431,10 @@
         <v>601</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H9" s="2">
         <v>512</v>
@@ -7444,7 +7446,7 @@
         <v>519</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="28" x14ac:dyDescent="0.3">
@@ -7490,7 +7492,7 @@
         <v>584</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H11" s="2">
         <v>512</v>
@@ -7502,7 +7504,7 @@
         <v>521</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="98" x14ac:dyDescent="0.3">
@@ -7516,7 +7518,7 @@
         <v>578</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>587</v>
@@ -7528,7 +7530,7 @@
         <v>512</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>521</v>
@@ -7545,7 +7547,7 @@
         <v>569</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>591</v>
@@ -7557,13 +7559,13 @@
         <v>128</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>519</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="29" x14ac:dyDescent="0.3">
@@ -7574,7 +7576,7 @@
         <v>594</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>604</v>
@@ -7583,7 +7585,7 @@
         <v>512</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="42" x14ac:dyDescent="0.3">
@@ -7594,16 +7596,16 @@
         <v>596</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H15" s="2">
         <v>512</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="29" x14ac:dyDescent="0.3">
@@ -7620,7 +7622,7 @@
         <v>2048</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="140" x14ac:dyDescent="0.3">
@@ -7628,25 +7630,25 @@
         <v>599</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="L18" s="18" t="s">
+        <v>738</v>
+      </c>
+      <c r="M18" s="18" t="s">
         <v>740</v>
       </c>
-      <c r="M18" s="18" t="s">
-        <v>742</v>
-      </c>
       <c r="N18" s="18" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="126" x14ac:dyDescent="0.3">
@@ -7654,44 +7656,44 @@
         <v>600</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="18" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="196" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="18" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
@@ -7725,18 +7727,18 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="25" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D2" s="26">
         <v>0.03</v>
@@ -7744,10 +7746,10 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D3" s="26">
         <v>1</v>
@@ -7755,10 +7757,10 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="25" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D4" s="26">
         <v>1</v>
@@ -7766,10 +7768,10 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D5" s="26">
         <v>5</v>
@@ -7777,10 +7779,10 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D6" s="26">
         <v>1</v>
@@ -7788,24 +7790,24 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D7" s="26">
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D8" s="26">
         <v>1</v>
@@ -7813,21 +7815,21 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>
@@ -7856,22 +7858,22 @@
   <sheetData>
     <row r="2" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D2" s="24" t="s">
+        <v>654</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>655</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>656</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28" x14ac:dyDescent="0.3">
@@ -7880,13 +7882,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D3" s="18" t="s">
+        <v>656</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>657</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="56" x14ac:dyDescent="0.3">
@@ -7895,10 +7897,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F4" s="28"/>
     </row>
@@ -7908,7 +7910,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E5" s="18"/>
     </row>
@@ -7918,16 +7920,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="30" t="s">
+        <v>648</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>649</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="E6" s="24" t="s">
         <v>650</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="F6" s="24" t="s">
         <v>651</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -7936,7 +7938,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7947,21 +7949,21 @@
     </row>
     <row r="10" spans="1:6" ht="98" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A11" s="45"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>

--- a/参考/资料/1.18版本策划.xlsx
+++ b/参考/资料/1.18版本策划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hqyzsy\IdeaProjects\micro_machinery\参考\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCAD5C2-570D-4118-A90E-21D0699BDF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D555DD5-EB62-4EB0-BAB4-A373B8ACEA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增方块" sheetId="1" r:id="rId1"/>
@@ -759,7 +759,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="838">
   <si>
     <t>矿石</t>
   </si>
@@ -785,9 +785,6 @@
     <t>锡块</t>
   </si>
   <si>
-    <t>block_tin</t>
-  </si>
-  <si>
     <t>废锡块</t>
   </si>
   <si>
@@ -830,9 +827,6 @@
     <t>镍块</t>
   </si>
   <si>
-    <t>block_nickel</t>
-  </si>
-  <si>
     <t>废镍块</t>
   </si>
   <si>
@@ -851,9 +845,6 @@
     <t>铝块</t>
   </si>
   <si>
-    <t>block_aluminum</t>
-  </si>
-  <si>
     <t>废铝块</t>
   </si>
   <si>
@@ -875,15 +866,9 @@
     <t>石墨矿</t>
   </si>
   <si>
-    <t>ore_graphite</t>
-  </si>
-  <si>
     <t>锰块</t>
   </si>
   <si>
-    <t>block_manganese</t>
-  </si>
-  <si>
     <t>废锰块</t>
   </si>
   <si>
@@ -908,9 +893,6 @@
     <t>钢块</t>
   </si>
   <si>
-    <t>block_steel</t>
-  </si>
-  <si>
     <t>废钢块</t>
   </si>
   <si>
@@ -920,9 +902,6 @@
     <t>发电机模块</t>
   </si>
   <si>
-    <t>module_generator</t>
-  </si>
-  <si>
     <t>基础流体管道</t>
   </si>
   <si>
@@ -932,15 +911,9 @@
     <t>镍矿</t>
   </si>
   <si>
-    <t>ore_nickel</t>
-  </si>
-  <si>
     <t>铬块</t>
   </si>
   <si>
-    <t>block_chromium</t>
-  </si>
-  <si>
     <t>废铬块</t>
   </si>
   <si>
@@ -950,9 +923,6 @@
     <t>散热模块</t>
   </si>
   <si>
-    <t>module_heat_sink</t>
-  </si>
-  <si>
     <t>进阶流体管道</t>
   </si>
   <si>
@@ -965,9 +935,6 @@
     <t>钒块</t>
   </si>
   <si>
-    <t>block_vanadium</t>
-  </si>
-  <si>
     <t>废钒块</t>
   </si>
   <si>
@@ -977,9 +944,6 @@
     <t>承压模块</t>
   </si>
   <si>
-    <t>module_pressure_bearing</t>
-  </si>
-  <si>
     <t>高级流体管道</t>
   </si>
   <si>
@@ -992,9 +956,6 @@
     <t>钴块</t>
   </si>
   <si>
-    <t>block_cobalt</t>
-  </si>
-  <si>
     <t>废钴块</t>
   </si>
   <si>
@@ -1010,9 +971,6 @@
     <t>钛块</t>
   </si>
   <si>
-    <t>block_titanium</t>
-  </si>
-  <si>
     <t>废钛块</t>
   </si>
   <si>
@@ -1025,9 +983,6 @@
     <t>钨块</t>
   </si>
   <si>
-    <t>block_tungsten</t>
-  </si>
-  <si>
     <t>废钨块</t>
   </si>
   <si>
@@ -1037,15 +992,9 @@
     <t>数据接口</t>
   </si>
   <si>
-    <t>interface_data</t>
-  </si>
-  <si>
     <t>下界石墨矿</t>
   </si>
   <si>
-    <t>ore_graphite_nether</t>
-  </si>
-  <si>
     <t>物品接口</t>
   </si>
   <si>
@@ -1055,9 +1004,6 @@
     <t>青铜块</t>
   </si>
   <si>
-    <t>block_bronze</t>
-  </si>
-  <si>
     <t>废青铜块</t>
   </si>
   <si>
@@ -1073,9 +1019,6 @@
     <t>殷钢块</t>
   </si>
   <si>
-    <t>block_invar</t>
-  </si>
-  <si>
     <t>废殷钢块</t>
   </si>
   <si>
@@ -1085,9 +1028,6 @@
     <t>不锈钢块</t>
   </si>
   <si>
-    <t>block_ss</t>
-  </si>
-  <si>
     <t>废不锈钢块</t>
   </si>
   <si>
@@ -1106,9 +1046,6 @@
     <t>高速钢块</t>
   </si>
   <si>
-    <t>block_hss</t>
-  </si>
-  <si>
     <t>废高速钢块</t>
   </si>
   <si>
@@ -1127,18 +1064,12 @@
     <t>钨钢块</t>
   </si>
   <si>
-    <t>block_tungsten_steel</t>
-  </si>
-  <si>
     <t>深层钒铁矿</t>
   </si>
   <si>
     <t>记忆合金块</t>
   </si>
   <si>
-    <t>block_sma</t>
-  </si>
-  <si>
     <t>深层钨矿</t>
   </si>
   <si>
@@ -1166,9 +1097,6 @@
     <t>储罐方块</t>
   </si>
   <si>
-    <t>tank_block</t>
-  </si>
-  <si>
     <t>废金块</t>
   </si>
   <si>
@@ -1295,39 +1223,21 @@
     <t>锡粉</t>
   </si>
   <si>
-    <t>dust_tin</t>
-  </si>
-  <si>
     <t>锡锭</t>
   </si>
   <si>
-    <t>ingot_tin</t>
-  </si>
-  <si>
     <t>锡板</t>
   </si>
   <si>
-    <t>plate_tin</t>
-  </si>
-  <si>
     <t>锡杆</t>
   </si>
   <si>
-    <t>stick_tin</t>
-  </si>
-  <si>
     <t>锡线</t>
   </si>
   <si>
-    <t>slag</t>
-  </si>
-  <si>
     <t>单晶硅</t>
   </si>
   <si>
-    <t>monocrystalline_silicon</t>
-  </si>
-  <si>
     <t>石墨耐火砖</t>
   </si>
   <si>
@@ -1340,108 +1250,57 @@
     <t>银粉</t>
   </si>
   <si>
-    <t>dust_silver</t>
-  </si>
-  <si>
     <t>银锭</t>
   </si>
   <si>
-    <t>ingot_silver</t>
-  </si>
-  <si>
     <t>银板</t>
   </si>
   <si>
-    <t>plate_silver</t>
-  </si>
-  <si>
     <t>银圆形铸件</t>
   </si>
   <si>
-    <t>circle_casting_silver</t>
-  </si>
-  <si>
     <t>银齿轮</t>
   </si>
   <si>
-    <t>gear_silver</t>
-  </si>
-  <si>
     <t>银齿轮坯</t>
   </si>
   <si>
-    <t>gear_blank_silver</t>
-  </si>
-  <si>
     <t>含钒炉渣</t>
   </si>
   <si>
-    <t>slag_vanadium</t>
-  </si>
-  <si>
     <t>晶圆</t>
   </si>
   <si>
-    <t>wafer</t>
-  </si>
-  <si>
     <t>配置卡</t>
   </si>
   <si>
-    <t>adapter_card</t>
-  </si>
-  <si>
     <t>粗镍</t>
   </si>
   <si>
     <t>镍精矿</t>
   </si>
   <si>
-    <t>ore_nickel_concentrate</t>
-  </si>
-  <si>
     <t>镍粉</t>
   </si>
   <si>
-    <t>dust_nickel</t>
-  </si>
-  <si>
     <t>镍锭</t>
   </si>
   <si>
-    <t>ingot_nickel</t>
-  </si>
-  <si>
     <t>镍板</t>
   </si>
   <si>
-    <t>plate_nickel</t>
-  </si>
-  <si>
     <t>镍圆形铸件</t>
   </si>
   <si>
-    <t>circle_casting_nickel</t>
-  </si>
-  <si>
     <t>镍齿轮</t>
   </si>
   <si>
-    <t>gear_nickel</t>
-  </si>
-  <si>
     <t>镍齿轮坯</t>
   </si>
   <si>
-    <t>gear_blank_nickel</t>
-  </si>
-  <si>
     <t>含钴炉渣</t>
   </si>
   <si>
-    <t>slag_cobalt</t>
-  </si>
-  <si>
     <t>芯片</t>
   </si>
   <si>
@@ -1463,57 +1322,30 @@
     <t>铝锭</t>
   </si>
   <si>
-    <t>ingot_aluminum</t>
-  </si>
-  <si>
     <t>铝板</t>
   </si>
   <si>
-    <t>plate_aluminum</t>
-  </si>
-  <si>
     <t>铝杆</t>
   </si>
   <si>
-    <t>stick_aluminum</t>
-  </si>
-  <si>
     <t>铝线</t>
   </si>
   <si>
     <t>铝圆形铸件</t>
   </si>
   <si>
-    <t>circle_casting_aluminum</t>
-  </si>
-  <si>
     <t>铝齿轮</t>
   </si>
   <si>
-    <t>gear_aluminum</t>
-  </si>
-  <si>
     <t>铝齿轮坯</t>
   </si>
   <si>
-    <t>gear_blank_aluminum</t>
-  </si>
-  <si>
     <t>含钛炉渣</t>
   </si>
   <si>
-    <t>slag_titanium</t>
-  </si>
-  <si>
-    <t>component_basic</t>
-  </si>
-  <si>
     <t>钻石锯片</t>
   </si>
   <si>
-    <t>dsb</t>
-  </si>
-  <si>
     <t>粗锰</t>
   </si>
   <si>
@@ -1526,30 +1358,18 @@
     <t>锰锭</t>
   </si>
   <si>
-    <t>ingot_manganese</t>
-  </si>
-  <si>
     <t>含铬炉渣</t>
   </si>
   <si>
-    <t>slag_chromium</t>
-  </si>
-  <si>
     <t>先进零部件</t>
   </si>
   <si>
-    <t>component_advanced</t>
-  </si>
-  <si>
     <t>提炼钒渣</t>
   </si>
   <si>
     <t>激光发生器</t>
   </si>
   <si>
-    <t>laser</t>
-  </si>
-  <si>
     <t>食品</t>
   </si>
   <si>
@@ -1562,33 +1382,18 @@
     <t>钢粉</t>
   </si>
   <si>
-    <t>dust_steel</t>
-  </si>
-  <si>
     <t>钢锭</t>
   </si>
   <si>
-    <t>ingot_steel</t>
-  </si>
-  <si>
     <t>钢板</t>
   </si>
   <si>
-    <t>plate_steel</t>
-  </si>
-  <si>
     <t>钢杆</t>
   </si>
   <si>
-    <t>stick_steel</t>
-  </si>
-  <si>
     <t>钢圆形铸件</t>
   </si>
   <si>
-    <t>circle_casting_steel</t>
-  </si>
-  <si>
     <t>钢轴</t>
   </si>
   <si>
@@ -1598,30 +1403,18 @@
     <t>钢齿轮</t>
   </si>
   <si>
-    <t>gear_steel</t>
-  </si>
-  <si>
     <t>钢齿轮坯</t>
   </si>
   <si>
-    <t>gear_blank_steel</t>
-  </si>
-  <si>
     <t>提炼钴渣</t>
   </si>
   <si>
-    <t>refined_slag_cobalt</t>
-  </si>
-  <si>
     <t>等离子发生器</t>
   </si>
   <si>
     <t>苹果糖</t>
   </si>
   <si>
-    <t>apple_drops</t>
-  </si>
-  <si>
     <t>粗钒铁</t>
   </si>
   <si>
@@ -1634,27 +1427,15 @@
     <t>铬锭</t>
   </si>
   <si>
-    <t>ingot_chromium</t>
-  </si>
-  <si>
     <t>铬板</t>
   </si>
   <si>
-    <t>plate_chromium</t>
-  </si>
-  <si>
     <t>提炼钛渣</t>
   </si>
   <si>
-    <t>refined_slag_titanium</t>
-  </si>
-  <si>
     <t>金苹果糖</t>
   </si>
   <si>
-    <t>golden_apple_drops</t>
-  </si>
-  <si>
     <t>粗钛铁</t>
   </si>
   <si>
@@ -1667,18 +1448,12 @@
     <t>钒锭</t>
   </si>
   <si>
-    <t>ingot_vanadium</t>
-  </si>
-  <si>
     <t>提炼铬渣</t>
   </si>
   <si>
     <t>苹果酱面包</t>
   </si>
   <si>
-    <t>apple_jam_bun</t>
-  </si>
-  <si>
     <t>粗钨</t>
   </si>
   <si>
@@ -1691,57 +1466,30 @@
     <t>钴锭</t>
   </si>
   <si>
-    <t>ingot_cobalt</t>
-  </si>
-  <si>
     <t>金苹果酱面包</t>
   </si>
   <si>
-    <t>golden_apple_jam_bun</t>
-  </si>
-  <si>
     <t>钛粉</t>
   </si>
   <si>
-    <t>dust_titanium</t>
-  </si>
-  <si>
     <t>钛锭</t>
   </si>
   <si>
-    <t>ingot_titanium</t>
-  </si>
-  <si>
     <t>钛板</t>
   </si>
   <si>
-    <t>plate_titanium</t>
-  </si>
-  <si>
     <t>钛杆</t>
   </si>
   <si>
-    <t>stick_titanium</t>
-  </si>
-  <si>
     <t>钛圆形铸件</t>
   </si>
   <si>
-    <t>circle_casting_titanium</t>
-  </si>
-  <si>
     <t>钛齿轮</t>
   </si>
   <si>
-    <t>gear_titanium</t>
-  </si>
-  <si>
     <t>钛齿轮坯</t>
   </si>
   <si>
-    <t>gear_blank_titanium</t>
-  </si>
-  <si>
     <t>涡轮</t>
   </si>
   <si>
@@ -1751,15 +1499,9 @@
     <t>钨粉</t>
   </si>
   <si>
-    <t>dust_tungsten</t>
-  </si>
-  <si>
     <t>钨锭</t>
   </si>
   <si>
-    <t>ingot_tungsten</t>
-  </si>
-  <si>
     <t>钢涡轮</t>
   </si>
   <si>
@@ -1793,48 +1535,24 @@
     <t>青铜粉</t>
   </si>
   <si>
-    <t>dust_bronze</t>
-  </si>
-  <si>
     <t>青铜锭</t>
   </si>
   <si>
-    <t>ingot_bronze</t>
-  </si>
-  <si>
     <t>青铜板</t>
   </si>
   <si>
-    <t>plate_bronze</t>
-  </si>
-  <si>
     <t>青铜杆</t>
   </si>
   <si>
-    <t>stick_bronze</t>
-  </si>
-  <si>
     <t>青铜圆形铸件</t>
   </si>
   <si>
-    <t>circle_casting_bronze</t>
-  </si>
-  <si>
     <t>青铜齿轮</t>
   </si>
   <si>
-    <t>gear_bronze</t>
-  </si>
-  <si>
     <t>青铜齿轮坯</t>
   </si>
   <si>
-    <t>gear_blank_bronze</t>
-  </si>
-  <si>
-    <t>motor_1</t>
-  </si>
-  <si>
     <t>殷钢涡轮</t>
   </si>
   <si>
@@ -1847,33 +1565,18 @@
     <t>殷钢粉</t>
   </si>
   <si>
-    <t>dust_invar</t>
-  </si>
-  <si>
     <t>殷钢锭</t>
   </si>
   <si>
-    <t>ingot_invar</t>
-  </si>
-  <si>
     <t>殷钢板</t>
   </si>
   <si>
-    <t>plate_invar</t>
-  </si>
-  <si>
     <t>殷钢杆</t>
   </si>
   <si>
-    <t>stick_invar</t>
-  </si>
-  <si>
     <t>殷钢圆形铸件</t>
   </si>
   <si>
-    <t>circle_casting_invar</t>
-  </si>
-  <si>
     <t>殷钢轴</t>
   </si>
   <si>
@@ -1883,18 +1586,9 @@
     <t>殷钢齿轮</t>
   </si>
   <si>
-    <t>gear_invar</t>
-  </si>
-  <si>
     <t>殷钢齿轮坯</t>
   </si>
   <si>
-    <t>gear_blank_invar</t>
-  </si>
-  <si>
-    <t>motor_2</t>
-  </si>
-  <si>
     <t>不锈钢涡轮</t>
   </si>
   <si>
@@ -1910,33 +1604,18 @@
     <t>不锈钢粉</t>
   </si>
   <si>
-    <t>dust_ss</t>
-  </si>
-  <si>
     <t>不锈钢锭</t>
   </si>
   <si>
-    <t>ingot_ss</t>
-  </si>
-  <si>
     <t>不锈钢板</t>
   </si>
   <si>
-    <t>plate_ss</t>
-  </si>
-  <si>
     <t>不锈钢杆</t>
   </si>
   <si>
-    <t>stick_ss</t>
-  </si>
-  <si>
     <t>不锈钢圆形铸件</t>
   </si>
   <si>
-    <t>circle_casting_ss</t>
-  </si>
-  <si>
     <t>不锈钢轴</t>
   </si>
   <si>
@@ -1946,18 +1625,9 @@
     <t>不锈钢齿轮</t>
   </si>
   <si>
-    <t>gear_ss</t>
-  </si>
-  <si>
     <t>不锈钢齿轮坯</t>
   </si>
   <si>
-    <t>gear_blank_ss</t>
-  </si>
-  <si>
-    <t>motor_3</t>
-  </si>
-  <si>
     <t>高速钢涡轮</t>
   </si>
   <si>
@@ -1973,33 +1643,18 @@
     <t>高速钢粉</t>
   </si>
   <si>
-    <t>dust_hss</t>
-  </si>
-  <si>
     <t>高速钢锭</t>
   </si>
   <si>
-    <t>ingot_hss</t>
-  </si>
-  <si>
     <t>高速钢板</t>
   </si>
   <si>
-    <t>plate_hss</t>
-  </si>
-  <si>
     <t>高速钢杆</t>
   </si>
   <si>
-    <t>stick_hss</t>
-  </si>
-  <si>
     <t>高速钢圆形铸件</t>
   </si>
   <si>
-    <t>circle_casting_hss</t>
-  </si>
-  <si>
     <t>钨钢涡轮</t>
   </si>
   <si>
@@ -2012,45 +1667,24 @@
     <t>钨钢粉</t>
   </si>
   <si>
-    <t>dust_tungsten_steel</t>
-  </si>
-  <si>
     <t>钨钢锭</t>
   </si>
   <si>
-    <t>ingot_tungsten_steel</t>
-  </si>
-  <si>
     <t>钨钢板</t>
   </si>
   <si>
-    <t>plate_tungsten_steel</t>
-  </si>
-  <si>
     <t>钨钢杆</t>
   </si>
   <si>
-    <t>stick_tungsten_steel</t>
-  </si>
-  <si>
     <t>钨钢圆形铸件</t>
   </si>
   <si>
-    <t>circle_casting_tungsten_steel</t>
-  </si>
-  <si>
     <t>钨钢齿轮</t>
   </si>
   <si>
-    <t>gear_tungsten_steel</t>
-  </si>
-  <si>
     <t>钨钢齿轮坯</t>
   </si>
   <si>
-    <t>gear_blank_tungsten_steel</t>
-  </si>
-  <si>
     <t>记忆合金剑</t>
   </si>
   <si>
@@ -2060,21 +1694,12 @@
     <t>记忆合金锭</t>
   </si>
   <si>
-    <t>ingot_sma</t>
-  </si>
-  <si>
     <t>记忆合金板</t>
   </si>
   <si>
-    <t>plate_sma</t>
-  </si>
-  <si>
     <t>钢叶片</t>
   </si>
   <si>
-    <t>blade_steel</t>
-  </si>
-  <si>
     <t>硬质合金剑</t>
   </si>
   <si>
@@ -2084,18 +1709,12 @@
     <t>硬质合金锭</t>
   </si>
   <si>
-    <t>ingot_carbide</t>
-  </si>
-  <si>
     <t>硬质合金板</t>
   </si>
   <si>
     <t>钛叶片</t>
   </si>
   <si>
-    <t>blade_titanium</t>
-  </si>
-  <si>
     <t>激光钻头</t>
   </si>
   <si>
@@ -2105,9 +1724,6 @@
     <t>殷钢叶片</t>
   </si>
   <si>
-    <t>blade_invar</t>
-  </si>
-  <si>
     <t>勘矿镐</t>
   </si>
   <si>
@@ -2117,78 +1733,45 @@
     <t>硅粉</t>
   </si>
   <si>
-    <t>dust_silicon</t>
-  </si>
-  <si>
     <t>飞轮</t>
   </si>
   <si>
     <t>不锈钢叶片</t>
   </si>
   <si>
-    <t>blade_ss</t>
-  </si>
-  <si>
     <t>碳粉</t>
   </si>
   <si>
-    <t>dust_carbon</t>
-  </si>
-  <si>
     <t>石墨锭</t>
   </si>
   <si>
-    <t>ingot_graphite</t>
-  </si>
-  <si>
     <t>聚乙烯片</t>
   </si>
   <si>
-    <t>plate_pe</t>
-  </si>
-  <si>
     <t>flying_wheel_1</t>
   </si>
   <si>
     <t>高速钢叶片</t>
   </si>
   <si>
-    <t>blade_hss</t>
-  </si>
-  <si>
     <t>flying_wheel_2</t>
   </si>
   <si>
     <t>钨钢叶片</t>
   </si>
   <si>
-    <t>blade_tungsten_steel</t>
-  </si>
-  <si>
     <t>铜粉</t>
   </si>
   <si>
-    <t>dust_copper</t>
-  </si>
-  <si>
     <t>灼热的铁锭</t>
   </si>
   <si>
-    <t>hot_ingot_iron</t>
-  </si>
-  <si>
     <t>铜板</t>
   </si>
   <si>
-    <t>plate_copper</t>
-  </si>
-  <si>
     <t>铜杆</t>
   </si>
   <si>
-    <t>stick_copper</t>
-  </si>
-  <si>
     <t>铜线</t>
   </si>
   <si>
@@ -2198,85 +1781,46 @@
     <t>铁粉</t>
   </si>
   <si>
-    <t>dust_iron</t>
-  </si>
-  <si>
     <t>灼热的钢锭</t>
   </si>
   <si>
-    <t>hot_ingot_steel</t>
-  </si>
-  <si>
     <t>铁板</t>
   </si>
   <si>
-    <t>plate_iron</t>
-  </si>
-  <si>
     <t>铁杆</t>
   </si>
   <si>
-    <t>stick_iron</t>
-  </si>
-  <si>
     <t>铁线</t>
   </si>
   <si>
     <t>铁圆形铸件</t>
   </si>
   <si>
-    <t>circle_casting_iron</t>
-  </si>
-  <si>
     <t>铁齿轮</t>
   </si>
   <si>
-    <t>gear_iron</t>
-  </si>
-  <si>
     <t>铁齿轮坯</t>
   </si>
   <si>
-    <t>gear_blank_iron</t>
-  </si>
-  <si>
     <t>金粉</t>
   </si>
   <si>
-    <t>dust_gold</t>
-  </si>
-  <si>
     <t>金板</t>
   </si>
   <si>
-    <t>plate_gold</t>
-  </si>
-  <si>
     <t>金杆</t>
   </si>
   <si>
-    <t>stick_gold</t>
-  </si>
-  <si>
     <t>金线</t>
   </si>
   <si>
     <t>金圆形铸件</t>
   </si>
   <si>
-    <t>circle_casting_gold</t>
-  </si>
-  <si>
     <t>金齿轮</t>
   </si>
   <si>
-    <t>gear_gold</t>
-  </si>
-  <si>
     <t>金齿轮坯</t>
-  </si>
-  <si>
-    <t>gear_blank_gold</t>
   </si>
   <si>
     <t>名称</t>
@@ -2346,9 +1890,6 @@
   </si>
   <si>
     <t>2*2*1</t>
-  </si>
-  <si>
-    <t>手持物品（1个）右键放置在夹具上，夹盘和物品一起旋转，自动进刀，渲染火花，退刀时将物品更替为产物，并且不再渲染火花，完成退刀，弹出产物</t>
   </si>
   <si>
     <t>渲染输入物品和火花</t>
@@ -3515,14 +3056,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>切割物品,左进右出，工作时切割锯旋转</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>本体、切割锯</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>dust_manganese</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3758,6 +3291,623 @@
   </si>
   <si>
     <t>hydrogen</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>切割物品,左进右出，工作时切换模型，供电端口在底部</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>手持物品（1个）右键放置在夹具上，夹盘和物品一起旋转，自动进刀，渲染火花，退刀时将物品更替为产物，并且不再渲染火花，完成退刀，弹出产物；
+左侧为供电端口</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_graphite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_nickel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_graphite_nether</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>block_tin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>block_nickel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>block_aluminum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>block_manganese</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>block_steel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>block_chromium</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>block_vanadium</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>block_cobalt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>block_titanium</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>block_tungsten</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>block_bronze</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>block_invar</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>block_ss</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>block_hss</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>block_tungsten_steel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>block_sma</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>interface_data</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tank_block</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>module_generator</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>module_heat_sink</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>module_pressure_bearing</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_casting_silver</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_casting_nickel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_casting_aluminum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_casting_steel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_casting_titanium</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_casting_bronze</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_casting_invar</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_casting_ss</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_casting_hss</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_casting_tungsten_steel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_casting_iron</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_casting_gold</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gear_blank_silver</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gear_blank_nickel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gear_blank_aluminum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gear_blank_steel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gear_blank_titanium</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gear_blank_bronze</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gear_blank_invar</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gear_blank_ss</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gear_blank_tungsten_steel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gear_blank_iron</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gear_blank_gold</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gear_silver</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gear_nickel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gear_aluminum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gear_steel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gear_titanium</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gear_bronze</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gear_invar</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gear_ss</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gear_tungsten_steel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gear_iron</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gear_gold</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dust_tin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dust_silver</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dust_nickel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dust_steel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dust_titanium</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dust_tungsten</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dust_bronze</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dust_invar</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dust_ss</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dust_hss</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dust_tungsten_steel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dust_silicon</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dust_carbon</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dust_copper</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dust_iron</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dust_gold</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple_drops</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>golden_apple_drops</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple_jam_bun</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>golden_apple_jam_bun</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingot_tin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingot_silver</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingot_nickel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingot_aluminum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingot_manganese</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingot_steel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingot_chromium</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingot_vanadium</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingot_cobalt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingot_titanium</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingot_tungsten</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingot_bronze</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingot_invar</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingot_ss</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingot_hss</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingot_tungsten_steel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingot_sma</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingot_carbide</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingot_graphite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot_ingot_iron</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot_ingot_steel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ore_nickel_concentrate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>plate_tin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>plate_silver</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>plate_nickel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>plate_aluminum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>plate_steel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>plate_chromium</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>plate_titanium</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>plate_bronze</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>plate_invar</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>plate_ss</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>plate_hss</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>plate_tungsten_steel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>plate_sma</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>plate_pe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>plate_copper</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>plate_iron</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>plate_gold</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>slag</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>slag_vanadium</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>slag_cobalt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>slag_titanium</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>slag_chromium</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>refined_slag_cobalt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>refined_slag_titanium</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stick_tin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stick_aluminum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stick_steel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stick_titanium</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stick_bronze</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stick_invar</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stick_ss</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stick_hss</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stick_tungsten_steel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stick_copper</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stick_iron</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stick_gold</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>monocrystalline_silicon</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wafer</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>component_basic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>component_advanced</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>laser</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>motor_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>motor_2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>motor_3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>adapter_card</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dsb</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>blade_steel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>blade_titanium</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>blade_invar</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>blade_ss</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>blade_hss</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>blade_tungsten_steel</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4006,7 +4156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4117,14 +4267,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4140,6 +4290,16 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4418,8 +4578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4456,13 +4616,13 @@
         <v>1</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>752</v>
+        <v>599</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="40" t="s">
-        <v>799</v>
+      <c r="L1" s="39" t="s">
+        <v>644</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>3</v>
@@ -4482,635 +4642,635 @@
         <v>7</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>8</v>
+        <v>689</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="31" t="s">
-        <v>751</v>
+        <v>598</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>761</v>
+        <v>608</v>
       </c>
       <c r="K2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="N2" s="31" t="s">
+        <v>555</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="Q2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="31" t="s">
-        <v>708</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>804</v>
-      </c>
-      <c r="Q2" s="17" t="s">
+      <c r="R2" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>821</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="31" t="s">
-        <v>753</v>
+        <v>600</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>762</v>
+        <v>609</v>
       </c>
       <c r="K3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="Q3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="17" t="s">
-        <v>20</v>
-      </c>
       <c r="R3" s="11" t="s">
-        <v>809</v>
+        <v>654</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>829</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="F4" s="11" t="s">
-        <v>23</v>
+        <v>690</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="31" t="s">
-        <v>754</v>
+        <v>601</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>763</v>
+        <v>610</v>
       </c>
       <c r="K4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="O4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="Q4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>28</v>
-      </c>
       <c r="R4" s="11" t="s">
-        <v>810</v>
+        <v>655</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="31" t="s">
-        <v>792</v>
+        <v>637</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>793</v>
+        <v>638</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>30</v>
+        <v>691</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="31" t="s">
-        <v>755</v>
+        <v>602</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>764</v>
+        <v>611</v>
       </c>
       <c r="K5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="Q5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="R5" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>38</v>
+        <v>686</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>40</v>
+        <v>692</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="31" t="s">
-        <v>756</v>
+        <v>603</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>765</v>
+        <v>612</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="O6" s="11"/>
       <c r="Q6" s="17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>827</v>
+        <v>672</v>
       </c>
       <c r="I7" s="11"/>
       <c r="N7" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>803</v>
+        <v>648</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>835</v>
+        <v>680</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>49</v>
+        <v>693</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="31" t="s">
-        <v>757</v>
+        <v>604</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>766</v>
+        <v>613</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>53</v>
+        <v>707</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>57</v>
+        <v>687</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>59</v>
+        <v>694</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="31" t="s">
-        <v>758</v>
+        <v>605</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>767</v>
+        <v>614</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>63</v>
+        <v>708</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>823</v>
+        <v>668</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>68</v>
+        <v>695</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="31" t="s">
-        <v>759</v>
+        <v>606</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>768</v>
+        <v>615</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>72</v>
+        <v>709</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>832</v>
+        <v>677</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>77</v>
+        <v>696</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="31" t="s">
-        <v>760</v>
+        <v>607</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>769</v>
+        <v>616</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="N11" s="16"/>
       <c r="O11" s="11"/>
       <c r="Q11" s="17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="E12" s="10" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>83</v>
+        <v>697</v>
       </c>
       <c r="G12" s="11"/>
       <c r="I12" s="11"/>
       <c r="K12" s="10" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>805</v>
+        <v>650</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="31" t="s">
-        <v>826</v>
+        <v>671</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>794</v>
+        <v>639</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>88</v>
+        <v>698</v>
       </c>
       <c r="G13" s="11"/>
       <c r="I13" s="11"/>
       <c r="K13" s="10" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>92</v>
+        <v>705</v>
       </c>
       <c r="Q13" s="31" t="s">
-        <v>709</v>
+        <v>556</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>704</v>
+        <v>551</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>94</v>
+        <v>688</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>806</v>
+        <v>651</v>
       </c>
       <c r="Q14" s="31" t="s">
-        <v>710</v>
+        <v>557</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>705</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>833</v>
+        <v>678</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>98</v>
+        <v>699</v>
       </c>
       <c r="G15" s="11"/>
       <c r="I15" s="11"/>
       <c r="K15" s="10" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>807</v>
+        <v>652</v>
       </c>
       <c r="Q15" s="31" t="s">
-        <v>711</v>
+        <v>558</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>706</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>825</v>
+        <v>670</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>104</v>
+        <v>700</v>
       </c>
       <c r="G16" s="11"/>
       <c r="I16" s="11"/>
       <c r="K16" s="10" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="31" t="s">
-        <v>712</v>
+        <v>559</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>707</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="E17" s="10" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>108</v>
+        <v>701</v>
       </c>
       <c r="G17" s="11"/>
       <c r="I17" s="11"/>
       <c r="K17" s="10" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="R17" s="11"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>822</v>
+        <v>667</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>115</v>
+        <v>702</v>
       </c>
       <c r="G18" s="11"/>
       <c r="I18" s="11"/>
       <c r="K18" s="10" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>828</v>
+        <v>673</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>122</v>
+        <v>703</v>
       </c>
       <c r="G19" s="11"/>
       <c r="I19" s="11"/>
       <c r="K19" s="31" t="s">
-        <v>772</v>
+        <v>619</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>773</v>
+        <v>620</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>824</v>
+        <v>669</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>125</v>
+        <v>704</v>
       </c>
       <c r="G20" s="11"/>
       <c r="I20" s="11"/>
       <c r="L20" s="11"/>
       <c r="N20" s="13" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>808</v>
+        <v>653</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>831</v>
+        <v>676</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>135</v>
+        <v>706</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>830</v>
+        <v>675</v>
       </c>
       <c r="E22" s="31"/>
       <c r="K22" s="10" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="N22" s="13"/>
       <c r="O22" s="11"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>834</v>
+        <v>679</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
@@ -5128,7 +5288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -5140,317 +5300,317 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="B2" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="47">
         <v>505</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>673</v>
+      <c r="D2" s="48" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="B3" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="47">
         <v>1235</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>674</v>
+      <c r="D3" s="48" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="47">
         <v>1356</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>675</v>
+      <c r="D4" s="48" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="47">
         <v>1726</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>676</v>
+      <c r="D5" s="48" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="47">
         <v>933</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>677</v>
+      <c r="D6" s="48" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="47">
         <v>1517</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>678</v>
+      <c r="D7" s="48" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D8" s="23"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="47">
         <v>2130</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>681</v>
+      <c r="D9" s="48" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="47">
         <v>2163</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>685</v>
+      <c r="D10" s="48" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="B11" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="47">
         <v>1768</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>679</v>
+      <c r="D11" s="48" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="B12" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="47">
         <v>1941</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>682</v>
+      <c r="D12" s="48" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="B13" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="47">
         <v>3683</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>683</v>
+      <c r="D13" s="48" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D14" s="23"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="B15" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="47">
         <v>1170</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>686</v>
+      <c r="D15" s="48" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="B16" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="47">
         <v>1723</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>687</v>
+      <c r="D16" s="48" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="B17" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="47">
         <v>1570</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>688</v>
+      <c r="D17" s="48" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="B18" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="47">
         <v>1893</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>689</v>
+      <c r="D18" s="48" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="B19" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="47">
         <v>1700</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>690</v>
+      <c r="D19" s="48" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D20" s="23"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="11">
+      <c r="B21" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="47">
         <v>1356</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>691</v>
+      <c r="D21" s="48" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C22" s="11">
+      <c r="B22" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="47">
         <v>1800</v>
       </c>
-      <c r="D22" s="23" t="s">
-        <v>692</v>
+      <c r="D22" s="48" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C23" s="11">
+      <c r="B23" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="47">
         <v>1337</v>
       </c>
-      <c r="D23" s="23" t="s">
-        <v>693</v>
+      <c r="D23" s="48" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="C25" s="11">
         <v>293</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>694</v>
+        <v>541</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="C26" s="11">
         <v>293</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>695</v>
+        <v>542</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C27" s="11">
         <v>293</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>696</v>
+        <v>543</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="C28" s="11">
         <v>293</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>838</v>
+        <v>683</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="20" t="s">
-        <v>609</v>
+        <v>456</v>
       </c>
       <c r="C30" s="11">
         <v>270</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>697</v>
+        <v>544</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>664</v>
+        <v>511</v>
       </c>
       <c r="F30" s="41"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="20" t="s">
-        <v>610</v>
+        <v>457</v>
       </c>
       <c r="C31" s="11">
         <v>400</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>698</v>
+        <v>545</v>
       </c>
       <c r="E31" s="41"/>
       <c r="F31" s="41"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="20" t="s">
-        <v>611</v>
+        <v>458</v>
       </c>
       <c r="C32" s="11">
         <v>550</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>700</v>
+        <v>547</v>
       </c>
       <c r="E32" s="41"/>
       <c r="F32" s="41"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="20" t="s">
-        <v>612</v>
+        <v>459</v>
       </c>
       <c r="C33" s="11">
         <v>610</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>699</v>
+        <v>546</v>
       </c>
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
@@ -5468,8 +5628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AP28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AM11" sqref="AM11:AM16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5522,1299 +5682,1299 @@
   <sheetData>
     <row r="1" spans="2:42" s="9" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
       <c r="B1" s="9" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="I1" s="12"/>
       <c r="K1" s="9" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="L1" s="12"/>
       <c r="N1" s="9" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="O1" s="11"/>
       <c r="Q1" s="9" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="R1" s="11"/>
       <c r="T1" s="9" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="U1" s="11"/>
       <c r="W1" s="9" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="X1" s="12"/>
       <c r="Z1" s="9" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="AC1" s="9" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="AD1" s="11"/>
       <c r="AF1" s="9" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="AG1" s="12"/>
       <c r="AI1" s="9" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="AJ1" s="12"/>
       <c r="AL1" s="9" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="AM1" s="12"/>
       <c r="AO1" s="9" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="AP1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>819</v>
+        <v>664</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>797</v>
+        <v>642</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>178</v>
+        <v>744</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>180</v>
+        <v>764</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>182</v>
+        <v>786</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>184</v>
+        <v>810</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>720</v>
+        <v>567</v>
       </c>
       <c r="AI2" s="10" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="AJ2" s="11" t="s">
-        <v>186</v>
+        <v>803</v>
       </c>
       <c r="AL2" s="13" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="AM2" s="11" t="s">
-        <v>188</v>
+        <v>822</v>
       </c>
       <c r="AO2" s="13" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="AP2" s="11" t="s">
-        <v>811</v>
+        <v>656</v>
       </c>
     </row>
     <row r="3" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>818</v>
+        <v>663</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>796</v>
+        <v>641</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>193</v>
+        <v>745</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>195</v>
+        <v>765</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>197</v>
+        <v>787</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>731</v>
+        <v>578</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>730</v>
+        <v>577</v>
       </c>
       <c r="T3" s="31" t="s">
-        <v>732</v>
+        <v>579</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>721</v>
+        <v>568</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>199</v>
+        <v>710</v>
       </c>
       <c r="AC3" s="13" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="AD3" s="11" t="s">
-        <v>201</v>
+        <v>733</v>
       </c>
       <c r="AF3" s="13" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="AG3" s="11" t="s">
-        <v>203</v>
+        <v>722</v>
       </c>
       <c r="AI3" s="10" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="AJ3" s="11" t="s">
-        <v>205</v>
+        <v>804</v>
       </c>
       <c r="AL3" s="13" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="AM3" s="11" t="s">
-        <v>207</v>
+        <v>823</v>
       </c>
       <c r="AO3" s="10" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="AP3" s="11" t="s">
-        <v>209</v>
+        <v>830</v>
       </c>
     </row>
     <row r="4" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>816</v>
+        <v>661</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>212</v>
+        <v>785</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>214</v>
+        <v>746</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>216</v>
+        <v>766</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>218</v>
+        <v>788</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>220</v>
+        <v>711</v>
       </c>
       <c r="AC4" s="13" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="AD4" s="11" t="s">
-        <v>222</v>
+        <v>734</v>
       </c>
       <c r="AF4" s="13" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="AG4" s="11" t="s">
-        <v>224</v>
+        <v>723</v>
       </c>
       <c r="AI4" s="10" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="AJ4" s="11" t="s">
-        <v>226</v>
+        <v>805</v>
       </c>
       <c r="AL4" s="13" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="AM4" s="11" t="s">
-        <v>743</v>
+        <v>590</v>
       </c>
       <c r="AO4" s="10" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="AP4" s="11" t="s">
-        <v>670</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>812</v>
+        <v>657</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>795</v>
+        <v>640</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>234</v>
+        <v>767</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>236</v>
+        <v>789</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>238</v>
+        <v>811</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>722</v>
+        <v>569</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="X5" s="11" t="s">
-        <v>241</v>
+        <v>712</v>
       </c>
       <c r="AC5" s="13" t="s">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="AD5" s="11" t="s">
-        <v>243</v>
+        <v>735</v>
       </c>
       <c r="AF5" s="13" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="AG5" s="11" t="s">
-        <v>245</v>
+        <v>724</v>
       </c>
       <c r="AI5" s="10" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="AJ5" s="11" t="s">
-        <v>247</v>
+        <v>806</v>
       </c>
       <c r="AL5" s="20" t="s">
-        <v>744</v>
+        <v>591</v>
       </c>
       <c r="AM5" s="11" t="s">
-        <v>248</v>
+        <v>824</v>
       </c>
       <c r="AO5" s="10" t="s">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="AP5" s="11" t="s">
-        <v>250</v>
+        <v>831</v>
       </c>
     </row>
     <row r="6" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>815</v>
+        <v>660</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>252</v>
+        <v>196</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>791</v>
+        <v>636</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>253</v>
+        <v>197</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>780</v>
+        <v>625</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>254</v>
+        <v>198</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>255</v>
+        <v>768</v>
       </c>
       <c r="AI6" s="10" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="AJ6" s="11" t="s">
-        <v>257</v>
+        <v>807</v>
       </c>
       <c r="AL6" s="16" t="s">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="AM6" s="11" t="s">
-        <v>259</v>
+        <v>825</v>
       </c>
     </row>
     <row r="7" spans="2:42" x14ac:dyDescent="0.3">
       <c r="C7" s="11"/>
       <c r="AI7" s="10" t="s">
-        <v>260</v>
+        <v>201</v>
       </c>
       <c r="AJ7" s="11" t="s">
-        <v>784</v>
+        <v>629</v>
       </c>
       <c r="AL7" s="13" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="AM7" s="11" t="s">
-        <v>262</v>
+        <v>826</v>
       </c>
       <c r="AO7" s="15" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>813</v>
+        <v>658</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="F8" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="O8" s="11" t="s">
         <v>790</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>271</v>
-      </c>
       <c r="Q8" s="10" t="s">
-        <v>272</v>
+        <v>209</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>273</v>
+        <v>812</v>
       </c>
       <c r="T8" s="31" t="s">
-        <v>729</v>
+        <v>576</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>726</v>
+        <v>573</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>275</v>
+        <v>713</v>
       </c>
       <c r="Z8" s="10" t="s">
-        <v>276</v>
+        <v>211</v>
       </c>
       <c r="AA8" s="11" t="s">
-        <v>277</v>
+        <v>212</v>
       </c>
       <c r="AC8" s="13" t="s">
-        <v>278</v>
+        <v>213</v>
       </c>
       <c r="AD8" s="11" t="s">
-        <v>279</v>
+        <v>736</v>
       </c>
       <c r="AF8" s="13" t="s">
-        <v>280</v>
+        <v>214</v>
       </c>
       <c r="AG8" s="11" t="s">
-        <v>281</v>
+        <v>725</v>
       </c>
       <c r="AI8" s="10" t="s">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="AJ8" s="11" t="s">
-        <v>283</v>
+        <v>808</v>
       </c>
       <c r="AL8" s="13" t="s">
-        <v>284</v>
+        <v>216</v>
       </c>
       <c r="AM8" s="11" t="s">
-        <v>745</v>
+        <v>592</v>
       </c>
       <c r="AO8" s="10" t="s">
-        <v>285</v>
+        <v>217</v>
       </c>
       <c r="AP8" s="11" t="s">
-        <v>286</v>
+        <v>760</v>
       </c>
     </row>
     <row r="9" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>817</v>
+        <v>662</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>288</v>
+        <v>219</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>789</v>
+        <v>634</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>289</v>
+        <v>220</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>680</v>
+        <v>527</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>290</v>
+        <v>221</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>291</v>
+        <v>770</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>293</v>
+        <v>791</v>
       </c>
       <c r="AI9" s="10" t="s">
-        <v>294</v>
+        <v>223</v>
       </c>
       <c r="AJ9" s="11" t="s">
-        <v>295</v>
+        <v>809</v>
       </c>
       <c r="AO9" s="10" t="s">
-        <v>296</v>
+        <v>224</v>
       </c>
       <c r="AP9" s="11" t="s">
-        <v>297</v>
+        <v>761</v>
       </c>
     </row>
     <row r="10" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
-        <v>298</v>
+        <v>225</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>814</v>
+        <v>659</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>788</v>
+        <v>633</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>684</v>
+        <v>531</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>301</v>
+        <v>228</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>302</v>
+        <v>771</v>
       </c>
       <c r="AI10" s="10" t="s">
-        <v>303</v>
+        <v>229</v>
       </c>
       <c r="AJ10" s="11" t="s">
-        <v>783</v>
+        <v>628</v>
       </c>
       <c r="AL10" s="15" t="s">
-        <v>327</v>
+        <v>243</v>
       </c>
       <c r="AO10" s="10" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
       <c r="AP10" s="11" t="s">
-        <v>305</v>
+        <v>762</v>
       </c>
     </row>
     <row r="11" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>820</v>
+        <v>665</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>307</v>
+        <v>232</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>798</v>
+        <v>643</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>308</v>
+        <v>233</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>781</v>
+        <v>626</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>309</v>
+        <v>234</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>310</v>
+        <v>772</v>
       </c>
       <c r="AL11" s="10" t="s">
-        <v>333</v>
+        <v>247</v>
       </c>
       <c r="AM11" s="11" t="s">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="AO11" s="10" t="s">
-        <v>311</v>
+        <v>235</v>
       </c>
       <c r="AP11" s="11" t="s">
-        <v>312</v>
+        <v>763</v>
       </c>
     </row>
     <row r="12" spans="2:42" x14ac:dyDescent="0.3">
       <c r="H12" s="10" t="s">
-        <v>313</v>
+        <v>236</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>314</v>
+        <v>748</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>315</v>
+        <v>237</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>316</v>
+        <v>773</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>318</v>
+        <v>792</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>319</v>
+        <v>239</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>320</v>
+        <v>813</v>
       </c>
       <c r="T12" s="31" t="s">
-        <v>728</v>
+        <v>575</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>727</v>
+        <v>574</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>321</v>
+        <v>240</v>
       </c>
       <c r="X12" s="11" t="s">
-        <v>322</v>
+        <v>714</v>
       </c>
       <c r="AC12" s="13" t="s">
-        <v>323</v>
+        <v>241</v>
       </c>
       <c r="AD12" s="11" t="s">
-        <v>324</v>
+        <v>737</v>
       </c>
       <c r="AF12" s="13" t="s">
-        <v>325</v>
+        <v>242</v>
       </c>
       <c r="AG12" s="11" t="s">
-        <v>326</v>
+        <v>726</v>
       </c>
       <c r="AI12" s="14" t="s">
-        <v>337</v>
+        <v>251</v>
       </c>
       <c r="AJ12" s="14"/>
       <c r="AL12" s="10" t="s">
-        <v>338</v>
+        <v>252</v>
       </c>
       <c r="AM12" s="11" t="s">
-        <v>339</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="2:42" x14ac:dyDescent="0.3">
       <c r="E13" s="10" t="s">
-        <v>328</v>
+        <v>244</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>787</v>
+        <v>632</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>329</v>
+        <v>245</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>330</v>
+        <v>749</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>331</v>
+        <v>246</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>332</v>
+        <v>774</v>
       </c>
       <c r="N13" s="21"/>
       <c r="T13" s="21"/>
       <c r="AI13" s="31" t="s">
-        <v>713</v>
+        <v>560</v>
       </c>
       <c r="AJ13" s="11" t="s">
-        <v>357</v>
+        <v>827</v>
       </c>
       <c r="AL13" s="10" t="s">
-        <v>358</v>
+        <v>264</v>
       </c>
       <c r="AM13" s="11" t="s">
-        <v>359</v>
+        <v>265</v>
       </c>
       <c r="AO13" s="15" t="s">
-        <v>335</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="2:42" x14ac:dyDescent="0.3">
       <c r="E14" s="10" t="s">
-        <v>336</v>
+        <v>250</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>786</v>
+        <v>631</v>
       </c>
       <c r="AI14" s="31" t="s">
-        <v>714</v>
+        <v>561</v>
       </c>
       <c r="AJ14" s="11" t="s">
-        <v>377</v>
+        <v>828</v>
       </c>
       <c r="AL14" s="10" t="s">
-        <v>378</v>
+        <v>276</v>
       </c>
       <c r="AM14" s="11" t="s">
-        <v>379</v>
+        <v>277</v>
       </c>
       <c r="AO14" s="10" t="s">
-        <v>340</v>
+        <v>254</v>
       </c>
       <c r="AP14" s="11" t="s">
-        <v>341</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="2:42" x14ac:dyDescent="0.3">
       <c r="E15" s="10" t="s">
-        <v>342</v>
+        <v>256</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>785</v>
+        <v>630</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>343</v>
+        <v>257</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>344</v>
+        <v>750</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>345</v>
+        <v>258</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>346</v>
+        <v>775</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>348</v>
+        <v>793</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>349</v>
+        <v>260</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>350</v>
+        <v>814</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>351</v>
+        <v>261</v>
       </c>
       <c r="X15" s="11" t="s">
-        <v>352</v>
+        <v>715</v>
       </c>
       <c r="AC15" s="13" t="s">
-        <v>353</v>
+        <v>262</v>
       </c>
       <c r="AD15" s="11" t="s">
-        <v>354</v>
+        <v>738</v>
       </c>
       <c r="AF15" s="13" t="s">
-        <v>355</v>
+        <v>263</v>
       </c>
       <c r="AG15" s="11" t="s">
-        <v>356</v>
+        <v>727</v>
       </c>
       <c r="AI15" s="31" t="s">
-        <v>715</v>
+        <v>562</v>
       </c>
       <c r="AJ15" s="11" t="s">
-        <v>398</v>
+        <v>829</v>
       </c>
       <c r="AL15" s="10" t="s">
-        <v>399</v>
+        <v>289</v>
       </c>
       <c r="AM15" s="11" t="s">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="AO15" s="10" t="s">
-        <v>360</v>
+        <v>266</v>
       </c>
       <c r="AP15" s="11" t="s">
-        <v>802</v>
+        <v>647</v>
       </c>
     </row>
     <row r="16" spans="2:42" x14ac:dyDescent="0.3">
       <c r="H16" s="10" t="s">
-        <v>361</v>
+        <v>267</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>362</v>
+        <v>751</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>363</v>
+        <v>268</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>364</v>
+        <v>776</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>365</v>
+        <v>269</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>366</v>
+        <v>794</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>367</v>
+        <v>270</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>368</v>
+        <v>815</v>
       </c>
       <c r="W16" s="10" t="s">
-        <v>369</v>
+        <v>271</v>
       </c>
       <c r="X16" s="11" t="s">
-        <v>370</v>
+        <v>716</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>371</v>
+        <v>272</v>
       </c>
       <c r="AA16" s="11" t="s">
-        <v>372</v>
+        <v>273</v>
       </c>
       <c r="AC16" s="13" t="s">
-        <v>373</v>
+        <v>274</v>
       </c>
       <c r="AD16" s="11" t="s">
-        <v>374</v>
+        <v>739</v>
       </c>
       <c r="AF16" s="13" t="s">
-        <v>375</v>
+        <v>275</v>
       </c>
       <c r="AG16" s="11" t="s">
-        <v>376</v>
+        <v>728</v>
       </c>
       <c r="AL16" s="21" t="s">
-        <v>413</v>
+        <v>298</v>
       </c>
       <c r="AM16" s="11" t="s">
-        <v>414</v>
+        <v>299</v>
       </c>
       <c r="AO16" s="10" t="s">
-        <v>380</v>
+        <v>278</v>
       </c>
       <c r="AP16" s="11" t="s">
-        <v>381</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H17" s="10" t="s">
-        <v>382</v>
+        <v>280</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>383</v>
+        <v>752</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>384</v>
+        <v>281</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>385</v>
+        <v>777</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>386</v>
+        <v>282</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>387</v>
+        <v>795</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>388</v>
+        <v>283</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>389</v>
+        <v>816</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>390</v>
+        <v>284</v>
       </c>
       <c r="X17" s="11" t="s">
-        <v>391</v>
+        <v>717</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>392</v>
+        <v>285</v>
       </c>
       <c r="AA17" s="11" t="s">
-        <v>393</v>
+        <v>286</v>
       </c>
       <c r="AC17" s="13" t="s">
-        <v>394</v>
+        <v>287</v>
       </c>
       <c r="AD17" s="11" t="s">
-        <v>395</v>
+        <v>740</v>
       </c>
       <c r="AF17" s="13" t="s">
-        <v>396</v>
+        <v>288</v>
       </c>
       <c r="AG17" s="11" t="s">
-        <v>397</v>
+        <v>729</v>
       </c>
       <c r="AI17" s="15" t="s">
-        <v>453</v>
+        <v>324</v>
       </c>
       <c r="AO17" s="10" t="s">
-        <v>401</v>
+        <v>291</v>
       </c>
       <c r="AP17" s="11" t="s">
-        <v>402</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H18" s="10" t="s">
-        <v>403</v>
+        <v>293</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>404</v>
+        <v>753</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>405</v>
+        <v>294</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>406</v>
+        <v>778</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>407</v>
+        <v>295</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>408</v>
+        <v>796</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>409</v>
+        <v>296</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>410</v>
+        <v>817</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>411</v>
+        <v>297</v>
       </c>
       <c r="X18" s="11" t="s">
-        <v>412</v>
+        <v>718</v>
       </c>
       <c r="AA18" s="11"/>
       <c r="AC18" s="31" t="s">
-        <v>734</v>
+        <v>581</v>
       </c>
       <c r="AD18" s="11" t="s">
-        <v>735</v>
+        <v>582</v>
       </c>
       <c r="AF18" s="31" t="s">
-        <v>736</v>
+        <v>583</v>
       </c>
       <c r="AG18" s="11" t="s">
-        <v>737</v>
+        <v>584</v>
       </c>
       <c r="AI18" s="32" t="s">
-        <v>716</v>
+        <v>563</v>
       </c>
       <c r="AJ18" s="11" t="s">
-        <v>462</v>
+        <v>329</v>
       </c>
       <c r="AL18" s="10" t="s">
-        <v>436</v>
+        <v>312</v>
       </c>
       <c r="AM18" s="11" t="s">
-        <v>437</v>
+        <v>832</v>
       </c>
       <c r="AO18" s="10" t="s">
-        <v>415</v>
+        <v>300</v>
       </c>
       <c r="AP18" s="11" t="s">
-        <v>719</v>
+        <v>566</v>
       </c>
     </row>
     <row r="19" spans="5:42" x14ac:dyDescent="0.3">
       <c r="E19" s="42" t="s">
-        <v>617</v>
+        <v>464</v>
       </c>
       <c r="F19" s="42"/>
       <c r="H19" s="10" t="s">
-        <v>416</v>
+        <v>301</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>417</v>
+        <v>754</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>418</v>
+        <v>302</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>419</v>
+        <v>779</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>420</v>
+        <v>303</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>421</v>
+        <v>797</v>
       </c>
       <c r="Q19" s="21" t="s">
-        <v>422</v>
+        <v>304</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>423</v>
+        <v>818</v>
       </c>
       <c r="W19" s="21" t="s">
-        <v>424</v>
+        <v>305</v>
       </c>
       <c r="X19" s="11" t="s">
-        <v>425</v>
+        <v>719</v>
       </c>
       <c r="AA19" s="11"/>
       <c r="AC19" s="22" t="s">
-        <v>426</v>
+        <v>306</v>
       </c>
       <c r="AD19" s="11" t="s">
-        <v>427</v>
+        <v>741</v>
       </c>
       <c r="AF19" s="22" t="s">
-        <v>428</v>
+        <v>307</v>
       </c>
       <c r="AG19" s="11" t="s">
-        <v>429</v>
+        <v>730</v>
       </c>
       <c r="AI19" s="20" t="s">
-        <v>717</v>
+        <v>564</v>
       </c>
       <c r="AJ19" s="11" t="s">
-        <v>465</v>
+        <v>331</v>
       </c>
       <c r="AL19" s="10" t="s">
-        <v>443</v>
+        <v>317</v>
       </c>
       <c r="AM19" s="11" t="s">
-        <v>444</v>
+        <v>833</v>
       </c>
       <c r="AO19" s="10" t="s">
-        <v>430</v>
+        <v>308</v>
       </c>
       <c r="AP19" s="11" t="s">
-        <v>801</v>
+        <v>646</v>
       </c>
     </row>
     <row r="20" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H20" s="10" t="s">
-        <v>431</v>
+        <v>309</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>782</v>
+        <v>627</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>432</v>
+        <v>310</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>433</v>
+        <v>780</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>434</v>
+        <v>311</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>435</v>
+        <v>798</v>
       </c>
       <c r="AI20" s="20" t="s">
-        <v>718</v>
+        <v>565</v>
       </c>
       <c r="AJ20" s="11" t="s">
-        <v>477</v>
+        <v>338</v>
       </c>
       <c r="AL20" s="10" t="s">
-        <v>447</v>
+        <v>320</v>
       </c>
       <c r="AM20" s="11" t="s">
-        <v>448</v>
+        <v>834</v>
       </c>
       <c r="AO20" s="21" t="s">
-        <v>438</v>
+        <v>313</v>
       </c>
       <c r="AP20" s="11" t="s">
-        <v>800</v>
+        <v>645</v>
       </c>
     </row>
     <row r="21" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H21" s="10" t="s">
-        <v>439</v>
+        <v>314</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>774</v>
+        <v>621</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>440</v>
+        <v>315</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>441</v>
+        <v>781</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>442</v>
+        <v>316</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>775</v>
+        <v>622</v>
       </c>
       <c r="AL21" s="10" t="s">
-        <v>454</v>
+        <v>325</v>
       </c>
       <c r="AM21" s="11" t="s">
-        <v>455</v>
+        <v>835</v>
       </c>
       <c r="AO21" s="10" t="s">
-        <v>445</v>
+        <v>318</v>
       </c>
       <c r="AP21" s="11" t="s">
-        <v>446</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="5:42" x14ac:dyDescent="0.3">
       <c r="AL22" s="10" t="s">
-        <v>463</v>
+        <v>330</v>
       </c>
       <c r="AM22" s="11" t="s">
-        <v>464</v>
+        <v>836</v>
       </c>
       <c r="AO22" s="10" t="s">
-        <v>449</v>
+        <v>321</v>
       </c>
       <c r="AP22" s="11" t="s">
-        <v>450</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H23" s="10" t="s">
-        <v>451</v>
+        <v>323</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>452</v>
+        <v>755</v>
       </c>
       <c r="AL23" s="21" t="s">
-        <v>466</v>
+        <v>332</v>
       </c>
       <c r="AM23" s="11" t="s">
-        <v>467</v>
+        <v>837</v>
       </c>
     </row>
     <row r="24" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H24" s="10" t="s">
-        <v>456</v>
+        <v>326</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>457</v>
+        <v>756</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>458</v>
+        <v>327</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>459</v>
+        <v>782</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>460</v>
+        <v>328</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>461</v>
+        <v>799</v>
       </c>
     </row>
     <row r="26" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H26" s="10" t="s">
-        <v>468</v>
+        <v>333</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>469</v>
+        <v>757</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>470</v>
+        <v>334</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>471</v>
+        <v>783</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>472</v>
+        <v>335</v>
       </c>
       <c r="O26" s="11" t="s">
-        <v>473</v>
+        <v>800</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>474</v>
+        <v>336</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>475</v>
+        <v>819</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>476</v>
+        <v>337</v>
       </c>
       <c r="U26" s="11" t="s">
-        <v>723</v>
+        <v>570</v>
       </c>
     </row>
     <row r="27" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H27" s="10" t="s">
-        <v>478</v>
+        <v>339</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>479</v>
+        <v>758</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>480</v>
+        <v>340</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>481</v>
+        <v>784</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>482</v>
+        <v>341</v>
       </c>
       <c r="O27" s="11" t="s">
-        <v>483</v>
+        <v>801</v>
       </c>
       <c r="Q27" s="10" t="s">
-        <v>484</v>
+        <v>342</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>485</v>
+        <v>820</v>
       </c>
       <c r="T27" s="10" t="s">
-        <v>486</v>
+        <v>343</v>
       </c>
       <c r="U27" s="11" t="s">
-        <v>724</v>
+        <v>571</v>
       </c>
       <c r="W27" s="10" t="s">
-        <v>487</v>
+        <v>344</v>
       </c>
       <c r="X27" s="11" t="s">
-        <v>488</v>
+        <v>720</v>
       </c>
       <c r="AA27" s="11"/>
       <c r="AC27" s="13" t="s">
-        <v>489</v>
+        <v>345</v>
       </c>
       <c r="AD27" s="11" t="s">
-        <v>490</v>
+        <v>742</v>
       </c>
       <c r="AF27" s="13" t="s">
-        <v>491</v>
+        <v>346</v>
       </c>
       <c r="AG27" s="11" t="s">
-        <v>492</v>
+        <v>731</v>
       </c>
     </row>
     <row r="28" spans="5:42" x14ac:dyDescent="0.3">
       <c r="H28" s="10" t="s">
-        <v>493</v>
+        <v>347</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>494</v>
+        <v>759</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>495</v>
+        <v>348</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>496</v>
+        <v>802</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>497</v>
+        <v>349</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>498</v>
+        <v>821</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>499</v>
+        <v>350</v>
       </c>
       <c r="U28" s="11" t="s">
-        <v>725</v>
+        <v>572</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>500</v>
+        <v>351</v>
       </c>
       <c r="X28" s="11" t="s">
-        <v>501</v>
+        <v>721</v>
       </c>
       <c r="AC28" s="13" t="s">
-        <v>502</v>
+        <v>352</v>
       </c>
       <c r="AD28" s="11" t="s">
-        <v>503</v>
+        <v>743</v>
       </c>
       <c r="AF28" s="13" t="s">
-        <v>504</v>
+        <v>353</v>
       </c>
       <c r="AG28" s="11" t="s">
-        <v>505</v>
+        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -6832,7 +6992,7 @@
   <dimension ref="B1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -6853,333 +7013,331 @@
   <sheetData>
     <row r="1" spans="2:12" s="1" customFormat="1" ht="35" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>506</v>
+        <v>354</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="1" t="s">
-        <v>507</v>
+        <v>355</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>508</v>
+        <v>356</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>509</v>
+        <v>357</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>510</v>
+        <v>358</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>511</v>
+        <v>359</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>512</v>
+        <v>360</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>513</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B2" s="34" t="s">
-        <v>514</v>
+        <v>362</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>515</v>
+        <v>363</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>516</v>
+        <v>364</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>517</v>
+        <v>365</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>518</v>
+        <v>366</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>519</v>
+        <v>367</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>520</v>
+        <v>368</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>521</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="28" x14ac:dyDescent="0.3">
-      <c r="B3" s="39" t="s">
-        <v>746</v>
+      <c r="B3" s="38" t="s">
+        <v>593</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>749</v>
+        <v>596</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>516</v>
+        <v>364</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>517</v>
+        <v>365</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>518</v>
+        <v>366</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>519</v>
+        <v>367</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>520</v>
+        <v>368</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>521</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="28" x14ac:dyDescent="0.3">
-      <c r="B4" s="39" t="s">
-        <v>747</v>
+      <c r="B4" s="38" t="s">
+        <v>594</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>748</v>
+        <v>595</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>516</v>
+        <v>364</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>517</v>
+        <v>365</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>518</v>
+        <v>366</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>519</v>
+        <v>367</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>520</v>
+        <v>368</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>521</v>
+        <v>369</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="42" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="56" x14ac:dyDescent="0.3">
       <c r="B6" s="34" t="s">
-        <v>522</v>
+        <v>370</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>523</v>
+        <v>371</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>525</v>
+        <v>372</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>685</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>750</v>
+        <v>597</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>526</v>
+        <v>373</v>
       </c>
       <c r="H6" s="6">
         <v>64</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>520</v>
+        <v>368</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>521</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>527</v>
+        <v>374</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>528</v>
+        <v>375</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>516</v>
+        <v>364</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>778</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>779</v>
-      </c>
+        <v>684</v>
+      </c>
+      <c r="F7" s="24"/>
       <c r="G7" s="6" t="s">
-        <v>526</v>
+        <v>373</v>
       </c>
       <c r="H7" s="6">
         <v>64</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>521</v>
+        <v>369</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>521</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>529</v>
+        <v>376</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>530</v>
+        <v>377</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>777</v>
+        <v>624</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>531</v>
+        <v>378</v>
       </c>
       <c r="H8" s="6">
         <v>128</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>521</v>
+        <v>369</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>521</v>
+        <v>369</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>532</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>533</v>
+        <v>380</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>534</v>
+        <v>381</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>516</v>
+        <v>364</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>770</v>
+        <v>617</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>771</v>
+        <v>618</v>
       </c>
       <c r="H9" s="6">
         <v>64</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>521</v>
+        <v>369</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>519</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>535</v>
+        <v>382</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>536</v>
+        <v>383</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>516</v>
+        <v>364</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>537</v>
+        <v>384</v>
       </c>
       <c r="H10" s="6">
         <v>512</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>521</v>
+        <v>369</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>519</v>
+        <v>367</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>623</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="84" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>538</v>
+        <v>385</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>539</v>
+        <v>386</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>524</v>
+        <v>372</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>836</v>
+        <v>681</v>
       </c>
       <c r="H11" s="6">
         <v>64</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>520</v>
+        <v>368</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>519</v>
+        <v>367</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>532</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>540</v>
+        <v>387</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>541</v>
+        <v>388</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>524</v>
+        <v>372</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>542</v>
+        <v>389</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>543</v>
+        <v>390</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>544</v>
+        <v>391</v>
       </c>
       <c r="H13" s="6">
         <v>64</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>520</v>
+        <v>368</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>519</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>545</v>
+        <v>392</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>546</v>
+        <v>393</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>547</v>
+        <v>394</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>776</v>
+        <v>623</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>548</v>
+        <v>395</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>549</v>
+        <v>396</v>
       </c>
       <c r="H14" s="6">
         <v>128</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>521</v>
+        <v>369</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>521</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
@@ -7221,479 +7379,479 @@
   <sheetData>
     <row r="1" spans="2:12" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>506</v>
+        <v>354</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="1" t="s">
-        <v>507</v>
+        <v>355</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>508</v>
+        <v>356</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>509</v>
+        <v>357</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>510</v>
+        <v>358</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>511</v>
+        <v>359</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>512</v>
+        <v>360</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>513</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="56" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>550</v>
+        <v>397</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>551</v>
+        <v>398</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>552</v>
+        <v>399</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>615</v>
+        <v>462</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>553</v>
+        <v>400</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>554</v>
+        <v>401</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>519</v>
+        <v>367</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>608</v>
+        <v>455</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>521</v>
+        <v>369</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>555</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>556</v>
+        <v>403</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>557</v>
+        <v>404</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>552</v>
+        <v>399</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>558</v>
+        <v>405</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>519</v>
+        <v>367</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>521</v>
+        <v>369</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>519</v>
+        <v>367</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>559</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>560</v>
+        <v>407</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>561</v>
+        <v>408</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>562</v>
+        <v>409</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>619</v>
+        <v>466</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>519</v>
+        <v>367</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>521</v>
+        <v>369</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>519</v>
+        <v>367</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>563</v>
+        <v>410</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>564</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="56" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>565</v>
+        <v>412</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>566</v>
+        <v>413</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>669</v>
+        <v>516</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>733</v>
+        <v>580</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>521</v>
+        <v>369</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>519</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="56" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>567</v>
+        <v>414</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>568</v>
+        <v>415</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>569</v>
+        <v>416</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>605</v>
+        <v>452</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>570</v>
+        <v>417</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>571</v>
+        <v>418</v>
       </c>
       <c r="H7" s="2">
         <v>512</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>521</v>
+        <v>369</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>521</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="70" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>572</v>
+        <v>419</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>573</v>
+        <v>420</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>569</v>
+        <v>416</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>837</v>
+        <v>682</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>574</v>
+        <v>421</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>575</v>
+        <v>422</v>
       </c>
       <c r="H8" s="2">
         <v>256</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>521</v>
+        <v>369</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>519</v>
+        <v>367</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>618</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>576</v>
+        <v>423</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>577</v>
+        <v>424</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>578</v>
+        <v>425</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>601</v>
+        <v>448</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>622</v>
+        <v>469</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>621</v>
+        <v>468</v>
       </c>
       <c r="H9" s="2">
         <v>512</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>521</v>
+        <v>369</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>519</v>
+        <v>367</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>618</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>579</v>
+        <v>426</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>580</v>
+        <v>427</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>569</v>
+        <v>416</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>581</v>
+        <v>428</v>
       </c>
       <c r="H10" s="2">
         <v>256</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>521</v>
+        <v>369</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>519</v>
+        <v>367</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>602</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="140" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>582</v>
+        <v>429</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>583</v>
+        <v>430</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>569</v>
+        <v>416</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>603</v>
+        <v>450</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>584</v>
+        <v>431</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>621</v>
+        <v>468</v>
       </c>
       <c r="H11" s="2">
         <v>512</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>521</v>
+        <v>369</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>521</v>
+        <v>369</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>618</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="98" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>585</v>
+        <v>432</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>586</v>
+        <v>433</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>578</v>
+        <v>425</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>620</v>
+        <v>467</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>587</v>
+        <v>434</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>588</v>
+        <v>435</v>
       </c>
       <c r="H12" s="2">
         <v>512</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>606</v>
+        <v>453</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>521</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="70" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>589</v>
+        <v>436</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>590</v>
+        <v>437</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>569</v>
+        <v>416</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>607</v>
+        <v>454</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>591</v>
+        <v>438</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>592</v>
+        <v>439</v>
       </c>
       <c r="H13" s="2">
         <v>128</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>606</v>
+        <v>453</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>519</v>
+        <v>367</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>618</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="29" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>593</v>
+        <v>440</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>594</v>
+        <v>441</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>671</v>
+        <v>518</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>604</v>
+        <v>451</v>
       </c>
       <c r="H14" s="2">
         <v>512</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>606</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>595</v>
+        <v>442</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>596</v>
+        <v>443</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>614</v>
+        <v>461</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>616</v>
+        <v>463</v>
       </c>
       <c r="H15" s="2">
         <v>512</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>606</v>
+        <v>453</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="29" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>597</v>
+        <v>444</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>598</v>
+        <v>445</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>562</v>
+        <v>409</v>
       </c>
       <c r="H16" s="2">
         <v>2048</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>606</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="140" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>599</v>
+        <v>446</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>672</v>
+        <v>519</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>666</v>
+        <v>513</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>613</v>
+        <v>460</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>606</v>
+        <v>453</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>738</v>
+        <v>585</v>
       </c>
       <c r="M18" s="18" t="s">
-        <v>740</v>
+        <v>587</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>741</v>
+        <v>588</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="126" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>600</v>
+        <v>447</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>701</v>
+        <v>548</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="18" t="s">
-        <v>667</v>
+        <v>514</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>613</v>
+        <v>460</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>606</v>
+        <v>453</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>739</v>
+        <v>586</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>740</v>
+        <v>587</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="196" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
-        <v>703</v>
+        <v>550</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>702</v>
+        <v>549</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="18" t="s">
-        <v>668</v>
+        <v>515</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>665</v>
+        <v>512</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>606</v>
+        <v>453</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>624</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
@@ -7727,18 +7885,18 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="25" t="s">
-        <v>625</v>
+        <v>472</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>637</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
-        <v>626</v>
+        <v>473</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>638</v>
+        <v>485</v>
       </c>
       <c r="D2" s="26">
         <v>0.03</v>
@@ -7746,10 +7904,10 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
-        <v>627</v>
+        <v>474</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>635</v>
+        <v>482</v>
       </c>
       <c r="D3" s="26">
         <v>1</v>
@@ -7757,10 +7915,10 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="25" t="s">
-        <v>636</v>
+        <v>483</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>635</v>
+        <v>482</v>
       </c>
       <c r="D4" s="26">
         <v>1</v>
@@ -7768,10 +7926,10 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
-        <v>628</v>
+        <v>475</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>634</v>
+        <v>481</v>
       </c>
       <c r="D5" s="26">
         <v>5</v>
@@ -7779,10 +7937,10 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
-        <v>629</v>
+        <v>476</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>635</v>
+        <v>482</v>
       </c>
       <c r="D6" s="26">
         <v>1</v>
@@ -7790,24 +7948,24 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
-        <v>630</v>
+        <v>477</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>639</v>
+        <v>486</v>
       </c>
       <c r="D7" s="26">
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>643</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
-        <v>631</v>
+        <v>478</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>635</v>
+        <v>482</v>
       </c>
       <c r="D8" s="26">
         <v>1</v>
@@ -7815,21 +7973,21 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
-        <v>632</v>
+        <v>479</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>640</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
-        <v>633</v>
+        <v>480</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>642</v>
+        <v>489</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>641</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -7858,22 +8016,22 @@
   <sheetData>
     <row r="2" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
-        <v>653</v>
+        <v>500</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>644</v>
+        <v>491</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>654</v>
+        <v>501</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>655</v>
+        <v>502</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>659</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28" x14ac:dyDescent="0.3">
@@ -7882,13 +8040,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>645</v>
+        <v>492</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>656</v>
+        <v>503</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>657</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="56" x14ac:dyDescent="0.3">
@@ -7897,10 +8055,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>646</v>
+        <v>493</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>658</v>
+        <v>505</v>
       </c>
       <c r="F4" s="28"/>
     </row>
@@ -7910,7 +8068,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>647</v>
+        <v>494</v>
       </c>
       <c r="E5" s="18"/>
     </row>
@@ -7920,16 +8078,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>648</v>
+        <v>495</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>649</v>
+        <v>496</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>650</v>
+        <v>497</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>651</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -7938,7 +8096,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>652</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7949,21 +8107,21 @@
     </row>
     <row r="10" spans="1:6" ht="98" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
-        <v>662</v>
+        <v>509</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="18" t="s">
-        <v>663</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A11" s="45"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>661</v>
+        <v>508</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>660</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>

--- a/参考/资料/1.18版本策划.xlsx
+++ b/参考/资料/1.18版本策划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hqyzsy\IdeaProjects\micro_machinery\参考\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D555DD5-EB62-4EB0-BAB4-A373B8ACEA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C45198-9D78-48D6-845A-EF90FE021A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增方块" sheetId="1" r:id="rId1"/>
@@ -759,7 +759,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="839">
   <si>
     <t>矿石</t>
   </si>
@@ -2009,9 +2009,6 @@
     <t>256b</t>
   </si>
   <si>
-    <t>大型飞轮储能装置</t>
-  </si>
-  <si>
     <t>flywheel</t>
   </si>
   <si>
@@ -2115,11 +2112,6 @@
   </si>
   <si>
     <t>再热锅炉</t>
-  </si>
-  <si>
-    <t>板材、杆材、线材、圆形铸件；
-1个流体输入口，1个物品输出口，2个能量接口，1个数据接口</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>2000mb每格</t>
@@ -2862,12 +2854,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>储能容量根据内部的飞轮数量和等级决定;每片基础飞轮64k，进阶飞轮128k，高级飞轮512k；
-能量输出功率上限根据容量上限决定：功率=容量*0.001；
-4个能源接口，1个数据接口</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>高速钢齿轮</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3284,12 +3270,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>浇筑开启后，钢包倾斜，流体块渲染；随后流体块结束渲染，钢包回归位置；
-玩家可以shift+右键，控制浇注机输出块、锭、杆、圆形铸件；
-1个流体输入口，1个物品输出口，2个能量接口，1数据接口</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>hydrogen</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3909,6 +3889,79 @@
   <si>
     <t>blade_tungsten_steel</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接打开</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>浇筑开启后，钢包倾斜，流体块渲染；随后流体块结束渲染，钢包回归位置；
+玩家可以shift+右键，控制浇注机输出块、锭、杆、圆形铸件；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>模板栏中显示对应的铁物品样式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1个流体输入口，1个物品输出口，2个能量接口，1数据接口</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>玩家可以shift+右键，控制连铸机输出板材、杆材、线材、圆形铸件；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>模板栏中显示对应的铁物品样式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1个流体输入口，1个物品输出口，2个能量接口，1个数据接口</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>储能容量根据内部的飞轮数量和等级决定;每片基础飞轮64k，进阶飞轮128k，高级飞轮512k；
+能量输出功率上限根据容量上限决定：功率=容量*0.001；
+4个能源接口</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>大型飞轮电池</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4276,6 +4329,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4290,16 +4353,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4616,13 +4669,13 @@
         <v>1</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>3</v>
@@ -4642,14 +4695,14 @@
         <v>7</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="31" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>8</v>
@@ -4658,10 +4711,10 @@
         <v>9</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="Q2" s="17" t="s">
         <v>10</v>
@@ -4675,7 +4728,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>13</v>
@@ -4685,10 +4738,10 @@
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="31" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>15</v>
@@ -4706,7 +4759,7 @@
         <v>19</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
@@ -4714,20 +4767,20 @@
         <v>20</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="31" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>22</v>
@@ -4745,28 +4798,28 @@
         <v>26</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="31" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="31" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>28</v>
@@ -4792,20 +4845,20 @@
         <v>34</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="31" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>36</v>
@@ -4826,14 +4879,14 @@
         <v>40</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="I7" s="11"/>
       <c r="N7" s="10" t="s">
         <v>41</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
@@ -4841,20 +4894,20 @@
         <v>42</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="31" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>44</v>
@@ -4866,7 +4919,7 @@
         <v>46</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>47</v>
@@ -4880,20 +4933,20 @@
         <v>49</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="31" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>51</v>
@@ -4905,7 +4958,7 @@
         <v>53</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="Q9" s="10" t="s">
         <v>54</v>
@@ -4919,20 +4972,20 @@
         <v>56</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="31" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>58</v>
@@ -4944,7 +4997,7 @@
         <v>60</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="Q10" s="10" t="s">
         <v>61</v>
@@ -4958,20 +5011,20 @@
         <v>63</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>64</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="31" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>65</v>
@@ -4993,7 +5046,7 @@
         <v>69</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="G12" s="11"/>
       <c r="I12" s="11"/>
@@ -5007,21 +5060,21 @@
         <v>72</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="31" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>73</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G13" s="11"/>
       <c r="I13" s="11"/>
@@ -5035,13 +5088,13 @@
         <v>76</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="Q13" s="31" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
@@ -5049,19 +5102,19 @@
         <v>77</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="N14" s="17" t="s">
         <v>78</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="Q14" s="31" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
@@ -5069,13 +5122,13 @@
         <v>79</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>80</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="G15" s="11"/>
       <c r="I15" s="11"/>
@@ -5089,13 +5142,13 @@
         <v>83</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="Q15" s="31" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
@@ -5103,13 +5156,13 @@
         <v>84</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>85</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G16" s="11"/>
       <c r="I16" s="11"/>
@@ -5120,10 +5173,10 @@
         <v>87</v>
       </c>
       <c r="Q16" s="31" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
@@ -5131,7 +5184,7 @@
         <v>88</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="G17" s="11"/>
       <c r="I17" s="11"/>
@@ -5154,13 +5207,13 @@
         <v>93</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>94</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G18" s="11"/>
       <c r="I18" s="11"/>
@@ -5182,21 +5235,21 @@
         <v>99</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>100</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="G19" s="11"/>
       <c r="I19" s="11"/>
       <c r="K19" s="31" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
@@ -5204,13 +5257,13 @@
         <v>101</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>102</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G20" s="11"/>
       <c r="I20" s="11"/>
@@ -5219,7 +5272,7 @@
         <v>104</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
@@ -5227,7 +5280,7 @@
         <v>103</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>106</v>
@@ -5239,7 +5292,7 @@
         <v>111</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
@@ -5247,7 +5300,7 @@
         <v>105</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E22" s="31"/>
       <c r="K22" s="10" t="s">
@@ -5264,7 +5317,7 @@
         <v>108</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>112</v>
@@ -5300,221 +5353,221 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="47">
+      <c r="C2" s="42">
         <v>505</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="43" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="42">
+        <v>1235</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="42">
+        <v>1356</v>
+      </c>
+      <c r="D4" s="43" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="47">
-        <v>1235</v>
-      </c>
-      <c r="D3" s="48" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="42">
+        <v>1726</v>
+      </c>
+      <c r="D5" s="43" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="47">
-        <v>1356</v>
-      </c>
-      <c r="D4" s="48" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="42">
+        <v>933</v>
+      </c>
+      <c r="D6" s="43" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="47">
-        <v>1726</v>
-      </c>
-      <c r="D5" s="48" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="42">
+        <v>1517</v>
+      </c>
+      <c r="D7" s="43" t="s">
         <v>523</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="47">
-        <v>933</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="47">
-        <v>1517</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D8" s="23"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="42">
         <v>2130</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="43" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="42">
+        <v>2163</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="42">
+        <v>1768</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="42">
+        <v>1941</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="42">
+        <v>3683</v>
+      </c>
+      <c r="D13" s="43" t="s">
         <v>528</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="47">
-        <v>2163</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="47">
-        <v>1768</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="47">
-        <v>1941</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="47">
-        <v>3683</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D14" s="23"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C15" s="42">
         <v>1170</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="43" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="42">
+        <v>1723</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="42">
+        <v>1570</v>
+      </c>
+      <c r="D17" s="43" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="47">
-        <v>1723</v>
-      </c>
-      <c r="D16" s="48" t="s">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="42">
+        <v>1893</v>
+      </c>
+      <c r="D18" s="43" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="47">
-        <v>1570</v>
-      </c>
-      <c r="D17" s="48" t="s">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="42">
+        <v>1700</v>
+      </c>
+      <c r="D19" s="43" t="s">
         <v>535</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="47">
-        <v>1893</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="47">
-        <v>1700</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D20" s="23"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="47">
+      <c r="C21" s="42">
         <v>1356</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="D21" s="43" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="42">
+        <v>1800</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="42">
+        <v>1337</v>
+      </c>
+      <c r="D23" s="43" t="s">
         <v>538</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="47">
-        <v>1800</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" s="47">
-        <v>1337</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
@@ -5525,7 +5578,7 @@
         <v>293</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
@@ -5536,7 +5589,7 @@
         <v>293</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
@@ -5547,7 +5600,7 @@
         <v>293</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
@@ -5558,62 +5611,62 @@
         <v>293</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="20" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C30" s="11">
         <v>270</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>544</v>
-      </c>
-      <c r="E30" s="41" t="s">
-        <v>511</v>
-      </c>
-      <c r="F30" s="41"/>
+        <v>542</v>
+      </c>
+      <c r="E30" s="45" t="s">
+        <v>509</v>
+      </c>
+      <c r="F30" s="45"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C31" s="11">
         <v>400</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>545</v>
-      </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
+        <v>543</v>
+      </c>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="20" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C32" s="11">
         <v>550</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>547</v>
-      </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
+        <v>545</v>
+      </c>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="20" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C33" s="11">
         <v>610</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>546</v>
-      </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
+        <v>544</v>
+      </c>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5628,7 +5681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AP28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+    <sheetView topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="AM11" sqref="AM11:AM16"/>
     </sheetView>
   </sheetViews>
@@ -5740,61 +5793,61 @@
         <v>151</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>152</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>153</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>154</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>155</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>156</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="T2" s="10" t="s">
         <v>157</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AI2" s="10" t="s">
         <v>148</v>
       </c>
       <c r="AJ2" s="11" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="AL2" s="13" t="s">
         <v>158</v>
       </c>
       <c r="AM2" s="11" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="AO2" s="13" t="s">
         <v>159</v>
       </c>
       <c r="AP2" s="11" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="3" spans="2:42" x14ac:dyDescent="0.3">
@@ -5802,79 +5855,79 @@
         <v>160</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>161</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>162</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>163</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>164</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="R3" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="T3" s="31" t="s">
         <v>577</v>
       </c>
-      <c r="T3" s="31" t="s">
-        <v>579</v>
-      </c>
       <c r="U3" s="11" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="W3" s="10" t="s">
         <v>165</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="AC3" s="13" t="s">
         <v>166</v>
       </c>
       <c r="AD3" s="11" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="AF3" s="13" t="s">
         <v>167</v>
       </c>
       <c r="AG3" s="11" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="AI3" s="10" t="s">
         <v>168</v>
       </c>
       <c r="AJ3" s="11" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="AL3" s="13" t="s">
         <v>169</v>
       </c>
       <c r="AM3" s="11" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="AO3" s="10" t="s">
         <v>170</v>
       </c>
       <c r="AP3" s="11" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="4" spans="2:42" x14ac:dyDescent="0.3">
@@ -5882,67 +5935,67 @@
         <v>171</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>172</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>173</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>174</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>175</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="W4" s="10" t="s">
         <v>176</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="AC4" s="13" t="s">
         <v>177</v>
       </c>
       <c r="AD4" s="11" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="AF4" s="13" t="s">
         <v>178</v>
       </c>
       <c r="AG4" s="11" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="AI4" s="10" t="s">
         <v>179</v>
       </c>
       <c r="AJ4" s="11" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="AL4" s="13" t="s">
         <v>180</v>
       </c>
       <c r="AM4" s="11" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AO4" s="10" t="s">
         <v>181</v>
       </c>
       <c r="AP4" s="11" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" spans="2:42" x14ac:dyDescent="0.3">
@@ -5950,13 +6003,13 @@
         <v>182</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>183</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>184</v>
@@ -5968,61 +6021,61 @@
         <v>186</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>187</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="Q5" s="10" t="s">
         <v>188</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="T5" s="10" t="s">
         <v>189</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="W5" s="10" t="s">
         <v>190</v>
       </c>
       <c r="X5" s="11" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="AC5" s="13" t="s">
         <v>191</v>
       </c>
       <c r="AD5" s="11" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="AF5" s="13" t="s">
         <v>192</v>
       </c>
       <c r="AG5" s="11" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="AI5" s="10" t="s">
         <v>193</v>
       </c>
       <c r="AJ5" s="11" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="AL5" s="20" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="AM5" s="11" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="AO5" s="10" t="s">
         <v>194</v>
       </c>
       <c r="AP5" s="11" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="6" spans="2:42" x14ac:dyDescent="0.3">
@@ -6030,37 +6083,37 @@
         <v>195</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>197</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>198</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="AI6" s="10" t="s">
         <v>199</v>
       </c>
       <c r="AJ6" s="11" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="AL6" s="16" t="s">
         <v>200</v>
       </c>
       <c r="AM6" s="11" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="7" spans="2:42" x14ac:dyDescent="0.3">
@@ -6069,13 +6122,13 @@
         <v>201</v>
       </c>
       <c r="AJ7" s="11" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AL7" s="13" t="s">
         <v>202</v>
       </c>
       <c r="AM7" s="11" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="AO7" s="15" t="s">
         <v>203</v>
@@ -6086,49 +6139,49 @@
         <v>204</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>205</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>206</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>207</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="N8" s="10" t="s">
         <v>208</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>209</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="T8" s="31" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="W8" s="10" t="s">
         <v>210</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="Z8" s="10" t="s">
         <v>211</v>
@@ -6140,31 +6193,31 @@
         <v>213</v>
       </c>
       <c r="AD8" s="11" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="AF8" s="13" t="s">
         <v>214</v>
       </c>
       <c r="AG8" s="11" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="AI8" s="10" t="s">
         <v>215</v>
       </c>
       <c r="AJ8" s="11" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="AL8" s="13" t="s">
         <v>216</v>
       </c>
       <c r="AM8" s="11" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="AO8" s="10" t="s">
         <v>217</v>
       </c>
       <c r="AP8" s="11" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="9" spans="2:42" x14ac:dyDescent="0.3">
@@ -6172,43 +6225,43 @@
         <v>218</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>219</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>220</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>221</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="N9" s="10" t="s">
         <v>222</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="AI9" s="10" t="s">
         <v>223</v>
       </c>
       <c r="AJ9" s="11" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="AO9" s="10" t="s">
         <v>224</v>
       </c>
       <c r="AP9" s="11" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="10" spans="2:42" x14ac:dyDescent="0.3">
@@ -6216,31 +6269,31 @@
         <v>225</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>226</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>227</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>228</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="AI10" s="10" t="s">
         <v>229</v>
       </c>
       <c r="AJ10" s="11" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AL10" s="15" t="s">
         <v>243</v>
@@ -6249,7 +6302,7 @@
         <v>230</v>
       </c>
       <c r="AP10" s="11" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="11" spans="2:42" x14ac:dyDescent="0.3">
@@ -6257,25 +6310,25 @@
         <v>231</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>232</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>233</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>234</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="AL11" s="10" t="s">
         <v>247</v>
@@ -6287,7 +6340,7 @@
         <v>235</v>
       </c>
       <c r="AP11" s="11" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="12" spans="2:42" x14ac:dyDescent="0.3">
@@ -6295,49 +6348,49 @@
         <v>236</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>237</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>238</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="Q12" s="10" t="s">
         <v>239</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="T12" s="31" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="W12" s="10" t="s">
         <v>240</v>
       </c>
       <c r="X12" s="11" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="AC12" s="13" t="s">
         <v>241</v>
       </c>
       <c r="AD12" s="11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="AF12" s="13" t="s">
         <v>242</v>
       </c>
       <c r="AG12" s="11" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="AI12" s="14" t="s">
         <v>251</v>
@@ -6355,27 +6408,27 @@
         <v>244</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>245</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="K13" s="21" t="s">
         <v>246</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="N13" s="21"/>
       <c r="T13" s="21"/>
       <c r="AI13" s="31" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AJ13" s="11" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="AL13" s="10" t="s">
         <v>264</v>
@@ -6392,13 +6445,13 @@
         <v>250</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="AI14" s="31" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AJ14" s="11" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="AL14" s="10" t="s">
         <v>276</v>
@@ -6418,55 +6471,55 @@
         <v>256</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>257</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>258</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="N15" s="10" t="s">
         <v>259</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="Q15" s="10" t="s">
         <v>260</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="W15" s="10" t="s">
         <v>261</v>
       </c>
       <c r="X15" s="11" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="AC15" s="13" t="s">
         <v>262</v>
       </c>
       <c r="AD15" s="11" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="AF15" s="13" t="s">
         <v>263</v>
       </c>
       <c r="AG15" s="11" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="AI15" s="31" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AJ15" s="11" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="AL15" s="10" t="s">
         <v>289</v>
@@ -6478,7 +6531,7 @@
         <v>266</v>
       </c>
       <c r="AP15" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="16" spans="2:42" x14ac:dyDescent="0.3">
@@ -6486,31 +6539,31 @@
         <v>267</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>268</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="N16" s="10" t="s">
         <v>269</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>270</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="W16" s="10" t="s">
         <v>271</v>
       </c>
       <c r="X16" s="11" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="Z16" s="10" t="s">
         <v>272</v>
@@ -6522,13 +6575,13 @@
         <v>274</v>
       </c>
       <c r="AD16" s="11" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="AF16" s="13" t="s">
         <v>275</v>
       </c>
       <c r="AG16" s="11" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="AL16" s="21" t="s">
         <v>298</v>
@@ -6548,31 +6601,31 @@
         <v>280</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>281</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="N17" s="10" t="s">
         <v>282</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="Q17" s="10" t="s">
         <v>283</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="W17" s="10" t="s">
         <v>284</v>
       </c>
       <c r="X17" s="11" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="Z17" s="10" t="s">
         <v>285</v>
@@ -6584,13 +6637,13 @@
         <v>287</v>
       </c>
       <c r="AD17" s="11" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="AF17" s="13" t="s">
         <v>288</v>
       </c>
       <c r="AG17" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="AI17" s="15" t="s">
         <v>324</v>
@@ -6607,47 +6660,47 @@
         <v>293</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>294</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>295</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="Q18" s="10" t="s">
         <v>296</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="W18" s="10" t="s">
         <v>297</v>
       </c>
       <c r="X18" s="11" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="AA18" s="11"/>
       <c r="AC18" s="31" t="s">
+        <v>578</v>
+      </c>
+      <c r="AD18" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="AF18" s="31" t="s">
+        <v>580</v>
+      </c>
+      <c r="AG18" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="AD18" s="11" t="s">
-        <v>582</v>
-      </c>
-      <c r="AF18" s="31" t="s">
-        <v>583</v>
-      </c>
-      <c r="AG18" s="11" t="s">
-        <v>584</v>
-      </c>
       <c r="AI18" s="32" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AJ18" s="11" t="s">
         <v>329</v>
@@ -6656,65 +6709,65 @@
         <v>312</v>
       </c>
       <c r="AM18" s="11" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="AO18" s="10" t="s">
         <v>300</v>
       </c>
       <c r="AP18" s="11" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="19" spans="5:42" x14ac:dyDescent="0.3">
-      <c r="E19" s="42" t="s">
-        <v>464</v>
-      </c>
-      <c r="F19" s="42"/>
+      <c r="E19" s="46" t="s">
+        <v>462</v>
+      </c>
+      <c r="F19" s="46"/>
       <c r="H19" s="10" t="s">
         <v>301</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="K19" s="21" t="s">
         <v>302</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="N19" s="21" t="s">
         <v>303</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="Q19" s="21" t="s">
         <v>304</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="W19" s="21" t="s">
         <v>305</v>
       </c>
       <c r="X19" s="11" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="AA19" s="11"/>
       <c r="AC19" s="22" t="s">
         <v>306</v>
       </c>
       <c r="AD19" s="11" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="AF19" s="22" t="s">
         <v>307</v>
       </c>
       <c r="AG19" s="11" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="AI19" s="20" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AJ19" s="11" t="s">
         <v>331</v>
@@ -6723,13 +6776,13 @@
         <v>317</v>
       </c>
       <c r="AM19" s="11" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="AO19" s="10" t="s">
         <v>308</v>
       </c>
       <c r="AP19" s="11" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="20" spans="5:42" x14ac:dyDescent="0.3">
@@ -6737,22 +6790,22 @@
         <v>309</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>310</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="N20" s="10" t="s">
         <v>311</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="AI20" s="20" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AJ20" s="11" t="s">
         <v>338</v>
@@ -6761,13 +6814,13 @@
         <v>320</v>
       </c>
       <c r="AM20" s="11" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="AO20" s="21" t="s">
         <v>313</v>
       </c>
       <c r="AP20" s="11" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="21" spans="5:42" x14ac:dyDescent="0.3">
@@ -6775,25 +6828,25 @@
         <v>314</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="K21" s="21" t="s">
         <v>315</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="N21" s="21" t="s">
         <v>316</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="AL21" s="10" t="s">
         <v>325</v>
       </c>
       <c r="AM21" s="11" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="AO21" s="10" t="s">
         <v>318</v>
@@ -6807,7 +6860,7 @@
         <v>330</v>
       </c>
       <c r="AM22" s="11" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="AO22" s="10" t="s">
         <v>321</v>
@@ -6821,13 +6874,13 @@
         <v>323</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="AL23" s="21" t="s">
         <v>332</v>
       </c>
       <c r="AM23" s="11" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="24" spans="5:42" x14ac:dyDescent="0.3">
@@ -6835,19 +6888,19 @@
         <v>326</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>327</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>328</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="26" spans="5:42" x14ac:dyDescent="0.3">
@@ -6855,31 +6908,31 @@
         <v>333</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="K26" s="10" t="s">
         <v>334</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="N26" s="10" t="s">
         <v>335</v>
       </c>
       <c r="O26" s="11" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="Q26" s="10" t="s">
         <v>336</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="T26" s="10" t="s">
         <v>337</v>
       </c>
       <c r="U26" s="11" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="27" spans="5:42" x14ac:dyDescent="0.3">
@@ -6887,50 +6940,50 @@
         <v>339</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="K27" s="10" t="s">
         <v>340</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="N27" s="10" t="s">
         <v>341</v>
       </c>
       <c r="O27" s="11" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="Q27" s="10" t="s">
         <v>342</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="T27" s="10" t="s">
         <v>343</v>
       </c>
       <c r="U27" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="W27" s="10" t="s">
         <v>344</v>
       </c>
       <c r="X27" s="11" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="AA27" s="11"/>
       <c r="AC27" s="13" t="s">
         <v>345</v>
       </c>
       <c r="AD27" s="11" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="AF27" s="13" t="s">
         <v>346</v>
       </c>
       <c r="AG27" s="11" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="28" spans="5:42" x14ac:dyDescent="0.3">
@@ -6938,43 +6991,43 @@
         <v>347</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="N28" s="10" t="s">
         <v>348</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="Q28" s="10" t="s">
         <v>349</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="T28" s="10" t="s">
         <v>350</v>
       </c>
       <c r="U28" s="11" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="W28" s="10" t="s">
         <v>351</v>
       </c>
       <c r="X28" s="11" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="AC28" s="13" t="s">
         <v>352</v>
       </c>
       <c r="AD28" s="11" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="AF28" s="13" t="s">
         <v>353</v>
       </c>
       <c r="AG28" s="11" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
   </sheetData>
@@ -7069,10 +7122,10 @@
     </row>
     <row r="3" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B3" s="38" t="s">
+        <v>590</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>593</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>596</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>364</v>
@@ -7095,10 +7148,10 @@
     </row>
     <row r="4" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B4" s="38" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>364</v>
@@ -7119,7 +7172,7 @@
         <v>369</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="56" x14ac:dyDescent="0.3">
@@ -7133,10 +7186,10 @@
         <v>372</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>373</v>
@@ -7162,7 +7215,7 @@
         <v>364</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="6" t="s">
@@ -7186,7 +7239,7 @@
         <v>377</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>378</v>
@@ -7215,10 +7268,10 @@
         <v>364</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="H9" s="6">
         <v>64</v>
@@ -7253,7 +7306,7 @@
         <v>367</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="84" x14ac:dyDescent="0.3">
@@ -7267,7 +7320,7 @@
         <v>372</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H11" s="6">
         <v>64</v>
@@ -7322,7 +7375,7 @@
         <v>394</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>395</v>
@@ -7355,9 +7408,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -7418,7 +7471,7 @@
         <v>399</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>400</v>
@@ -7430,7 +7483,7 @@
         <v>367</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>369</v>
@@ -7455,8 +7508,8 @@
       <c r="H3" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>369</v>
+      <c r="I3" s="18" t="s">
+        <v>834</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>367</v>
@@ -7476,13 +7529,13 @@
         <v>409</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>369</v>
+      <c r="I4" s="18" t="s">
+        <v>834</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>367</v>
@@ -7495,20 +7548,20 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="56" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="18" t="s">
+        <v>838</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>413</v>
-      </c>
       <c r="D5" s="18" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>580</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>369</v>
+        <v>837</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>834</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>367</v>
@@ -7516,22 +7569,22 @@
     </row>
     <row r="7" spans="2:12" ht="56" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>452</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="H7" s="2">
         <v>512</v>
@@ -7545,22 +7598,22 @@
     </row>
     <row r="8" spans="2:12" ht="70" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>835</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>682</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="H8" s="2">
         <v>256</v>
@@ -7572,27 +7625,27 @@
         <v>367</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="42" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="56" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>425</v>
-      </c>
       <c r="E9" s="19" t="s">
-        <v>448</v>
+        <v>836</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H9" s="2">
         <v>512</v>
@@ -7604,21 +7657,21 @@
         <v>367</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="H10" s="2">
         <v>256</v>
@@ -7630,27 +7683,27 @@
         <v>367</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="140" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>431</v>
-      </c>
       <c r="G11" s="18" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H11" s="2">
         <v>512</v>
@@ -7662,33 +7715,33 @@
         <v>369</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="98" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>467</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="H12" s="2">
         <v>512</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>369</v>
@@ -7696,82 +7749,82 @@
     </row>
     <row r="13" spans="2:12" ht="70" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="H13" s="2">
         <v>128</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>367</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="29" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>441</v>
-      </c>
       <c r="D14" s="18" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H14" s="2">
         <v>512</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>443</v>
-      </c>
       <c r="D15" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>461</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>463</v>
       </c>
       <c r="H15" s="2">
         <v>512</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="29" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>444</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>445</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>409</v>
@@ -7780,78 +7833,78 @@
         <v>2048</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="140" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L18" s="18" t="s">
+        <v>582</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="N18" s="18" t="s">
         <v>585</v>
-      </c>
-      <c r="M18" s="18" t="s">
-        <v>587</v>
-      </c>
-      <c r="N18" s="18" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="126" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="18" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="196" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="18" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
@@ -7885,18 +7938,18 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="25" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D2" s="26">
         <v>0.03</v>
@@ -7904,10 +7957,10 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D3" s="26">
         <v>1</v>
@@ -7915,10 +7968,10 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="25" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D4" s="26">
         <v>1</v>
@@ -7926,10 +7979,10 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D5" s="26">
         <v>5</v>
@@ -7937,10 +7990,10 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D6" s="26">
         <v>1</v>
@@ -7948,24 +8001,24 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D7" s="26">
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D8" s="26">
         <v>1</v>
@@ -7973,21 +8026,21 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -8015,88 +8068,88 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="56" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
-        <v>500</v>
+      <c r="A2" s="47" t="s">
+        <v>498</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="56" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="6">
         <v>3</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="70" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
       <c r="C6" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>495</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="F6" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>497</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>498</v>
-      </c>
     </row>
     <row r="7" spans="1:6" ht="42" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -8106,22 +8159,22 @@
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="98" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
-        <v>509</v>
+      <c r="A10" s="49" t="s">
+        <v>507</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="18" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="70" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>

--- a/参考/资料/1.18版本策划.xlsx
+++ b/参考/资料/1.18版本策划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hqyzsy\IdeaProjects\micro_machinery\参考\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C45198-9D78-48D6-845A-EF90FE021A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7B18C0-3290-46D4-977D-5B67F67FDB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增方块" sheetId="1" r:id="rId1"/>
@@ -759,7 +759,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="845">
   <si>
     <t>矿石</t>
   </si>
@@ -1973,9 +1973,6 @@
     <t>2*2*2</t>
   </si>
   <si>
-    <t>本体、煤堆</t>
-  </si>
-  <si>
     <t>工作时点火，炉顶冒烟</t>
   </si>
   <si>
@@ -2033,12 +2030,6 @@
     <t>cating_machine</t>
   </si>
   <si>
-    <t>本体、钢包、流体柱</t>
-  </si>
-  <si>
-    <t>工作时，钢包抬起22.5度（30tick），流体柱出现（配方工作时间-60tick），钢包归位（30tick）</t>
-  </si>
-  <si>
     <t>连铸机</t>
   </si>
   <si>
@@ -2057,43 +2048,10 @@
     <t>2个输入口可以支持流体、2个输入口可以支持物品；2个能量接口；1个物品输出口，1个流体输出口，1个数据接口</t>
   </si>
   <si>
-    <t>电力高炉</t>
-  </si>
-  <si>
-    <t>power_furnace</t>
-  </si>
-  <si>
-    <t>本体+2个散热风扇+物料传送带</t>
-  </si>
-  <si>
-    <t>破碎机</t>
-  </si>
-  <si>
     <t>crusher</t>
   </si>
   <si>
-    <t>本体、转轴</t>
-  </si>
-  <si>
-    <t>工作时转轴旋转，渲染被加工物品的破碎粒子</t>
-  </si>
-  <si>
-    <t>浓密机</t>
-  </si>
-  <si>
     <t>thickener</t>
-  </si>
-  <si>
-    <t>本体、耙架</t>
-  </si>
-  <si>
-    <t>工作时，每tick耙架旋转2度</t>
-  </si>
-  <si>
-    <t>单晶炉</t>
-  </si>
-  <si>
-    <t>crystal_growing_furnace</t>
   </si>
   <si>
     <t>数控机床</t>
@@ -2201,18 +2159,9 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>4*3*3</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>手持物品右键窑炉，放入物品和燃料，手持火把shift+右键煤堆点火，直到烧完所有燃料，方可取出物品；
 可用燃料：木炭、煤炭（200tick）；
 丢入物品为工具，则提供回火附魔，增加基础耐久10%</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>同时可以运行两条配方；
-2个物品输入口，2个物品输出口，2个能源接口，1个数据接口；</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
@@ -2606,10 +2555,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>2*3*2</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>steam_boiler</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -3892,36 +3837,6 @@
   </si>
   <si>
     <t>直接打开</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>浇筑开启后，钢包倾斜，流体块渲染；随后流体块结束渲染，钢包回归位置；
-玩家可以shift+右键，控制浇注机输出块、锭、杆、圆形铸件；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>模板栏中显示对应的铁物品样式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1个流体输入口，1个物品输出口，2个能量接口，1数据接口</t>
-    </r>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
@@ -3962,6 +3877,128 @@
   <si>
     <t>大型飞轮电池</t>
     <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>颚式破碎机</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>锥型浓密机</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动车床</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>电弧炉</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>eaf</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>单晶炉</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>monocrystal_furnace</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*3*3</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>6*3*3</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*3*3</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*3*3</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*3*2</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*5*2</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>本体+石墨棒</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>本体、钢包、流体柱、砂模</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>浇筑开启后，钢包倾斜，流体块渲染；随后流体块结束渲染，钢包回归位置，砂模移动；
+玩家可以shift+右键，控制浇注机输出块、锭、杆、圆形铸件；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>模板栏中显示对应的铁物品样式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1个流体输入口，1个物品输出口，2个能量接口，1数据接口</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>本体、煤堆、火焰</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作时，砂模移动20tick到达指定位置停住，钢包抬起22.5度（30tick），流体柱出现（配方工作时间-100tick），钢包归位（30tick）的同时，新砂模移动20tick到边缘</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作时，石墨棒换一个新的，烟口冒烟</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作时轮子旋转，颚板反复移动，渲染被加工物品的破碎粒子</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>本体、颚板、皮带轮（大、小）</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>本体、圆形配件</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆形配件工作时旋转</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*1*2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4632,36 +4669,36 @@
   <dimension ref="B1:R26"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.58203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.4140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="2.58203125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="10.4140625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="20.25" style="10" customWidth="1"/>
-    <col min="7" max="7" width="2.58203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="2.5703125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="20.2109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" style="10" customWidth="1"/>
     <col min="8" max="8" width="8.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.58203125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.08203125" style="10" customWidth="1"/>
-    <col min="13" max="13" width="2.58203125" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="10" customWidth="1"/>
-    <col min="15" max="15" width="23.1640625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="2.58203125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" style="10" customWidth="1"/>
-    <col min="18" max="18" width="15.33203125" style="10" customWidth="1"/>
-    <col min="19" max="19" width="2.58203125" style="10" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" style="10"/>
-    <col min="21" max="21" width="17.25" style="10" customWidth="1"/>
-    <col min="22" max="16384" width="8.6640625" style="10"/>
+    <col min="9" max="9" width="19.2109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.5703125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="12.35546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.0703125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="2.5703125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.35546875" style="10" customWidth="1"/>
+    <col min="15" max="15" width="23.140625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="2.5703125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="12.35546875" style="10" customWidth="1"/>
+    <col min="18" max="18" width="15.35546875" style="10" customWidth="1"/>
+    <col min="19" max="19" width="2.5703125" style="10" customWidth="1"/>
+    <col min="20" max="20" width="8.640625" style="10"/>
+    <col min="21" max="21" width="17.2109375" style="10" customWidth="1"/>
+    <col min="22" max="16384" width="8.640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" s="9" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4669,13 +4706,13 @@
         <v>1</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>3</v>
@@ -4684,7 +4721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
@@ -4695,14 +4732,14 @@
         <v>7</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="31" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>605</v>
+        <v>588</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>8</v>
@@ -4711,10 +4748,10 @@
         <v>9</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>646</v>
+        <v>629</v>
       </c>
       <c r="Q2" s="17" t="s">
         <v>10</v>
@@ -4723,12 +4760,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>13</v>
@@ -4738,10 +4775,10 @@
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="31" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>15</v>
@@ -4759,28 +4796,28 @@
         <v>19</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="31" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>22</v>
@@ -4798,28 +4835,28 @@
         <v>26</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B5" s="31" t="s">
-        <v>634</v>
+        <v>617</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>635</v>
+        <v>618</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="31" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>28</v>
@@ -4840,25 +4877,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B6" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="31" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>609</v>
+        <v>592</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>36</v>
@@ -4874,40 +4911,40 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="I7" s="11"/>
       <c r="N7" s="10" t="s">
         <v>41</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>689</v>
+        <v>672</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="31" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>610</v>
+        <v>593</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>44</v>
@@ -4919,7 +4956,7 @@
         <v>46</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>47</v>
@@ -4928,25 +4965,25 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="31" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>611</v>
+        <v>594</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>51</v>
@@ -4958,7 +4995,7 @@
         <v>53</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="Q9" s="10" t="s">
         <v>54</v>
@@ -4967,25 +5004,25 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B10" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="31" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>612</v>
+        <v>595</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>58</v>
@@ -4997,7 +5034,7 @@
         <v>60</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="Q10" s="10" t="s">
         <v>61</v>
@@ -5006,25 +5043,25 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B11" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>64</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="31" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>613</v>
+        <v>596</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>65</v>
@@ -5041,12 +5078,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
       <c r="E12" s="10" t="s">
         <v>69</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="G12" s="11"/>
       <c r="I12" s="11"/>
@@ -5060,21 +5097,21 @@
         <v>72</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B13" s="31" t="s">
-        <v>668</v>
+        <v>651</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>636</v>
+        <v>619</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>73</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="G13" s="11"/>
       <c r="I13" s="11"/>
@@ -5088,47 +5125,47 @@
         <v>76</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="Q13" s="31" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="s">
         <v>77</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="N14" s="17" t="s">
         <v>78</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>648</v>
+        <v>631</v>
       </c>
       <c r="Q14" s="31" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>80</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="G15" s="11"/>
       <c r="I15" s="11"/>
@@ -5142,27 +5179,27 @@
         <v>83</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>649</v>
+        <v>632</v>
       </c>
       <c r="Q15" s="31" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B16" s="17" t="s">
         <v>84</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>85</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="G16" s="11"/>
       <c r="I16" s="11"/>
@@ -5173,18 +5210,18 @@
         <v>87</v>
       </c>
       <c r="Q16" s="31" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="E17" s="10" t="s">
         <v>88</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="G17" s="11"/>
       <c r="I17" s="11"/>
@@ -5202,18 +5239,18 @@
       </c>
       <c r="R17" s="11"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>664</v>
+        <v>647</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>94</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="G18" s="11"/>
       <c r="I18" s="11"/>
@@ -5230,40 +5267,40 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>100</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="G19" s="11"/>
       <c r="I19" s="11"/>
       <c r="K19" s="31" t="s">
-        <v>616</v>
+        <v>599</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>666</v>
+        <v>649</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>102</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="G20" s="11"/>
       <c r="I20" s="11"/>
@@ -5272,15 +5309,15 @@
         <v>104</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>106</v>
@@ -5292,15 +5329,15 @@
         <v>111</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" s="10" t="s">
         <v>105</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="E22" s="31"/>
       <c r="K22" s="10" t="s">
@@ -5312,12 +5349,12 @@
       <c r="N22" s="13"/>
       <c r="O22" s="11"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B23" s="10" t="s">
         <v>108</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>112</v>
@@ -5326,7 +5363,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
       <c r="N26" s="16"/>
       <c r="O26" s="11"/>
     </row>
@@ -5341,18 +5378,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="11"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.35546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="8.640625" style="11"/>
+    <col min="4" max="4" width="17.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" s="44" t="s">
         <v>114</v>
       </c>
@@ -5360,10 +5397,10 @@
         <v>505</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="44" t="s">
         <v>115</v>
       </c>
@@ -5371,10 +5408,10 @@
         <v>1235</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="44" t="s">
         <v>116</v>
       </c>
@@ -5382,10 +5419,10 @@
         <v>1356</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="44" t="s">
         <v>117</v>
       </c>
@@ -5393,10 +5430,10 @@
         <v>1726</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="44" t="s">
         <v>118</v>
       </c>
@@ -5404,10 +5441,10 @@
         <v>933</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="44" t="s">
         <v>119</v>
       </c>
@@ -5415,13 +5452,13 @@
         <v>1517</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D8" s="23"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="44" t="s">
         <v>120</v>
       </c>
@@ -5429,10 +5466,10 @@
         <v>2130</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="44" t="s">
         <v>121</v>
       </c>
@@ -5440,10 +5477,10 @@
         <v>2163</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="44" t="s">
         <v>122</v>
       </c>
@@ -5451,10 +5488,10 @@
         <v>1768</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="44" t="s">
         <v>123</v>
       </c>
@@ -5462,10 +5499,10 @@
         <v>1941</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="44" t="s">
         <v>124</v>
       </c>
@@ -5473,13 +5510,13 @@
         <v>3683</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D14" s="23"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="44" t="s">
         <v>125</v>
       </c>
@@ -5487,10 +5524,10 @@
         <v>1170</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="44" t="s">
         <v>126</v>
       </c>
@@ -5498,10 +5535,10 @@
         <v>1723</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="44" t="s">
         <v>127</v>
       </c>
@@ -5509,10 +5546,10 @@
         <v>1570</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="44" t="s">
         <v>128</v>
       </c>
@@ -5520,10 +5557,10 @@
         <v>1893</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="44" t="s">
         <v>129</v>
       </c>
@@ -5531,13 +5568,13 @@
         <v>1700</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D20" s="23"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="44" t="s">
         <v>130</v>
       </c>
@@ -5545,10 +5582,10 @@
         <v>1356</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="44" t="s">
         <v>131</v>
       </c>
@@ -5556,10 +5593,10 @@
         <v>1800</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="41" t="s">
         <v>132</v>
       </c>
@@ -5567,10 +5604,10 @@
         <v>1337</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="13" t="s">
         <v>133</v>
       </c>
@@ -5578,10 +5615,10 @@
         <v>293</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="13" t="s">
         <v>134</v>
       </c>
@@ -5589,10 +5626,10 @@
         <v>293</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="13" t="s">
         <v>135</v>
       </c>
@@ -5600,10 +5637,10 @@
         <v>293</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="13" t="s">
         <v>136</v>
       </c>
@@ -5611,59 +5648,59 @@
         <v>293</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="20" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C30" s="11">
         <v>270</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="F30" s="45"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="20" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="C31" s="11">
         <v>400</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="E31" s="45"/>
       <c r="F31" s="45"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="20" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="C32" s="11">
         <v>550</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="E32" s="45"/>
       <c r="F32" s="45"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="20" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="C33" s="11">
         <v>610</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="E33" s="45"/>
       <c r="F33" s="45"/>
@@ -5685,55 +5722,55 @@
       <selection activeCell="AM11" sqref="AM11:AM16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.58203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="2.58203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="6.640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.35546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="2.5703125" style="10" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="10" customWidth="1"/>
-    <col min="6" max="6" width="26.08203125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="2.58203125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="19.25" style="11" customWidth="1"/>
-    <col min="10" max="10" width="2.58203125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="10.4140625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="20.25" style="11" customWidth="1"/>
-    <col min="13" max="13" width="2.58203125" style="10" customWidth="1"/>
-    <col min="14" max="14" width="10.4140625" style="10" customWidth="1"/>
-    <col min="15" max="15" width="20.25" style="11" customWidth="1"/>
-    <col min="16" max="16" width="2.58203125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" style="10"/>
-    <col min="18" max="18" width="20.25" style="11" customWidth="1"/>
-    <col min="19" max="19" width="2.58203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="26.0703125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="12.35546875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="19.2109375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="2.5703125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="20.2109375" style="11" customWidth="1"/>
+    <col min="13" max="13" width="2.5703125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="20.2109375" style="11" customWidth="1"/>
+    <col min="16" max="16" width="2.5703125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="8.640625" style="10"/>
+    <col min="18" max="18" width="20.2109375" style="11" customWidth="1"/>
+    <col min="19" max="19" width="2.5703125" style="10" customWidth="1"/>
     <col min="20" max="20" width="6" style="10" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="11" customWidth="1"/>
-    <col min="22" max="22" width="2.58203125" style="10" customWidth="1"/>
-    <col min="23" max="23" width="14.33203125" style="10" customWidth="1"/>
-    <col min="24" max="24" width="29.08203125" style="11" customWidth="1"/>
-    <col min="25" max="25" width="2.58203125" style="10" customWidth="1"/>
+    <col min="21" max="21" width="15.35546875" style="11" customWidth="1"/>
+    <col min="22" max="22" width="2.5703125" style="10" customWidth="1"/>
+    <col min="23" max="23" width="14.35546875" style="10" customWidth="1"/>
+    <col min="24" max="24" width="29.0703125" style="11" customWidth="1"/>
+    <col min="25" max="25" width="2.5703125" style="10" customWidth="1"/>
     <col min="26" max="26" width="8.5" style="10" customWidth="1"/>
-    <col min="27" max="27" width="10.4140625" style="10" customWidth="1"/>
-    <col min="28" max="28" width="2.58203125" style="10" customWidth="1"/>
-    <col min="29" max="29" width="10.4140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.25" style="11" customWidth="1"/>
-    <col min="31" max="31" width="2.58203125" style="10" customWidth="1"/>
-    <col min="32" max="32" width="12.33203125" style="10" customWidth="1"/>
-    <col min="33" max="33" width="25.1640625" style="11" customWidth="1"/>
-    <col min="34" max="34" width="2.58203125" style="10" customWidth="1"/>
-    <col min="35" max="35" width="12.33203125" style="10" customWidth="1"/>
-    <col min="36" max="36" width="21.1640625" style="11" customWidth="1"/>
-    <col min="37" max="37" width="2.58203125" style="10" customWidth="1"/>
-    <col min="38" max="38" width="12.33203125" style="10" customWidth="1"/>
-    <col min="39" max="39" width="23.1640625" style="11" customWidth="1"/>
-    <col min="40" max="40" width="2.58203125" style="10" customWidth="1"/>
-    <col min="41" max="41" width="14.33203125" style="10" customWidth="1"/>
-    <col min="42" max="42" width="20.25" style="11" customWidth="1"/>
-    <col min="43" max="43" width="2.58203125" style="10" customWidth="1"/>
-    <col min="44" max="16384" width="8.6640625" style="10"/>
+    <col min="27" max="27" width="10.42578125" style="10" customWidth="1"/>
+    <col min="28" max="28" width="2.5703125" style="10" customWidth="1"/>
+    <col min="29" max="29" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.2109375" style="11" customWidth="1"/>
+    <col min="31" max="31" width="2.5703125" style="10" customWidth="1"/>
+    <col min="32" max="32" width="12.35546875" style="10" customWidth="1"/>
+    <col min="33" max="33" width="25.140625" style="11" customWidth="1"/>
+    <col min="34" max="34" width="2.5703125" style="10" customWidth="1"/>
+    <col min="35" max="35" width="12.35546875" style="10" customWidth="1"/>
+    <col min="36" max="36" width="21.140625" style="11" customWidth="1"/>
+    <col min="37" max="37" width="2.5703125" style="10" customWidth="1"/>
+    <col min="38" max="38" width="12.35546875" style="10" customWidth="1"/>
+    <col min="39" max="39" width="23.140625" style="11" customWidth="1"/>
+    <col min="40" max="40" width="2.5703125" style="10" customWidth="1"/>
+    <col min="41" max="41" width="14.35546875" style="10" customWidth="1"/>
+    <col min="42" max="42" width="20.2109375" style="11" customWidth="1"/>
+    <col min="43" max="43" width="2.5703125" style="10" customWidth="1"/>
+    <col min="44" max="16384" width="8.640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:42" s="9" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:42" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="9" t="s">
         <v>137</v>
       </c>
@@ -5788,228 +5825,228 @@
       </c>
       <c r="AP1" s="12"/>
     </row>
-    <row r="2" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>151</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>661</v>
+        <v>644</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>152</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>639</v>
+        <v>622</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>153</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>740</v>
+        <v>723</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>154</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>760</v>
+        <v>743</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>155</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>782</v>
+        <v>765</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>156</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>806</v>
+        <v>789</v>
       </c>
       <c r="T2" s="10" t="s">
         <v>157</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="AI2" s="10" t="s">
         <v>148</v>
       </c>
       <c r="AJ2" s="11" t="s">
-        <v>799</v>
+        <v>782</v>
       </c>
       <c r="AL2" s="13" t="s">
         <v>158</v>
       </c>
       <c r="AM2" s="11" t="s">
-        <v>818</v>
+        <v>801</v>
       </c>
       <c r="AO2" s="13" t="s">
         <v>159</v>
       </c>
       <c r="AP2" s="11" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="3" spans="2:42" x14ac:dyDescent="0.3">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="3" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
         <v>160</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>660</v>
+        <v>643</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>161</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>638</v>
+        <v>621</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>162</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>741</v>
+        <v>724</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>163</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>761</v>
+        <v>744</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>164</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>783</v>
+        <v>766</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="T3" s="31" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="W3" s="10" t="s">
         <v>165</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="AC3" s="13" t="s">
         <v>166</v>
       </c>
       <c r="AD3" s="11" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="AF3" s="13" t="s">
         <v>167</v>
       </c>
       <c r="AG3" s="11" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="AI3" s="10" t="s">
         <v>168</v>
       </c>
       <c r="AJ3" s="11" t="s">
-        <v>800</v>
+        <v>783</v>
       </c>
       <c r="AL3" s="13" t="s">
         <v>169</v>
       </c>
       <c r="AM3" s="11" t="s">
-        <v>819</v>
+        <v>802</v>
       </c>
       <c r="AO3" s="10" t="s">
         <v>170</v>
       </c>
       <c r="AP3" s="11" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="4" spans="2:42" x14ac:dyDescent="0.3">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="4" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>171</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>172</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>173</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>742</v>
+        <v>725</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>174</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>762</v>
+        <v>745</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>175</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>784</v>
+        <v>767</v>
       </c>
       <c r="W4" s="10" t="s">
         <v>176</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="AC4" s="13" t="s">
         <v>177</v>
       </c>
       <c r="AD4" s="11" t="s">
-        <v>730</v>
+        <v>713</v>
       </c>
       <c r="AF4" s="13" t="s">
         <v>178</v>
       </c>
       <c r="AG4" s="11" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
       <c r="AI4" s="10" t="s">
         <v>179</v>
       </c>
       <c r="AJ4" s="11" t="s">
-        <v>801</v>
+        <v>784</v>
       </c>
       <c r="AL4" s="13" t="s">
         <v>180</v>
       </c>
       <c r="AM4" s="11" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="AO4" s="10" t="s">
         <v>181</v>
       </c>
       <c r="AP4" s="11" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="5" spans="2:42" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="5" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
         <v>182</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>654</v>
+        <v>637</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>183</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>637</v>
+        <v>620</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>184</v>
@@ -6021,167 +6058,167 @@
         <v>186</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>763</v>
+        <v>746</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>187</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="Q5" s="10" t="s">
         <v>188</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>807</v>
+        <v>790</v>
       </c>
       <c r="T5" s="10" t="s">
         <v>189</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="W5" s="10" t="s">
         <v>190</v>
       </c>
       <c r="X5" s="11" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="AC5" s="13" t="s">
         <v>191</v>
       </c>
       <c r="AD5" s="11" t="s">
-        <v>731</v>
+        <v>714</v>
       </c>
       <c r="AF5" s="13" t="s">
         <v>192</v>
       </c>
       <c r="AG5" s="11" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="AI5" s="10" t="s">
         <v>193</v>
       </c>
       <c r="AJ5" s="11" t="s">
-        <v>802</v>
+        <v>785</v>
       </c>
       <c r="AL5" s="20" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="AM5" s="11" t="s">
-        <v>820</v>
+        <v>803</v>
       </c>
       <c r="AO5" s="10" t="s">
         <v>194</v>
       </c>
       <c r="AP5" s="11" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="6" spans="2:42" x14ac:dyDescent="0.3">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="6" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B6" s="10" t="s">
         <v>195</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>197</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>198</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
       <c r="AI6" s="10" t="s">
         <v>199</v>
       </c>
       <c r="AJ6" s="11" t="s">
-        <v>803</v>
+        <v>786</v>
       </c>
       <c r="AL6" s="16" t="s">
         <v>200</v>
       </c>
       <c r="AM6" s="11" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="7" spans="2:42" x14ac:dyDescent="0.3">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="7" spans="2:42" x14ac:dyDescent="0.35">
       <c r="C7" s="11"/>
       <c r="AI7" s="10" t="s">
         <v>201</v>
       </c>
       <c r="AJ7" s="11" t="s">
-        <v>626</v>
+        <v>609</v>
       </c>
       <c r="AL7" s="13" t="s">
         <v>202</v>
       </c>
       <c r="AM7" s="11" t="s">
-        <v>822</v>
+        <v>805</v>
       </c>
       <c r="AO7" s="15" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
         <v>204</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>655</v>
+        <v>638</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>205</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>206</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>743</v>
+        <v>726</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>207</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>765</v>
+        <v>748</v>
       </c>
       <c r="N8" s="10" t="s">
         <v>208</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>209</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>808</v>
+        <v>791</v>
       </c>
       <c r="T8" s="31" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="W8" s="10" t="s">
         <v>210</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="Z8" s="10" t="s">
         <v>211</v>
@@ -6193,107 +6230,107 @@
         <v>213</v>
       </c>
       <c r="AD8" s="11" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
       <c r="AF8" s="13" t="s">
         <v>214</v>
       </c>
       <c r="AG8" s="11" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="AI8" s="10" t="s">
         <v>215</v>
       </c>
       <c r="AJ8" s="11" t="s">
-        <v>804</v>
+        <v>787</v>
       </c>
       <c r="AL8" s="13" t="s">
         <v>216</v>
       </c>
       <c r="AM8" s="11" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="AO8" s="10" t="s">
         <v>217</v>
       </c>
       <c r="AP8" s="11" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="9" spans="2:42" x14ac:dyDescent="0.3">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="9" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
         <v>218</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>659</v>
+        <v>642</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>219</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>631</v>
+        <v>614</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>220</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>221</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="N9" s="10" t="s">
         <v>222</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>787</v>
+        <v>770</v>
       </c>
       <c r="AI9" s="10" t="s">
         <v>223</v>
       </c>
       <c r="AJ9" s="11" t="s">
-        <v>805</v>
+        <v>788</v>
       </c>
       <c r="AO9" s="10" t="s">
         <v>224</v>
       </c>
       <c r="AP9" s="11" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="10" spans="2:42" x14ac:dyDescent="0.3">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="10" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B10" s="10" t="s">
         <v>225</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>226</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>630</v>
+        <v>613</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>227</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>228</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>767</v>
+        <v>750</v>
       </c>
       <c r="AI10" s="10" t="s">
         <v>229</v>
       </c>
       <c r="AJ10" s="11" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="AL10" s="15" t="s">
         <v>243</v>
@@ -6302,33 +6339,33 @@
         <v>230</v>
       </c>
       <c r="AP10" s="11" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="11" spans="2:42" x14ac:dyDescent="0.3">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="11" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B11" s="10" t="s">
         <v>231</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>662</v>
+        <v>645</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>232</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>640</v>
+        <v>623</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>233</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>234</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>768</v>
+        <v>751</v>
       </c>
       <c r="AL11" s="10" t="s">
         <v>247</v>
@@ -6340,57 +6377,57 @@
         <v>235</v>
       </c>
       <c r="AP11" s="11" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="12" spans="2:42" x14ac:dyDescent="0.3">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="12" spans="2:42" x14ac:dyDescent="0.35">
       <c r="H12" s="10" t="s">
         <v>236</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>744</v>
+        <v>727</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>237</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>238</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>788</v>
+        <v>771</v>
       </c>
       <c r="Q12" s="10" t="s">
         <v>239</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>809</v>
+        <v>792</v>
       </c>
       <c r="T12" s="31" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="W12" s="10" t="s">
         <v>240</v>
       </c>
       <c r="X12" s="11" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="AC12" s="13" t="s">
         <v>241</v>
       </c>
       <c r="AD12" s="11" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="AF12" s="13" t="s">
         <v>242</v>
       </c>
       <c r="AG12" s="11" t="s">
-        <v>722</v>
+        <v>705</v>
       </c>
       <c r="AI12" s="14" t="s">
         <v>251</v>
@@ -6403,32 +6440,32 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:42" x14ac:dyDescent="0.35">
       <c r="E13" s="10" t="s">
         <v>244</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>629</v>
+        <v>612</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>245</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>745</v>
+        <v>728</v>
       </c>
       <c r="K13" s="21" t="s">
         <v>246</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>770</v>
+        <v>753</v>
       </c>
       <c r="N13" s="21"/>
       <c r="T13" s="21"/>
       <c r="AI13" s="31" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="AJ13" s="11" t="s">
-        <v>823</v>
+        <v>806</v>
       </c>
       <c r="AL13" s="10" t="s">
         <v>264</v>
@@ -6440,18 +6477,18 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:42" x14ac:dyDescent="0.35">
       <c r="E14" s="10" t="s">
         <v>250</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="AI14" s="31" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="AJ14" s="11" t="s">
-        <v>824</v>
+        <v>807</v>
       </c>
       <c r="AL14" s="10" t="s">
         <v>276</v>
@@ -6466,60 +6503,60 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:42" x14ac:dyDescent="0.35">
       <c r="E15" s="10" t="s">
         <v>256</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>627</v>
+        <v>610</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>257</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>258</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>771</v>
+        <v>754</v>
       </c>
       <c r="N15" s="10" t="s">
         <v>259</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>789</v>
+        <v>772</v>
       </c>
       <c r="Q15" s="10" t="s">
         <v>260</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>810</v>
+        <v>793</v>
       </c>
       <c r="W15" s="10" t="s">
         <v>261</v>
       </c>
       <c r="X15" s="11" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="AC15" s="13" t="s">
         <v>262</v>
       </c>
       <c r="AD15" s="11" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="AF15" s="13" t="s">
         <v>263</v>
       </c>
       <c r="AG15" s="11" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="AI15" s="31" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="AJ15" s="11" t="s">
-        <v>825</v>
+        <v>808</v>
       </c>
       <c r="AL15" s="10" t="s">
         <v>289</v>
@@ -6531,39 +6568,39 @@
         <v>266</v>
       </c>
       <c r="AP15" s="11" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="16" spans="2:42" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="16" spans="2:42" x14ac:dyDescent="0.35">
       <c r="H16" s="10" t="s">
         <v>267</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>747</v>
+        <v>730</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>268</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>772</v>
+        <v>755</v>
       </c>
       <c r="N16" s="10" t="s">
         <v>269</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>790</v>
+        <v>773</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>270</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>811</v>
+        <v>794</v>
       </c>
       <c r="W16" s="10" t="s">
         <v>271</v>
       </c>
       <c r="X16" s="11" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="Z16" s="10" t="s">
         <v>272</v>
@@ -6575,13 +6612,13 @@
         <v>274</v>
       </c>
       <c r="AD16" s="11" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="AF16" s="13" t="s">
         <v>275</v>
       </c>
       <c r="AG16" s="11" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="AL16" s="21" t="s">
         <v>298</v>
@@ -6596,36 +6633,36 @@
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="5:42" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:42" x14ac:dyDescent="0.35">
       <c r="H17" s="10" t="s">
         <v>280</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>748</v>
+        <v>731</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>281</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>773</v>
+        <v>756</v>
       </c>
       <c r="N17" s="10" t="s">
         <v>282</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>791</v>
+        <v>774</v>
       </c>
       <c r="Q17" s="10" t="s">
         <v>283</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>812</v>
+        <v>795</v>
       </c>
       <c r="W17" s="10" t="s">
         <v>284</v>
       </c>
       <c r="X17" s="11" t="s">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="Z17" s="10" t="s">
         <v>285</v>
@@ -6637,13 +6674,13 @@
         <v>287</v>
       </c>
       <c r="AD17" s="11" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
       <c r="AF17" s="13" t="s">
         <v>288</v>
       </c>
       <c r="AG17" s="11" t="s">
-        <v>725</v>
+        <v>708</v>
       </c>
       <c r="AI17" s="15" t="s">
         <v>324</v>
@@ -6655,52 +6692,52 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="5:42" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:42" x14ac:dyDescent="0.35">
       <c r="H18" s="10" t="s">
         <v>293</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>294</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>774</v>
+        <v>757</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>295</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="Q18" s="10" t="s">
         <v>296</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>813</v>
+        <v>796</v>
       </c>
       <c r="W18" s="10" t="s">
         <v>297</v>
       </c>
       <c r="X18" s="11" t="s">
-        <v>714</v>
+        <v>697</v>
       </c>
       <c r="AA18" s="11"/>
       <c r="AC18" s="31" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="AD18" s="11" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="AF18" s="31" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="AG18" s="11" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="AI18" s="32" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="AJ18" s="11" t="s">
         <v>329</v>
@@ -6709,65 +6746,65 @@
         <v>312</v>
       </c>
       <c r="AM18" s="11" t="s">
-        <v>828</v>
+        <v>811</v>
       </c>
       <c r="AO18" s="10" t="s">
         <v>300</v>
       </c>
       <c r="AP18" s="11" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="19" spans="5:42" x14ac:dyDescent="0.3">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="19" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E19" s="46" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="F19" s="46"/>
       <c r="H19" s="10" t="s">
         <v>301</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="K19" s="21" t="s">
         <v>302</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>775</v>
+        <v>758</v>
       </c>
       <c r="N19" s="21" t="s">
         <v>303</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
       <c r="Q19" s="21" t="s">
         <v>304</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>814</v>
+        <v>797</v>
       </c>
       <c r="W19" s="21" t="s">
         <v>305</v>
       </c>
       <c r="X19" s="11" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="AA19" s="11"/>
       <c r="AC19" s="22" t="s">
         <v>306</v>
       </c>
       <c r="AD19" s="11" t="s">
-        <v>737</v>
+        <v>720</v>
       </c>
       <c r="AF19" s="22" t="s">
         <v>307</v>
       </c>
       <c r="AG19" s="11" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="AI19" s="20" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="AJ19" s="11" t="s">
         <v>331</v>
@@ -6776,36 +6813,36 @@
         <v>317</v>
       </c>
       <c r="AM19" s="11" t="s">
-        <v>829</v>
+        <v>812</v>
       </c>
       <c r="AO19" s="10" t="s">
         <v>308</v>
       </c>
       <c r="AP19" s="11" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="20" spans="5:42" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="20" spans="5:42" x14ac:dyDescent="0.35">
       <c r="H20" s="10" t="s">
         <v>309</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>310</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>776</v>
+        <v>759</v>
       </c>
       <c r="N20" s="10" t="s">
         <v>311</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
       <c r="AI20" s="20" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="AJ20" s="11" t="s">
         <v>338</v>
@@ -6814,39 +6851,39 @@
         <v>320</v>
       </c>
       <c r="AM20" s="11" t="s">
-        <v>830</v>
+        <v>813</v>
       </c>
       <c r="AO20" s="21" t="s">
         <v>313</v>
       </c>
       <c r="AP20" s="11" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="21" spans="5:42" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="21" spans="5:42" x14ac:dyDescent="0.35">
       <c r="H21" s="10" t="s">
         <v>314</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
       <c r="K21" s="21" t="s">
         <v>315</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>777</v>
+        <v>760</v>
       </c>
       <c r="N21" s="21" t="s">
         <v>316</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="AL21" s="10" t="s">
         <v>325</v>
       </c>
       <c r="AM21" s="11" t="s">
-        <v>831</v>
+        <v>814</v>
       </c>
       <c r="AO21" s="10" t="s">
         <v>318</v>
@@ -6855,12 +6892,12 @@
         <v>319</v>
       </c>
     </row>
-    <row r="22" spans="5:42" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:42" x14ac:dyDescent="0.35">
       <c r="AL22" s="10" t="s">
         <v>330</v>
       </c>
       <c r="AM22" s="11" t="s">
-        <v>832</v>
+        <v>815</v>
       </c>
       <c r="AO22" s="10" t="s">
         <v>321</v>
@@ -6869,165 +6906,165 @@
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="5:42" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:42" x14ac:dyDescent="0.35">
       <c r="H23" s="10" t="s">
         <v>323</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>751</v>
+        <v>734</v>
       </c>
       <c r="AL23" s="21" t="s">
         <v>332</v>
       </c>
       <c r="AM23" s="11" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="24" spans="5:42" x14ac:dyDescent="0.3">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="24" spans="5:42" x14ac:dyDescent="0.35">
       <c r="H24" s="10" t="s">
         <v>326</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>327</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>778</v>
+        <v>761</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>328</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="26" spans="5:42" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="26" spans="5:42" x14ac:dyDescent="0.35">
       <c r="H26" s="10" t="s">
         <v>333</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>753</v>
+        <v>736</v>
       </c>
       <c r="K26" s="10" t="s">
         <v>334</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>779</v>
+        <v>762</v>
       </c>
       <c r="N26" s="10" t="s">
         <v>335</v>
       </c>
       <c r="O26" s="11" t="s">
-        <v>796</v>
+        <v>779</v>
       </c>
       <c r="Q26" s="10" t="s">
         <v>336</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="T26" s="10" t="s">
         <v>337</v>
       </c>
       <c r="U26" s="11" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="27" spans="5:42" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="27" spans="5:42" x14ac:dyDescent="0.35">
       <c r="H27" s="10" t="s">
         <v>339</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>754</v>
+        <v>737</v>
       </c>
       <c r="K27" s="10" t="s">
         <v>340</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>780</v>
+        <v>763</v>
       </c>
       <c r="N27" s="10" t="s">
         <v>341</v>
       </c>
       <c r="O27" s="11" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
       <c r="Q27" s="10" t="s">
         <v>342</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="T27" s="10" t="s">
         <v>343</v>
       </c>
       <c r="U27" s="11" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="W27" s="10" t="s">
         <v>344</v>
       </c>
       <c r="X27" s="11" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="AA27" s="11"/>
       <c r="AC27" s="13" t="s">
         <v>345</v>
       </c>
       <c r="AD27" s="11" t="s">
-        <v>738</v>
+        <v>721</v>
       </c>
       <c r="AF27" s="13" t="s">
         <v>346</v>
       </c>
       <c r="AG27" s="11" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="28" spans="5:42" x14ac:dyDescent="0.3">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="28" spans="5:42" x14ac:dyDescent="0.35">
       <c r="H28" s="10" t="s">
         <v>347</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>755</v>
+        <v>738</v>
       </c>
       <c r="N28" s="10" t="s">
         <v>348</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>798</v>
+        <v>781</v>
       </c>
       <c r="Q28" s="10" t="s">
         <v>349</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>817</v>
+        <v>800</v>
       </c>
       <c r="T28" s="10" t="s">
         <v>350</v>
       </c>
       <c r="U28" s="11" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="W28" s="10" t="s">
         <v>351</v>
       </c>
       <c r="X28" s="11" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="AC28" s="13" t="s">
         <v>352</v>
       </c>
       <c r="AD28" s="11" t="s">
-        <v>739</v>
+        <v>722</v>
       </c>
       <c r="AF28" s="13" t="s">
         <v>353</v>
       </c>
       <c r="AG28" s="11" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -7045,26 +7082,26 @@
   <dimension ref="B1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E10" sqref="E10:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="6"/>
-    <col min="2" max="2" width="9.75" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="35" customWidth="1"/>
+    <col min="1" max="1" width="8.640625" style="6"/>
+    <col min="2" max="2" width="9.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="35" customWidth="1"/>
     <col min="4" max="4" width="6" style="6" customWidth="1"/>
-    <col min="5" max="5" width="45.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="19.83203125" customWidth="1"/>
+    <col min="5" max="5" width="45.640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.35546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
     <col min="8" max="9" width="6" style="6" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="6"/>
-    <col min="12" max="12" width="13.08203125" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="8.6640625" style="6"/>
+    <col min="10" max="10" width="3.640625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="8.640625" style="6"/>
+    <col min="12" max="12" width="13.0703125" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="8.640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="1" customFormat="1" ht="35" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>354</v>
       </c>
@@ -7094,7 +7131,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B2" s="34" t="s">
         <v>362</v>
       </c>
@@ -7120,12 +7157,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B3" s="38" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>364</v>
@@ -7146,12 +7183,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B4" s="38" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>364</v>
@@ -7172,10 +7209,10 @@
         <v>369</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="56" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="56.6" x14ac:dyDescent="0.35">
       <c r="B6" s="34" t="s">
         <v>370</v>
       </c>
@@ -7186,10 +7223,10 @@
         <v>372</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>373</v>
@@ -7204,7 +7241,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>374</v>
       </c>
@@ -7215,7 +7252,7 @@
         <v>364</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="6" t="s">
@@ -7231,7 +7268,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>376</v>
       </c>
@@ -7239,7 +7276,7 @@
         <v>377</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>378</v>
@@ -7257,7 +7294,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>380</v>
       </c>
@@ -7268,10 +7305,10 @@
         <v>364</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>614</v>
+        <v>597</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="H9" s="6">
         <v>64</v>
@@ -7283,15 +7320,15 @@
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
         <v>382</v>
       </c>
       <c r="C10" s="35" t="s">
         <v>383</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>364</v>
+      <c r="D10" s="24" t="s">
+        <v>844</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>384</v>
@@ -7306,10 +7343,10 @@
         <v>367</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="84" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="99" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
         <v>385</v>
       </c>
@@ -7320,7 +7357,7 @@
         <v>372</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="H11" s="6">
         <v>64</v>
@@ -7335,7 +7372,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="42.45" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>387</v>
       </c>
@@ -7364,7 +7401,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>392</v>
       </c>
@@ -7375,7 +7412,7 @@
         <v>394</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>395</v>
@@ -7393,7 +7430,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" s="24"/>
       <c r="I15" s="24"/>
     </row>
@@ -7408,29 +7445,29 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.640625" style="2"/>
     <col min="5" max="5" width="49" style="2" customWidth="1"/>
     <col min="6" max="6" width="15" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="2" customWidth="1"/>
-    <col min="8" max="10" width="6.33203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.4140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="21.75" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.6640625" style="2"/>
+    <col min="7" max="7" width="19.2109375" style="2" customWidth="1"/>
+    <col min="8" max="10" width="6.35546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.35546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>354</v>
       </c>
@@ -7460,7 +7497,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="56.6" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>397</v>
       </c>
@@ -7471,120 +7508,120 @@
         <v>399</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>460</v>
-      </c>
-      <c r="F2" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>367</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>369</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" ht="42" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>403</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>404</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>399</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>367</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>834</v>
+        <v>817</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>367</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" ht="28" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>409</v>
-      </c>
       <c r="E4" s="19" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>367</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>834</v>
+        <v>817</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>367</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="L4" s="2" t="s">
+    </row>
+    <row r="5" spans="2:12" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="B5" s="18" t="s">
+        <v>820</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" ht="56" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
-        <v>838</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>412</v>
-      </c>
       <c r="D5" s="18" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>837</v>
+        <v>819</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>834</v>
+        <v>817</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="56.6" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="H7" s="2">
         <v>512</v>
@@ -7596,24 +7633,24 @@
         <v>369</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="70" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="113.15" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>415</v>
+      <c r="D8" s="18" t="s">
+        <v>828</v>
       </c>
       <c r="E8" s="19" t="s">
+        <v>836</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>835</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>421</v>
+      <c r="G8" s="18" t="s">
+        <v>838</v>
       </c>
       <c r="H8" s="2">
         <v>256</v>
@@ -7625,27 +7662,27 @@
         <v>367</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="56" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="56.6" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>836</v>
+        <v>818</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="H9" s="2">
         <v>512</v>
@@ -7657,21 +7694,21 @@
         <v>367</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H10" s="2">
         <v>256</v>
@@ -7683,27 +7720,27 @@
         <v>367</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="140" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>428</v>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="155.6" x14ac:dyDescent="0.35">
+      <c r="B11" s="18" t="s">
+        <v>824</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>429</v>
+        <v>825</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>834</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>466</v>
+        <v>839</v>
       </c>
       <c r="H11" s="2">
         <v>512</v>
@@ -7715,199 +7752,208 @@
         <v>369</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="98" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>431</v>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="99" x14ac:dyDescent="0.35">
+      <c r="B12" s="18" t="s">
+        <v>821</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>831</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>434</v>
+        <v>449</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>841</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>840</v>
       </c>
       <c r="H12" s="2">
         <v>512</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="70" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>435</v>
+    <row r="13" spans="2:12" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="B13" s="18" t="s">
+        <v>822</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="G13" s="7" t="s">
         <v>438</v>
       </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="2">
         <v>128</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>367</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="29" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>439</v>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="29.15" x14ac:dyDescent="0.35">
+      <c r="B14" s="18" t="s">
+        <v>826</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>440</v>
+        <v>827</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>516</v>
+        <v>833</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>449</v>
+        <v>435</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>842</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>843</v>
       </c>
       <c r="H14" s="2">
         <v>512</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="42" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>459</v>
+        <v>832</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>461</v>
+        <v>823</v>
       </c>
       <c r="H15" s="2">
         <v>512</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="29" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="29.15" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>409</v>
+        <v>430</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>831</v>
       </c>
       <c r="H16" s="2">
         <v>2048</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="140" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="141.44999999999999" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>517</v>
+        <v>500</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>830</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="M18" s="18" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" ht="126" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="127.3" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="D19" s="7"/>
+        <v>529</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>830</v>
+      </c>
       <c r="E19" s="18" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" ht="196" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="198" x14ac:dyDescent="0.35">
       <c r="B20" s="18" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="D20" s="7"/>
+        <v>530</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>829</v>
+      </c>
       <c r="E20" s="18" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B22" s="8"/>
       <c r="D22" s="5"/>
     </row>
@@ -7926,121 +7972,121 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="26"/>
-    <col min="2" max="2" width="14.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.35546875" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="26"/>
     <col min="4" max="4" width="15.5" style="26" customWidth="1"/>
-    <col min="5" max="5" width="22.75" style="26" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="26" customWidth="1"/>
     <col min="6" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B1" s="25" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="25" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="D2" s="26">
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="25" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="D3" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="25" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="D4" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="25" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="D5" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="25" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="D6" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="25" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="D7" s="26">
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="25" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="D8" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" s="25" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" s="25" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -8057,124 +8103,124 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="29"/>
-    <col min="2" max="2" width="8.6640625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" style="29" customWidth="1"/>
-    <col min="4" max="5" width="23.9140625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="21.08203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="8.640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="29" customWidth="1"/>
+    <col min="4" max="5" width="23.92578125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="21.0703125" style="29" customWidth="1"/>
     <col min="7" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="56.6" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A3" s="48"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="56.6" x14ac:dyDescent="0.35">
       <c r="A4" s="48"/>
       <c r="B4" s="6">
         <v>3</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="F4" s="28"/>
     </row>
-    <row r="5" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A5" s="48"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="1:6" ht="70" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="70.75" x14ac:dyDescent="0.35">
       <c r="A6" s="48"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A7" s="48"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="98" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="99" x14ac:dyDescent="0.35">
       <c r="A10" s="49" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="18" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="70" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="70.75" x14ac:dyDescent="0.35">
       <c r="A11" s="49"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>

--- a/参考/资料/1.18版本策划.xlsx
+++ b/参考/资料/1.18版本策划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hqyzsy\IdeaProjects\micro_machinery\参考\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7B18C0-3290-46D4-977D-5B67F67FDB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7B091C-34E2-4906-ADCD-56C064ED8C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1106" yWindow="1106" windowWidth="24685" windowHeight="13148" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增方块" sheetId="1" r:id="rId1"/>
@@ -2018,12 +2018,6 @@
     <t>3*3*3</t>
   </si>
   <si>
-    <t>本体、锤头</t>
-  </si>
-  <si>
-    <t>工作时渲染输入物品，锤头下压，锤头升级时，输入物品替换为产物</t>
-  </si>
-  <si>
     <t>浇注机</t>
   </si>
   <si>
@@ -3999,6 +3993,14 @@
   <si>
     <t>2*1*2</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>本体、forge（锤头）、move（传送带）</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作时渲染输入物品，随传送带移动，锤头下压，输入物品替换为产物，随后锤头回归</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4669,7 +4671,7 @@
   <dimension ref="B1:R26"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -4706,13 +4708,13 @@
         <v>1</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>3</v>
@@ -4732,14 +4734,14 @@
         <v>7</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="31" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>8</v>
@@ -4748,10 +4750,10 @@
         <v>9</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="Q2" s="17" t="s">
         <v>10</v>
@@ -4765,7 +4767,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>13</v>
@@ -4775,10 +4777,10 @@
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="31" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>15</v>
@@ -4796,7 +4798,7 @@
         <v>19</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.35">
@@ -4804,20 +4806,20 @@
         <v>20</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>22</v>
@@ -4835,28 +4837,28 @@
         <v>26</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B5" s="31" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="31" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>28</v>
@@ -4882,20 +4884,20 @@
         <v>34</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="31" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>36</v>
@@ -4916,14 +4918,14 @@
         <v>40</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="I7" s="11"/>
       <c r="N7" s="10" t="s">
         <v>41</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.35">
@@ -4931,20 +4933,20 @@
         <v>42</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="31" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>44</v>
@@ -4956,7 +4958,7 @@
         <v>46</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>47</v>
@@ -4970,20 +4972,20 @@
         <v>49</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="31" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>51</v>
@@ -4995,7 +4997,7 @@
         <v>53</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="Q9" s="10" t="s">
         <v>54</v>
@@ -5009,20 +5011,20 @@
         <v>56</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="31" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>58</v>
@@ -5034,7 +5036,7 @@
         <v>60</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="Q10" s="10" t="s">
         <v>61</v>
@@ -5048,20 +5050,20 @@
         <v>63</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>64</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="31" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>65</v>
@@ -5083,7 +5085,7 @@
         <v>69</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G12" s="11"/>
       <c r="I12" s="11"/>
@@ -5097,21 +5099,21 @@
         <v>72</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B13" s="31" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>73</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G13" s="11"/>
       <c r="I13" s="11"/>
@@ -5125,13 +5127,13 @@
         <v>76</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="Q13" s="31" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.35">
@@ -5139,19 +5141,19 @@
         <v>77</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N14" s="17" t="s">
         <v>78</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="Q14" s="31" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.35">
@@ -5159,13 +5161,13 @@
         <v>79</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>80</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G15" s="11"/>
       <c r="I15" s="11"/>
@@ -5179,13 +5181,13 @@
         <v>83</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="Q15" s="31" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.35">
@@ -5193,13 +5195,13 @@
         <v>84</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>85</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G16" s="11"/>
       <c r="I16" s="11"/>
@@ -5210,10 +5212,10 @@
         <v>87</v>
       </c>
       <c r="Q16" s="31" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.35">
@@ -5221,7 +5223,7 @@
         <v>88</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G17" s="11"/>
       <c r="I17" s="11"/>
@@ -5244,13 +5246,13 @@
         <v>93</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>94</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="G18" s="11"/>
       <c r="I18" s="11"/>
@@ -5272,21 +5274,21 @@
         <v>99</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>100</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G19" s="11"/>
       <c r="I19" s="11"/>
       <c r="K19" s="31" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.35">
@@ -5294,13 +5296,13 @@
         <v>101</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>102</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G20" s="11"/>
       <c r="I20" s="11"/>
@@ -5309,7 +5311,7 @@
         <v>104</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.35">
@@ -5317,7 +5319,7 @@
         <v>103</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>106</v>
@@ -5329,7 +5331,7 @@
         <v>111</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.35">
@@ -5337,7 +5339,7 @@
         <v>105</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E22" s="31"/>
       <c r="K22" s="10" t="s">
@@ -5354,7 +5356,7 @@
         <v>108</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>112</v>
@@ -5378,7 +5380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -5397,7 +5399,7 @@
         <v>505</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
@@ -5408,7 +5410,7 @@
         <v>1235</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
@@ -5419,7 +5421,7 @@
         <v>1356</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
@@ -5430,7 +5432,7 @@
         <v>1726</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
@@ -5441,7 +5443,7 @@
         <v>933</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
@@ -5452,7 +5454,7 @@
         <v>1517</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
@@ -5466,7 +5468,7 @@
         <v>2130</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
@@ -5477,7 +5479,7 @@
         <v>2163</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
@@ -5488,7 +5490,7 @@
         <v>1768</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
@@ -5499,7 +5501,7 @@
         <v>1941</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
@@ -5510,7 +5512,7 @@
         <v>3683</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
@@ -5524,7 +5526,7 @@
         <v>1170</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
@@ -5535,7 +5537,7 @@
         <v>1723</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
@@ -5546,7 +5548,7 @@
         <v>1570</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
@@ -5557,7 +5559,7 @@
         <v>1893</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
@@ -5568,7 +5570,7 @@
         <v>1700</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
@@ -5582,7 +5584,7 @@
         <v>1356</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
@@ -5593,7 +5595,7 @@
         <v>1800</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
@@ -5604,7 +5606,7 @@
         <v>1337</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
@@ -5615,7 +5617,7 @@
         <v>293</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
@@ -5626,7 +5628,7 @@
         <v>293</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
@@ -5637,7 +5639,7 @@
         <v>293</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
@@ -5648,59 +5650,59 @@
         <v>293</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="20" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C30" s="11">
         <v>270</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F30" s="45"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="20" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C31" s="11">
         <v>400</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E31" s="45"/>
       <c r="F31" s="45"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="20" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C32" s="11">
         <v>550</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E32" s="45"/>
       <c r="F32" s="45"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="20" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C33" s="11">
         <v>610</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E33" s="45"/>
       <c r="F33" s="45"/>
@@ -5830,61 +5832,61 @@
         <v>151</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>152</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>153</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>154</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>155</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>156</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="T2" s="10" t="s">
         <v>157</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AI2" s="10" t="s">
         <v>148</v>
       </c>
       <c r="AJ2" s="11" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="AL2" s="13" t="s">
         <v>158</v>
       </c>
       <c r="AM2" s="11" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="AO2" s="13" t="s">
         <v>159</v>
       </c>
       <c r="AP2" s="11" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="3" spans="2:42" x14ac:dyDescent="0.35">
@@ -5892,79 +5894,79 @@
         <v>160</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>161</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>162</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>163</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>164</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="R3" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="T3" s="31" t="s">
         <v>558</v>
       </c>
-      <c r="T3" s="31" t="s">
-        <v>560</v>
-      </c>
       <c r="U3" s="11" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="W3" s="10" t="s">
         <v>165</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="AC3" s="13" t="s">
         <v>166</v>
       </c>
       <c r="AD3" s="11" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AF3" s="13" t="s">
         <v>167</v>
       </c>
       <c r="AG3" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AI3" s="10" t="s">
         <v>168</v>
       </c>
       <c r="AJ3" s="11" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="AL3" s="13" t="s">
         <v>169</v>
       </c>
       <c r="AM3" s="11" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="AO3" s="10" t="s">
         <v>170</v>
       </c>
       <c r="AP3" s="11" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="4" spans="2:42" x14ac:dyDescent="0.35">
@@ -5972,67 +5974,67 @@
         <v>171</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>172</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>173</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>174</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>175</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="W4" s="10" t="s">
         <v>176</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AC4" s="13" t="s">
         <v>177</v>
       </c>
       <c r="AD4" s="11" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="AF4" s="13" t="s">
         <v>178</v>
       </c>
       <c r="AG4" s="11" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AI4" s="10" t="s">
         <v>179</v>
       </c>
       <c r="AJ4" s="11" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="AL4" s="13" t="s">
         <v>180</v>
       </c>
       <c r="AM4" s="11" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AO4" s="10" t="s">
         <v>181</v>
       </c>
       <c r="AP4" s="11" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="2:42" x14ac:dyDescent="0.35">
@@ -6040,13 +6042,13 @@
         <v>182</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>183</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>184</v>
@@ -6058,61 +6060,61 @@
         <v>186</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>187</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="Q5" s="10" t="s">
         <v>188</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="T5" s="10" t="s">
         <v>189</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="W5" s="10" t="s">
         <v>190</v>
       </c>
       <c r="X5" s="11" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AC5" s="13" t="s">
         <v>191</v>
       </c>
       <c r="AD5" s="11" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="AF5" s="13" t="s">
         <v>192</v>
       </c>
       <c r="AG5" s="11" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="AI5" s="10" t="s">
         <v>193</v>
       </c>
       <c r="AJ5" s="11" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="AL5" s="20" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AM5" s="11" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AO5" s="10" t="s">
         <v>194</v>
       </c>
       <c r="AP5" s="11" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="6" spans="2:42" x14ac:dyDescent="0.35">
@@ -6120,37 +6122,37 @@
         <v>195</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>197</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>198</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="AI6" s="10" t="s">
         <v>199</v>
       </c>
       <c r="AJ6" s="11" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="AL6" s="16" t="s">
         <v>200</v>
       </c>
       <c r="AM6" s="11" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="7" spans="2:42" x14ac:dyDescent="0.35">
@@ -6159,13 +6161,13 @@
         <v>201</v>
       </c>
       <c r="AJ7" s="11" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AL7" s="13" t="s">
         <v>202</v>
       </c>
       <c r="AM7" s="11" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="AO7" s="15" t="s">
         <v>203</v>
@@ -6176,49 +6178,49 @@
         <v>204</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>205</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>206</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>207</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="N8" s="10" t="s">
         <v>208</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>209</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="T8" s="31" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="W8" s="10" t="s">
         <v>210</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="Z8" s="10" t="s">
         <v>211</v>
@@ -6230,31 +6232,31 @@
         <v>213</v>
       </c>
       <c r="AD8" s="11" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AF8" s="13" t="s">
         <v>214</v>
       </c>
       <c r="AG8" s="11" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AI8" s="10" t="s">
         <v>215</v>
       </c>
       <c r="AJ8" s="11" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="AL8" s="13" t="s">
         <v>216</v>
       </c>
       <c r="AM8" s="11" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AO8" s="10" t="s">
         <v>217</v>
       </c>
       <c r="AP8" s="11" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="9" spans="2:42" x14ac:dyDescent="0.35">
@@ -6262,43 +6264,43 @@
         <v>218</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>219</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>220</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>221</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="N9" s="10" t="s">
         <v>222</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="AI9" s="10" t="s">
         <v>223</v>
       </c>
       <c r="AJ9" s="11" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="AO9" s="10" t="s">
         <v>224</v>
       </c>
       <c r="AP9" s="11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="10" spans="2:42" x14ac:dyDescent="0.35">
@@ -6306,31 +6308,31 @@
         <v>225</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>226</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>227</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>228</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="AI10" s="10" t="s">
         <v>229</v>
       </c>
       <c r="AJ10" s="11" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AL10" s="15" t="s">
         <v>243</v>
@@ -6339,7 +6341,7 @@
         <v>230</v>
       </c>
       <c r="AP10" s="11" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="11" spans="2:42" x14ac:dyDescent="0.35">
@@ -6347,25 +6349,25 @@
         <v>231</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>232</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>233</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>234</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="AL11" s="10" t="s">
         <v>247</v>
@@ -6377,7 +6379,7 @@
         <v>235</v>
       </c>
       <c r="AP11" s="11" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="12" spans="2:42" x14ac:dyDescent="0.35">
@@ -6385,49 +6387,49 @@
         <v>236</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>237</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>238</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="Q12" s="10" t="s">
         <v>239</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="T12" s="31" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="W12" s="10" t="s">
         <v>240</v>
       </c>
       <c r="X12" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AC12" s="13" t="s">
         <v>241</v>
       </c>
       <c r="AD12" s="11" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="AF12" s="13" t="s">
         <v>242</v>
       </c>
       <c r="AG12" s="11" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AI12" s="14" t="s">
         <v>251</v>
@@ -6445,27 +6447,27 @@
         <v>244</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>245</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="K13" s="21" t="s">
         <v>246</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="N13" s="21"/>
       <c r="T13" s="21"/>
       <c r="AI13" s="31" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AJ13" s="11" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="AL13" s="10" t="s">
         <v>264</v>
@@ -6482,13 +6484,13 @@
         <v>250</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AI14" s="31" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AJ14" s="11" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="AL14" s="10" t="s">
         <v>276</v>
@@ -6508,55 +6510,55 @@
         <v>256</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>257</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>258</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="N15" s="10" t="s">
         <v>259</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="Q15" s="10" t="s">
         <v>260</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="W15" s="10" t="s">
         <v>261</v>
       </c>
       <c r="X15" s="11" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AC15" s="13" t="s">
         <v>262</v>
       </c>
       <c r="AD15" s="11" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="AF15" s="13" t="s">
         <v>263</v>
       </c>
       <c r="AG15" s="11" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="AI15" s="31" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AJ15" s="11" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="AL15" s="10" t="s">
         <v>289</v>
@@ -6568,7 +6570,7 @@
         <v>266</v>
       </c>
       <c r="AP15" s="11" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="16" spans="2:42" x14ac:dyDescent="0.35">
@@ -6576,31 +6578,31 @@
         <v>267</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>268</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="N16" s="10" t="s">
         <v>269</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>270</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="W16" s="10" t="s">
         <v>271</v>
       </c>
       <c r="X16" s="11" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="Z16" s="10" t="s">
         <v>272</v>
@@ -6612,13 +6614,13 @@
         <v>274</v>
       </c>
       <c r="AD16" s="11" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AF16" s="13" t="s">
         <v>275</v>
       </c>
       <c r="AG16" s="11" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="AL16" s="21" t="s">
         <v>298</v>
@@ -6638,31 +6640,31 @@
         <v>280</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>281</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="N17" s="10" t="s">
         <v>282</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="Q17" s="10" t="s">
         <v>283</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="W17" s="10" t="s">
         <v>284</v>
       </c>
       <c r="X17" s="11" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="Z17" s="10" t="s">
         <v>285</v>
@@ -6674,13 +6676,13 @@
         <v>287</v>
       </c>
       <c r="AD17" s="11" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AF17" s="13" t="s">
         <v>288</v>
       </c>
       <c r="AG17" s="11" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AI17" s="15" t="s">
         <v>324</v>
@@ -6697,47 +6699,47 @@
         <v>293</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>294</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>295</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="Q18" s="10" t="s">
         <v>296</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="W18" s="10" t="s">
         <v>297</v>
       </c>
       <c r="X18" s="11" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="AA18" s="11"/>
       <c r="AC18" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="AD18" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="AF18" s="31" t="s">
         <v>561</v>
       </c>
-      <c r="AD18" s="11" t="s">
+      <c r="AG18" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="AF18" s="31" t="s">
-        <v>563</v>
-      </c>
-      <c r="AG18" s="11" t="s">
-        <v>564</v>
-      </c>
       <c r="AI18" s="32" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AJ18" s="11" t="s">
         <v>329</v>
@@ -6746,65 +6748,65 @@
         <v>312</v>
       </c>
       <c r="AM18" s="11" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="AO18" s="10" t="s">
         <v>300</v>
       </c>
       <c r="AP18" s="11" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="19" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E19" s="46" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F19" s="46"/>
       <c r="H19" s="10" t="s">
         <v>301</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="K19" s="21" t="s">
         <v>302</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="N19" s="21" t="s">
         <v>303</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="Q19" s="21" t="s">
         <v>304</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="W19" s="21" t="s">
         <v>305</v>
       </c>
       <c r="X19" s="11" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="AA19" s="11"/>
       <c r="AC19" s="22" t="s">
         <v>306</v>
       </c>
       <c r="AD19" s="11" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AF19" s="22" t="s">
         <v>307</v>
       </c>
       <c r="AG19" s="11" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AI19" s="20" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AJ19" s="11" t="s">
         <v>331</v>
@@ -6813,13 +6815,13 @@
         <v>317</v>
       </c>
       <c r="AM19" s="11" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="AO19" s="10" t="s">
         <v>308</v>
       </c>
       <c r="AP19" s="11" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="20" spans="5:42" x14ac:dyDescent="0.35">
@@ -6827,22 +6829,22 @@
         <v>309</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>310</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="N20" s="10" t="s">
         <v>311</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="AI20" s="20" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AJ20" s="11" t="s">
         <v>338</v>
@@ -6851,13 +6853,13 @@
         <v>320</v>
       </c>
       <c r="AM20" s="11" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="AO20" s="21" t="s">
         <v>313</v>
       </c>
       <c r="AP20" s="11" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="21" spans="5:42" x14ac:dyDescent="0.35">
@@ -6865,25 +6867,25 @@
         <v>314</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K21" s="21" t="s">
         <v>315</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="N21" s="21" t="s">
         <v>316</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AL21" s="10" t="s">
         <v>325</v>
       </c>
       <c r="AM21" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="AO21" s="10" t="s">
         <v>318</v>
@@ -6897,7 +6899,7 @@
         <v>330</v>
       </c>
       <c r="AM22" s="11" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AO22" s="10" t="s">
         <v>321</v>
@@ -6911,13 +6913,13 @@
         <v>323</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="AL23" s="21" t="s">
         <v>332</v>
       </c>
       <c r="AM23" s="11" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="24" spans="5:42" x14ac:dyDescent="0.35">
@@ -6925,19 +6927,19 @@
         <v>326</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>327</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>328</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="26" spans="5:42" x14ac:dyDescent="0.35">
@@ -6945,31 +6947,31 @@
         <v>333</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="K26" s="10" t="s">
         <v>334</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="N26" s="10" t="s">
         <v>335</v>
       </c>
       <c r="O26" s="11" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="Q26" s="10" t="s">
         <v>336</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="T26" s="10" t="s">
         <v>337</v>
       </c>
       <c r="U26" s="11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="27" spans="5:42" x14ac:dyDescent="0.35">
@@ -6977,50 +6979,50 @@
         <v>339</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="K27" s="10" t="s">
         <v>340</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="N27" s="10" t="s">
         <v>341</v>
       </c>
       <c r="O27" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="Q27" s="10" t="s">
         <v>342</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="T27" s="10" t="s">
         <v>343</v>
       </c>
       <c r="U27" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="W27" s="10" t="s">
         <v>344</v>
       </c>
       <c r="X27" s="11" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AA27" s="11"/>
       <c r="AC27" s="13" t="s">
         <v>345</v>
       </c>
       <c r="AD27" s="11" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="AF27" s="13" t="s">
         <v>346</v>
       </c>
       <c r="AG27" s="11" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="28" spans="5:42" x14ac:dyDescent="0.35">
@@ -7028,43 +7030,43 @@
         <v>347</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="N28" s="10" t="s">
         <v>348</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="Q28" s="10" t="s">
         <v>349</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="T28" s="10" t="s">
         <v>350</v>
       </c>
       <c r="U28" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="W28" s="10" t="s">
         <v>351</v>
       </c>
       <c r="X28" s="11" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AC28" s="13" t="s">
         <v>352</v>
       </c>
       <c r="AD28" s="11" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AF28" s="13" t="s">
         <v>353</v>
       </c>
       <c r="AG28" s="11" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -7159,10 +7161,10 @@
     </row>
     <row r="3" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B3" s="38" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>364</v>
@@ -7185,10 +7187,10 @@
     </row>
     <row r="4" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B4" s="38" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>364</v>
@@ -7209,7 +7211,7 @@
         <v>369</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="56.6" x14ac:dyDescent="0.35">
@@ -7223,10 +7225,10 @@
         <v>372</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>373</v>
@@ -7252,7 +7254,7 @@
         <v>364</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="6" t="s">
@@ -7276,7 +7278,7 @@
         <v>377</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>378</v>
@@ -7305,10 +7307,10 @@
         <v>364</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H9" s="6">
         <v>64</v>
@@ -7328,7 +7330,7 @@
         <v>383</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>384</v>
@@ -7343,7 +7345,7 @@
         <v>367</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="99" x14ac:dyDescent="0.35">
@@ -7357,7 +7359,7 @@
         <v>372</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H11" s="6">
         <v>64</v>
@@ -7412,7 +7414,7 @@
         <v>394</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>395</v>
@@ -7445,9 +7447,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.6" x14ac:dyDescent="0.35"/>
@@ -7508,10 +7510,10 @@
         <v>399</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>400</v>
@@ -7520,7 +7522,7 @@
         <v>367</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>369</v>
@@ -7546,7 +7548,7 @@
         <v>367</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>367</v>
@@ -7566,13 +7568,13 @@
         <v>408</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>367</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>367</v>
@@ -7586,19 +7588,19 @@
     </row>
     <row r="5" spans="2:12" ht="56.6" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>411</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>367</v>
@@ -7615,13 +7617,13 @@
         <v>414</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>416</v>
+        <v>434</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>843</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>844</v>
       </c>
       <c r="H7" s="2">
         <v>512</v>
@@ -7635,22 +7637,22 @@
     </row>
     <row r="8" spans="2:12" ht="113.15" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E8" s="19" t="s">
+        <v>834</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>833</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>836</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>835</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>838</v>
       </c>
       <c r="H8" s="2">
         <v>256</v>
@@ -7662,27 +7664,27 @@
         <v>367</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="56.6" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>421</v>
-      </c>
       <c r="E9" s="19" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H9" s="2">
         <v>512</v>
@@ -7694,21 +7696,21 @@
         <v>367</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>414</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H10" s="2">
         <v>256</v>
@@ -7720,27 +7722,27 @@
         <v>367</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="155.6" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>414</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="H11" s="2">
         <v>512</v>
@@ -7752,33 +7754,33 @@
         <v>369</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="99" x14ac:dyDescent="0.35">
       <c r="B12" s="18" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="H12" s="2">
         <v>512</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>369</v>
@@ -7786,16 +7788,16 @@
     </row>
     <row r="13" spans="2:12" ht="70.75" x14ac:dyDescent="0.35">
       <c r="B13" s="18" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>414</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="7"/>
@@ -7803,154 +7805,154 @@
         <v>128</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>367</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="29.15" x14ac:dyDescent="0.35">
       <c r="B14" s="18" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="H14" s="2">
         <v>512</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="H15" s="2">
         <v>512</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="29.15" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="H16" s="2">
         <v>2048</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="141.44999999999999" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="L18" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="M18" s="18" t="s">
         <v>565</v>
       </c>
-      <c r="M18" s="18" t="s">
-        <v>567</v>
-      </c>
       <c r="N18" s="18" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="127.3" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="198" x14ac:dyDescent="0.35">
       <c r="B20" s="18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.35">
@@ -7984,18 +7986,18 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B1" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="25" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D2" s="26">
         <v>0.03</v>
@@ -8003,10 +8005,10 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D3" s="26">
         <v>1</v>
@@ -8014,10 +8016,10 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="25" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D4" s="26">
         <v>1</v>
@@ -8025,10 +8027,10 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="25" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D5" s="26">
         <v>5</v>
@@ -8036,10 +8038,10 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="25" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D6" s="26">
         <v>1</v>
@@ -8047,24 +8049,24 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="25" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D7" s="26">
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="25" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D8" s="26">
         <v>1</v>
@@ -8072,21 +8074,21 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" s="25" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" s="25" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -8115,22 +8117,22 @@
   <sheetData>
     <row r="2" spans="1:6" ht="56.6" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
@@ -8139,13 +8141,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="56.6" x14ac:dyDescent="0.35">
@@ -8154,10 +8156,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F4" s="28"/>
     </row>
@@ -8167,7 +8169,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E5" s="18"/>
     </row>
@@ -8177,16 +8179,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>476</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>477</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="F6" s="24" t="s">
         <v>478</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>479</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
@@ -8195,7 +8197,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -8206,21 +8208,21 @@
     </row>
     <row r="10" spans="1:6" ht="99" x14ac:dyDescent="0.35">
       <c r="A10" s="49" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="18" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="70.75" x14ac:dyDescent="0.35">
       <c r="A11" s="49"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
